--- a/market_report_2025-08-24.xlsx
+++ b/market_report_2025-08-24.xlsx
@@ -196,87 +196,87 @@
     <t>Source</t>
   </si>
   <si>
+    <t>ACN</t>
+  </si>
+  <si>
+    <t>AOS</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>AFL</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>ABBV</t>
   </si>
   <si>
     <t>AES</t>
   </si>
   <si>
+    <t>ADBE</t>
+  </si>
+  <si>
     <t>MMM</t>
   </si>
   <si>
-    <t>AOS</t>
-  </si>
-  <si>
-    <t>AFL</t>
-  </si>
-  <si>
-    <t>ABT</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>AMD</t>
   </si>
   <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>ACN</t>
+    <t>IONQ</t>
   </si>
   <si>
     <t>SPXC</t>
   </si>
   <si>
-    <t>IONQ</t>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>NXT</t>
+  </si>
+  <si>
+    <t>CRDO</t>
+  </si>
+  <si>
+    <t>GTLS</t>
+  </si>
+  <si>
+    <t>ENSG</t>
   </si>
   <si>
     <t>FN</t>
   </si>
   <si>
-    <t>CRDO</t>
-  </si>
-  <si>
-    <t>BE</t>
+    <t>UMBF</t>
   </si>
   <si>
     <t>KTOS</t>
   </si>
   <si>
-    <t>NXT</t>
-  </si>
-  <si>
-    <t>GTLS</t>
-  </si>
-  <si>
-    <t>ENSG</t>
-  </si>
-  <si>
-    <t>UMBF</t>
+    <t>AACIW</t>
   </si>
   <si>
     <t>AACBR</t>
   </si>
   <si>
+    <t>AACB</t>
+  </si>
+  <si>
+    <t>AACI</t>
+  </si>
+  <si>
+    <t>AAME</t>
+  </si>
+  <si>
+    <t>AACIU</t>
+  </si>
+  <si>
     <t>AACBU</t>
   </si>
   <si>
-    <t>AACB</t>
-  </si>
-  <si>
-    <t>AACI</t>
-  </si>
-  <si>
-    <t>AACIW</t>
-  </si>
-  <si>
-    <t>AACIU</t>
-  </si>
-  <si>
-    <t>AAME</t>
-  </si>
-  <si>
     <t>AAOI</t>
   </si>
   <si>
@@ -286,78 +286,78 @@
     <t>AAL</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Industrials</t>
+  </si>
+  <si>
     <t>Healthcare</t>
   </si>
   <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
     <t>Utilities</t>
   </si>
   <si>
-    <t>Industrials</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Technology</t>
-  </si>
-  <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
+    <t>Information Technology Services</t>
+  </si>
+  <si>
+    <t>Specialty Industrial Machinery</t>
+  </si>
+  <si>
+    <t>Medical Devices</t>
+  </si>
+  <si>
+    <t>Insurance - Life</t>
+  </si>
+  <si>
+    <t>Diagnostics &amp; Research</t>
+  </si>
+  <si>
     <t>Drug Manufacturers - General</t>
   </si>
   <si>
     <t>Utilities - Diversified</t>
   </si>
   <si>
+    <t>Software - Application</t>
+  </si>
+  <si>
     <t>Conglomerates</t>
   </si>
   <si>
-    <t>Specialty Industrial Machinery</t>
-  </si>
-  <si>
-    <t>Insurance - Life</t>
-  </si>
-  <si>
-    <t>Medical Devices</t>
-  </si>
-  <si>
-    <t>Diagnostics &amp; Research</t>
-  </si>
-  <si>
     <t>Semiconductors</t>
   </si>
   <si>
-    <t>Software - Application</t>
-  </si>
-  <si>
-    <t>Information Technology Services</t>
+    <t>Computer Hardware</t>
   </si>
   <si>
     <t>Building Products &amp; Equipment</t>
   </si>
   <si>
-    <t>Computer Hardware</t>
+    <t>Electrical Equipment &amp; Parts</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Medical Care Facilities</t>
   </si>
   <si>
     <t>Electronic Components</t>
   </si>
   <si>
-    <t>Electrical Equipment &amp; Parts</t>
+    <t>Banks - Regional</t>
   </si>
   <si>
     <t>Aerospace &amp; Defense</t>
   </si>
   <si>
-    <t>Solar</t>
-  </si>
-  <si>
-    <t>Medical Care Facilities</t>
-  </si>
-  <si>
-    <t>Banks - Regional</t>
-  </si>
-  <si>
     <t>Shell Companies</t>
   </si>
   <si>
@@ -370,27 +370,27 @@
     <t>Airlines</t>
   </si>
   <si>
+    <t>Professional, Scientific &amp; Technical Services</t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
     <t>Health Care &amp; Social Assistance</t>
   </si>
   <si>
+    <t>Finance &amp; Insurance</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
     <t>Management of Companies &amp; Support Services</t>
   </si>
   <si>
-    <t>Machinery</t>
-  </si>
-  <si>
-    <t>Finance &amp; Insurance</t>
-  </si>
-  <si>
     <t>Computer &amp; Electronic Products</t>
   </si>
   <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Professional, Scientific &amp; Technical Services</t>
-  </si>
-  <si>
     <t>Fabricated Metal Products</t>
   </si>
   <si>
@@ -403,12 +403,12 @@
     <t>Transportation &amp; Warehousing</t>
   </si>
   <si>
+    <t>Both</t>
+  </si>
+  <si>
     <t>Defensive</t>
   </si>
   <si>
-    <t>Both</t>
-  </si>
-  <si>
     <t>Consumer</t>
   </si>
   <si>
@@ -418,45 +418,45 @@
     <t>Manufacturing</t>
   </si>
   <si>
+    <t>2.5%</t>
+  </si>
+  <si>
     <t>1.9%</t>
   </si>
   <si>
+    <t>1.5%</t>
+  </si>
+  <si>
+    <t>2.3%</t>
+  </si>
+  <si>
     <t>3.3%</t>
   </si>
   <si>
     <t>2.2%</t>
   </si>
   <si>
-    <t>1.5%</t>
-  </si>
-  <si>
-    <t>2.3%</t>
-  </si>
-  <si>
     <t>4.3%</t>
   </si>
   <si>
-    <t>2.5%</t>
+    <t>6.6%</t>
   </si>
   <si>
     <t>2.6%</t>
   </si>
   <si>
-    <t>6.6%</t>
+    <t>6.2%</t>
+  </si>
+  <si>
+    <t>4.8%</t>
+  </si>
+  <si>
+    <t>1.2%</t>
   </si>
   <si>
     <t>5.3%</t>
   </si>
   <si>
-    <t>6.2%</t>
-  </si>
-  <si>
-    <t>4.8%</t>
-  </si>
-  <si>
-    <t>1.2%</t>
-  </si>
-  <si>
     <t>7.9%</t>
   </si>
   <si>
@@ -469,52 +469,52 @@
     <t>3.5%</t>
   </si>
   <si>
+    <t>2025-09-24 , 2025-09-29</t>
+  </si>
+  <si>
+    <t>2025-10-21</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
     <t>2025-07-31</t>
   </si>
   <si>
+    <t>2025-09-10 , 2025-09-15</t>
+  </si>
+  <si>
     <t>2025-07-18</t>
   </si>
   <si>
-    <t>2025-10-21</t>
-  </si>
-  <si>
-    <t>2025-11-03</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>2025-08-27</t>
-  </si>
-  <si>
     <t>2025-11-04</t>
   </si>
   <si>
-    <t>2025-09-10 , 2025-09-15</t>
-  </si>
-  <si>
-    <t>2025-09-24 , 2025-09-29</t>
+    <t>2025-11-05</t>
   </si>
   <si>
     <t>2025-10-29</t>
   </si>
   <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
     <t>2025-09-03</t>
   </si>
   <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>2025-10-23</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
     <t>2025-11-06</t>
-  </si>
-  <si>
-    <t>2025-07-29</t>
-  </si>
-  <si>
-    <t>2025-10-23</t>
-  </si>
-  <si>
-    <t>2025-10-28</t>
   </si>
   <si>
     <t>2025-08-13</t>
@@ -1155,79 +1155,79 @@
         <v>132</v>
       </c>
       <c r="G2" s="1">
-        <v>210.6</v>
+        <v>259.22</v>
       </c>
       <c r="H2">
-        <v>372.04</v>
+        <v>161.46</v>
       </c>
       <c r="I2">
-        <v>1766.56</v>
+        <v>622.85</v>
       </c>
       <c r="J2">
-        <v>1762.95</v>
+        <v>621.78</v>
       </c>
       <c r="K2" s="1">
-        <v>193.0536</v>
+        <v>278.1116</v>
       </c>
       <c r="L2" s="2">
-        <v>0.09088874799537541</v>
+        <v>-0.0679281266944636</v>
       </c>
       <c r="M2" s="1">
-        <v>188.64355</v>
+        <v>323.4465</v>
       </c>
       <c r="N2" s="2">
-        <v>0.1163912044700176</v>
+        <v>-0.1985691605876087</v>
       </c>
       <c r="O2">
-        <v>161.94</v>
+        <v>316.43</v>
       </c>
       <c r="P2" s="2">
-        <v>0.3004816598740274</v>
+        <v>-0.1807982808204026</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>-7.34</v>
       </c>
       <c r="R2">
-        <v>3.99</v>
+        <v>-10.2</v>
       </c>
       <c r="S2">
-        <v>74.94</v>
+        <v>48.03</v>
       </c>
       <c r="T2">
-        <v>92.93000000000001</v>
+        <v>28.65</v>
       </c>
       <c r="U2">
-        <v>92.33</v>
+        <v>19.16</v>
       </c>
       <c r="V2">
-        <v>7.28</v>
+        <v>4.72</v>
       </c>
       <c r="W2">
-        <v>70.11</v>
+        <v>43.23</v>
       </c>
       <c r="X2">
-        <v>3.96</v>
+        <v>6.38</v>
       </c>
       <c r="Y2" t="s">
         <v>134</v>
       </c>
       <c r="Z2" s="1">
-        <v>208.2009963989258</v>
+        <v>244.4089991251628</v>
       </c>
       <c r="AA2" s="1">
-        <v>215.0567800315568</v>
+        <v>266.1653140137007</v>
       </c>
       <c r="AB2" s="1">
-        <v>201.3452127662947</v>
+        <v>222.6526842366248</v>
       </c>
       <c r="AC2">
-        <v>15.13</v>
+        <v>12.4</v>
       </c>
       <c r="AD2">
-        <v>2.68</v>
+        <v>3.49</v>
       </c>
       <c r="AE2" s="2">
-        <v>0.0086</v>
+        <v>0.0199</v>
       </c>
       <c r="AF2" t="s">
         <v>151</v>
@@ -1239,79 +1239,79 @@
         <v>169</v>
       </c>
       <c r="AI2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AJ2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK2">
         <v>12</v>
       </c>
       <c r="AL2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2" s="2">
-        <v>0.1851851851851852</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="AP2" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AQ2" s="2">
-        <v>0.3703703703703703</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="AR2" s="2">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AS2" s="2">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT2" s="2">
-        <v>0.6296296296296295</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="AU2" s="2">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="AV2" s="1">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="AW2" s="2">
-        <v>-0.1927825261158594</v>
+        <v>-0.07414551346346743</v>
       </c>
       <c r="AX2" s="1">
-        <v>214.76923</v>
+        <v>323.41</v>
       </c>
       <c r="AY2" s="2">
-        <v>0.01979691358024691</v>
+        <v>0.2476274978782501</v>
       </c>
       <c r="AZ2" s="1">
-        <v>255</v>
+        <v>372</v>
       </c>
       <c r="BA2" s="2">
-        <v>0.2108262108262109</v>
+        <v>0.4350744541316255</v>
       </c>
       <c r="BB2" t="s">
         <v>173</v>
       </c>
       <c r="BC2">
-        <v>7.28</v>
+        <v>4.72</v>
       </c>
       <c r="BD2">
-        <v>0.5250625792437351</v>
+        <v>2.05913445979268</v>
       </c>
       <c r="BE2">
-        <v>1.891723651809335</v>
+        <v>4.943122539735645</v>
       </c>
       <c r="BF2">
-        <v>10.36000842779622</v>
+        <v>-7.983383946806617</v>
       </c>
       <c r="BG2">
-        <v>11.20663371531632</v>
+        <v>-20.09228861117785</v>
       </c>
       <c r="BH2" t="s">
         <v>175</v>
@@ -1328,91 +1328,91 @@
         <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
         <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1">
-        <v>13.49</v>
+        <v>73.61</v>
       </c>
       <c r="H3">
-        <v>9.609999999999999</v>
+        <v>10.31</v>
       </c>
       <c r="I3">
-        <v>712.05</v>
+        <v>114.26</v>
       </c>
       <c r="J3">
-        <v>708.04</v>
+        <v>223.79</v>
       </c>
       <c r="K3" s="1">
-        <v>12.4076</v>
+        <v>69.066</v>
       </c>
       <c r="L3" s="2">
-        <v>0.08723685483091007</v>
+        <v>0.06579214085078036</v>
       </c>
       <c r="M3" s="1">
-        <v>11.91885</v>
+        <v>68.44615</v>
       </c>
       <c r="N3" s="2">
-        <v>0.1318206034978206</v>
+        <v>0.0754439804137997</v>
       </c>
       <c r="O3">
-        <v>19.2</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="P3" s="2">
-        <v>-0.2973958333333333</v>
+        <v>0.04101258662141148</v>
       </c>
       <c r="Q3">
-        <v>0.18</v>
+        <v>0.9</v>
       </c>
       <c r="R3">
-        <v>0.21</v>
+        <v>0.9</v>
       </c>
       <c r="S3">
-        <v>58.61</v>
+        <v>62.39</v>
       </c>
       <c r="T3">
-        <v>42.39</v>
+        <v>51.37</v>
       </c>
       <c r="U3">
-        <v>34.7</v>
+        <v>42.84</v>
       </c>
       <c r="V3">
-        <v>5.06</v>
+        <v>4.32</v>
       </c>
       <c r="W3">
-        <v>56.09</v>
+        <v>47.8</v>
       </c>
       <c r="X3">
-        <v>0.45</v>
+        <v>1.4</v>
       </c>
       <c r="Y3" t="s">
         <v>135</v>
       </c>
       <c r="Z3" s="1">
-        <v>18.0056666692098</v>
+        <v>70.27000172932942</v>
       </c>
       <c r="AA3" s="1">
-        <v>30.49628480239076</v>
+        <v>72.97617135179587</v>
       </c>
       <c r="AB3" s="1">
-        <v>5.515048536028832</v>
+        <v>67.56383210686298</v>
       </c>
       <c r="AC3">
-        <v>31.47</v>
+        <v>2.88</v>
       </c>
       <c r="AD3">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AE3" s="2">
-        <v>0.0508</v>
+        <v>0.0254</v>
       </c>
       <c r="AF3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG3" s="1">
         <v>3</v>
@@ -1421,79 +1421,79 @@
         <v>169</v>
       </c>
       <c r="AI3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AM3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3" s="2">
-        <v>0.2142857142857143</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="2">
-        <v>0.3571428571428572</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AQ3" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AR3" s="2">
-        <v>0.1428571428571428</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AS3" s="2">
         <v>0</v>
       </c>
       <c r="AT3" s="2">
-        <v>0.5714285714285714</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AU3" s="2">
-        <v>0.1428571428571428</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AV3" s="1">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="AW3" s="2">
-        <v>-0.6293550778354337</v>
+        <v>-0.1169678032875968</v>
       </c>
       <c r="AX3" s="1">
-        <v>13.83333</v>
+        <v>79.83333</v>
       </c>
       <c r="AY3" s="2">
-        <v>0.02545070422535211</v>
+        <v>0.08454462708871083</v>
       </c>
       <c r="AZ3" s="1">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="BA3" s="2">
-        <v>0.7049666419570052</v>
+        <v>0.2090748539600598</v>
       </c>
       <c r="BB3" t="s">
         <v>173</v>
       </c>
       <c r="BC3">
-        <v>5.06</v>
+        <v>4.32</v>
       </c>
       <c r="BD3">
-        <v>4.009248214213629</v>
+        <v>2.592335345437718</v>
       </c>
       <c r="BE3">
-        <v>1.352361726722233</v>
+        <v>1.938791779018246</v>
       </c>
       <c r="BF3">
-        <v>-0.9202911854068001</v>
+        <v>0.03387267296447476</v>
       </c>
       <c r="BG3">
-        <v>-17.78675676131215</v>
+        <v>-7.109170921181998</v>
       </c>
       <c r="BH3" t="s">
         <v>175</v>
@@ -1510,7 +1510,7 @@
         <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
         <v>130</v>
@@ -1519,82 +1519,82 @@
         <v>132</v>
       </c>
       <c r="G4" s="1">
-        <v>158.72</v>
+        <v>132.59</v>
       </c>
       <c r="H4">
-        <v>84.54000000000001</v>
+        <v>230.77</v>
       </c>
       <c r="I4">
-        <v>532.63</v>
+        <v>1740.46</v>
       </c>
       <c r="J4">
-        <v>531.86</v>
+        <v>1730.23</v>
       </c>
       <c r="K4" s="1">
-        <v>151.8338</v>
+        <v>131.2102</v>
       </c>
       <c r="L4" s="2">
-        <v>0.04535353788155208</v>
+        <v>0.01051595074163455</v>
       </c>
       <c r="M4" s="1">
-        <v>143.593</v>
+        <v>126.90365</v>
       </c>
       <c r="N4" s="2">
-        <v>0.1053463608950298</v>
+        <v>0.0448084038559963</v>
       </c>
       <c r="O4">
-        <v>113.19</v>
+        <v>113.83</v>
       </c>
       <c r="P4" s="2">
-        <v>0.4022440144889124</v>
+        <v>0.1648071685847317</v>
       </c>
       <c r="Q4">
-        <v>1.25</v>
+        <v>0.55</v>
       </c>
       <c r="R4">
-        <v>0.92</v>
+        <v>0.2</v>
       </c>
       <c r="S4">
-        <v>60</v>
+        <v>56.03</v>
       </c>
       <c r="T4">
-        <v>69.44</v>
+        <v>66.62</v>
       </c>
       <c r="U4">
-        <v>63.47</v>
+        <v>69.67</v>
       </c>
       <c r="V4">
-        <v>5.24</v>
+        <v>1.27</v>
       </c>
       <c r="W4">
-        <v>64.48</v>
+        <v>45.58</v>
       </c>
       <c r="X4">
-        <v>3.5</v>
+        <v>2.57</v>
       </c>
       <c r="Y4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z4" s="1">
-        <v>139.7848403930664</v>
+        <v>107.6106676737467</v>
       </c>
       <c r="AA4" s="1">
-        <v>236.1444596010518</v>
+        <v>183.8281920229611</v>
       </c>
       <c r="AB4" s="1">
-        <v>43.42522118508106</v>
+        <v>31.39314332453235</v>
       </c>
       <c r="AC4">
-        <v>9.23</v>
+        <v>18.33</v>
       </c>
       <c r="AD4">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="AE4" s="2">
-        <v>0.0174</v>
+        <v>0.0106</v>
       </c>
       <c r="AF4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG4" s="1">
         <v>3</v>
@@ -1603,79 +1603,79 @@
         <v>169</v>
       </c>
       <c r="AI4">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AJ4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AK4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AL4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
         <v>1</v>
       </c>
-      <c r="AN4">
-        <v>2</v>
-      </c>
       <c r="AO4" s="2">
-        <v>0.1111111111111111</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AP4" s="2">
         <v>0.5</v>
       </c>
       <c r="AQ4" s="2">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="AR4" s="2">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="2">
-        <v>0.1111111111111111</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AT4" s="2">
-        <v>0.6111111111111112</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AU4" s="2">
-        <v>0.1666666666666667</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AV4" s="1">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="AW4" s="2">
-        <v>-0.3636592741935484</v>
+        <v>-0.07987027679312168</v>
       </c>
       <c r="AX4" s="1">
-        <v>161.14941</v>
+        <v>142.4848</v>
       </c>
       <c r="AY4" s="2">
-        <v>0.01530626260080639</v>
+        <v>0.07462704578022478</v>
       </c>
       <c r="AZ4" s="1">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="BA4" s="2">
-        <v>0.1781754032258065</v>
+        <v>0.1991854589335545</v>
       </c>
       <c r="BB4" t="s">
         <v>173</v>
       </c>
       <c r="BC4">
-        <v>5.24</v>
+        <v>1.27</v>
       </c>
       <c r="BD4">
-        <v>2.811242518864441</v>
+        <v>0.4469669226444129</v>
       </c>
       <c r="BE4">
-        <v>4.153817085378027</v>
+        <v>0.6375683779055977</v>
       </c>
       <c r="BF4">
-        <v>6.309442716943336</v>
+        <v>5.531675407517395</v>
       </c>
       <c r="BG4">
-        <v>26.86392648486682</v>
+        <v>21.99888270180058</v>
       </c>
       <c r="BH4" t="s">
         <v>175</v>
@@ -1686,97 +1686,97 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G5" s="1">
-        <v>73.61</v>
+        <v>108.46</v>
       </c>
       <c r="H5">
-        <v>10.31</v>
+        <v>58.01</v>
       </c>
       <c r="I5">
-        <v>114.26</v>
+        <v>534.83</v>
       </c>
       <c r="J5">
-        <v>223.79</v>
+        <v>530.2</v>
       </c>
       <c r="K5" s="1">
-        <v>69.066</v>
+        <v>103.0472</v>
       </c>
       <c r="L5" s="2">
-        <v>0.06579214085078036</v>
+        <v>0.05252738550877646</v>
       </c>
       <c r="M5" s="1">
-        <v>68.44615</v>
+        <v>105.4095</v>
       </c>
       <c r="N5" s="2">
-        <v>0.0754439804137997</v>
+        <v>0.02893951683671775</v>
       </c>
       <c r="O5">
-        <v>70.70999999999999</v>
+        <v>80.34999999999999</v>
       </c>
       <c r="P5" s="2">
-        <v>0.04101258662141148</v>
+        <v>0.3498444306160548</v>
       </c>
       <c r="Q5">
-        <v>0.9</v>
+        <v>1.57</v>
       </c>
       <c r="R5">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="S5">
-        <v>62.39</v>
+        <v>69.63</v>
       </c>
       <c r="T5">
-        <v>51.37</v>
+        <v>93.59</v>
       </c>
       <c r="U5">
-        <v>42.84</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="V5">
-        <v>4.32</v>
+        <v>6.01</v>
       </c>
       <c r="W5">
-        <v>47.8</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="X5">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="Y5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Z5" s="1">
-        <v>70.27000172932942</v>
+        <v>108.1583346048991</v>
       </c>
       <c r="AA5" s="1">
-        <v>72.97617135179587</v>
+        <v>110.3443135300622</v>
       </c>
       <c r="AB5" s="1">
-        <v>67.56383210686298</v>
+        <v>105.972355679736</v>
       </c>
       <c r="AC5">
-        <v>2.88</v>
+        <v>7.36</v>
       </c>
       <c r="AD5">
-        <v>1.73</v>
+        <v>3.46</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.0254</v>
+        <v>0.0139</v>
       </c>
       <c r="AF5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG5" s="1">
         <v>3</v>
@@ -1785,79 +1785,79 @@
         <v>169</v>
       </c>
       <c r="AI5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM5">
         <v>1</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5" s="2">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AP5" s="2">
-        <v>0.2666666666666667</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AQ5" s="2">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AR5" s="2">
-        <v>0.06666666666666667</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AS5" s="2">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AT5" s="2">
-        <v>0.2666666666666667</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AU5" s="2">
-        <v>0.06666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AV5" s="1">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="AW5" s="2">
-        <v>-0.1169678032875968</v>
+        <v>-0.08722109533468554</v>
       </c>
       <c r="AX5" s="1">
-        <v>79.83333</v>
+        <v>108.07692</v>
       </c>
       <c r="AY5" s="2">
-        <v>0.08454462708871083</v>
+        <v>-0.003531993361607897</v>
       </c>
       <c r="AZ5" s="1">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="BA5" s="2">
-        <v>0.2090748539600598</v>
+        <v>0.1432786280656464</v>
       </c>
       <c r="BB5" t="s">
         <v>173</v>
       </c>
       <c r="BC5">
-        <v>4.32</v>
+        <v>6.01</v>
       </c>
       <c r="BD5">
-        <v>2.592335345437718</v>
+        <v>0.249557849129943</v>
       </c>
       <c r="BE5">
-        <v>1.938791779018246</v>
+        <v>3.484278960989688</v>
       </c>
       <c r="BF5">
-        <v>0.03387267296447476</v>
+        <v>6.443857951151371</v>
       </c>
       <c r="BG5">
-        <v>-7.10916197785784</v>
+        <v>6.199103527337994</v>
       </c>
       <c r="BH5" t="s">
         <v>175</v>
@@ -1868,13 +1868,13 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
         <v>130</v>
@@ -1883,82 +1883,82 @@
         <v>132</v>
       </c>
       <c r="G6" s="1">
-        <v>108.46</v>
+        <v>121.63</v>
       </c>
       <c r="H6">
-        <v>58.01</v>
+        <v>34.55</v>
       </c>
       <c r="I6">
-        <v>534.83</v>
+        <v>284.06</v>
       </c>
       <c r="J6">
-        <v>530.2</v>
+        <v>283</v>
       </c>
       <c r="K6" s="1">
-        <v>103.0472</v>
+        <v>117.8192</v>
       </c>
       <c r="L6" s="2">
-        <v>0.05252738550877646</v>
+        <v>0.03234447356627783</v>
       </c>
       <c r="M6" s="1">
-        <v>105.4095</v>
+        <v>124.36135</v>
       </c>
       <c r="N6" s="2">
-        <v>0.02893951683671775</v>
+        <v>-0.02196301342820745</v>
       </c>
       <c r="O6">
-        <v>80.34999999999999</v>
+        <v>132.26</v>
       </c>
       <c r="P6" s="2">
-        <v>0.3498444306160548</v>
+        <v>-0.0803719945561772</v>
       </c>
       <c r="Q6">
-        <v>1.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R6">
-        <v>0.88</v>
+        <v>0.24</v>
       </c>
       <c r="S6">
-        <v>69.63</v>
+        <v>58.66</v>
       </c>
       <c r="T6">
-        <v>93.59</v>
+        <v>73.34999999999999</v>
       </c>
       <c r="U6">
-        <v>93.09999999999999</v>
+        <v>61.47</v>
       </c>
       <c r="V6">
-        <v>6.01</v>
+        <v>7.42</v>
       </c>
       <c r="W6">
-        <v>95.23999999999999</v>
+        <v>66.59</v>
       </c>
       <c r="X6">
-        <v>1.66</v>
+        <v>2.74</v>
       </c>
       <c r="Y6" t="s">
         <v>137</v>
       </c>
       <c r="Z6" s="1">
-        <v>108.1583346048991</v>
+        <v>119.1213340759277</v>
       </c>
       <c r="AA6" s="1">
-        <v>110.3443135300622</v>
+        <v>122.4926823093446</v>
       </c>
       <c r="AB6" s="1">
-        <v>105.972355679736</v>
+        <v>115.7499858425109</v>
       </c>
       <c r="AC6">
-        <v>7.36</v>
+        <v>3.06</v>
       </c>
       <c r="AD6">
-        <v>3.46</v>
+        <v>1.69</v>
       </c>
       <c r="AE6" s="2">
-        <v>0.0139</v>
+        <v>0.012200001</v>
       </c>
       <c r="AF6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG6" s="1">
         <v>3</v>
@@ -1967,79 +1967,79 @@
         <v>169</v>
       </c>
       <c r="AI6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AJ6">
         <v>2</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AL6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="2">
-        <v>0.1538461538461539</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AP6" s="2">
-        <v>0.07692307692307693</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ6" s="2">
-        <v>0.6153846153846154</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AR6" s="2">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="2">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="2">
-        <v>0.2307692307692308</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AU6" s="2">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="AV6" s="1">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="AW6" s="2">
-        <v>-0.08722109533468554</v>
+        <v>-0.01340129902162292</v>
       </c>
       <c r="AX6" s="1">
-        <v>108.07692</v>
+        <v>137.56667</v>
       </c>
       <c r="AY6" s="2">
-        <v>-0.003531993361607897</v>
+        <v>0.1310258159993422</v>
       </c>
       <c r="AZ6" s="1">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="BA6" s="2">
-        <v>0.1432786280656464</v>
+        <v>0.3565732138452685</v>
       </c>
       <c r="BB6" t="s">
         <v>173</v>
       </c>
       <c r="BC6">
-        <v>6.01</v>
+        <v>7.42</v>
       </c>
       <c r="BD6">
-        <v>0.249557849129943</v>
+        <v>3.824153366783707</v>
       </c>
       <c r="BE6">
-        <v>3.484278960989688</v>
+        <v>2.038590912238791</v>
       </c>
       <c r="BF6">
-        <v>6.443857951151371</v>
+        <v>1.063563602430883</v>
       </c>
       <c r="BG6">
-        <v>6.199103527337994</v>
+        <v>-12.29647614443281</v>
       </c>
       <c r="BH6" t="s">
         <v>175</v>
@@ -2050,97 +2050,97 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
         <v>132</v>
       </c>
       <c r="G7" s="1">
-        <v>132.59</v>
+        <v>210.6</v>
       </c>
       <c r="H7">
-        <v>230.77</v>
+        <v>372.04</v>
       </c>
       <c r="I7">
-        <v>1740.46</v>
+        <v>1766.56</v>
       </c>
       <c r="J7">
-        <v>1730.23</v>
+        <v>1762.95</v>
       </c>
       <c r="K7" s="1">
-        <v>131.2102</v>
+        <v>193.0536</v>
       </c>
       <c r="L7" s="2">
-        <v>0.01051595074163455</v>
+        <v>0.09088874799537541</v>
       </c>
       <c r="M7" s="1">
-        <v>126.90365</v>
+        <v>188.64355</v>
       </c>
       <c r="N7" s="2">
-        <v>0.0448084038559963</v>
+        <v>0.1163912044700176</v>
       </c>
       <c r="O7">
-        <v>113.83</v>
+        <v>161.94</v>
       </c>
       <c r="P7" s="2">
-        <v>0.1648071685847317</v>
+        <v>0.3004816598740274</v>
       </c>
       <c r="Q7">
-        <v>0.55</v>
+        <v>5</v>
       </c>
       <c r="R7">
-        <v>0.2</v>
+        <v>3.99</v>
       </c>
       <c r="S7">
-        <v>56.03</v>
+        <v>74.94</v>
       </c>
       <c r="T7">
-        <v>66.62</v>
+        <v>92.93000000000001</v>
       </c>
       <c r="U7">
-        <v>69.67</v>
+        <v>92.33</v>
       </c>
       <c r="V7">
-        <v>1.27</v>
+        <v>7.28</v>
       </c>
       <c r="W7">
-        <v>45.58</v>
+        <v>70.11</v>
       </c>
       <c r="X7">
-        <v>2.57</v>
+        <v>3.96</v>
       </c>
       <c r="Y7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Z7" s="1">
-        <v>107.6106676737467</v>
+        <v>208.2009963989258</v>
       </c>
       <c r="AA7" s="1">
-        <v>183.8281920229611</v>
+        <v>215.0567800315568</v>
       </c>
       <c r="AB7" s="1">
-        <v>31.39314332453235</v>
+        <v>201.3452127662947</v>
       </c>
       <c r="AC7">
-        <v>18.33</v>
+        <v>15.13</v>
       </c>
       <c r="AD7">
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="AE7" s="2">
-        <v>0.0106</v>
+        <v>0.0086</v>
       </c>
       <c r="AF7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG7" s="1">
         <v>3</v>
@@ -2149,79 +2149,79 @@
         <v>169</v>
       </c>
       <c r="AI7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AM7">
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="2">
-        <v>0.2142857142857143</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="AP7" s="2">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AQ7" s="2">
-        <v>0.25</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="AR7" s="2">
         <v>0</v>
       </c>
       <c r="AS7" s="2">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="2">
-        <v>0.7142857142857143</v>
+        <v>0.6296296296296295</v>
       </c>
       <c r="AU7" s="2">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="1">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="AW7" s="2">
-        <v>-0.07987027679312168</v>
+        <v>-0.1927825261158594</v>
       </c>
       <c r="AX7" s="1">
-        <v>142.4848</v>
+        <v>214.76923</v>
       </c>
       <c r="AY7" s="2">
-        <v>0.07462704578022478</v>
+        <v>0.01979691358024691</v>
       </c>
       <c r="AZ7" s="1">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="BA7" s="2">
-        <v>0.1991854589335545</v>
+        <v>0.2108262108262109</v>
       </c>
       <c r="BB7" t="s">
         <v>173</v>
       </c>
       <c r="BC7">
-        <v>1.27</v>
+        <v>7.28</v>
       </c>
       <c r="BD7">
-        <v>0.4469669226444129</v>
+        <v>0.5250625792437351</v>
       </c>
       <c r="BE7">
-        <v>0.6375683779055977</v>
+        <v>1.891723651809335</v>
       </c>
       <c r="BF7">
-        <v>5.531675407517395</v>
+        <v>10.36000842779622</v>
       </c>
       <c r="BG7">
-        <v>21.99889126608442</v>
+        <v>11.20663371531632</v>
       </c>
       <c r="BH7" t="s">
         <v>175</v>
@@ -2232,94 +2232,94 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
         <v>132</v>
       </c>
       <c r="G8" s="1">
-        <v>121.63</v>
+        <v>13.49</v>
       </c>
       <c r="H8">
-        <v>34.55</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="I8">
-        <v>284.06</v>
+        <v>712.05</v>
       </c>
       <c r="J8">
-        <v>283</v>
+        <v>708.04</v>
       </c>
       <c r="K8" s="1">
-        <v>117.8192</v>
+        <v>12.4076</v>
       </c>
       <c r="L8" s="2">
-        <v>0.03234447356627783</v>
+        <v>0.08723685483091007</v>
       </c>
       <c r="M8" s="1">
-        <v>124.36135</v>
+        <v>11.91885</v>
       </c>
       <c r="N8" s="2">
-        <v>-0.02196301342820745</v>
+        <v>0.1318206034978206</v>
       </c>
       <c r="O8">
-        <v>132.26</v>
+        <v>19.2</v>
       </c>
       <c r="P8" s="2">
-        <v>-0.0803719945561772</v>
+        <v>-0.2973958333333333</v>
       </c>
       <c r="Q8">
-        <v>0.6899999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="R8">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="S8">
-        <v>58.66</v>
+        <v>58.61</v>
       </c>
       <c r="T8">
-        <v>73.34999999999999</v>
+        <v>42.39</v>
       </c>
       <c r="U8">
-        <v>61.47</v>
+        <v>34.7</v>
       </c>
       <c r="V8">
-        <v>7.42</v>
+        <v>5.06</v>
       </c>
       <c r="W8">
-        <v>66.59</v>
+        <v>56.09</v>
       </c>
       <c r="X8">
-        <v>2.74</v>
+        <v>0.45</v>
       </c>
       <c r="Y8" t="s">
         <v>138</v>
       </c>
       <c r="Z8" s="1">
-        <v>119.1213340759277</v>
+        <v>18.0056666692098</v>
       </c>
       <c r="AA8" s="1">
-        <v>122.4926823093446</v>
+        <v>30.49628480239076</v>
       </c>
       <c r="AB8" s="1">
-        <v>115.7499858425109</v>
+        <v>5.515048536028832</v>
       </c>
       <c r="AC8">
-        <v>3.06</v>
+        <v>31.47</v>
       </c>
       <c r="AD8">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AE8" s="2">
-        <v>0.012200001</v>
+        <v>0.0508</v>
       </c>
       <c r="AF8" t="s">
         <v>156</v>
@@ -2331,79 +2331,79 @@
         <v>169</v>
       </c>
       <c r="AI8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ8">
+        <v>3</v>
+      </c>
+      <c r="AK8">
+        <v>5</v>
+      </c>
+      <c r="AL8">
+        <v>4</v>
+      </c>
+      <c r="AM8">
         <v>2</v>
       </c>
-      <c r="AK8">
-        <v>6</v>
-      </c>
-      <c r="AL8">
-        <v>10</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
       <c r="AN8">
         <v>0</v>
       </c>
       <c r="AO8" s="2">
-        <v>0.1111111111111111</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AP8" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="AQ8" s="2">
-        <v>0.5555555555555556</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AR8" s="2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AS8" s="2">
         <v>0</v>
       </c>
       <c r="AT8" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AU8" s="2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AV8" s="1">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="AW8" s="2">
-        <v>-0.01340129902162292</v>
+        <v>-0.6293550778354337</v>
       </c>
       <c r="AX8" s="1">
-        <v>137.56667</v>
+        <v>13.83333</v>
       </c>
       <c r="AY8" s="2">
-        <v>0.1310258159993422</v>
+        <v>0.02545070422535211</v>
       </c>
       <c r="AZ8" s="1">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="BA8" s="2">
-        <v>0.3565732138452685</v>
+        <v>0.7049666419570052</v>
       </c>
       <c r="BB8" t="s">
         <v>173</v>
       </c>
       <c r="BC8">
-        <v>7.42</v>
+        <v>5.06</v>
       </c>
       <c r="BD8">
-        <v>3.824153366783707</v>
+        <v>4.009248214213629</v>
       </c>
       <c r="BE8">
-        <v>2.038590912238791</v>
+        <v>1.352361726722233</v>
       </c>
       <c r="BF8">
-        <v>1.063563602430883</v>
+        <v>-0.9202911854068001</v>
       </c>
       <c r="BG8">
-        <v>-12.29647614443281</v>
+        <v>-17.78675676131215</v>
       </c>
       <c r="BH8" t="s">
         <v>175</v>
@@ -2414,7 +2414,7 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
@@ -2423,85 +2423,85 @@
         <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" s="1">
-        <v>167.76</v>
+        <v>362.09</v>
       </c>
       <c r="H9">
-        <v>272.25</v>
+        <v>153.6</v>
       </c>
       <c r="I9">
-        <v>1622.84</v>
+        <v>424.2</v>
       </c>
       <c r="J9">
-        <v>1611.37</v>
+        <v>422.97</v>
       </c>
       <c r="K9" s="1">
-        <v>154.8776</v>
+        <v>367.5244</v>
       </c>
       <c r="L9" s="2">
-        <v>0.08317794180694942</v>
+        <v>-0.01478650124998514</v>
       </c>
       <c r="M9" s="1">
-        <v>124.82215</v>
+        <v>415.8365</v>
       </c>
       <c r="N9" s="2">
-        <v>0.3439922321479</v>
+        <v>-0.1292491159385961</v>
       </c>
       <c r="O9">
-        <v>119.32</v>
+        <v>458.38</v>
       </c>
       <c r="P9" s="2">
-        <v>0.4059671471672813</v>
+        <v>-0.2100658842008814</v>
       </c>
       <c r="Q9">
-        <v>3.69</v>
+        <v>-3.21</v>
       </c>
       <c r="R9">
-        <v>6.29</v>
+        <v>-6.07</v>
       </c>
       <c r="S9">
-        <v>51.39</v>
+        <v>53.68</v>
       </c>
       <c r="T9">
-        <v>55.63</v>
+        <v>51.57</v>
       </c>
       <c r="U9">
-        <v>64.5</v>
+        <v>40.02</v>
       </c>
       <c r="V9">
-        <v>2.84</v>
+        <v>4.77</v>
       </c>
       <c r="W9">
-        <v>43.89</v>
+        <v>55.46</v>
       </c>
       <c r="X9">
-        <v>7.18</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="Y9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Z9" s="1">
-        <v>170.009336344401</v>
+        <v>532.4466583251952</v>
       </c>
       <c r="AA9" s="1">
-        <v>178.932280033033</v>
+        <v>895.6610366366838</v>
       </c>
       <c r="AB9" s="1">
-        <v>161.0863926557691</v>
+        <v>169.2322800137067</v>
       </c>
       <c r="AC9">
-        <v>42.12</v>
+        <v>10.41</v>
       </c>
       <c r="AD9">
-        <v>0.79</v>
+        <v>2.98</v>
       </c>
       <c r="AE9" s="2">
-        <v>0.026099999</v>
+        <v>0.024600001</v>
       </c>
       <c r="AF9" t="s">
         <v>157</v>
@@ -2513,79 +2513,79 @@
         <v>169</v>
       </c>
       <c r="AI9">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AJ9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AL9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN9">
         <v>0</v>
       </c>
       <c r="AO9" s="2">
-        <v>0.09803921568627451</v>
+        <v>0.15</v>
       </c>
       <c r="AP9" s="2">
-        <v>0.5882352941176471</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9" s="2">
-        <v>0.3137254901960784</v>
+        <v>0.3</v>
       </c>
       <c r="AR9" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AS9" s="2">
         <v>0</v>
       </c>
       <c r="AT9" s="2">
-        <v>0.6862745098039216</v>
+        <v>0.65</v>
       </c>
       <c r="AU9" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AV9" s="1">
-        <v>125.1</v>
+        <v>280</v>
       </c>
       <c r="AW9" s="2">
-        <v>-0.2542918454935622</v>
+        <v>-0.2267115910409014</v>
       </c>
       <c r="AX9" s="1">
-        <v>183.86523</v>
+        <v>480.63913</v>
       </c>
       <c r="AY9" s="2">
-        <v>0.09600160944206013</v>
+        <v>0.3274023861470907</v>
       </c>
       <c r="AZ9" s="1">
-        <v>230</v>
+        <v>605</v>
       </c>
       <c r="BA9" s="2">
-        <v>0.3710061993323797</v>
+        <v>0.6708553122151952</v>
       </c>
       <c r="BB9" t="s">
         <v>173</v>
       </c>
       <c r="BC9">
-        <v>2.84</v>
+        <v>4.77</v>
       </c>
       <c r="BD9">
-        <v>2.47387919300946</v>
+        <v>2.45027412544855</v>
       </c>
       <c r="BE9">
-        <v>-5.492648471477771</v>
+        <v>2.040295930631314</v>
       </c>
       <c r="BF9">
-        <v>3.478904243472002</v>
+        <v>-2.582799117667682</v>
       </c>
       <c r="BG9">
-        <v>7.263427783680315</v>
+        <v>-35.59982279450589</v>
       </c>
       <c r="BH9" t="s">
         <v>175</v>
@@ -2596,7 +2596,7 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
@@ -2605,85 +2605,85 @@
         <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
         <v>132</v>
       </c>
       <c r="G10" s="1">
-        <v>362.09</v>
+        <v>158.72</v>
       </c>
       <c r="H10">
-        <v>153.6</v>
+        <v>84.54000000000001</v>
       </c>
       <c r="I10">
-        <v>424.2</v>
+        <v>532.63</v>
       </c>
       <c r="J10">
-        <v>422.97</v>
+        <v>531.86</v>
       </c>
       <c r="K10" s="1">
-        <v>367.5244</v>
+        <v>151.8338</v>
       </c>
       <c r="L10" s="2">
-        <v>-0.01478650124998514</v>
+        <v>0.04535353788155208</v>
       </c>
       <c r="M10" s="1">
-        <v>415.8365</v>
+        <v>143.593</v>
       </c>
       <c r="N10" s="2">
-        <v>-0.1292491159385961</v>
+        <v>0.1053463608950298</v>
       </c>
       <c r="O10">
-        <v>458.38</v>
+        <v>113.19</v>
       </c>
       <c r="P10" s="2">
-        <v>-0.2100658842008814</v>
+        <v>0.4022440144889124</v>
       </c>
       <c r="Q10">
-        <v>-3.21</v>
+        <v>1.25</v>
       </c>
       <c r="R10">
-        <v>-6.07</v>
+        <v>0.92</v>
       </c>
       <c r="S10">
-        <v>53.68</v>
+        <v>60</v>
       </c>
       <c r="T10">
-        <v>51.57</v>
+        <v>69.44</v>
       </c>
       <c r="U10">
-        <v>40.02</v>
+        <v>63.47</v>
       </c>
       <c r="V10">
-        <v>4.77</v>
+        <v>5.24</v>
       </c>
       <c r="W10">
-        <v>55.46</v>
+        <v>64.48</v>
       </c>
       <c r="X10">
-        <v>8.220000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="Y10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Z10" s="1">
-        <v>532.4466583251952</v>
+        <v>139.7848403930664</v>
       </c>
       <c r="AA10" s="1">
-        <v>895.6610366366838</v>
+        <v>236.1444596010518</v>
       </c>
       <c r="AB10" s="1">
-        <v>169.2322800137067</v>
+        <v>43.42522118508106</v>
       </c>
       <c r="AC10">
-        <v>10.41</v>
+        <v>9.23</v>
       </c>
       <c r="AD10">
-        <v>2.98</v>
+        <v>2.28</v>
       </c>
       <c r="AE10" s="2">
-        <v>0.024600001</v>
+        <v>0.0174</v>
       </c>
       <c r="AF10" t="s">
         <v>158</v>
@@ -2695,79 +2695,79 @@
         <v>169</v>
       </c>
       <c r="AI10">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AJ10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AK10">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AL10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
         <v>2</v>
       </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
       <c r="AO10" s="2">
-        <v>0.15</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AP10" s="2">
         <v>0.5</v>
       </c>
       <c r="AQ10" s="2">
-        <v>0.3</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AR10" s="2">
-        <v>0.05</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="AS10" s="2">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AT10" s="2">
-        <v>0.65</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="AU10" s="2">
-        <v>0.05</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AV10" s="1">
-        <v>280</v>
+        <v>101</v>
       </c>
       <c r="AW10" s="2">
-        <v>-0.2267115910409014</v>
+        <v>-0.3636592741935484</v>
       </c>
       <c r="AX10" s="1">
-        <v>480.63913</v>
+        <v>161.14941</v>
       </c>
       <c r="AY10" s="2">
-        <v>0.3274023861470907</v>
+        <v>0.01530626260080639</v>
       </c>
       <c r="AZ10" s="1">
-        <v>605</v>
+        <v>187</v>
       </c>
       <c r="BA10" s="2">
-        <v>0.6708553122151952</v>
+        <v>0.1781754032258065</v>
       </c>
       <c r="BB10" t="s">
         <v>173</v>
       </c>
       <c r="BC10">
-        <v>4.77</v>
+        <v>5.24</v>
       </c>
       <c r="BD10">
-        <v>2.45027412544855</v>
+        <v>2.811242518864441</v>
       </c>
       <c r="BE10">
-        <v>2.040295930631314</v>
+        <v>4.153817085378027</v>
       </c>
       <c r="BF10">
-        <v>-2.582799117667682</v>
+        <v>6.309442716943336</v>
       </c>
       <c r="BG10">
-        <v>-35.59982279450589</v>
+        <v>26.86392648486682</v>
       </c>
       <c r="BH10" t="s">
         <v>175</v>
@@ -2778,7 +2778,7 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
         <v>105</v>
@@ -2787,85 +2787,85 @@
         <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G11" s="1">
-        <v>259.22</v>
+        <v>167.76</v>
       </c>
       <c r="H11">
-        <v>161.46</v>
+        <v>272.25</v>
       </c>
       <c r="I11">
-        <v>622.85</v>
+        <v>1622.84</v>
       </c>
       <c r="J11">
-        <v>621.78</v>
+        <v>1611.37</v>
       </c>
       <c r="K11" s="1">
-        <v>278.1116</v>
+        <v>154.8776</v>
       </c>
       <c r="L11" s="2">
-        <v>-0.0679281266944636</v>
+        <v>0.08317794180694942</v>
       </c>
       <c r="M11" s="1">
-        <v>323.4465</v>
+        <v>124.82215</v>
       </c>
       <c r="N11" s="2">
-        <v>-0.1985691605876087</v>
+        <v>0.3439922321479</v>
       </c>
       <c r="O11">
-        <v>316.43</v>
+        <v>119.32</v>
       </c>
       <c r="P11" s="2">
-        <v>-0.1807982808204026</v>
+        <v>0.4059671471672813</v>
       </c>
       <c r="Q11">
-        <v>-7.34</v>
+        <v>3.69</v>
       </c>
       <c r="R11">
-        <v>-10.2</v>
+        <v>6.29</v>
       </c>
       <c r="S11">
-        <v>48.03</v>
+        <v>51.39</v>
       </c>
       <c r="T11">
-        <v>28.65</v>
+        <v>55.63</v>
       </c>
       <c r="U11">
-        <v>19.16</v>
+        <v>64.5</v>
       </c>
       <c r="V11">
-        <v>4.72</v>
+        <v>2.84</v>
       </c>
       <c r="W11">
-        <v>43.23</v>
+        <v>43.89</v>
       </c>
       <c r="X11">
-        <v>6.38</v>
+        <v>7.18</v>
       </c>
       <c r="Y11" t="s">
         <v>140</v>
       </c>
       <c r="Z11" s="1">
-        <v>244.4089991251628</v>
+        <v>170.009336344401</v>
       </c>
       <c r="AA11" s="1">
-        <v>266.1653140137007</v>
+        <v>178.932280033033</v>
       </c>
       <c r="AB11" s="1">
-        <v>222.6526842366248</v>
+        <v>161.0863926557691</v>
       </c>
       <c r="AC11">
-        <v>12.4</v>
+        <v>42.12</v>
       </c>
       <c r="AD11">
-        <v>3.49</v>
+        <v>0.79</v>
       </c>
       <c r="AE11" s="2">
-        <v>0.0199</v>
+        <v>0.026099999</v>
       </c>
       <c r="AF11" t="s">
         <v>159</v>
@@ -2877,79 +2877,79 @@
         <v>169</v>
       </c>
       <c r="AI11">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AJ11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK11">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AL11">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="2">
-        <v>0.08695652173913043</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="AP11" s="2">
-        <v>0.5217391304347826</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="AQ11" s="2">
-        <v>0.3043478260869565</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="AR11" s="2">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="2">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="2">
-        <v>0.6086956521739131</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="AU11" s="2">
-        <v>0.08695652173913043</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="1">
-        <v>240</v>
+        <v>125.1</v>
       </c>
       <c r="AW11" s="2">
-        <v>-0.07414551346346743</v>
+        <v>-0.2542918454935622</v>
       </c>
       <c r="AX11" s="1">
-        <v>323.41</v>
+        <v>183.86523</v>
       </c>
       <c r="AY11" s="2">
-        <v>0.2476274978782501</v>
+        <v>0.09600160944206013</v>
       </c>
       <c r="AZ11" s="1">
-        <v>372</v>
+        <v>230</v>
       </c>
       <c r="BA11" s="2">
-        <v>0.4350744541316255</v>
+        <v>0.3710061993323797</v>
       </c>
       <c r="BB11" t="s">
         <v>173</v>
       </c>
       <c r="BC11">
-        <v>4.72</v>
+        <v>2.84</v>
       </c>
       <c r="BD11">
-        <v>2.05913445979268</v>
+        <v>2.47387919300946</v>
       </c>
       <c r="BE11">
-        <v>4.943122539735645</v>
+        <v>-5.492648471477771</v>
       </c>
       <c r="BF11">
-        <v>-7.983383946806617</v>
+        <v>3.478904243472002</v>
       </c>
       <c r="BG11">
-        <v>-20.09228109392805</v>
+        <v>7.263427783680315</v>
       </c>
       <c r="BH11" t="s">
         <v>175</v>
@@ -2960,94 +2960,94 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
         <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
         <v>133</v>
       </c>
       <c r="G12" s="1">
-        <v>190.47</v>
+        <v>39.78</v>
       </c>
       <c r="H12">
-        <v>9.41</v>
+        <v>11.81</v>
       </c>
       <c r="I12">
-        <v>49.42</v>
+        <v>296.84</v>
       </c>
       <c r="J12">
-        <v>45.77</v>
+        <v>289.42</v>
       </c>
       <c r="K12" s="1">
-        <v>177.5692</v>
+        <v>41.4606</v>
       </c>
       <c r="L12" s="2">
-        <v>0.07265223923968799</v>
+        <v>-0.04053486924935959</v>
       </c>
       <c r="M12" s="1">
-        <v>155.48085</v>
+        <v>34.59825</v>
       </c>
       <c r="N12" s="2">
-        <v>0.2250383246554157</v>
+        <v>0.1497691357221825</v>
       </c>
       <c r="O12">
-        <v>100.21</v>
+        <v>15.13</v>
       </c>
       <c r="P12" s="2">
-        <v>0.9007085121245386</v>
+        <v>1.629213483146067</v>
       </c>
       <c r="Q12">
-        <v>2.82</v>
+        <v>-0.92</v>
       </c>
       <c r="R12">
-        <v>4.63</v>
+        <v>-0.54</v>
       </c>
       <c r="S12">
-        <v>56.54</v>
+        <v>47.76</v>
       </c>
       <c r="T12">
-        <v>39.49</v>
+        <v>30.54</v>
       </c>
       <c r="U12">
-        <v>50.53</v>
+        <v>36.39</v>
       </c>
       <c r="V12">
-        <v>-6.42</v>
+        <v>-3.52</v>
       </c>
       <c r="W12">
-        <v>21.62</v>
+        <v>48.6</v>
       </c>
       <c r="X12">
-        <v>4.96</v>
+        <v>2.64</v>
       </c>
       <c r="Y12" t="s">
         <v>141</v>
       </c>
       <c r="Z12" s="1">
-        <v>199.2776641845703</v>
+        <v>36.57066726684571</v>
       </c>
       <c r="AA12" s="1">
-        <v>213.2097877823548</v>
+        <v>41.1129626693033</v>
       </c>
       <c r="AB12" s="1">
-        <v>185.3455405867859</v>
+        <v>32.02837186438812</v>
       </c>
       <c r="AC12">
-        <v>1.02</v>
+        <v>34.82</v>
       </c>
       <c r="AD12">
-        <v>3.78</v>
+        <v>1.65</v>
       </c>
       <c r="AE12" s="2">
-        <v>0.0307</v>
+        <v>0.1189</v>
       </c>
       <c r="AF12" t="s">
         <v>160</v>
@@ -3062,13 +3062,13 @@
         <v>7</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="AO12" s="2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AP12" s="2">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AQ12" s="2">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AR12" s="2">
         <v>0</v>
@@ -3092,46 +3092,46 @@
         <v>0</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="AU12" s="2">
         <v>0</v>
       </c>
       <c r="AV12" s="1">
-        <v>167.5</v>
+        <v>32</v>
       </c>
       <c r="AW12" s="2">
-        <v>-0.12059641938363</v>
+        <v>-0.1955756661639015</v>
       </c>
       <c r="AX12" s="1">
-        <v>201.64285</v>
+        <v>49.57143</v>
       </c>
       <c r="AY12" s="2">
-        <v>0.05865936892949027</v>
+        <v>0.2461395173453997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>227</v>
+        <v>70</v>
       </c>
       <c r="BA12" s="2">
-        <v>0.1917887331338269</v>
+        <v>0.7596782302664655</v>
       </c>
       <c r="BB12" t="s">
         <v>173</v>
       </c>
       <c r="BC12">
-        <v>-6.42</v>
+        <v>-3.52</v>
       </c>
       <c r="BD12">
-        <v>2.249303451182933</v>
+        <v>7.021793755513711</v>
       </c>
       <c r="BE12">
-        <v>2.188959624666043</v>
+        <v>-1.118570141834106</v>
       </c>
       <c r="BF12">
-        <v>8.585597881637174</v>
+        <v>-9.384971761682749</v>
       </c>
       <c r="BG12">
-        <v>25.13632009671953</v>
+        <v>451.7336833401828</v>
       </c>
       <c r="BH12" t="s">
         <v>176</v>
@@ -3142,94 +3142,94 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
         <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
         <v>133</v>
       </c>
       <c r="G13" s="1">
-        <v>39.78</v>
+        <v>190.47</v>
       </c>
       <c r="H13">
-        <v>11.81</v>
+        <v>9.41</v>
       </c>
       <c r="I13">
-        <v>296.84</v>
+        <v>49.42</v>
       </c>
       <c r="J13">
-        <v>289.42</v>
+        <v>45.77</v>
       </c>
       <c r="K13" s="1">
-        <v>41.4606</v>
+        <v>177.5692</v>
       </c>
       <c r="L13" s="2">
-        <v>-0.04053486924935959</v>
+        <v>0.07265223923968799</v>
       </c>
       <c r="M13" s="1">
-        <v>34.59825</v>
+        <v>155.48085</v>
       </c>
       <c r="N13" s="2">
-        <v>0.1497691357221825</v>
+        <v>0.2250383246554157</v>
       </c>
       <c r="O13">
-        <v>15.13</v>
+        <v>100.21</v>
       </c>
       <c r="P13" s="2">
-        <v>1.629213483146067</v>
+        <v>0.9007085121245386</v>
       </c>
       <c r="Q13">
-        <v>-0.92</v>
+        <v>2.82</v>
       </c>
       <c r="R13">
-        <v>-0.54</v>
+        <v>4.63</v>
       </c>
       <c r="S13">
-        <v>47.76</v>
+        <v>56.54</v>
       </c>
       <c r="T13">
-        <v>30.54</v>
+        <v>39.49</v>
       </c>
       <c r="U13">
-        <v>36.39</v>
+        <v>50.53</v>
       </c>
       <c r="V13">
-        <v>-3.52</v>
+        <v>-6.42</v>
       </c>
       <c r="W13">
-        <v>48.6</v>
+        <v>21.62</v>
       </c>
       <c r="X13">
-        <v>2.64</v>
+        <v>4.96</v>
       </c>
       <c r="Y13" t="s">
         <v>142</v>
       </c>
       <c r="Z13" s="1">
-        <v>36.57066726684571</v>
+        <v>199.2776641845703</v>
       </c>
       <c r="AA13" s="1">
-        <v>41.1129626693033</v>
+        <v>213.2097877823548</v>
       </c>
       <c r="AB13" s="1">
-        <v>32.02837186438812</v>
+        <v>185.3455405867859</v>
       </c>
       <c r="AC13">
-        <v>34.82</v>
+        <v>1.02</v>
       </c>
       <c r="AD13">
-        <v>1.65</v>
+        <v>3.78</v>
       </c>
       <c r="AE13" s="2">
-        <v>0.1189</v>
+        <v>0.0307</v>
       </c>
       <c r="AF13" t="s">
         <v>161</v>
@@ -3244,28 +3244,28 @@
         <v>7</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>7</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="2">
         <v>1</v>
       </c>
-      <c r="AK13">
-        <v>4</v>
-      </c>
-      <c r="AL13">
-        <v>2</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="AP13" s="2">
-        <v>0.5714285714285714</v>
-      </c>
       <c r="AQ13" s="2">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="2">
         <v>0</v>
@@ -3274,46 +3274,46 @@
         <v>0</v>
       </c>
       <c r="AT13" s="2">
-        <v>0.7142857142857142</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2">
         <v>0</v>
       </c>
       <c r="AV13" s="1">
-        <v>32</v>
+        <v>167.5</v>
       </c>
       <c r="AW13" s="2">
-        <v>-0.1955756661639015</v>
+        <v>-0.12059641938363</v>
       </c>
       <c r="AX13" s="1">
-        <v>49.57143</v>
+        <v>201.64285</v>
       </c>
       <c r="AY13" s="2">
-        <v>0.2461395173453997</v>
+        <v>0.05865936892949027</v>
       </c>
       <c r="AZ13" s="1">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c r="BA13" s="2">
-        <v>0.7596782302664655</v>
+        <v>0.1917887331338269</v>
       </c>
       <c r="BB13" t="s">
         <v>173</v>
       </c>
       <c r="BC13">
-        <v>-3.52</v>
+        <v>-6.42</v>
       </c>
       <c r="BD13">
-        <v>7.021793755513711</v>
+        <v>2.249303451182933</v>
       </c>
       <c r="BE13">
-        <v>-1.118570141834106</v>
+        <v>2.188959624666043</v>
       </c>
       <c r="BF13">
-        <v>-9.384971761682749</v>
+        <v>8.585597881637174</v>
       </c>
       <c r="BG13">
-        <v>451.7336833401828</v>
+        <v>25.13632009671953</v>
       </c>
       <c r="BH13" t="s">
         <v>176</v>
@@ -3324,178 +3324,178 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
         <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
         <v>133</v>
       </c>
       <c r="G14" s="1">
-        <v>294.35</v>
+        <v>48.54</v>
       </c>
       <c r="H14">
-        <v>10.52</v>
+        <v>11.36</v>
       </c>
       <c r="I14">
-        <v>35.73</v>
+        <v>234</v>
       </c>
       <c r="J14">
-        <v>35.54</v>
+        <v>217.64</v>
       </c>
       <c r="K14" s="1">
-        <v>300.5644</v>
+        <v>30.8782</v>
       </c>
       <c r="L14" s="2">
-        <v>-0.02067576865390564</v>
+        <v>0.5719828228329371</v>
       </c>
       <c r="M14" s="1">
-        <v>240.67375</v>
+        <v>23.939</v>
       </c>
       <c r="N14" s="2">
-        <v>0.2230249455954378</v>
+        <v>1.027653619616525</v>
       </c>
       <c r="O14">
-        <v>166.81</v>
+        <v>18.5</v>
       </c>
       <c r="P14" s="2">
-        <v>0.7645824590851868</v>
+        <v>1.623783783783784</v>
       </c>
       <c r="Q14">
-        <v>-1.96</v>
+        <v>4.61</v>
       </c>
       <c r="R14">
-        <v>5.66</v>
+        <v>4.35</v>
       </c>
       <c r="S14">
-        <v>43.9</v>
+        <v>76.16</v>
       </c>
       <c r="T14">
-        <v>39.58</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="U14">
-        <v>56.03</v>
+        <v>88.34</v>
       </c>
       <c r="V14">
-        <v>-11.46</v>
+        <v>24.91</v>
       </c>
       <c r="W14">
-        <v>50.43</v>
+        <v>67.56</v>
       </c>
       <c r="X14">
-        <v>15.54</v>
+        <v>3.02</v>
       </c>
       <c r="Y14" t="s">
         <v>143</v>
       </c>
       <c r="Z14" s="1">
-        <v>294.5760030110677</v>
+        <v>44.37016677856445</v>
       </c>
       <c r="AA14" s="1">
-        <v>326.1060370961656</v>
+        <v>50.00590987491284</v>
       </c>
       <c r="AB14" s="1">
-        <v>263.0459689259699</v>
+        <v>38.73442368221607</v>
       </c>
       <c r="AC14">
-        <v>1.59</v>
+        <v>46.44</v>
       </c>
       <c r="AD14">
-        <v>3.26</v>
+        <v>4.22</v>
       </c>
       <c r="AE14" s="2">
-        <v>0.0623</v>
+        <v>0.28190002</v>
       </c>
       <c r="AF14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI14">
+        <v>23</v>
+      </c>
+      <c r="AJ14">
+        <v>3</v>
+      </c>
+      <c r="AK14">
+        <v>8</v>
+      </c>
+      <c r="AL14">
+        <v>9</v>
+      </c>
+      <c r="AM14">
         <v>2</v>
       </c>
-      <c r="AH14" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI14">
-        <v>9</v>
-      </c>
-      <c r="AJ14">
-        <v>2</v>
-      </c>
-      <c r="AK14">
-        <v>3</v>
-      </c>
-      <c r="AL14">
-        <v>4</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" s="2">
-        <v>0.2222222222222222</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="AP14" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AQ14" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="AR14" s="2">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="AS14" s="2">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT14" s="2">
-        <v>0.5555555555555556</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="AU14" s="2">
-        <v>0</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="AV14" s="1">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="AW14" s="2">
-        <v>-0.2525904535417021</v>
+        <v>-0.7939843428100536</v>
       </c>
       <c r="AX14" s="1">
-        <v>321.25</v>
+        <v>34.77</v>
       </c>
       <c r="AY14" s="2">
-        <v>0.09138780363512816</v>
+        <v>-0.2836835599505562</v>
       </c>
       <c r="AZ14" s="1">
-        <v>375</v>
+        <v>48</v>
       </c>
       <c r="BA14" s="2">
-        <v>0.2739935450993714</v>
+        <v>-0.01112484548825709</v>
       </c>
       <c r="BB14" t="s">
         <v>173</v>
       </c>
       <c r="BC14">
-        <v>-11.46</v>
+        <v>24.91</v>
       </c>
       <c r="BD14">
-        <v>6.248194132504492</v>
+        <v>8.275705850858703</v>
       </c>
       <c r="BE14">
-        <v>-10.74893359659758</v>
+        <v>7.199651555028358</v>
       </c>
       <c r="BF14">
-        <v>-3.444316808192745</v>
+        <v>46.82395311314939</v>
       </c>
       <c r="BG14">
-        <v>9.832091829670009</v>
+        <v>321.7202428348072</v>
       </c>
       <c r="BH14" t="s">
         <v>176</v>
@@ -3506,91 +3506,91 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
         <v>94</v>
       </c>
-      <c r="C15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" t="s">
-        <v>122</v>
-      </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="1">
-        <v>114.04</v>
+        <v>68.77</v>
       </c>
       <c r="H15">
-        <v>19.57</v>
+        <v>10.44</v>
       </c>
       <c r="I15">
-        <v>171.64</v>
+        <v>147.96</v>
       </c>
       <c r="J15">
-        <v>151.53</v>
+        <v>146.93</v>
       </c>
       <c r="K15" s="1">
-        <v>101.0322</v>
+        <v>60.3477</v>
       </c>
       <c r="L15" s="2">
-        <v>0.1287490522823417</v>
+        <v>0.1395628996631188</v>
       </c>
       <c r="M15" s="1">
-        <v>68.32841999999999</v>
+        <v>48.05045</v>
       </c>
       <c r="N15" s="2">
-        <v>0.6689980538112841</v>
+        <v>0.4312040782136276</v>
       </c>
       <c r="Q15">
-        <v>3.56</v>
+        <v>1.59</v>
       </c>
       <c r="R15">
-        <v>5.4</v>
+        <v>0.27</v>
       </c>
       <c r="S15">
-        <v>54.81</v>
+        <v>64.78</v>
       </c>
       <c r="T15">
-        <v>57.73</v>
+        <v>55.58</v>
       </c>
       <c r="U15">
-        <v>69.98</v>
+        <v>39.77</v>
       </c>
       <c r="V15">
-        <v>-2.81</v>
+        <v>25.91</v>
       </c>
       <c r="W15">
-        <v>47.13</v>
+        <v>68.27</v>
       </c>
       <c r="X15">
-        <v>7.04</v>
+        <v>3.32</v>
       </c>
       <c r="Y15" t="s">
         <v>144</v>
       </c>
       <c r="Z15" s="1">
-        <v>104.2296663920085</v>
+        <v>65.80799916585286</v>
       </c>
       <c r="AA15" s="1">
-        <v>116.3765923331417</v>
+        <v>73.25345352351493</v>
       </c>
       <c r="AB15" s="1">
-        <v>92.08274045087525</v>
+        <v>58.36254480819079</v>
       </c>
       <c r="AC15">
-        <v>7.67</v>
+        <v>8.9</v>
       </c>
       <c r="AD15">
-        <v>1.65</v>
+        <v>3.13</v>
       </c>
       <c r="AE15" s="2">
-        <v>0.052800003</v>
+        <v>0.070199996</v>
       </c>
       <c r="AF15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG15" s="1">
         <v>3</v>
@@ -3599,79 +3599,79 @@
         <v>169</v>
       </c>
       <c r="AI15">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AJ15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15">
         <v>0</v>
       </c>
       <c r="AO15" s="2">
-        <v>0.25</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="AP15" s="2">
-        <v>0.75</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="AQ15" s="2">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AR15" s="2">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="AS15" s="2">
         <v>0</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="AU15" s="2">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="AV15" s="1">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="AW15" s="2">
-        <v>-0.3686425815503332</v>
+        <v>-0.4474334738985022</v>
       </c>
       <c r="AX15" s="1">
-        <v>106.33333</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="AY15" s="2">
-        <v>-0.06757865661171521</v>
+        <v>0.02777373854878597</v>
       </c>
       <c r="AZ15" s="1">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="BA15" s="2">
-        <v>0.2276394247632409</v>
+        <v>0.4104987639959286</v>
       </c>
       <c r="BB15" t="s">
         <v>173</v>
       </c>
       <c r="BC15">
-        <v>-2.81</v>
+        <v>25.91</v>
       </c>
       <c r="BD15">
-        <v>2.868483030550199</v>
+        <v>7.386001967392559</v>
       </c>
       <c r="BE15">
-        <v>-2.312829362386117</v>
+        <v>13.51930433223153</v>
       </c>
       <c r="BF15">
-        <v>12.72116534497729</v>
+        <v>8.452920373052248</v>
       </c>
       <c r="BG15">
-        <v>256.3750028610229</v>
+        <v>73.66161437609179</v>
       </c>
       <c r="BH15" t="s">
         <v>176</v>
@@ -3682,97 +3682,91 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
         <v>133</v>
       </c>
       <c r="G16" s="1">
-        <v>48.54</v>
+        <v>114.04</v>
       </c>
       <c r="H16">
-        <v>11.36</v>
+        <v>19.57</v>
       </c>
       <c r="I16">
-        <v>234</v>
+        <v>171.64</v>
       </c>
       <c r="J16">
-        <v>217.64</v>
+        <v>151.53</v>
       </c>
       <c r="K16" s="1">
-        <v>30.8782</v>
+        <v>101.0322</v>
       </c>
       <c r="L16" s="2">
-        <v>0.5719828228329371</v>
+        <v>0.1287490522823417</v>
       </c>
       <c r="M16" s="1">
-        <v>23.939</v>
+        <v>68.32841999999999</v>
       </c>
       <c r="N16" s="2">
-        <v>1.027653619616525</v>
-      </c>
-      <c r="O16">
-        <v>18.5</v>
-      </c>
-      <c r="P16" s="2">
-        <v>1.623783783783784</v>
+        <v>0.6689980538112841</v>
       </c>
       <c r="Q16">
-        <v>4.61</v>
+        <v>3.56</v>
       </c>
       <c r="R16">
-        <v>4.35</v>
+        <v>5.4</v>
       </c>
       <c r="S16">
-        <v>76.16</v>
+        <v>54.81</v>
       </c>
       <c r="T16">
-        <v>89.09999999999999</v>
+        <v>57.73</v>
       </c>
       <c r="U16">
-        <v>88.34</v>
+        <v>69.98</v>
       </c>
       <c r="V16">
-        <v>24.91</v>
+        <v>-2.81</v>
       </c>
       <c r="W16">
-        <v>67.56</v>
+        <v>47.13</v>
       </c>
       <c r="X16">
-        <v>3.02</v>
+        <v>7.04</v>
       </c>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z16" s="1">
-        <v>44.37016677856445</v>
+        <v>104.2296663920085</v>
       </c>
       <c r="AA16" s="1">
-        <v>50.00590987491284</v>
+        <v>116.3765923331417</v>
       </c>
       <c r="AB16" s="1">
-        <v>38.73442368221607</v>
+        <v>92.08274045087525</v>
       </c>
       <c r="AC16">
-        <v>46.44</v>
+        <v>7.67</v>
       </c>
       <c r="AD16">
-        <v>4.22</v>
+        <v>1.65</v>
       </c>
       <c r="AE16" s="2">
-        <v>0.28190002</v>
+        <v>0.052800003</v>
       </c>
       <c r="AF16" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AG16" s="1">
         <v>3</v>
@@ -3781,79 +3775,79 @@
         <v>169</v>
       </c>
       <c r="AI16">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AJ16">
         <v>3</v>
       </c>
       <c r="AK16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="2">
         <v>1</v>
       </c>
-      <c r="AO16" s="2">
-        <v>0.1304347826086956</v>
-      </c>
-      <c r="AP16" s="2">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="AQ16" s="2">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="AR16" s="2">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="AS16" s="2">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="AT16" s="2">
-        <v>0.4782608695652174</v>
-      </c>
       <c r="AU16" s="2">
-        <v>0.1304347826086956</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="1">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="AW16" s="2">
-        <v>-0.7939843428100536</v>
+        <v>-0.3686425815503332</v>
       </c>
       <c r="AX16" s="1">
-        <v>34.77</v>
+        <v>106.33333</v>
       </c>
       <c r="AY16" s="2">
-        <v>-0.2836835599505562</v>
+        <v>-0.06757865661171521</v>
       </c>
       <c r="AZ16" s="1">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="BA16" s="2">
-        <v>-0.01112484548825709</v>
+        <v>0.2276394247632409</v>
       </c>
       <c r="BB16" t="s">
         <v>173</v>
       </c>
       <c r="BC16">
-        <v>24.91</v>
+        <v>-2.81</v>
       </c>
       <c r="BD16">
-        <v>8.275705850858703</v>
+        <v>2.868483030550199</v>
       </c>
       <c r="BE16">
-        <v>7.199651555028358</v>
+        <v>-2.312829362386117</v>
       </c>
       <c r="BF16">
-        <v>46.82395311314939</v>
+        <v>12.72116534497729</v>
       </c>
       <c r="BG16">
-        <v>321.7202428348072</v>
+        <v>256.3750028610229</v>
       </c>
       <c r="BH16" t="s">
         <v>176</v>
@@ -3864,94 +3858,94 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
         <v>133</v>
       </c>
       <c r="G17" s="1">
-        <v>66.70999999999999</v>
+        <v>197.46</v>
       </c>
       <c r="H17">
-        <v>11.26</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="I17">
-        <v>168.79</v>
+        <v>44.95</v>
       </c>
       <c r="J17">
-        <v>165.24</v>
+        <v>43.91</v>
       </c>
       <c r="K17" s="1">
-        <v>54.0824</v>
+        <v>175.7406</v>
       </c>
       <c r="L17" s="2">
-        <v>0.2334881588095202</v>
+        <v>0.1235878334317739</v>
       </c>
       <c r="M17" s="1">
-        <v>36.538</v>
+        <v>172.1884</v>
       </c>
       <c r="N17" s="2">
-        <v>0.8257704307843888</v>
+        <v>0.1467671457543017</v>
       </c>
       <c r="O17">
-        <v>20.76</v>
+        <v>153.9</v>
       </c>
       <c r="P17" s="2">
-        <v>2.213391136801541</v>
+        <v>0.2830409356725146</v>
       </c>
       <c r="Q17">
-        <v>3.59</v>
+        <v>6.21</v>
       </c>
       <c r="R17">
-        <v>4.06</v>
+        <v>7.59</v>
       </c>
       <c r="S17">
-        <v>64.34999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="T17">
-        <v>72.13</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="U17">
-        <v>76.06</v>
+        <v>92.02</v>
       </c>
       <c r="V17">
-        <v>13.2</v>
+        <v>-0.77</v>
       </c>
       <c r="W17">
-        <v>69.52</v>
+        <v>44.96</v>
       </c>
       <c r="X17">
-        <v>3.56</v>
+        <v>2.29</v>
       </c>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Z17" s="1">
-        <v>66.19133313496907</v>
+        <v>194.5476689656576</v>
       </c>
       <c r="AA17" s="1">
-        <v>72.02706258061581</v>
+        <v>211.602274745569</v>
       </c>
       <c r="AB17" s="1">
-        <v>60.35560368932234</v>
+        <v>177.4930631857461</v>
       </c>
       <c r="AC17">
-        <v>9.91</v>
+        <v>3.98</v>
       </c>
       <c r="AD17">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="AE17" s="2">
-        <v>0.060100004</v>
+        <v>0.1018</v>
       </c>
       <c r="AF17" t="s">
         <v>163</v>
@@ -3966,13 +3960,13 @@
         <v>15</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
         <v>2</v>
       </c>
-      <c r="AK17">
-        <v>11</v>
-      </c>
       <c r="AL17">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -3981,61 +3975,61 @@
         <v>0</v>
       </c>
       <c r="AO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="2">
         <v>0.1333333333333333</v>
       </c>
-      <c r="AP17" s="2">
-        <v>0.7333333333333333</v>
-      </c>
       <c r="AQ17" s="2">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="2">
         <v>0.1333333333333333</v>
       </c>
-      <c r="AR17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="2">
-        <v>0.8666666666666666</v>
-      </c>
       <c r="AU17" s="2">
         <v>0</v>
       </c>
       <c r="AV17" s="1">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="AW17" s="2">
-        <v>-0.1005846199970019</v>
+        <v>-0.1441304568013775</v>
       </c>
       <c r="AX17" s="1">
-        <v>70.46666999999999</v>
+        <v>205.83333</v>
       </c>
       <c r="AY17" s="2">
-        <v>0.05631344625993105</v>
+        <v>0.04240519598906098</v>
       </c>
       <c r="AZ17" s="1">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="BA17" s="2">
-        <v>0.1992205066706642</v>
+        <v>0.1495999189709308</v>
       </c>
       <c r="BB17" t="s">
         <v>173</v>
       </c>
       <c r="BC17">
-        <v>13.2</v>
+        <v>-0.77</v>
       </c>
       <c r="BD17">
-        <v>2.979315130509994</v>
+        <v>-0.07084989135835187</v>
       </c>
       <c r="BE17">
-        <v>-2.613140022667655</v>
+        <v>-0.3834095964865526</v>
       </c>
       <c r="BF17">
-        <v>13.72314909307946</v>
+        <v>15.82591017273812</v>
       </c>
       <c r="BG17">
-        <v>220.875402341369</v>
+        <v>69.52266571351637</v>
       </c>
       <c r="BH17" t="s">
         <v>176</v>
@@ -4046,13 +4040,13 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E18" t="s">
         <v>130</v>
@@ -4061,157 +4055,163 @@
         <v>132</v>
       </c>
       <c r="G18" s="1">
-        <v>68.77</v>
+        <v>172.44</v>
       </c>
       <c r="H18">
-        <v>10.44</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="I18">
-        <v>147.96</v>
+        <v>57.7</v>
       </c>
       <c r="J18">
-        <v>146.93</v>
+        <v>55.24</v>
       </c>
       <c r="K18" s="1">
-        <v>60.3477</v>
+        <v>152.5732</v>
       </c>
       <c r="L18" s="2">
-        <v>0.1395628996631188</v>
+        <v>0.1302115967941944</v>
       </c>
       <c r="M18" s="1">
-        <v>48.05045</v>
+        <v>140.7778</v>
       </c>
       <c r="N18" s="2">
-        <v>0.4312040782136276</v>
+        <v>0.2249090410561891</v>
+      </c>
+      <c r="O18">
+        <v>108.93</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.5830349765904709</v>
       </c>
       <c r="Q18">
-        <v>1.59</v>
+        <v>5.88</v>
       </c>
       <c r="R18">
-        <v>0.27</v>
+        <v>4.95</v>
       </c>
       <c r="S18">
-        <v>64.78</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="T18">
-        <v>55.58</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="U18">
-        <v>39.77</v>
+        <v>96.61</v>
       </c>
       <c r="V18">
-        <v>25.91</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="W18">
-        <v>68.27</v>
+        <v>93.45</v>
       </c>
       <c r="X18">
-        <v>3.32</v>
+        <v>3.29</v>
       </c>
       <c r="Y18" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Z18" s="1">
-        <v>65.80799916585286</v>
+        <v>169.5949991861979</v>
       </c>
       <c r="AA18" s="1">
-        <v>73.25345352351493</v>
+        <v>172.7605538135426</v>
       </c>
       <c r="AB18" s="1">
-        <v>58.36254480819079</v>
+        <v>166.4294445588532</v>
       </c>
       <c r="AC18">
-        <v>8.9</v>
+        <v>1.73</v>
       </c>
       <c r="AD18">
-        <v>3.13</v>
+        <v>3.98</v>
       </c>
       <c r="AE18" s="2">
-        <v>0.070199996</v>
+        <v>0.041199997</v>
       </c>
       <c r="AF18" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AG18" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AI18">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="AJ18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK18">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AM18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN18">
         <v>0</v>
       </c>
       <c r="AO18" s="2">
-        <v>0.1923076923076923</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AP18" s="2">
-        <v>0.5384615384615384</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AQ18" s="2">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR18" s="2">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="2">
         <v>0</v>
       </c>
       <c r="AT18" s="2">
-        <v>0.7307692307692307</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="AU18" s="2">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="1">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="AW18" s="2">
-        <v>-0.4474334738985022</v>
+        <v>-0.06634191602876362</v>
       </c>
       <c r="AX18" s="1">
-        <v>70.68000000000001</v>
+        <v>173</v>
       </c>
       <c r="AY18" s="2">
-        <v>0.02777373854878597</v>
+        <v>0.003247506379030401</v>
       </c>
       <c r="AZ18" s="1">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="BA18" s="2">
-        <v>0.4104987639959286</v>
+        <v>0.1308281141266528</v>
       </c>
       <c r="BB18" t="s">
         <v>173</v>
       </c>
       <c r="BC18">
-        <v>25.91</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="BD18">
-        <v>7.386001967392559</v>
+        <v>1.890804091454276</v>
       </c>
       <c r="BE18">
-        <v>13.51930433223153</v>
+        <v>3.773246880634983</v>
       </c>
       <c r="BF18">
-        <v>8.452920373052248</v>
+        <v>25.16512818013721</v>
       </c>
       <c r="BG18">
-        <v>73.66161437609179</v>
+        <v>20.19843488219923</v>
       </c>
       <c r="BH18" t="s">
         <v>176</v>
@@ -4222,115 +4222,115 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F19" t="s">
         <v>133</v>
       </c>
       <c r="G19" s="1">
-        <v>197.46</v>
+        <v>294.35</v>
       </c>
       <c r="H19">
-        <v>8.869999999999999</v>
+        <v>10.52</v>
       </c>
       <c r="I19">
-        <v>44.95</v>
+        <v>35.73</v>
       </c>
       <c r="J19">
-        <v>43.91</v>
+        <v>35.54</v>
       </c>
       <c r="K19" s="1">
-        <v>175.7406</v>
+        <v>300.5644</v>
       </c>
       <c r="L19" s="2">
-        <v>0.1235878334317739</v>
+        <v>-0.02067576865390564</v>
       </c>
       <c r="M19" s="1">
-        <v>172.1884</v>
+        <v>240.67375</v>
       </c>
       <c r="N19" s="2">
-        <v>0.1467671457543017</v>
+        <v>0.2230249455954378</v>
       </c>
       <c r="O19">
-        <v>153.9</v>
+        <v>166.81</v>
       </c>
       <c r="P19" s="2">
-        <v>0.2830409356725146</v>
+        <v>0.7645824590851868</v>
       </c>
       <c r="Q19">
-        <v>6.21</v>
+        <v>-1.96</v>
       </c>
       <c r="R19">
-        <v>7.59</v>
+        <v>5.66</v>
       </c>
       <c r="S19">
-        <v>69.59999999999999</v>
+        <v>43.9</v>
       </c>
       <c r="T19">
-        <v>79.90000000000001</v>
+        <v>39.58</v>
       </c>
       <c r="U19">
-        <v>92.02</v>
+        <v>56.03</v>
       </c>
       <c r="V19">
-        <v>-0.77</v>
+        <v>-11.46</v>
       </c>
       <c r="W19">
-        <v>44.96</v>
+        <v>50.43</v>
       </c>
       <c r="X19">
-        <v>2.29</v>
+        <v>15.54</v>
       </c>
       <c r="Y19" t="s">
         <v>146</v>
       </c>
       <c r="Z19" s="1">
-        <v>194.5476689656576</v>
+        <v>294.5760030110677</v>
       </c>
       <c r="AA19" s="1">
-        <v>211.602274745569</v>
+        <v>326.1060370961656</v>
       </c>
       <c r="AB19" s="1">
-        <v>177.4930631857461</v>
+        <v>263.0459689259699</v>
       </c>
       <c r="AC19">
-        <v>3.98</v>
+        <v>1.59</v>
       </c>
       <c r="AD19">
-        <v>1.71</v>
+        <v>3.26</v>
       </c>
       <c r="AE19" s="2">
-        <v>0.1018</v>
+        <v>0.0623</v>
       </c>
       <c r="AF19" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AG19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI19">
+        <v>9</v>
+      </c>
+      <c r="AJ19">
+        <v>2</v>
+      </c>
+      <c r="AK19">
         <v>3</v>
       </c>
-      <c r="AH19" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI19">
-        <v>15</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>2</v>
-      </c>
       <c r="AL19">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AM19">
         <v>0</v>
@@ -4339,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="AO19" s="2">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AP19" s="2">
-        <v>0.1333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ19" s="2">
-        <v>0.8666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AR19" s="2">
         <v>0</v>
@@ -4354,46 +4354,46 @@
         <v>0</v>
       </c>
       <c r="AT19" s="2">
-        <v>0.1333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AU19" s="2">
         <v>0</v>
       </c>
       <c r="AV19" s="1">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="AW19" s="2">
-        <v>-0.1441304568013775</v>
+        <v>-0.2525904535417021</v>
       </c>
       <c r="AX19" s="1">
-        <v>205.83333</v>
+        <v>321.25</v>
       </c>
       <c r="AY19" s="2">
-        <v>0.04240519598906098</v>
+        <v>0.09138780363512816</v>
       </c>
       <c r="AZ19" s="1">
-        <v>227</v>
+        <v>375</v>
       </c>
       <c r="BA19" s="2">
-        <v>0.1495999189709308</v>
+        <v>0.2739935450993714</v>
       </c>
       <c r="BB19" t="s">
         <v>173</v>
       </c>
       <c r="BC19">
-        <v>-0.77</v>
+        <v>-11.46</v>
       </c>
       <c r="BD19">
-        <v>-0.07084989135835187</v>
+        <v>6.248194132504492</v>
       </c>
       <c r="BE19">
-        <v>-0.3834095964865526</v>
+        <v>-10.74893359659758</v>
       </c>
       <c r="BF19">
-        <v>15.82591017273812</v>
+        <v>-3.444316808192745</v>
       </c>
       <c r="BG19">
-        <v>69.52266571351637</v>
+        <v>9.832091829670009</v>
       </c>
       <c r="BH19" t="s">
         <v>176</v>
@@ -4404,13 +4404,13 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
         <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
         <v>129</v>
@@ -4419,100 +4419,100 @@
         <v>132</v>
       </c>
       <c r="G20" s="1">
-        <v>172.44</v>
+        <v>121.59</v>
       </c>
       <c r="H20">
-        <v>9.949999999999999</v>
+        <v>9.23</v>
       </c>
       <c r="I20">
-        <v>57.7</v>
+        <v>75.93000000000001</v>
       </c>
       <c r="J20">
-        <v>55.24</v>
+        <v>72.84</v>
       </c>
       <c r="K20" s="1">
-        <v>152.5732</v>
+        <v>109.0276</v>
       </c>
       <c r="L20" s="2">
-        <v>0.1302115967941944</v>
+        <v>0.1152222006170914</v>
       </c>
       <c r="M20" s="1">
-        <v>140.7778</v>
+        <v>109.2984</v>
       </c>
       <c r="N20" s="2">
-        <v>0.2249090410561891</v>
+        <v>0.1124591027865001</v>
       </c>
       <c r="O20">
-        <v>108.93</v>
+        <v>89.58</v>
       </c>
       <c r="P20" s="2">
-        <v>0.5830349765904709</v>
+        <v>0.3573342263898192</v>
       </c>
       <c r="Q20">
-        <v>5.88</v>
+        <v>2.53</v>
       </c>
       <c r="R20">
-        <v>4.95</v>
+        <v>1.96</v>
       </c>
       <c r="S20">
-        <v>77.95999999999999</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="T20">
-        <v>96.51000000000001</v>
+        <v>90.04000000000001</v>
       </c>
       <c r="U20">
-        <v>96.61</v>
+        <v>80.67</v>
       </c>
       <c r="V20">
-        <v>9.050000000000001</v>
+        <v>10.54</v>
       </c>
       <c r="W20">
-        <v>93.45</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="X20">
-        <v>3.29</v>
+        <v>2.76</v>
       </c>
       <c r="Y20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Z20" s="1">
-        <v>169.5949991861979</v>
+        <v>116.1600001017253</v>
       </c>
       <c r="AA20" s="1">
-        <v>172.7605538135426</v>
+        <v>120.5173690508233</v>
       </c>
       <c r="AB20" s="1">
-        <v>166.4294445588532</v>
+        <v>111.8026311526272</v>
       </c>
       <c r="AC20">
-        <v>1.73</v>
+        <v>2.11</v>
       </c>
       <c r="AD20">
-        <v>3.98</v>
+        <v>3.76</v>
       </c>
       <c r="AE20" s="2">
-        <v>0.041199997</v>
+        <v>0.032899998</v>
       </c>
       <c r="AF20" t="s">
         <v>165</v>
       </c>
       <c r="AG20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AI20">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AJ20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AK20">
         <v>4</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -4521,13 +4521,13 @@
         <v>0</v>
       </c>
       <c r="AO20" s="2">
-        <v>0.1666666666666667</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AP20" s="2">
-        <v>0.6666666666666666</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AQ20" s="2">
-        <v>0.1666666666666667</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="AR20" s="2">
         <v>0</v>
@@ -4536,46 +4536,46 @@
         <v>0</v>
       </c>
       <c r="AT20" s="2">
-        <v>0.8333333333333333</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AU20" s="2">
         <v>0</v>
       </c>
       <c r="AV20" s="1">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="AW20" s="2">
-        <v>-0.06634191602876362</v>
+        <v>-0.0130767332839872</v>
       </c>
       <c r="AX20" s="1">
-        <v>173</v>
+        <v>131.72726</v>
       </c>
       <c r="AY20" s="2">
-        <v>0.003247506379030401</v>
+        <v>0.08337248128957972</v>
       </c>
       <c r="AZ20" s="1">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="BA20" s="2">
-        <v>0.1308281141266528</v>
+        <v>0.233654083395016</v>
       </c>
       <c r="BB20" t="s">
         <v>173</v>
       </c>
       <c r="BC20">
-        <v>9.050000000000001</v>
+        <v>10.54</v>
       </c>
       <c r="BD20">
-        <v>1.890804091454276</v>
+        <v>5.556032434099359</v>
       </c>
       <c r="BE20">
-        <v>3.773246880634983</v>
+        <v>5.656929443217297</v>
       </c>
       <c r="BF20">
-        <v>25.16512818013721</v>
+        <v>12.53122897150398</v>
       </c>
       <c r="BG20">
-        <v>20.19842209782049</v>
+        <v>27.22667216753991</v>
       </c>
       <c r="BH20" t="s">
         <v>176</v>
@@ -4586,94 +4586,94 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
         <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G21" s="1">
-        <v>121.59</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="H21">
-        <v>9.23</v>
+        <v>11.26</v>
       </c>
       <c r="I21">
-        <v>75.93000000000001</v>
+        <v>168.79</v>
       </c>
       <c r="J21">
-        <v>72.84</v>
+        <v>165.24</v>
       </c>
       <c r="K21" s="1">
-        <v>109.0276</v>
+        <v>54.0824</v>
       </c>
       <c r="L21" s="2">
-        <v>0.1152222006170914</v>
+        <v>0.2334881588095202</v>
       </c>
       <c r="M21" s="1">
-        <v>109.2984</v>
+        <v>36.538</v>
       </c>
       <c r="N21" s="2">
-        <v>0.1124591027865001</v>
+        <v>0.8257704307843888</v>
       </c>
       <c r="O21">
-        <v>89.58</v>
+        <v>20.76</v>
       </c>
       <c r="P21" s="2">
-        <v>0.3573342263898192</v>
+        <v>2.213391136801541</v>
       </c>
       <c r="Q21">
-        <v>2.53</v>
+        <v>3.59</v>
       </c>
       <c r="R21">
-        <v>1.96</v>
+        <v>4.06</v>
       </c>
       <c r="S21">
-        <v>72.56999999999999</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="T21">
-        <v>90.04000000000001</v>
+        <v>72.13</v>
       </c>
       <c r="U21">
-        <v>80.67</v>
+        <v>76.06</v>
       </c>
       <c r="V21">
-        <v>10.54</v>
+        <v>13.2</v>
       </c>
       <c r="W21">
-        <v>65.73999999999999</v>
+        <v>69.52</v>
       </c>
       <c r="X21">
-        <v>2.76</v>
+        <v>3.56</v>
       </c>
       <c r="Y21" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="Z21" s="1">
-        <v>116.1600001017253</v>
+        <v>66.19133313496907</v>
       </c>
       <c r="AA21" s="1">
-        <v>120.5173690508233</v>
+        <v>72.02706258061581</v>
       </c>
       <c r="AB21" s="1">
-        <v>111.8026311526272</v>
+        <v>60.35560368932234</v>
       </c>
       <c r="AC21">
-        <v>2.11</v>
+        <v>9.91</v>
       </c>
       <c r="AD21">
-        <v>3.76</v>
+        <v>1.98</v>
       </c>
       <c r="AE21" s="2">
-        <v>0.032899998</v>
+        <v>0.060100004</v>
       </c>
       <c r="AF21" t="s">
         <v>166</v>
@@ -4685,16 +4685,16 @@
         <v>169</v>
       </c>
       <c r="AI21">
+        <v>15</v>
+      </c>
+      <c r="AJ21">
+        <v>2</v>
+      </c>
+      <c r="AK21">
         <v>11</v>
       </c>
-      <c r="AJ21">
-        <v>4</v>
-      </c>
-      <c r="AK21">
-        <v>4</v>
-      </c>
       <c r="AL21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -4703,13 +4703,13 @@
         <v>0</v>
       </c>
       <c r="AO21" s="2">
-        <v>0.3636363636363636</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AP21" s="2">
-        <v>0.3636363636363636</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="AQ21" s="2">
-        <v>0.2727272727272727</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AR21" s="2">
         <v>0</v>
@@ -4718,46 +4718,46 @@
         <v>0</v>
       </c>
       <c r="AT21" s="2">
-        <v>0.7272727272727273</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="AU21" s="2">
         <v>0</v>
       </c>
       <c r="AV21" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AW21" s="2">
-        <v>-0.0130767332839872</v>
+        <v>-0.1005846199970019</v>
       </c>
       <c r="AX21" s="1">
-        <v>131.72726</v>
+        <v>70.46666999999999</v>
       </c>
       <c r="AY21" s="2">
-        <v>0.08337248128957972</v>
+        <v>0.05631344625993105</v>
       </c>
       <c r="AZ21" s="1">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="BA21" s="2">
-        <v>0.233654083395016</v>
+        <v>0.1992205066706642</v>
       </c>
       <c r="BB21" t="s">
         <v>173</v>
       </c>
       <c r="BC21">
-        <v>10.54</v>
+        <v>13.2</v>
       </c>
       <c r="BD21">
-        <v>5.556032434099359</v>
+        <v>2.979315130509994</v>
       </c>
       <c r="BE21">
-        <v>5.656929443217297</v>
+        <v>-2.613140022667655</v>
       </c>
       <c r="BF21">
-        <v>12.53122897150398</v>
+        <v>13.72314909307946</v>
       </c>
       <c r="BG21">
-        <v>27.22668232414574</v>
+        <v>220.875402341369</v>
       </c>
       <c r="BH21" t="s">
         <v>176</v>
@@ -4768,10 +4768,7 @@
         <v>80</v>
       </c>
       <c r="G22" s="1">
-        <v>0.2168</v>
-      </c>
-      <c r="J22">
-        <v>22.15</v>
+        <v>0.6702</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -4825,7 +4822,7 @@
         <v>-1</v>
       </c>
       <c r="BB22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BH22" t="s">
         <v>177</v>
@@ -4835,41 +4832,20 @@
       <c r="A23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>114</v>
-      </c>
       <c r="G23" s="1">
-        <v>10.33</v>
-      </c>
-      <c r="H23">
-        <v>0.26</v>
-      </c>
-      <c r="I23">
-        <v>25.18</v>
+        <v>0.2168</v>
       </c>
       <c r="J23">
         <v>22.15</v>
       </c>
       <c r="K23" s="1">
-        <v>10.3644</v>
-      </c>
-      <c r="L23" s="2">
-        <v>-0.00331905368376363</v>
+        <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>10.219084</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0.01085381038065638</v>
-      </c>
-      <c r="AC23">
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="2">
         <v>0</v>
@@ -5084,23 +5060,98 @@
       <c r="A26" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" t="s">
+        <v>132</v>
+      </c>
       <c r="G26" s="1">
-        <v>0.6702</v>
+        <v>3.28</v>
+      </c>
+      <c r="H26">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I26">
+        <v>20.4</v>
+      </c>
+      <c r="J26">
+        <v>4.03</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>2.3076</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.421390188940891</v>
       </c>
       <c r="M26" s="1">
-        <v>0</v>
+        <v>1.75875</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.864960909737029</v>
+      </c>
+      <c r="O26">
+        <v>2.29</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0.4323144104803492</v>
+      </c>
+      <c r="Q26">
+        <v>0.31</v>
+      </c>
+      <c r="R26">
+        <v>0.22</v>
+      </c>
+      <c r="S26">
+        <v>70.65000000000001</v>
+      </c>
+      <c r="T26">
+        <v>74.56999999999999</v>
+      </c>
+      <c r="U26">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="V26">
+        <v>41.38</v>
+      </c>
+      <c r="W26">
+        <v>57.02</v>
+      </c>
+      <c r="X26">
+        <v>0.26</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>3.127666624387105</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>3.710225575134539</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>2.54510767363967</v>
+      </c>
+      <c r="AC26">
+        <v>0.01</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AE26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>171</v>
+        <v>0.0029</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>167</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -5140,6 +5191,21 @@
       </c>
       <c r="BB26" t="s">
         <v>173</v>
+      </c>
+      <c r="BC26">
+        <v>41.38</v>
+      </c>
+      <c r="BD26">
+        <v>1.863352243678002</v>
+      </c>
+      <c r="BE26">
+        <v>6.493508202528228</v>
+      </c>
+      <c r="BF26">
+        <v>44.49339202421577</v>
+      </c>
+      <c r="BG26">
+        <v>120.5862678150934</v>
       </c>
       <c r="BH26" t="s">
         <v>177</v>
@@ -5224,94 +5290,43 @@
         <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="G28" s="1">
-        <v>3.28</v>
+        <v>10.33</v>
       </c>
       <c r="H28">
-        <v>0.07000000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="I28">
-        <v>20.4</v>
+        <v>25.18</v>
       </c>
       <c r="J28">
-        <v>4.03</v>
+        <v>22.15</v>
       </c>
       <c r="K28" s="1">
-        <v>2.3076</v>
+        <v>10.3644</v>
       </c>
       <c r="L28" s="2">
-        <v>0.421390188940891</v>
+        <v>-0.00331905368376363</v>
       </c>
       <c r="M28" s="1">
-        <v>1.75875</v>
+        <v>10.219084</v>
       </c>
       <c r="N28" s="2">
-        <v>0.864960909737029</v>
-      </c>
-      <c r="O28">
-        <v>2.29</v>
-      </c>
-      <c r="P28" s="2">
-        <v>0.4323144104803492</v>
-      </c>
-      <c r="Q28">
-        <v>0.31</v>
-      </c>
-      <c r="R28">
-        <v>0.22</v>
-      </c>
-      <c r="S28">
-        <v>70.65000000000001</v>
-      </c>
-      <c r="T28">
-        <v>74.56999999999999</v>
-      </c>
-      <c r="U28">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="V28">
-        <v>41.38</v>
-      </c>
-      <c r="W28">
-        <v>57.02</v>
-      </c>
-      <c r="X28">
-        <v>0.26</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>3.127666624387105</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>3.710225575134539</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>2.54510767363967</v>
+        <v>0.01085381038065638</v>
       </c>
       <c r="AC28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>0.48</v>
+        <v>0.11</v>
       </c>
       <c r="AE28" s="2">
-        <v>0.0029</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>167</v>
+        <v>0</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>171</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -5350,22 +5365,7 @@
         <v>-1</v>
       </c>
       <c r="BB28" t="s">
-        <v>173</v>
-      </c>
-      <c r="BC28">
-        <v>41.38</v>
-      </c>
-      <c r="BD28">
-        <v>1.863352243678002</v>
-      </c>
-      <c r="BE28">
-        <v>6.493508202528228</v>
-      </c>
-      <c r="BF28">
-        <v>44.49339202421577</v>
-      </c>
-      <c r="BG28">
-        <v>120.5862678150934</v>
+        <v>174</v>
       </c>
       <c r="BH28" t="s">
         <v>177</v>
@@ -5376,16 +5376,16 @@
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
         <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F29" t="s">
         <v>133</v>
@@ -5466,7 +5466,7 @@
         <v>0.19870001</v>
       </c>
       <c r="AF29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AG29" s="1">
         <v>4</v>
@@ -5704,7 +5704,7 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
         <v>117</v>
@@ -5794,7 +5794,7 @@
         <v>0.0953</v>
       </c>
       <c r="AF31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG31" s="1">
         <v>4</v>

--- a/market_report_2025-08-24.xlsx
+++ b/market_report_2025-08-24.xlsx
@@ -196,201 +196,201 @@
     <t>Source</t>
   </si>
   <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AFL</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>AOS</t>
+  </si>
+  <si>
     <t>ACN</t>
   </si>
   <si>
-    <t>AOS</t>
-  </si>
-  <si>
-    <t>ABT</t>
-  </si>
-  <si>
-    <t>AFL</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>ABBV</t>
-  </si>
-  <si>
-    <t>AES</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
     <t>MMM</t>
   </si>
   <si>
-    <t>AMD</t>
+    <t>SPXC</t>
+  </si>
+  <si>
+    <t>NXT</t>
   </si>
   <si>
     <t>IONQ</t>
   </si>
   <si>
-    <t>SPXC</t>
-  </si>
-  <si>
     <t>BE</t>
   </si>
   <si>
-    <t>NXT</t>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>GTLS</t>
   </si>
   <si>
     <t>CRDO</t>
   </si>
   <si>
-    <t>GTLS</t>
+    <t>UMBF</t>
   </si>
   <si>
     <t>ENSG</t>
   </si>
   <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>UMBF</t>
-  </si>
-  <si>
     <t>KTOS</t>
   </si>
   <si>
+    <t>AACIU</t>
+  </si>
+  <si>
+    <t>AACB</t>
+  </si>
+  <si>
+    <t>AACBU</t>
+  </si>
+  <si>
+    <t>AACBR</t>
+  </si>
+  <si>
+    <t>AACI</t>
+  </si>
+  <si>
     <t>AACIW</t>
   </si>
   <si>
-    <t>AACBR</t>
-  </si>
-  <si>
-    <t>AACB</t>
-  </si>
-  <si>
-    <t>AACI</t>
+    <t>AACG</t>
+  </si>
+  <si>
+    <t>AAOI</t>
+  </si>
+  <si>
+    <t>AAL</t>
   </si>
   <si>
     <t>AAME</t>
   </si>
   <si>
-    <t>AACIU</t>
-  </si>
-  <si>
-    <t>AACBU</t>
-  </si>
-  <si>
-    <t>AAOI</t>
-  </si>
-  <si>
-    <t>AACG</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
     <t>Technology</t>
   </si>
   <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
     <t>Industrials</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
+    <t>Utilities - Diversified</t>
+  </si>
+  <si>
+    <t>Diagnostics &amp; Research</t>
+  </si>
+  <si>
+    <t>Insurance - Life</t>
+  </si>
+  <si>
+    <t>Medical Devices</t>
+  </si>
+  <si>
+    <t>Drug Manufacturers - General</t>
+  </si>
+  <si>
+    <t>Software - Application</t>
+  </si>
+  <si>
+    <t>Specialty Industrial Machinery</t>
+  </si>
+  <si>
     <t>Information Technology Services</t>
   </si>
   <si>
-    <t>Specialty Industrial Machinery</t>
-  </si>
-  <si>
-    <t>Medical Devices</t>
-  </si>
-  <si>
-    <t>Insurance - Life</t>
-  </si>
-  <si>
-    <t>Diagnostics &amp; Research</t>
-  </si>
-  <si>
-    <t>Drug Manufacturers - General</t>
-  </si>
-  <si>
-    <t>Utilities - Diversified</t>
-  </si>
-  <si>
-    <t>Software - Application</t>
-  </si>
-  <si>
     <t>Conglomerates</t>
   </si>
   <si>
-    <t>Semiconductors</t>
+    <t>Building Products &amp; Equipment</t>
+  </si>
+  <si>
+    <t>Solar</t>
   </si>
   <si>
     <t>Computer Hardware</t>
   </si>
   <si>
-    <t>Building Products &amp; Equipment</t>
-  </si>
-  <si>
     <t>Electrical Equipment &amp; Parts</t>
   </si>
   <si>
-    <t>Solar</t>
+    <t>Electronic Components</t>
+  </si>
+  <si>
+    <t>Banks - Regional</t>
   </si>
   <si>
     <t>Medical Care Facilities</t>
   </si>
   <si>
-    <t>Electronic Components</t>
-  </si>
-  <si>
-    <t>Banks - Regional</t>
-  </si>
-  <si>
     <t>Aerospace &amp; Defense</t>
   </si>
   <si>
     <t>Shell Companies</t>
   </si>
   <si>
+    <t>Education &amp; Training Services</t>
+  </si>
+  <si>
     <t>Communication Equipment</t>
   </si>
   <si>
-    <t>Education &amp; Training Services</t>
-  </si>
-  <si>
     <t>Airlines</t>
   </si>
   <si>
+    <t>Computer &amp; Electronic Products</t>
+  </si>
+  <si>
+    <t>Health Care &amp; Social Assistance</t>
+  </si>
+  <si>
+    <t>Finance &amp; Insurance</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
     <t>Professional, Scientific &amp; Technical Services</t>
   </si>
   <si>
-    <t>Machinery</t>
-  </si>
-  <si>
-    <t>Health Care &amp; Social Assistance</t>
-  </si>
-  <si>
-    <t>Finance &amp; Insurance</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
     <t>Management of Companies &amp; Support Services</t>
   </si>
   <si>
-    <t>Computer &amp; Electronic Products</t>
-  </si>
-  <si>
     <t>Fabricated Metal Products</t>
   </si>
   <si>
@@ -412,115 +412,115 @@
     <t>Consumer</t>
   </si>
   <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
     <t>Services</t>
   </si>
   <si>
-    <t>Manufacturing</t>
+    <t>4.3%</t>
+  </si>
+  <si>
+    <t>3.3%</t>
+  </si>
+  <si>
+    <t>2.3%</t>
+  </si>
+  <si>
+    <t>1.5%</t>
+  </si>
+  <si>
+    <t>1.9%</t>
   </si>
   <si>
     <t>2.5%</t>
   </si>
   <si>
-    <t>1.9%</t>
-  </si>
-  <si>
-    <t>1.5%</t>
-  </si>
-  <si>
-    <t>2.3%</t>
-  </si>
-  <si>
-    <t>3.3%</t>
-  </si>
-  <si>
     <t>2.2%</t>
   </si>
   <si>
-    <t>4.3%</t>
+    <t>2.6%</t>
+  </si>
+  <si>
+    <t>4.8%</t>
   </si>
   <si>
     <t>6.6%</t>
   </si>
   <si>
-    <t>2.6%</t>
-  </si>
-  <si>
     <t>6.2%</t>
   </si>
   <si>
-    <t>4.8%</t>
+    <t>5.3%</t>
   </si>
   <si>
     <t>1.2%</t>
   </si>
   <si>
-    <t>5.3%</t>
+    <t>13.3%</t>
+  </si>
+  <si>
+    <t>10.0%</t>
+  </si>
+  <si>
+    <t>3.5%</t>
   </si>
   <si>
     <t>7.9%</t>
   </si>
   <si>
-    <t>10.0%</t>
-  </si>
-  <si>
-    <t>13.3%</t>
-  </si>
-  <si>
-    <t>3.5%</t>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>2025-09-10 , 2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-10-21</t>
   </si>
   <si>
     <t>2025-09-24 , 2025-09-29</t>
   </si>
   <si>
-    <t>2025-10-21</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>2025-11-03</t>
-  </si>
-  <si>
-    <t>2025-08-27</t>
-  </si>
-  <si>
-    <t>2025-07-31</t>
-  </si>
-  <si>
-    <t>2025-09-10 , 2025-09-15</t>
-  </si>
-  <si>
     <t>2025-07-18</t>
   </si>
   <si>
-    <t>2025-11-04</t>
+    <t>2025-10-29</t>
   </si>
   <si>
     <t>2025-11-05</t>
   </si>
   <si>
-    <t>2025-10-29</t>
+    <t>2025-07-29</t>
   </si>
   <si>
     <t>2025-09-03</t>
   </si>
   <si>
-    <t>2025-07-29</t>
+    <t>2025-10-28</t>
   </si>
   <si>
     <t>2025-10-23</t>
   </si>
   <si>
-    <t>2025-10-28</t>
-  </si>
-  <si>
     <t>2025-11-06</t>
   </si>
   <si>
+    <t>2025-08-05 , 2025-08-11</t>
+  </si>
+  <si>
     <t>2025-08-13</t>
-  </si>
-  <si>
-    <t>2025-08-05 , 2025-08-11</t>
   </si>
   <si>
     <t>Hold</t>
@@ -1155,79 +1155,79 @@
         <v>132</v>
       </c>
       <c r="G2" s="1">
-        <v>259.22</v>
+        <v>167.76</v>
       </c>
       <c r="H2">
-        <v>161.46</v>
+        <v>272.25</v>
       </c>
       <c r="I2">
-        <v>622.85</v>
+        <v>1622.84</v>
       </c>
       <c r="J2">
-        <v>621.78</v>
+        <v>1611.37</v>
       </c>
       <c r="K2" s="1">
-        <v>278.1116</v>
+        <v>154.8776</v>
       </c>
       <c r="L2" s="2">
-        <v>-0.0679281266944636</v>
+        <v>0.08317794180694942</v>
       </c>
       <c r="M2" s="1">
-        <v>323.4465</v>
+        <v>124.82215</v>
       </c>
       <c r="N2" s="2">
-        <v>-0.1985691605876087</v>
+        <v>0.3439922321479</v>
       </c>
       <c r="O2">
-        <v>316.43</v>
+        <v>119.32</v>
       </c>
       <c r="P2" s="2">
-        <v>-0.1807982808204026</v>
+        <v>0.4059671471672813</v>
       </c>
       <c r="Q2">
-        <v>-7.34</v>
+        <v>3.69</v>
       </c>
       <c r="R2">
-        <v>-10.2</v>
+        <v>6.29</v>
       </c>
       <c r="S2">
-        <v>48.03</v>
+        <v>51.39</v>
       </c>
       <c r="T2">
-        <v>28.65</v>
+        <v>55.63</v>
       </c>
       <c r="U2">
-        <v>19.16</v>
+        <v>64.5</v>
       </c>
       <c r="V2">
-        <v>4.72</v>
+        <v>2.84</v>
       </c>
       <c r="W2">
-        <v>43.23</v>
+        <v>43.89</v>
       </c>
       <c r="X2">
-        <v>6.38</v>
+        <v>7.18</v>
       </c>
       <c r="Y2" t="s">
         <v>134</v>
       </c>
       <c r="Z2" s="1">
-        <v>244.4089991251628</v>
+        <v>170.009336344401</v>
       </c>
       <c r="AA2" s="1">
-        <v>266.1653140137007</v>
+        <v>178.932280033033</v>
       </c>
       <c r="AB2" s="1">
-        <v>222.6526842366248</v>
+        <v>161.0863926557691</v>
       </c>
       <c r="AC2">
-        <v>12.4</v>
+        <v>42.12</v>
       </c>
       <c r="AD2">
-        <v>3.49</v>
+        <v>0.79</v>
       </c>
       <c r="AE2" s="2">
-        <v>0.0199</v>
+        <v>0.026099999</v>
       </c>
       <c r="AF2" t="s">
         <v>151</v>
@@ -1239,79 +1239,79 @@
         <v>169</v>
       </c>
       <c r="AI2">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AJ2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AL2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="2">
-        <v>0.08695652173913043</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="AP2" s="2">
-        <v>0.5217391304347826</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="AQ2" s="2">
-        <v>0.3043478260869565</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="AR2" s="2">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="2">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="2">
-        <v>0.6086956521739131</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.08695652173913043</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="1">
-        <v>240</v>
+        <v>125.1</v>
       </c>
       <c r="AW2" s="2">
-        <v>-0.07414551346346743</v>
+        <v>-0.2542918454935622</v>
       </c>
       <c r="AX2" s="1">
-        <v>323.41</v>
+        <v>183.86523</v>
       </c>
       <c r="AY2" s="2">
-        <v>0.2476274978782501</v>
+        <v>0.09600160944206013</v>
       </c>
       <c r="AZ2" s="1">
-        <v>372</v>
+        <v>230</v>
       </c>
       <c r="BA2" s="2">
-        <v>0.4350744541316255</v>
+        <v>0.3710061993323797</v>
       </c>
       <c r="BB2" t="s">
         <v>173</v>
       </c>
       <c r="BC2">
-        <v>4.72</v>
+        <v>2.84</v>
       </c>
       <c r="BD2">
-        <v>2.05913445979268</v>
+        <v>2.47387919300946</v>
       </c>
       <c r="BE2">
-        <v>4.943122539735645</v>
+        <v>-5.492648471477771</v>
       </c>
       <c r="BF2">
-        <v>-7.983383946806617</v>
+        <v>3.478904243472002</v>
       </c>
       <c r="BG2">
-        <v>-20.09228861117785</v>
+        <v>7.263427783680315</v>
       </c>
       <c r="BH2" t="s">
         <v>175</v>
@@ -1328,88 +1328,88 @@
         <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
         <v>133</v>
       </c>
       <c r="G3" s="1">
-        <v>73.61</v>
+        <v>13.49</v>
       </c>
       <c r="H3">
-        <v>10.31</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="I3">
-        <v>114.26</v>
+        <v>712.05</v>
       </c>
       <c r="J3">
-        <v>223.79</v>
+        <v>708.04</v>
       </c>
       <c r="K3" s="1">
-        <v>69.066</v>
+        <v>12.4076</v>
       </c>
       <c r="L3" s="2">
-        <v>0.06579214085078036</v>
+        <v>0.08723685483091007</v>
       </c>
       <c r="M3" s="1">
-        <v>68.44615</v>
+        <v>11.91885</v>
       </c>
       <c r="N3" s="2">
-        <v>0.0754439804137997</v>
+        <v>0.1318206034978206</v>
       </c>
       <c r="O3">
-        <v>70.70999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="P3" s="2">
-        <v>0.04101258662141148</v>
+        <v>-0.2973958333333333</v>
       </c>
       <c r="Q3">
-        <v>0.9</v>
+        <v>0.18</v>
       </c>
       <c r="R3">
-        <v>0.9</v>
+        <v>0.21</v>
       </c>
       <c r="S3">
-        <v>62.39</v>
+        <v>58.61</v>
       </c>
       <c r="T3">
-        <v>51.37</v>
+        <v>42.39</v>
       </c>
       <c r="U3">
-        <v>42.84</v>
+        <v>34.7</v>
       </c>
       <c r="V3">
-        <v>4.32</v>
+        <v>5.06</v>
       </c>
       <c r="W3">
-        <v>47.8</v>
+        <v>56.09</v>
       </c>
       <c r="X3">
-        <v>1.4</v>
+        <v>0.45</v>
       </c>
       <c r="Y3" t="s">
         <v>135</v>
       </c>
       <c r="Z3" s="1">
-        <v>70.27000172932942</v>
+        <v>18.0056666692098</v>
       </c>
       <c r="AA3" s="1">
-        <v>72.97617135179587</v>
+        <v>30.49628480239076</v>
       </c>
       <c r="AB3" s="1">
-        <v>67.56383210686298</v>
+        <v>5.515048536028832</v>
       </c>
       <c r="AC3">
-        <v>2.88</v>
+        <v>31.47</v>
       </c>
       <c r="AD3">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AE3" s="2">
-        <v>0.0254</v>
+        <v>0.0508</v>
       </c>
       <c r="AF3" t="s">
         <v>152</v>
@@ -1421,79 +1421,79 @@
         <v>169</v>
       </c>
       <c r="AI3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK3">
+        <v>5</v>
+      </c>
+      <c r="AL3">
         <v>4</v>
       </c>
-      <c r="AL3">
-        <v>10</v>
-      </c>
       <c r="AM3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3" s="2">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AP3" s="2">
-        <v>0.2666666666666667</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="AQ3" s="2">
-        <v>0.6666666666666666</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AR3" s="2">
-        <v>0.06666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AS3" s="2">
         <v>0</v>
       </c>
       <c r="AT3" s="2">
-        <v>0.2666666666666667</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AU3" s="2">
-        <v>0.06666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AV3" s="1">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="AW3" s="2">
-        <v>-0.1169678032875968</v>
+        <v>-0.6293550778354337</v>
       </c>
       <c r="AX3" s="1">
-        <v>79.83333</v>
+        <v>13.83333</v>
       </c>
       <c r="AY3" s="2">
-        <v>0.08454462708871083</v>
+        <v>0.02545070422535211</v>
       </c>
       <c r="AZ3" s="1">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="BA3" s="2">
-        <v>0.2090748539600598</v>
+        <v>0.7049666419570052</v>
       </c>
       <c r="BB3" t="s">
         <v>173</v>
       </c>
       <c r="BC3">
-        <v>4.32</v>
+        <v>5.06</v>
       </c>
       <c r="BD3">
-        <v>2.592335345437718</v>
+        <v>4.009248214213629</v>
       </c>
       <c r="BE3">
-        <v>1.938791779018246</v>
+        <v>1.352361726722233</v>
       </c>
       <c r="BF3">
-        <v>0.03387267296447476</v>
+        <v>-0.9202911854068001</v>
       </c>
       <c r="BG3">
-        <v>-7.109170921181998</v>
+        <v>-17.78675676131215</v>
       </c>
       <c r="BH3" t="s">
         <v>175</v>
@@ -1510,88 +1510,88 @@
         <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
         <v>130</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G4" s="1">
-        <v>132.59</v>
+        <v>121.63</v>
       </c>
       <c r="H4">
-        <v>230.77</v>
+        <v>34.55</v>
       </c>
       <c r="I4">
-        <v>1740.46</v>
+        <v>284.06</v>
       </c>
       <c r="J4">
-        <v>1730.23</v>
+        <v>283</v>
       </c>
       <c r="K4" s="1">
-        <v>131.2102</v>
+        <v>117.8192</v>
       </c>
       <c r="L4" s="2">
-        <v>0.01051595074163455</v>
+        <v>0.03234447356627783</v>
       </c>
       <c r="M4" s="1">
-        <v>126.90365</v>
+        <v>124.36135</v>
       </c>
       <c r="N4" s="2">
-        <v>0.0448084038559963</v>
+        <v>-0.02196301342820745</v>
       </c>
       <c r="O4">
-        <v>113.83</v>
+        <v>132.26</v>
       </c>
       <c r="P4" s="2">
-        <v>0.1648071685847317</v>
+        <v>-0.0803719945561772</v>
       </c>
       <c r="Q4">
-        <v>0.55</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R4">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="S4">
-        <v>56.03</v>
+        <v>58.66</v>
       </c>
       <c r="T4">
-        <v>66.62</v>
+        <v>73.34999999999999</v>
       </c>
       <c r="U4">
-        <v>69.67</v>
+        <v>61.47</v>
       </c>
       <c r="V4">
-        <v>1.27</v>
+        <v>7.42</v>
       </c>
       <c r="W4">
-        <v>45.58</v>
+        <v>66.59</v>
       </c>
       <c r="X4">
-        <v>2.57</v>
+        <v>2.74</v>
       </c>
       <c r="Y4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z4" s="1">
-        <v>107.6106676737467</v>
+        <v>119.1213340759277</v>
       </c>
       <c r="AA4" s="1">
-        <v>183.8281920229611</v>
+        <v>122.4926823093446</v>
       </c>
       <c r="AB4" s="1">
-        <v>31.39314332453235</v>
+        <v>115.7499858425109</v>
       </c>
       <c r="AC4">
-        <v>18.33</v>
+        <v>3.06</v>
       </c>
       <c r="AD4">
-        <v>2.44</v>
+        <v>1.69</v>
       </c>
       <c r="AE4" s="2">
-        <v>0.0106</v>
+        <v>0.012200001</v>
       </c>
       <c r="AF4" t="s">
         <v>153</v>
@@ -1603,79 +1603,79 @@
         <v>169</v>
       </c>
       <c r="AI4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AJ4">
+        <v>2</v>
+      </c>
+      <c r="AK4">
         <v>6</v>
       </c>
-      <c r="AK4">
-        <v>14</v>
-      </c>
       <c r="AL4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="2">
-        <v>0.2142857142857143</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AP4" s="2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ4" s="2">
-        <v>0.25</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AR4" s="2">
         <v>0</v>
       </c>
       <c r="AS4" s="2">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="2">
-        <v>0.7142857142857143</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AU4" s="2">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AW4" s="2">
-        <v>-0.07987027679312168</v>
+        <v>-0.01340129902162292</v>
       </c>
       <c r="AX4" s="1">
-        <v>142.4848</v>
+        <v>137.56667</v>
       </c>
       <c r="AY4" s="2">
-        <v>0.07462704578022478</v>
+        <v>0.1310258159993422</v>
       </c>
       <c r="AZ4" s="1">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="BA4" s="2">
-        <v>0.1991854589335545</v>
+        <v>0.3565732138452685</v>
       </c>
       <c r="BB4" t="s">
         <v>173</v>
       </c>
       <c r="BC4">
-        <v>1.27</v>
+        <v>7.42</v>
       </c>
       <c r="BD4">
-        <v>0.4469669226444129</v>
+        <v>3.824153366783707</v>
       </c>
       <c r="BE4">
-        <v>0.6375683779055977</v>
+        <v>2.038590912238791</v>
       </c>
       <c r="BF4">
-        <v>5.531675407517395</v>
+        <v>1.063563602430883</v>
       </c>
       <c r="BG4">
-        <v>21.99888270180058</v>
+        <v>-12.29647614443281</v>
       </c>
       <c r="BH4" t="s">
         <v>175</v>
@@ -1692,13 +1692,13 @@
         <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
         <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G5" s="1">
         <v>108.46</v>
@@ -1755,7 +1755,7 @@
         <v>1.66</v>
       </c>
       <c r="Y5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z5" s="1">
         <v>108.1583346048991</v>
@@ -1874,88 +1874,88 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
         <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G6" s="1">
-        <v>121.63</v>
+        <v>132.59</v>
       </c>
       <c r="H6">
-        <v>34.55</v>
+        <v>230.77</v>
       </c>
       <c r="I6">
-        <v>284.06</v>
+        <v>1740.46</v>
       </c>
       <c r="J6">
-        <v>283</v>
+        <v>1730.23</v>
       </c>
       <c r="K6" s="1">
-        <v>117.8192</v>
+        <v>131.2102</v>
       </c>
       <c r="L6" s="2">
-        <v>0.03234447356627783</v>
+        <v>0.01051595074163455</v>
       </c>
       <c r="M6" s="1">
-        <v>124.36135</v>
+        <v>126.90365</v>
       </c>
       <c r="N6" s="2">
-        <v>-0.02196301342820745</v>
+        <v>0.0448084038559963</v>
       </c>
       <c r="O6">
-        <v>132.26</v>
+        <v>113.83</v>
       </c>
       <c r="P6" s="2">
-        <v>-0.0803719945561772</v>
+        <v>0.1648071685847317</v>
       </c>
       <c r="Q6">
-        <v>0.6899999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="R6">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="S6">
-        <v>58.66</v>
+        <v>56.03</v>
       </c>
       <c r="T6">
-        <v>73.34999999999999</v>
+        <v>66.62</v>
       </c>
       <c r="U6">
-        <v>61.47</v>
+        <v>69.67</v>
       </c>
       <c r="V6">
-        <v>7.42</v>
+        <v>1.27</v>
       </c>
       <c r="W6">
-        <v>66.59</v>
+        <v>45.58</v>
       </c>
       <c r="X6">
-        <v>2.74</v>
+        <v>2.57</v>
       </c>
       <c r="Y6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Z6" s="1">
-        <v>119.1213340759277</v>
+        <v>107.6106676737467</v>
       </c>
       <c r="AA6" s="1">
-        <v>122.4926823093446</v>
+        <v>183.8281920229611</v>
       </c>
       <c r="AB6" s="1">
-        <v>115.7499858425109</v>
+        <v>31.39314332453235</v>
       </c>
       <c r="AC6">
-        <v>3.06</v>
+        <v>18.33</v>
       </c>
       <c r="AD6">
-        <v>1.69</v>
+        <v>2.44</v>
       </c>
       <c r="AE6" s="2">
-        <v>0.012200001</v>
+        <v>0.0106</v>
       </c>
       <c r="AF6" t="s">
         <v>155</v>
@@ -1967,79 +1967,79 @@
         <v>169</v>
       </c>
       <c r="AI6">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AJ6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AK6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AL6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AM6">
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6" s="2">
-        <v>0.1111111111111111</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AP6" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="AQ6" s="2">
-        <v>0.5555555555555556</v>
+        <v>0.25</v>
       </c>
       <c r="AR6" s="2">
         <v>0</v>
       </c>
       <c r="AS6" s="2">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AT6" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AU6" s="2">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AV6" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AW6" s="2">
-        <v>-0.01340129902162292</v>
+        <v>-0.07987027679312168</v>
       </c>
       <c r="AX6" s="1">
-        <v>137.56667</v>
+        <v>142.4848</v>
       </c>
       <c r="AY6" s="2">
-        <v>0.1310258159993422</v>
+        <v>0.07462704578022478</v>
       </c>
       <c r="AZ6" s="1">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="BA6" s="2">
-        <v>0.3565732138452685</v>
+        <v>0.1991854589335545</v>
       </c>
       <c r="BB6" t="s">
         <v>173</v>
       </c>
       <c r="BC6">
-        <v>7.42</v>
+        <v>1.27</v>
       </c>
       <c r="BD6">
-        <v>3.824153366783707</v>
+        <v>0.4469669226444129</v>
       </c>
       <c r="BE6">
-        <v>2.038590912238791</v>
+        <v>0.6375683779055977</v>
       </c>
       <c r="BF6">
-        <v>1.063563602430883</v>
+        <v>5.531675407517395</v>
       </c>
       <c r="BG6">
-        <v>-12.29647614443281</v>
+        <v>21.99888270180058</v>
       </c>
       <c r="BH6" t="s">
         <v>175</v>
@@ -2056,13 +2056,13 @@
         <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
         <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G7" s="1">
         <v>210.6</v>
@@ -2119,7 +2119,7 @@
         <v>3.96</v>
       </c>
       <c r="Y7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Z7" s="1">
         <v>208.2009963989258</v>
@@ -2140,7 +2140,7 @@
         <v>0.0086</v>
       </c>
       <c r="AF7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AG7" s="1">
         <v>3</v>
@@ -2232,94 +2232,94 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G8" s="1">
-        <v>13.49</v>
+        <v>362.09</v>
       </c>
       <c r="H8">
-        <v>9.609999999999999</v>
+        <v>153.6</v>
       </c>
       <c r="I8">
-        <v>712.05</v>
+        <v>424.2</v>
       </c>
       <c r="J8">
-        <v>708.04</v>
+        <v>422.97</v>
       </c>
       <c r="K8" s="1">
-        <v>12.4076</v>
+        <v>367.5244</v>
       </c>
       <c r="L8" s="2">
-        <v>0.08723685483091007</v>
+        <v>-0.01478650124998514</v>
       </c>
       <c r="M8" s="1">
-        <v>11.91885</v>
+        <v>415.8365</v>
       </c>
       <c r="N8" s="2">
-        <v>0.1318206034978206</v>
+        <v>-0.1292491159385961</v>
       </c>
       <c r="O8">
-        <v>19.2</v>
+        <v>458.38</v>
       </c>
       <c r="P8" s="2">
-        <v>-0.2973958333333333</v>
+        <v>-0.2100658842008814</v>
       </c>
       <c r="Q8">
-        <v>0.18</v>
+        <v>-3.21</v>
       </c>
       <c r="R8">
-        <v>0.21</v>
+        <v>-6.07</v>
       </c>
       <c r="S8">
-        <v>58.61</v>
+        <v>53.68</v>
       </c>
       <c r="T8">
-        <v>42.39</v>
+        <v>51.57</v>
       </c>
       <c r="U8">
-        <v>34.7</v>
+        <v>40.02</v>
       </c>
       <c r="V8">
-        <v>5.06</v>
+        <v>4.77</v>
       </c>
       <c r="W8">
-        <v>56.09</v>
+        <v>55.46</v>
       </c>
       <c r="X8">
-        <v>0.45</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="Y8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Z8" s="1">
-        <v>18.0056666692098</v>
+        <v>532.4466583251952</v>
       </c>
       <c r="AA8" s="1">
-        <v>30.49628480239076</v>
+        <v>895.6610366366838</v>
       </c>
       <c r="AB8" s="1">
-        <v>5.515048536028832</v>
+        <v>169.2322800137067</v>
       </c>
       <c r="AC8">
-        <v>31.47</v>
+        <v>10.41</v>
       </c>
       <c r="AD8">
-        <v>1.74</v>
+        <v>2.98</v>
       </c>
       <c r="AE8" s="2">
-        <v>0.0508</v>
+        <v>0.024600001</v>
       </c>
       <c r="AF8" t="s">
         <v>156</v>
@@ -2331,16 +2331,16 @@
         <v>169</v>
       </c>
       <c r="AI8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="AJ8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AL8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AM8">
         <v>2</v>
@@ -2349,61 +2349,61 @@
         <v>0</v>
       </c>
       <c r="AO8" s="2">
-        <v>0.2142857142857143</v>
+        <v>0.15</v>
       </c>
       <c r="AP8" s="2">
-        <v>0.3571428571428572</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.3</v>
       </c>
       <c r="AR8" s="2">
-        <v>0.1428571428571428</v>
+        <v>0.05</v>
       </c>
       <c r="AS8" s="2">
         <v>0</v>
       </c>
       <c r="AT8" s="2">
-        <v>0.5714285714285714</v>
+        <v>0.65</v>
       </c>
       <c r="AU8" s="2">
-        <v>0.1428571428571428</v>
+        <v>0.05</v>
       </c>
       <c r="AV8" s="1">
-        <v>5</v>
+        <v>280</v>
       </c>
       <c r="AW8" s="2">
-        <v>-0.6293550778354337</v>
+        <v>-0.2267115910409014</v>
       </c>
       <c r="AX8" s="1">
-        <v>13.83333</v>
+        <v>480.63913</v>
       </c>
       <c r="AY8" s="2">
-        <v>0.02545070422535211</v>
+        <v>0.3274023861470907</v>
       </c>
       <c r="AZ8" s="1">
-        <v>23</v>
+        <v>605</v>
       </c>
       <c r="BA8" s="2">
-        <v>0.7049666419570052</v>
+        <v>0.6708553122151952</v>
       </c>
       <c r="BB8" t="s">
         <v>173</v>
       </c>
       <c r="BC8">
-        <v>5.06</v>
+        <v>4.77</v>
       </c>
       <c r="BD8">
-        <v>4.009248214213629</v>
+        <v>2.45027412544855</v>
       </c>
       <c r="BE8">
-        <v>1.352361726722233</v>
+        <v>2.040295930631314</v>
       </c>
       <c r="BF8">
-        <v>-0.9202911854068001</v>
+        <v>-2.582799117667682</v>
       </c>
       <c r="BG8">
-        <v>-17.78675676131215</v>
+        <v>-35.59982279450589</v>
       </c>
       <c r="BH8" t="s">
         <v>175</v>
@@ -2414,7 +2414,7 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
@@ -2429,79 +2429,79 @@
         <v>132</v>
       </c>
       <c r="G9" s="1">
-        <v>362.09</v>
+        <v>73.61</v>
       </c>
       <c r="H9">
-        <v>153.6</v>
+        <v>10.31</v>
       </c>
       <c r="I9">
-        <v>424.2</v>
+        <v>114.26</v>
       </c>
       <c r="J9">
-        <v>422.97</v>
+        <v>223.79</v>
       </c>
       <c r="K9" s="1">
-        <v>367.5244</v>
+        <v>69.066</v>
       </c>
       <c r="L9" s="2">
-        <v>-0.01478650124998514</v>
+        <v>0.06579214085078036</v>
       </c>
       <c r="M9" s="1">
-        <v>415.8365</v>
+        <v>68.44615</v>
       </c>
       <c r="N9" s="2">
-        <v>-0.1292491159385961</v>
+        <v>0.0754439804137997</v>
       </c>
       <c r="O9">
-        <v>458.38</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="P9" s="2">
-        <v>-0.2100658842008814</v>
+        <v>0.04101258662141148</v>
       </c>
       <c r="Q9">
-        <v>-3.21</v>
+        <v>0.9</v>
       </c>
       <c r="R9">
-        <v>-6.07</v>
+        <v>0.9</v>
       </c>
       <c r="S9">
-        <v>53.68</v>
+        <v>62.39</v>
       </c>
       <c r="T9">
-        <v>51.57</v>
+        <v>51.37</v>
       </c>
       <c r="U9">
-        <v>40.02</v>
+        <v>42.84</v>
       </c>
       <c r="V9">
-        <v>4.77</v>
+        <v>4.32</v>
       </c>
       <c r="W9">
-        <v>55.46</v>
+        <v>47.8</v>
       </c>
       <c r="X9">
-        <v>8.220000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Y9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Z9" s="1">
-        <v>532.4466583251952</v>
+        <v>70.27000172932942</v>
       </c>
       <c r="AA9" s="1">
-        <v>895.6610366366838</v>
+        <v>72.97617135179587</v>
       </c>
       <c r="AB9" s="1">
-        <v>169.2322800137067</v>
+        <v>67.56383210686298</v>
       </c>
       <c r="AC9">
-        <v>10.41</v>
+        <v>2.88</v>
       </c>
       <c r="AD9">
-        <v>2.98</v>
+        <v>1.73</v>
       </c>
       <c r="AE9" s="2">
-        <v>0.024600001</v>
+        <v>0.0254</v>
       </c>
       <c r="AF9" t="s">
         <v>157</v>
@@ -2513,79 +2513,79 @@
         <v>169</v>
       </c>
       <c r="AI9">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AJ9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AL9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN9">
         <v>0</v>
       </c>
       <c r="AO9" s="2">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="2">
-        <v>0.5</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AQ9" s="2">
-        <v>0.3</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AR9" s="2">
-        <v>0.05</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AS9" s="2">
         <v>0</v>
       </c>
       <c r="AT9" s="2">
-        <v>0.65</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AU9" s="2">
-        <v>0.05</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AV9" s="1">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="AW9" s="2">
-        <v>-0.2267115910409014</v>
+        <v>-0.1169678032875968</v>
       </c>
       <c r="AX9" s="1">
-        <v>480.63913</v>
+        <v>79.83333</v>
       </c>
       <c r="AY9" s="2">
-        <v>0.3274023861470907</v>
+        <v>0.08454462708871083</v>
       </c>
       <c r="AZ9" s="1">
-        <v>605</v>
+        <v>89</v>
       </c>
       <c r="BA9" s="2">
-        <v>0.6708553122151952</v>
+        <v>0.2090748539600598</v>
       </c>
       <c r="BB9" t="s">
         <v>173</v>
       </c>
       <c r="BC9">
-        <v>4.77</v>
+        <v>4.32</v>
       </c>
       <c r="BD9">
-        <v>2.45027412544855</v>
+        <v>2.592335345437718</v>
       </c>
       <c r="BE9">
-        <v>2.040295930631314</v>
+        <v>1.938791779018246</v>
       </c>
       <c r="BF9">
-        <v>-2.582799117667682</v>
+        <v>0.03387267296447476</v>
       </c>
       <c r="BG9">
-        <v>-35.59982279450589</v>
+        <v>-7.10916197785784</v>
       </c>
       <c r="BH9" t="s">
         <v>175</v>
@@ -2596,7 +2596,7 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
@@ -2608,82 +2608,82 @@
         <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G10" s="1">
-        <v>158.72</v>
+        <v>259.22</v>
       </c>
       <c r="H10">
-        <v>84.54000000000001</v>
+        <v>161.46</v>
       </c>
       <c r="I10">
-        <v>532.63</v>
+        <v>622.85</v>
       </c>
       <c r="J10">
-        <v>531.86</v>
+        <v>621.78</v>
       </c>
       <c r="K10" s="1">
-        <v>151.8338</v>
+        <v>278.1116</v>
       </c>
       <c r="L10" s="2">
-        <v>0.04535353788155208</v>
+        <v>-0.0679281266944636</v>
       </c>
       <c r="M10" s="1">
-        <v>143.593</v>
+        <v>323.4465</v>
       </c>
       <c r="N10" s="2">
-        <v>0.1053463608950298</v>
+        <v>-0.1985691605876087</v>
       </c>
       <c r="O10">
-        <v>113.19</v>
+        <v>316.43</v>
       </c>
       <c r="P10" s="2">
-        <v>0.4022440144889124</v>
+        <v>-0.1807982808204026</v>
       </c>
       <c r="Q10">
-        <v>1.25</v>
+        <v>-7.34</v>
       </c>
       <c r="R10">
-        <v>0.92</v>
+        <v>-10.2</v>
       </c>
       <c r="S10">
-        <v>60</v>
+        <v>48.03</v>
       </c>
       <c r="T10">
-        <v>69.44</v>
+        <v>28.65</v>
       </c>
       <c r="U10">
-        <v>63.47</v>
+        <v>19.16</v>
       </c>
       <c r="V10">
-        <v>5.24</v>
+        <v>4.72</v>
       </c>
       <c r="W10">
-        <v>64.48</v>
+        <v>43.23</v>
       </c>
       <c r="X10">
-        <v>3.5</v>
+        <v>6.38</v>
       </c>
       <c r="Y10" t="s">
         <v>139</v>
       </c>
       <c r="Z10" s="1">
-        <v>139.7848403930664</v>
+        <v>244.4089991251628</v>
       </c>
       <c r="AA10" s="1">
-        <v>236.1444596010518</v>
+        <v>266.1653140137007</v>
       </c>
       <c r="AB10" s="1">
-        <v>43.42522118508106</v>
+        <v>222.6526842366248</v>
       </c>
       <c r="AC10">
-        <v>9.23</v>
+        <v>12.4</v>
       </c>
       <c r="AD10">
-        <v>2.28</v>
+        <v>3.49</v>
       </c>
       <c r="AE10" s="2">
-        <v>0.0174</v>
+        <v>0.0199</v>
       </c>
       <c r="AF10" t="s">
         <v>158</v>
@@ -2695,79 +2695,79 @@
         <v>169</v>
       </c>
       <c r="AI10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AJ10">
         <v>2</v>
       </c>
       <c r="AK10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AM10">
         <v>1</v>
       </c>
       <c r="AN10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO10" s="2">
-        <v>0.1111111111111111</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="AP10" s="2">
-        <v>0.5</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AQ10" s="2">
-        <v>0.2222222222222222</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="AR10" s="2">
-        <v>0.05555555555555555</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AS10" s="2">
-        <v>0.1111111111111111</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT10" s="2">
-        <v>0.6111111111111112</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="AU10" s="2">
-        <v>0.1666666666666667</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="AV10" s="1">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="AW10" s="2">
-        <v>-0.3636592741935484</v>
+        <v>-0.07414551346346743</v>
       </c>
       <c r="AX10" s="1">
-        <v>161.14941</v>
+        <v>323.41</v>
       </c>
       <c r="AY10" s="2">
-        <v>0.01530626260080639</v>
+        <v>0.2476274978782501</v>
       </c>
       <c r="AZ10" s="1">
-        <v>187</v>
+        <v>372</v>
       </c>
       <c r="BA10" s="2">
-        <v>0.1781754032258065</v>
+        <v>0.4350744541316255</v>
       </c>
       <c r="BB10" t="s">
         <v>173</v>
       </c>
       <c r="BC10">
-        <v>5.24</v>
+        <v>4.72</v>
       </c>
       <c r="BD10">
-        <v>2.811242518864441</v>
+        <v>2.05913445979268</v>
       </c>
       <c r="BE10">
-        <v>4.153817085378027</v>
+        <v>4.943122539735645</v>
       </c>
       <c r="BF10">
-        <v>6.309442716943336</v>
+        <v>-7.983383946806617</v>
       </c>
       <c r="BG10">
-        <v>26.86392648486682</v>
+        <v>-20.09228109392805</v>
       </c>
       <c r="BH10" t="s">
         <v>175</v>
@@ -2778,7 +2778,7 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
         <v>105</v>
@@ -2793,79 +2793,79 @@
         <v>133</v>
       </c>
       <c r="G11" s="1">
-        <v>167.76</v>
+        <v>158.72</v>
       </c>
       <c r="H11">
-        <v>272.25</v>
+        <v>84.54000000000001</v>
       </c>
       <c r="I11">
-        <v>1622.84</v>
+        <v>532.63</v>
       </c>
       <c r="J11">
-        <v>1611.37</v>
+        <v>531.86</v>
       </c>
       <c r="K11" s="1">
-        <v>154.8776</v>
+        <v>151.8338</v>
       </c>
       <c r="L11" s="2">
-        <v>0.08317794180694942</v>
+        <v>0.04535353788155208</v>
       </c>
       <c r="M11" s="1">
-        <v>124.82215</v>
+        <v>143.593</v>
       </c>
       <c r="N11" s="2">
-        <v>0.3439922321479</v>
+        <v>0.1053463608950298</v>
       </c>
       <c r="O11">
-        <v>119.32</v>
+        <v>113.19</v>
       </c>
       <c r="P11" s="2">
-        <v>0.4059671471672813</v>
+        <v>0.4022440144889124</v>
       </c>
       <c r="Q11">
-        <v>3.69</v>
+        <v>1.25</v>
       </c>
       <c r="R11">
-        <v>6.29</v>
+        <v>0.92</v>
       </c>
       <c r="S11">
-        <v>51.39</v>
+        <v>60</v>
       </c>
       <c r="T11">
-        <v>55.63</v>
+        <v>69.44</v>
       </c>
       <c r="U11">
-        <v>64.5</v>
+        <v>63.47</v>
       </c>
       <c r="V11">
-        <v>2.84</v>
+        <v>5.24</v>
       </c>
       <c r="W11">
-        <v>43.89</v>
+        <v>64.48</v>
       </c>
       <c r="X11">
-        <v>7.18</v>
+        <v>3.5</v>
       </c>
       <c r="Y11" t="s">
         <v>140</v>
       </c>
       <c r="Z11" s="1">
-        <v>170.009336344401</v>
+        <v>139.7848403930664</v>
       </c>
       <c r="AA11" s="1">
-        <v>178.932280033033</v>
+        <v>236.1444596010518</v>
       </c>
       <c r="AB11" s="1">
-        <v>161.0863926557691</v>
+        <v>43.42522118508106</v>
       </c>
       <c r="AC11">
-        <v>42.12</v>
+        <v>9.23</v>
       </c>
       <c r="AD11">
-        <v>0.79</v>
+        <v>2.28</v>
       </c>
       <c r="AE11" s="2">
-        <v>0.026099999</v>
+        <v>0.0174</v>
       </c>
       <c r="AF11" t="s">
         <v>159</v>
@@ -2877,79 +2877,79 @@
         <v>169</v>
       </c>
       <c r="AI11">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="AJ11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK11">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="AL11">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO11" s="2">
-        <v>0.09803921568627451</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AP11" s="2">
-        <v>0.5882352941176471</v>
+        <v>0.5</v>
       </c>
       <c r="AQ11" s="2">
-        <v>0.3137254901960784</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AR11" s="2">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="AS11" s="2">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AT11" s="2">
-        <v>0.6862745098039216</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="AU11" s="2">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AV11" s="1">
-        <v>125.1</v>
+        <v>101</v>
       </c>
       <c r="AW11" s="2">
-        <v>-0.2542918454935622</v>
+        <v>-0.3636592741935484</v>
       </c>
       <c r="AX11" s="1">
-        <v>183.86523</v>
+        <v>161.14941</v>
       </c>
       <c r="AY11" s="2">
-        <v>0.09600160944206013</v>
+        <v>0.01530626260080639</v>
       </c>
       <c r="AZ11" s="1">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="BA11" s="2">
-        <v>0.3710061993323797</v>
+        <v>0.1781754032258065</v>
       </c>
       <c r="BB11" t="s">
         <v>173</v>
       </c>
       <c r="BC11">
-        <v>2.84</v>
+        <v>5.24</v>
       </c>
       <c r="BD11">
-        <v>2.47387919300946</v>
+        <v>2.811242518864441</v>
       </c>
       <c r="BE11">
-        <v>-5.492648471477771</v>
+        <v>4.153817085378027</v>
       </c>
       <c r="BF11">
-        <v>3.478904243472002</v>
+        <v>6.309442716943336</v>
       </c>
       <c r="BG11">
-        <v>7.263427783680315</v>
+        <v>26.86392648486682</v>
       </c>
       <c r="BH11" t="s">
         <v>175</v>
@@ -2960,94 +2960,94 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
         <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
         <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" s="1">
-        <v>39.78</v>
+        <v>190.47</v>
       </c>
       <c r="H12">
-        <v>11.81</v>
+        <v>9.41</v>
       </c>
       <c r="I12">
-        <v>296.84</v>
+        <v>49.42</v>
       </c>
       <c r="J12">
-        <v>289.42</v>
+        <v>45.77</v>
       </c>
       <c r="K12" s="1">
-        <v>41.4606</v>
+        <v>177.5692</v>
       </c>
       <c r="L12" s="2">
-        <v>-0.04053486924935959</v>
+        <v>0.07265223923968799</v>
       </c>
       <c r="M12" s="1">
-        <v>34.59825</v>
+        <v>155.48085</v>
       </c>
       <c r="N12" s="2">
-        <v>0.1497691357221825</v>
+        <v>0.2250383246554157</v>
       </c>
       <c r="O12">
-        <v>15.13</v>
+        <v>100.21</v>
       </c>
       <c r="P12" s="2">
-        <v>1.629213483146067</v>
+        <v>0.9007085121245386</v>
       </c>
       <c r="Q12">
-        <v>-0.92</v>
+        <v>2.82</v>
       </c>
       <c r="R12">
-        <v>-0.54</v>
+        <v>4.63</v>
       </c>
       <c r="S12">
-        <v>47.76</v>
+        <v>56.54</v>
       </c>
       <c r="T12">
-        <v>30.54</v>
+        <v>39.49</v>
       </c>
       <c r="U12">
-        <v>36.39</v>
+        <v>50.53</v>
       </c>
       <c r="V12">
-        <v>-3.52</v>
+        <v>-6.42</v>
       </c>
       <c r="W12">
-        <v>48.6</v>
+        <v>21.62</v>
       </c>
       <c r="X12">
-        <v>2.64</v>
+        <v>4.96</v>
       </c>
       <c r="Y12" t="s">
         <v>141</v>
       </c>
       <c r="Z12" s="1">
-        <v>36.57066726684571</v>
+        <v>199.2776641845703</v>
       </c>
       <c r="AA12" s="1">
-        <v>41.1129626693033</v>
+        <v>213.2097877823548</v>
       </c>
       <c r="AB12" s="1">
-        <v>32.02837186438812</v>
+        <v>185.3455405867859</v>
       </c>
       <c r="AC12">
-        <v>34.82</v>
+        <v>1.02</v>
       </c>
       <c r="AD12">
-        <v>1.65</v>
+        <v>3.78</v>
       </c>
       <c r="AE12" s="2">
-        <v>0.1189</v>
+        <v>0.0307</v>
       </c>
       <c r="AF12" t="s">
         <v>160</v>
@@ -3062,28 +3062,28 @@
         <v>7</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>7</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="2">
         <v>1</v>
       </c>
-      <c r="AK12">
-        <v>4</v>
-      </c>
-      <c r="AL12">
-        <v>2</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="AP12" s="2">
-        <v>0.5714285714285714</v>
-      </c>
       <c r="AQ12" s="2">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="2">
         <v>0</v>
@@ -3092,46 +3092,46 @@
         <v>0</v>
       </c>
       <c r="AT12" s="2">
-        <v>0.7142857142857142</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2">
         <v>0</v>
       </c>
       <c r="AV12" s="1">
-        <v>32</v>
+        <v>167.5</v>
       </c>
       <c r="AW12" s="2">
-        <v>-0.1955756661639015</v>
+        <v>-0.12059641938363</v>
       </c>
       <c r="AX12" s="1">
-        <v>49.57143</v>
+        <v>201.64285</v>
       </c>
       <c r="AY12" s="2">
-        <v>0.2461395173453997</v>
+        <v>0.05865936892949027</v>
       </c>
       <c r="AZ12" s="1">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c r="BA12" s="2">
-        <v>0.7596782302664655</v>
+        <v>0.1917887331338269</v>
       </c>
       <c r="BB12" t="s">
         <v>173</v>
       </c>
       <c r="BC12">
-        <v>-3.52</v>
+        <v>-6.42</v>
       </c>
       <c r="BD12">
-        <v>7.021793755513711</v>
+        <v>2.249303451182933</v>
       </c>
       <c r="BE12">
-        <v>-1.118570141834106</v>
+        <v>2.188959624666043</v>
       </c>
       <c r="BF12">
-        <v>-9.384971761682749</v>
+        <v>8.585597881637174</v>
       </c>
       <c r="BG12">
-        <v>451.7336833401828</v>
+        <v>25.13632009671953</v>
       </c>
       <c r="BH12" t="s">
         <v>176</v>
@@ -3142,13 +3142,13 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
         <v>129</v>
@@ -3157,82 +3157,76 @@
         <v>133</v>
       </c>
       <c r="G13" s="1">
-        <v>190.47</v>
+        <v>68.77</v>
       </c>
       <c r="H13">
-        <v>9.41</v>
+        <v>10.44</v>
       </c>
       <c r="I13">
-        <v>49.42</v>
+        <v>147.96</v>
       </c>
       <c r="J13">
-        <v>45.77</v>
+        <v>146.93</v>
       </c>
       <c r="K13" s="1">
-        <v>177.5692</v>
+        <v>60.3477</v>
       </c>
       <c r="L13" s="2">
-        <v>0.07265223923968799</v>
+        <v>0.1395628996631188</v>
       </c>
       <c r="M13" s="1">
-        <v>155.48085</v>
+        <v>48.05045</v>
       </c>
       <c r="N13" s="2">
-        <v>0.2250383246554157</v>
-      </c>
-      <c r="O13">
-        <v>100.21</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0.9007085121245386</v>
+        <v>0.4312040782136276</v>
       </c>
       <c r="Q13">
-        <v>2.82</v>
+        <v>1.59</v>
       </c>
       <c r="R13">
-        <v>4.63</v>
+        <v>0.27</v>
       </c>
       <c r="S13">
-        <v>56.54</v>
+        <v>64.78</v>
       </c>
       <c r="T13">
-        <v>39.49</v>
+        <v>55.58</v>
       </c>
       <c r="U13">
-        <v>50.53</v>
+        <v>39.77</v>
       </c>
       <c r="V13">
-        <v>-6.42</v>
+        <v>25.91</v>
       </c>
       <c r="W13">
-        <v>21.62</v>
+        <v>68.27</v>
       </c>
       <c r="X13">
-        <v>4.96</v>
+        <v>3.32</v>
       </c>
       <c r="Y13" t="s">
         <v>142</v>
       </c>
       <c r="Z13" s="1">
-        <v>199.2776641845703</v>
+        <v>65.80799916585286</v>
       </c>
       <c r="AA13" s="1">
-        <v>213.2097877823548</v>
+        <v>73.25345352351493</v>
       </c>
       <c r="AB13" s="1">
-        <v>185.3455405867859</v>
+        <v>58.36254480819079</v>
       </c>
       <c r="AC13">
-        <v>1.02</v>
+        <v>8.9</v>
       </c>
       <c r="AD13">
-        <v>3.78</v>
+        <v>3.13</v>
       </c>
       <c r="AE13" s="2">
-        <v>0.0307</v>
+        <v>0.070199996</v>
       </c>
       <c r="AF13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG13" s="1">
         <v>3</v>
@@ -3241,79 +3235,79 @@
         <v>169</v>
       </c>
       <c r="AI13">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13">
         <v>0</v>
       </c>
       <c r="AO13" s="2">
-        <v>0</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="AP13" s="2">
-        <v>1</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="AQ13" s="2">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AR13" s="2">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="AS13" s="2">
         <v>0</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="AU13" s="2">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="AV13" s="1">
-        <v>167.5</v>
+        <v>38</v>
       </c>
       <c r="AW13" s="2">
-        <v>-0.12059641938363</v>
+        <v>-0.4474334738985022</v>
       </c>
       <c r="AX13" s="1">
-        <v>201.64285</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="AY13" s="2">
-        <v>0.05865936892949027</v>
+        <v>0.02777373854878597</v>
       </c>
       <c r="AZ13" s="1">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="BA13" s="2">
-        <v>0.1917887331338269</v>
+        <v>0.4104987639959286</v>
       </c>
       <c r="BB13" t="s">
         <v>173</v>
       </c>
       <c r="BC13">
-        <v>-6.42</v>
+        <v>25.91</v>
       </c>
       <c r="BD13">
-        <v>2.249303451182933</v>
+        <v>7.386001967392559</v>
       </c>
       <c r="BE13">
-        <v>2.188959624666043</v>
+        <v>13.51930433223153</v>
       </c>
       <c r="BF13">
-        <v>8.585597881637174</v>
+        <v>8.452920373052248</v>
       </c>
       <c r="BG13">
-        <v>25.13632009671953</v>
+        <v>73.66161437609179</v>
       </c>
       <c r="BH13" t="s">
         <v>176</v>
@@ -3324,97 +3318,97 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
         <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
         <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G14" s="1">
-        <v>48.54</v>
+        <v>39.78</v>
       </c>
       <c r="H14">
-        <v>11.36</v>
+        <v>11.81</v>
       </c>
       <c r="I14">
-        <v>234</v>
+        <v>296.84</v>
       </c>
       <c r="J14">
-        <v>217.64</v>
+        <v>289.42</v>
       </c>
       <c r="K14" s="1">
-        <v>30.8782</v>
+        <v>41.4606</v>
       </c>
       <c r="L14" s="2">
-        <v>0.5719828228329371</v>
+        <v>-0.04053486924935959</v>
       </c>
       <c r="M14" s="1">
-        <v>23.939</v>
+        <v>34.59825</v>
       </c>
       <c r="N14" s="2">
-        <v>1.027653619616525</v>
+        <v>0.1497691357221825</v>
       </c>
       <c r="O14">
-        <v>18.5</v>
+        <v>15.13</v>
       </c>
       <c r="P14" s="2">
-        <v>1.623783783783784</v>
+        <v>1.629213483146067</v>
       </c>
       <c r="Q14">
-        <v>4.61</v>
+        <v>-0.92</v>
       </c>
       <c r="R14">
-        <v>4.35</v>
+        <v>-0.54</v>
       </c>
       <c r="S14">
-        <v>76.16</v>
+        <v>47.76</v>
       </c>
       <c r="T14">
-        <v>89.09999999999999</v>
+        <v>30.54</v>
       </c>
       <c r="U14">
-        <v>88.34</v>
+        <v>36.39</v>
       </c>
       <c r="V14">
-        <v>24.91</v>
+        <v>-3.52</v>
       </c>
       <c r="W14">
-        <v>67.56</v>
+        <v>48.6</v>
       </c>
       <c r="X14">
-        <v>3.02</v>
+        <v>2.64</v>
       </c>
       <c r="Y14" t="s">
         <v>143</v>
       </c>
       <c r="Z14" s="1">
-        <v>44.37016677856445</v>
+        <v>36.57066726684571</v>
       </c>
       <c r="AA14" s="1">
-        <v>50.00590987491284</v>
+        <v>41.1129626693033</v>
       </c>
       <c r="AB14" s="1">
-        <v>38.73442368221607</v>
+        <v>32.02837186438812</v>
       </c>
       <c r="AC14">
-        <v>46.44</v>
+        <v>34.82</v>
       </c>
       <c r="AD14">
-        <v>4.22</v>
+        <v>1.65</v>
       </c>
       <c r="AE14" s="2">
-        <v>0.28190002</v>
+        <v>0.1189</v>
       </c>
       <c r="AF14" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AG14" s="1">
         <v>3</v>
@@ -3423,79 +3417,79 @@
         <v>169</v>
       </c>
       <c r="AI14">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AJ14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AL14">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="2">
-        <v>0.1304347826086956</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AP14" s="2">
-        <v>0.3478260869565217</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AQ14" s="2">
-        <v>0.391304347826087</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AR14" s="2">
-        <v>0.08695652173913043</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="2">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="2">
-        <v>0.4782608695652174</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="AU14" s="2">
-        <v>0.1304347826086956</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="1">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AW14" s="2">
-        <v>-0.7939843428100536</v>
+        <v>-0.1955756661639015</v>
       </c>
       <c r="AX14" s="1">
-        <v>34.77</v>
+        <v>49.57143</v>
       </c>
       <c r="AY14" s="2">
-        <v>-0.2836835599505562</v>
+        <v>0.2461395173453997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="BA14" s="2">
-        <v>-0.01112484548825709</v>
+        <v>0.7596782302664655</v>
       </c>
       <c r="BB14" t="s">
         <v>173</v>
       </c>
       <c r="BC14">
-        <v>24.91</v>
+        <v>-3.52</v>
       </c>
       <c r="BD14">
-        <v>8.275705850858703</v>
+        <v>7.021793755513711</v>
       </c>
       <c r="BE14">
-        <v>7.199651555028358</v>
+        <v>-1.118570141834106</v>
       </c>
       <c r="BF14">
-        <v>46.82395311314939</v>
+        <v>-9.384971761682749</v>
       </c>
       <c r="BG14">
-        <v>321.7202428348072</v>
+        <v>451.7336833401828</v>
       </c>
       <c r="BH14" t="s">
         <v>176</v>
@@ -3506,13 +3500,13 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
         <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
         <v>129</v>
@@ -3521,76 +3515,82 @@
         <v>132</v>
       </c>
       <c r="G15" s="1">
-        <v>68.77</v>
+        <v>48.54</v>
       </c>
       <c r="H15">
-        <v>10.44</v>
+        <v>11.36</v>
       </c>
       <c r="I15">
-        <v>147.96</v>
+        <v>234</v>
       </c>
       <c r="J15">
-        <v>146.93</v>
+        <v>217.64</v>
       </c>
       <c r="K15" s="1">
-        <v>60.3477</v>
+        <v>30.8782</v>
       </c>
       <c r="L15" s="2">
-        <v>0.1395628996631188</v>
+        <v>0.5719828228329371</v>
       </c>
       <c r="M15" s="1">
-        <v>48.05045</v>
+        <v>23.939</v>
       </c>
       <c r="N15" s="2">
-        <v>0.4312040782136276</v>
+        <v>1.027653619616525</v>
+      </c>
+      <c r="O15">
+        <v>18.5</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1.623783783783784</v>
       </c>
       <c r="Q15">
-        <v>1.59</v>
+        <v>4.61</v>
       </c>
       <c r="R15">
-        <v>0.27</v>
+        <v>4.35</v>
       </c>
       <c r="S15">
-        <v>64.78</v>
+        <v>76.16</v>
       </c>
       <c r="T15">
-        <v>55.58</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="U15">
-        <v>39.77</v>
+        <v>88.34</v>
       </c>
       <c r="V15">
-        <v>25.91</v>
+        <v>24.91</v>
       </c>
       <c r="W15">
-        <v>68.27</v>
+        <v>67.56</v>
       </c>
       <c r="X15">
-        <v>3.32</v>
+        <v>3.02</v>
       </c>
       <c r="Y15" t="s">
         <v>144</v>
       </c>
       <c r="Z15" s="1">
-        <v>65.80799916585286</v>
+        <v>44.37016677856445</v>
       </c>
       <c r="AA15" s="1">
-        <v>73.25345352351493</v>
+        <v>50.00590987491284</v>
       </c>
       <c r="AB15" s="1">
-        <v>58.36254480819079</v>
+        <v>38.73442368221607</v>
       </c>
       <c r="AC15">
-        <v>8.9</v>
+        <v>46.44</v>
       </c>
       <c r="AD15">
-        <v>3.13</v>
+        <v>4.22</v>
       </c>
       <c r="AE15" s="2">
-        <v>0.070199996</v>
+        <v>0.28190002</v>
       </c>
       <c r="AF15" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="AG15" s="1">
         <v>3</v>
@@ -3599,79 +3599,79 @@
         <v>169</v>
       </c>
       <c r="AI15">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK15">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AL15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AM15">
+        <v>2</v>
+      </c>
+      <c r="AN15">
         <v>1</v>
       </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
       <c r="AO15" s="2">
-        <v>0.1923076923076923</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="AP15" s="2">
-        <v>0.5384615384615384</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AQ15" s="2">
-        <v>0.2307692307692308</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="AR15" s="2">
-        <v>0.03846153846153846</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="AS15" s="2">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT15" s="2">
-        <v>0.7307692307692307</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="AU15" s="2">
-        <v>0.03846153846153846</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="AV15" s="1">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="AW15" s="2">
-        <v>-0.4474334738985022</v>
+        <v>-0.7939843428100536</v>
       </c>
       <c r="AX15" s="1">
-        <v>70.68000000000001</v>
+        <v>34.77</v>
       </c>
       <c r="AY15" s="2">
-        <v>0.02777373854878597</v>
+        <v>-0.2836835599505562</v>
       </c>
       <c r="AZ15" s="1">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="BA15" s="2">
-        <v>0.4104987639959286</v>
+        <v>-0.01112484548825709</v>
       </c>
       <c r="BB15" t="s">
         <v>173</v>
       </c>
       <c r="BC15">
-        <v>25.91</v>
+        <v>24.91</v>
       </c>
       <c r="BD15">
-        <v>7.386001967392559</v>
+        <v>8.275705850858703</v>
       </c>
       <c r="BE15">
-        <v>13.51930433223153</v>
+        <v>7.199651555028358</v>
       </c>
       <c r="BF15">
-        <v>8.452920373052248</v>
+        <v>46.82395311314939</v>
       </c>
       <c r="BG15">
-        <v>73.66161437609179</v>
+        <v>321.7202428348072</v>
       </c>
       <c r="BH15" t="s">
         <v>176</v>
@@ -3685,106 +3685,112 @@
         <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
         <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" s="1">
-        <v>114.04</v>
+        <v>294.35</v>
       </c>
       <c r="H16">
-        <v>19.57</v>
+        <v>10.52</v>
       </c>
       <c r="I16">
-        <v>171.64</v>
+        <v>35.73</v>
       </c>
       <c r="J16">
-        <v>151.53</v>
+        <v>35.54</v>
       </c>
       <c r="K16" s="1">
-        <v>101.0322</v>
+        <v>300.5644</v>
       </c>
       <c r="L16" s="2">
-        <v>0.1287490522823417</v>
+        <v>-0.02067576865390564</v>
       </c>
       <c r="M16" s="1">
-        <v>68.32841999999999</v>
+        <v>240.67375</v>
       </c>
       <c r="N16" s="2">
-        <v>0.6689980538112841</v>
+        <v>0.2230249455954378</v>
+      </c>
+      <c r="O16">
+        <v>166.81</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.7645824590851868</v>
       </c>
       <c r="Q16">
-        <v>3.56</v>
+        <v>-1.96</v>
       </c>
       <c r="R16">
-        <v>5.4</v>
+        <v>5.66</v>
       </c>
       <c r="S16">
-        <v>54.81</v>
+        <v>43.9</v>
       </c>
       <c r="T16">
-        <v>57.73</v>
+        <v>39.58</v>
       </c>
       <c r="U16">
-        <v>69.98</v>
+        <v>56.03</v>
       </c>
       <c r="V16">
-        <v>-2.81</v>
+        <v>-11.46</v>
       </c>
       <c r="W16">
-        <v>47.13</v>
+        <v>50.43</v>
       </c>
       <c r="X16">
-        <v>7.04</v>
+        <v>15.54</v>
       </c>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Z16" s="1">
-        <v>104.2296663920085</v>
+        <v>294.5760030110677</v>
       </c>
       <c r="AA16" s="1">
-        <v>116.3765923331417</v>
+        <v>326.1060370961656</v>
       </c>
       <c r="AB16" s="1">
-        <v>92.08274045087525</v>
+        <v>263.0459689259699</v>
       </c>
       <c r="AC16">
-        <v>7.67</v>
+        <v>1.59</v>
       </c>
       <c r="AD16">
-        <v>1.65</v>
+        <v>3.26</v>
       </c>
       <c r="AE16" s="2">
-        <v>0.052800003</v>
+        <v>0.0623</v>
       </c>
       <c r="AF16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AG16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI16">
+        <v>9</v>
+      </c>
+      <c r="AJ16">
+        <v>2</v>
+      </c>
+      <c r="AK16">
         <v>3</v>
       </c>
-      <c r="AH16" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI16">
-        <v>12</v>
-      </c>
-      <c r="AJ16">
-        <v>3</v>
-      </c>
-      <c r="AK16">
-        <v>9</v>
-      </c>
       <c r="AL16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -3793,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="AO16" s="2">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AP16" s="2">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ16" s="2">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AR16" s="2">
         <v>0</v>
@@ -3808,46 +3814,46 @@
         <v>0</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AU16" s="2">
         <v>0</v>
       </c>
       <c r="AV16" s="1">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="AW16" s="2">
-        <v>-0.3686425815503332</v>
+        <v>-0.2525904535417021</v>
       </c>
       <c r="AX16" s="1">
-        <v>106.33333</v>
+        <v>321.25</v>
       </c>
       <c r="AY16" s="2">
-        <v>-0.06757865661171521</v>
+        <v>0.09138780363512816</v>
       </c>
       <c r="AZ16" s="1">
-        <v>140</v>
+        <v>375</v>
       </c>
       <c r="BA16" s="2">
-        <v>0.2276394247632409</v>
+        <v>0.2739935450993714</v>
       </c>
       <c r="BB16" t="s">
         <v>173</v>
       </c>
       <c r="BC16">
-        <v>-2.81</v>
+        <v>-11.46</v>
       </c>
       <c r="BD16">
-        <v>2.868483030550199</v>
+        <v>6.248194132504492</v>
       </c>
       <c r="BE16">
-        <v>-2.312829362386117</v>
+        <v>-10.74893359659758</v>
       </c>
       <c r="BF16">
-        <v>12.72116534497729</v>
+        <v>-3.444316808192745</v>
       </c>
       <c r="BG16">
-        <v>256.3750028610229</v>
+        <v>9.832091829670009</v>
       </c>
       <c r="BH16" t="s">
         <v>176</v>
@@ -3858,19 +3864,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
         <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G17" s="1">
         <v>197.46</v>
@@ -3927,7 +3933,7 @@
         <v>2.29</v>
       </c>
       <c r="Y17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z17" s="1">
         <v>194.5476689656576</v>
@@ -3948,7 +3954,7 @@
         <v>0.1018</v>
       </c>
       <c r="AF17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AG17" s="1">
         <v>3</v>
@@ -4040,178 +4046,172 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F18" t="s">
         <v>132</v>
       </c>
       <c r="G18" s="1">
-        <v>172.44</v>
+        <v>114.04</v>
       </c>
       <c r="H18">
-        <v>9.949999999999999</v>
+        <v>19.57</v>
       </c>
       <c r="I18">
-        <v>57.7</v>
+        <v>171.64</v>
       </c>
       <c r="J18">
-        <v>55.24</v>
+        <v>151.53</v>
       </c>
       <c r="K18" s="1">
-        <v>152.5732</v>
+        <v>101.0322</v>
       </c>
       <c r="L18" s="2">
-        <v>0.1302115967941944</v>
+        <v>0.1287490522823417</v>
       </c>
       <c r="M18" s="1">
-        <v>140.7778</v>
+        <v>68.32841999999999</v>
       </c>
       <c r="N18" s="2">
-        <v>0.2249090410561891</v>
-      </c>
-      <c r="O18">
-        <v>108.93</v>
-      </c>
-      <c r="P18" s="2">
-        <v>0.5830349765904709</v>
+        <v>0.6689980538112841</v>
       </c>
       <c r="Q18">
-        <v>5.88</v>
+        <v>3.56</v>
       </c>
       <c r="R18">
-        <v>4.95</v>
+        <v>5.4</v>
       </c>
       <c r="S18">
-        <v>77.95999999999999</v>
+        <v>54.81</v>
       </c>
       <c r="T18">
-        <v>96.51000000000001</v>
+        <v>57.73</v>
       </c>
       <c r="U18">
-        <v>96.61</v>
+        <v>69.98</v>
       </c>
       <c r="V18">
-        <v>9.050000000000001</v>
+        <v>-2.81</v>
       </c>
       <c r="W18">
-        <v>93.45</v>
+        <v>47.13</v>
       </c>
       <c r="X18">
-        <v>3.29</v>
+        <v>7.04</v>
       </c>
       <c r="Y18" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="Z18" s="1">
-        <v>169.5949991861979</v>
+        <v>104.2296663920085</v>
       </c>
       <c r="AA18" s="1">
-        <v>172.7605538135426</v>
+        <v>116.3765923331417</v>
       </c>
       <c r="AB18" s="1">
-        <v>166.4294445588532</v>
+        <v>92.08274045087525</v>
       </c>
       <c r="AC18">
-        <v>1.73</v>
+        <v>7.67</v>
       </c>
       <c r="AD18">
-        <v>3.98</v>
+        <v>1.65</v>
       </c>
       <c r="AE18" s="2">
-        <v>0.041199997</v>
+        <v>0.052800003</v>
       </c>
       <c r="AF18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AI18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ18">
+        <v>3</v>
+      </c>
+      <c r="AK18">
+        <v>9</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="2">
         <v>1</v>
       </c>
-      <c r="AK18">
-        <v>4</v>
-      </c>
-      <c r="AL18">
-        <v>1</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="AP18" s="2">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AQ18" s="2">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="AR18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="2">
-        <v>0.8333333333333333</v>
-      </c>
       <c r="AU18" s="2">
         <v>0</v>
       </c>
       <c r="AV18" s="1">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="AW18" s="2">
-        <v>-0.06634191602876362</v>
+        <v>-0.3686425815503332</v>
       </c>
       <c r="AX18" s="1">
-        <v>173</v>
+        <v>106.33333</v>
       </c>
       <c r="AY18" s="2">
-        <v>0.003247506379030401</v>
+        <v>-0.06757865661171521</v>
       </c>
       <c r="AZ18" s="1">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="BA18" s="2">
-        <v>0.1308281141266528</v>
+        <v>0.2276394247632409</v>
       </c>
       <c r="BB18" t="s">
         <v>173</v>
       </c>
       <c r="BC18">
-        <v>9.050000000000001</v>
+        <v>-2.81</v>
       </c>
       <c r="BD18">
-        <v>1.890804091454276</v>
+        <v>2.868483030550199</v>
       </c>
       <c r="BE18">
-        <v>3.773246880634983</v>
+        <v>-2.312829362386117</v>
       </c>
       <c r="BF18">
-        <v>25.16512818013721</v>
+        <v>12.72116534497729</v>
       </c>
       <c r="BG18">
-        <v>20.19843488219923</v>
+        <v>256.3750028610229</v>
       </c>
       <c r="BH18" t="s">
         <v>176</v>
@@ -4222,13 +4222,13 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
         <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
         <v>129</v>
@@ -4237,101 +4237,101 @@
         <v>133</v>
       </c>
       <c r="G19" s="1">
-        <v>294.35</v>
+        <v>121.59</v>
       </c>
       <c r="H19">
-        <v>10.52</v>
+        <v>9.23</v>
       </c>
       <c r="I19">
-        <v>35.73</v>
+        <v>75.93000000000001</v>
       </c>
       <c r="J19">
-        <v>35.54</v>
+        <v>72.84</v>
       </c>
       <c r="K19" s="1">
-        <v>300.5644</v>
+        <v>109.0276</v>
       </c>
       <c r="L19" s="2">
-        <v>-0.02067576865390564</v>
+        <v>0.1152222006170914</v>
       </c>
       <c r="M19" s="1">
-        <v>240.67375</v>
+        <v>109.2984</v>
       </c>
       <c r="N19" s="2">
-        <v>0.2230249455954378</v>
+        <v>0.1124591027865001</v>
       </c>
       <c r="O19">
-        <v>166.81</v>
+        <v>89.58</v>
       </c>
       <c r="P19" s="2">
-        <v>0.7645824590851868</v>
+        <v>0.3573342263898192</v>
       </c>
       <c r="Q19">
-        <v>-1.96</v>
+        <v>2.53</v>
       </c>
       <c r="R19">
-        <v>5.66</v>
+        <v>1.96</v>
       </c>
       <c r="S19">
-        <v>43.9</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="T19">
-        <v>39.58</v>
+        <v>90.04000000000001</v>
       </c>
       <c r="U19">
-        <v>56.03</v>
+        <v>80.67</v>
       </c>
       <c r="V19">
-        <v>-11.46</v>
+        <v>10.54</v>
       </c>
       <c r="W19">
-        <v>50.43</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="X19">
-        <v>15.54</v>
+        <v>2.76</v>
       </c>
       <c r="Y19" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="Z19" s="1">
-        <v>294.5760030110677</v>
+        <v>116.1600001017253</v>
       </c>
       <c r="AA19" s="1">
-        <v>326.1060370961656</v>
+        <v>120.5173690508233</v>
       </c>
       <c r="AB19" s="1">
-        <v>263.0459689259699</v>
+        <v>111.8026311526272</v>
       </c>
       <c r="AC19">
-        <v>1.59</v>
+        <v>2.11</v>
       </c>
       <c r="AD19">
-        <v>3.26</v>
+        <v>3.76</v>
       </c>
       <c r="AE19" s="2">
-        <v>0.0623</v>
+        <v>0.032899998</v>
       </c>
       <c r="AF19" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AG19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AI19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK19">
+        <v>4</v>
+      </c>
+      <c r="AL19">
         <v>3</v>
       </c>
-      <c r="AL19">
-        <v>4</v>
-      </c>
       <c r="AM19">
         <v>0</v>
       </c>
@@ -4339,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="AO19" s="2">
-        <v>0.2222222222222222</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AP19" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AQ19" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="AR19" s="2">
         <v>0</v>
@@ -4354,46 +4354,46 @@
         <v>0</v>
       </c>
       <c r="AT19" s="2">
-        <v>0.5555555555555556</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AU19" s="2">
         <v>0</v>
       </c>
       <c r="AV19" s="1">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AW19" s="2">
-        <v>-0.2525904535417021</v>
+        <v>-0.0130767332839872</v>
       </c>
       <c r="AX19" s="1">
-        <v>321.25</v>
+        <v>131.72726</v>
       </c>
       <c r="AY19" s="2">
-        <v>0.09138780363512816</v>
+        <v>0.08337248128957972</v>
       </c>
       <c r="AZ19" s="1">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="BA19" s="2">
-        <v>0.2739935450993714</v>
+        <v>0.233654083395016</v>
       </c>
       <c r="BB19" t="s">
         <v>173</v>
       </c>
       <c r="BC19">
-        <v>-11.46</v>
+        <v>10.54</v>
       </c>
       <c r="BD19">
-        <v>6.248194132504492</v>
+        <v>5.556032434099359</v>
       </c>
       <c r="BE19">
-        <v>-10.74893359659758</v>
+        <v>5.656929443217297</v>
       </c>
       <c r="BF19">
-        <v>-3.444316808192745</v>
+        <v>12.53122897150398</v>
       </c>
       <c r="BG19">
-        <v>9.832091829670009</v>
+        <v>27.22667216753991</v>
       </c>
       <c r="BH19" t="s">
         <v>176</v>
@@ -4404,115 +4404,115 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
         <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="1">
-        <v>121.59</v>
+        <v>172.44</v>
       </c>
       <c r="H20">
-        <v>9.23</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="I20">
-        <v>75.93000000000001</v>
+        <v>57.7</v>
       </c>
       <c r="J20">
-        <v>72.84</v>
+        <v>55.24</v>
       </c>
       <c r="K20" s="1">
-        <v>109.0276</v>
+        <v>152.5732</v>
       </c>
       <c r="L20" s="2">
-        <v>0.1152222006170914</v>
+        <v>0.1302115967941944</v>
       </c>
       <c r="M20" s="1">
-        <v>109.2984</v>
+        <v>140.7778</v>
       </c>
       <c r="N20" s="2">
-        <v>0.1124591027865001</v>
+        <v>0.2249090410561891</v>
       </c>
       <c r="O20">
-        <v>89.58</v>
+        <v>108.93</v>
       </c>
       <c r="P20" s="2">
-        <v>0.3573342263898192</v>
+        <v>0.5830349765904709</v>
       </c>
       <c r="Q20">
-        <v>2.53</v>
+        <v>5.88</v>
       </c>
       <c r="R20">
-        <v>1.96</v>
+        <v>4.95</v>
       </c>
       <c r="S20">
-        <v>72.56999999999999</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="T20">
-        <v>90.04000000000001</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="U20">
-        <v>80.67</v>
+        <v>96.61</v>
       </c>
       <c r="V20">
-        <v>10.54</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="W20">
-        <v>65.73999999999999</v>
+        <v>93.45</v>
       </c>
       <c r="X20">
-        <v>2.76</v>
+        <v>3.29</v>
       </c>
       <c r="Y20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Z20" s="1">
-        <v>116.1600001017253</v>
+        <v>169.5949991861979</v>
       </c>
       <c r="AA20" s="1">
-        <v>120.5173690508233</v>
+        <v>172.7605538135426</v>
       </c>
       <c r="AB20" s="1">
-        <v>111.8026311526272</v>
+        <v>166.4294445588532</v>
       </c>
       <c r="AC20">
-        <v>2.11</v>
+        <v>1.73</v>
       </c>
       <c r="AD20">
-        <v>3.76</v>
+        <v>3.98</v>
       </c>
       <c r="AE20" s="2">
-        <v>0.032899998</v>
+        <v>0.041199997</v>
       </c>
       <c r="AF20" t="s">
         <v>165</v>
       </c>
       <c r="AG20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AI20">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AJ20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK20">
         <v>4</v>
       </c>
       <c r="AL20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM20">
         <v>0</v>
@@ -4521,13 +4521,13 @@
         <v>0</v>
       </c>
       <c r="AO20" s="2">
-        <v>0.3636363636363636</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AP20" s="2">
-        <v>0.3636363636363636</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AQ20" s="2">
-        <v>0.2727272727272727</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR20" s="2">
         <v>0</v>
@@ -4536,46 +4536,46 @@
         <v>0</v>
       </c>
       <c r="AT20" s="2">
-        <v>0.7272727272727273</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="AU20" s="2">
         <v>0</v>
       </c>
       <c r="AV20" s="1">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="AW20" s="2">
-        <v>-0.0130767332839872</v>
+        <v>-0.06634191602876362</v>
       </c>
       <c r="AX20" s="1">
-        <v>131.72726</v>
+        <v>173</v>
       </c>
       <c r="AY20" s="2">
-        <v>0.08337248128957972</v>
+        <v>0.003247506379030401</v>
       </c>
       <c r="AZ20" s="1">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="BA20" s="2">
-        <v>0.233654083395016</v>
+        <v>0.1308281141266528</v>
       </c>
       <c r="BB20" t="s">
         <v>173</v>
       </c>
       <c r="BC20">
-        <v>10.54</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="BD20">
-        <v>5.556032434099359</v>
+        <v>1.890804091454276</v>
       </c>
       <c r="BE20">
-        <v>5.656929443217297</v>
+        <v>3.773246880634983</v>
       </c>
       <c r="BF20">
-        <v>12.53122897150398</v>
+        <v>25.16512818013721</v>
       </c>
       <c r="BG20">
-        <v>27.22667216753991</v>
+        <v>20.19842209782049</v>
       </c>
       <c r="BH20" t="s">
         <v>176</v>
@@ -4586,7 +4586,7 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
         <v>113</v>
@@ -4598,7 +4598,7 @@
         <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G21" s="1">
         <v>66.70999999999999</v>
@@ -4655,7 +4655,7 @@
         <v>3.56</v>
       </c>
       <c r="Y21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z21" s="1">
         <v>66.19133313496907</v>
@@ -4768,13 +4768,19 @@
         <v>80</v>
       </c>
       <c r="G22" s="1">
-        <v>0.6702</v>
+        <v>10.6</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>10.24892</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.03425531665775512</v>
       </c>
       <c r="M22" s="1">
-        <v>0</v>
+        <v>10.203246</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.0388850763766746</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -4832,20 +4838,41 @@
       <c r="A23" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
       <c r="G23" s="1">
-        <v>0.2168</v>
+        <v>10.12</v>
+      </c>
+      <c r="H23">
+        <v>0.28</v>
+      </c>
+      <c r="I23">
+        <v>22.18</v>
       </c>
       <c r="J23">
         <v>22.15</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>10.1276</v>
+      </c>
+      <c r="L23" s="2">
+        <v>-0.000750424582329481</v>
       </c>
       <c r="M23" s="1">
+        <v>10.063209</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.005643428453090729</v>
+      </c>
+      <c r="AC23">
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AE23" s="2">
         <v>0</v>
@@ -4907,34 +4934,34 @@
         <v>114</v>
       </c>
       <c r="G24" s="1">
-        <v>10.12</v>
+        <v>10.33</v>
       </c>
       <c r="H24">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="I24">
-        <v>22.18</v>
+        <v>25.18</v>
       </c>
       <c r="J24">
         <v>22.15</v>
       </c>
       <c r="K24" s="1">
-        <v>10.1276</v>
+        <v>10.3644</v>
       </c>
       <c r="L24" s="2">
-        <v>-0.000750424582329481</v>
+        <v>-0.00331905368376363</v>
       </c>
       <c r="M24" s="1">
-        <v>10.063209</v>
+        <v>10.219084</v>
       </c>
       <c r="N24" s="2">
-        <v>0.005643428453090729</v>
+        <v>0.01085381038065638</v>
       </c>
       <c r="AC24">
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="AE24" s="2">
         <v>0</v>
@@ -4990,28 +5017,25 @@
         <v>83</v>
       </c>
       <c r="G25" s="1">
-        <v>10.31</v>
-      </c>
-      <c r="H25">
-        <v>0.41</v>
+        <v>0.2168</v>
+      </c>
+      <c r="J25">
+        <v>22.15</v>
       </c>
       <c r="K25" s="1">
-        <v>10.100256</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0.02076620632189923</v>
+        <v>0</v>
       </c>
       <c r="M25" s="1">
-        <v>10.100256</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0.02076620632189923</v>
+        <v>0</v>
       </c>
       <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25" s="2">
         <v>0</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>171</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -5050,7 +5074,7 @@
         <v>-1</v>
       </c>
       <c r="BB25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BH25" t="s">
         <v>177</v>
@@ -5060,98 +5084,29 @@
       <c r="A26" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" t="s">
-        <v>132</v>
-      </c>
       <c r="G26" s="1">
-        <v>3.28</v>
+        <v>10.31</v>
       </c>
       <c r="H26">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I26">
-        <v>20.4</v>
-      </c>
-      <c r="J26">
-        <v>4.03</v>
+        <v>0.41</v>
       </c>
       <c r="K26" s="1">
-        <v>2.3076</v>
+        <v>10.100256</v>
       </c>
       <c r="L26" s="2">
-        <v>0.421390188940891</v>
+        <v>0.02076620632189923</v>
       </c>
       <c r="M26" s="1">
-        <v>1.75875</v>
+        <v>10.100256</v>
       </c>
       <c r="N26" s="2">
-        <v>0.864960909737029</v>
-      </c>
-      <c r="O26">
-        <v>2.29</v>
-      </c>
-      <c r="P26" s="2">
-        <v>0.4323144104803492</v>
-      </c>
-      <c r="Q26">
-        <v>0.31</v>
-      </c>
-      <c r="R26">
-        <v>0.22</v>
-      </c>
-      <c r="S26">
-        <v>70.65000000000001</v>
-      </c>
-      <c r="T26">
-        <v>74.56999999999999</v>
-      </c>
-      <c r="U26">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="V26">
-        <v>41.38</v>
-      </c>
-      <c r="W26">
-        <v>57.02</v>
-      </c>
-      <c r="X26">
-        <v>0.26</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>3.127666624387105</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>3.710225575134539</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>2.54510767363967</v>
-      </c>
-      <c r="AC26">
-        <v>0.01</v>
+        <v>0.02076620632189923</v>
       </c>
       <c r="AD26">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="2">
-        <v>0.0029</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -5191,21 +5146,6 @@
       </c>
       <c r="BB26" t="s">
         <v>173</v>
-      </c>
-      <c r="BC26">
-        <v>41.38</v>
-      </c>
-      <c r="BD26">
-        <v>1.863352243678002</v>
-      </c>
-      <c r="BE26">
-        <v>6.493508202528228</v>
-      </c>
-      <c r="BF26">
-        <v>44.49339202421577</v>
-      </c>
-      <c r="BG26">
-        <v>120.5862678150934</v>
       </c>
       <c r="BH26" t="s">
         <v>177</v>
@@ -5216,19 +5156,13 @@
         <v>85</v>
       </c>
       <c r="G27" s="1">
-        <v>10.6</v>
+        <v>0.6702</v>
       </c>
       <c r="K27" s="1">
-        <v>10.24892</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0.03425531665775512</v>
+        <v>0</v>
       </c>
       <c r="M27" s="1">
-        <v>10.203246</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0.0388850763766746</v>
+        <v>0</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -5287,46 +5221,88 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G28" s="1">
-        <v>10.33</v>
+        <v>1.88</v>
       </c>
       <c r="H28">
-        <v>0.26</v>
+        <v>0.06</v>
       </c>
       <c r="I28">
-        <v>25.18</v>
+        <v>31.62</v>
       </c>
       <c r="J28">
-        <v>22.15</v>
+        <v>18.42</v>
       </c>
       <c r="K28" s="1">
-        <v>10.3644</v>
+        <v>1.197</v>
       </c>
       <c r="L28" s="2">
-        <v>-0.00331905368376363</v>
+        <v>0.5705931495405178</v>
       </c>
       <c r="M28" s="1">
-        <v>10.219084</v>
+        <v>0.9891</v>
       </c>
       <c r="N28" s="2">
-        <v>0.01085381038065638</v>
+        <v>0.9007178242847032</v>
+      </c>
+      <c r="O28">
+        <v>1.26</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.492063492063492</v>
+      </c>
+      <c r="Q28">
+        <v>0.2</v>
+      </c>
+      <c r="R28">
+        <v>0.22</v>
+      </c>
+      <c r="S28">
+        <v>57.26</v>
+      </c>
+      <c r="T28">
+        <v>66.48</v>
+      </c>
+      <c r="U28">
+        <v>67.61</v>
+      </c>
+      <c r="V28">
+        <v>17.5</v>
+      </c>
+      <c r="W28">
+        <v>66.75</v>
+      </c>
+      <c r="X28">
+        <v>0.25</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>2.016666658719381</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>2.292529938526825</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>1.740803378911936</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AD28">
-        <v>0.11</v>
+        <v>0.62</v>
       </c>
       <c r="AE28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>171</v>
+        <v>0.0113</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>167</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -5365,7 +5341,22 @@
         <v>-1</v>
       </c>
       <c r="BB28" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="BC28">
+        <v>17.5</v>
+      </c>
+      <c r="BD28">
+        <v>9.941517736389924</v>
+      </c>
+      <c r="BE28">
+        <v>-4.081634763179803</v>
+      </c>
+      <c r="BF28">
+        <v>74.07406671547625</v>
+      </c>
+      <c r="BG28">
+        <v>189.2307791060954</v>
       </c>
       <c r="BH28" t="s">
         <v>177</v>
@@ -5379,16 +5370,16 @@
         <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
         <v>129</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="1">
         <v>24.79</v>
@@ -5558,142 +5549,178 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" t="s">
+        <v>133</v>
       </c>
       <c r="G30" s="1">
-        <v>1.88</v>
+        <v>13.55</v>
       </c>
       <c r="H30">
-        <v>0.06</v>
+        <v>8.94</v>
       </c>
       <c r="I30">
-        <v>31.62</v>
+        <v>659.83</v>
       </c>
       <c r="J30">
-        <v>18.42</v>
+        <v>653.24</v>
       </c>
       <c r="K30" s="1">
-        <v>1.197</v>
+        <v>11.8356</v>
       </c>
       <c r="L30" s="2">
-        <v>0.5705931495405178</v>
+        <v>0.144851127108047</v>
       </c>
       <c r="M30" s="1">
-        <v>0.9891</v>
+        <v>13.24845</v>
       </c>
       <c r="N30" s="2">
-        <v>0.9007178242847032</v>
+        <v>0.02276115319150547</v>
       </c>
       <c r="O30">
-        <v>1.26</v>
+        <v>14.25</v>
       </c>
       <c r="P30" s="2">
-        <v>0.492063492063492</v>
+        <v>-0.04912280701754381</v>
       </c>
       <c r="Q30">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="R30">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="S30">
-        <v>57.26</v>
+        <v>64.84999999999999</v>
       </c>
       <c r="T30">
-        <v>66.48</v>
+        <v>89.31</v>
       </c>
       <c r="U30">
-        <v>67.61</v>
+        <v>78.55</v>
       </c>
       <c r="V30">
-        <v>17.5</v>
+        <v>15.42</v>
       </c>
       <c r="W30">
-        <v>66.75</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="X30">
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
       <c r="Y30" t="s">
         <v>149</v>
       </c>
       <c r="Z30" s="1">
-        <v>2.016666658719381</v>
+        <v>13.09133323033651</v>
       </c>
       <c r="AA30" s="1">
-        <v>2.292529938526825</v>
+        <v>14.15852186081059</v>
       </c>
       <c r="AB30" s="1">
-        <v>1.740803378911936</v>
+        <v>12.02414459986242</v>
       </c>
       <c r="AC30">
-        <v>0.09</v>
+        <v>62.46</v>
       </c>
       <c r="AD30">
-        <v>0.62</v>
+        <v>0.92</v>
       </c>
       <c r="AE30" s="2">
-        <v>0.0113</v>
+        <v>0.0953</v>
       </c>
       <c r="AF30" t="s">
-        <v>168</v>
+        <v>165</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>172</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN30">
         <v>0</v>
       </c>
+      <c r="AO30" s="2">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="AP30" s="2">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="AQ30" s="2">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="AR30" s="2">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="AS30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="2">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="AU30" s="2">
+        <v>0.04545454545454546</v>
+      </c>
       <c r="AV30" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW30" s="2">
-        <v>-1</v>
+        <v>-0.4095940959409594</v>
       </c>
       <c r="AX30" s="1">
-        <v>0</v>
+        <v>13.31429</v>
       </c>
       <c r="AY30" s="2">
-        <v>-1</v>
+        <v>-0.01739557195571963</v>
       </c>
       <c r="AZ30" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA30" s="2">
-        <v>-1</v>
+        <v>0.4760147601476014</v>
       </c>
       <c r="BB30" t="s">
         <v>173</v>
       </c>
       <c r="BC30">
-        <v>17.5</v>
+        <v>15.42</v>
       </c>
       <c r="BD30">
-        <v>9.941517736389924</v>
+        <v>7.796344627710424</v>
       </c>
       <c r="BE30">
-        <v>-4.081634763179803</v>
+        <v>2.885346334393116</v>
       </c>
       <c r="BF30">
-        <v>74.07406671547625</v>
+        <v>18.23734856571461</v>
       </c>
       <c r="BG30">
-        <v>189.2307791060954</v>
+        <v>31.68124626790352</v>
       </c>
       <c r="BH30" t="s">
         <v>177</v>
@@ -5704,178 +5731,151 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G31" s="1">
-        <v>13.55</v>
+        <v>3.28</v>
       </c>
       <c r="H31">
-        <v>8.94</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I31">
-        <v>659.83</v>
+        <v>20.4</v>
       </c>
       <c r="J31">
-        <v>653.24</v>
+        <v>4.03</v>
       </c>
       <c r="K31" s="1">
-        <v>11.8356</v>
+        <v>2.3076</v>
       </c>
       <c r="L31" s="2">
-        <v>0.144851127108047</v>
+        <v>0.421390188940891</v>
       </c>
       <c r="M31" s="1">
-        <v>13.24845</v>
+        <v>1.75875</v>
       </c>
       <c r="N31" s="2">
-        <v>0.02276115319150547</v>
+        <v>0.864960909737029</v>
       </c>
       <c r="O31">
-        <v>14.25</v>
+        <v>2.29</v>
       </c>
       <c r="P31" s="2">
-        <v>-0.04912280701754381</v>
+        <v>0.4323144104803492</v>
       </c>
       <c r="Q31">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="R31">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="S31">
-        <v>64.84999999999999</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="T31">
-        <v>89.31</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="U31">
-        <v>78.55</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="V31">
-        <v>15.42</v>
+        <v>41.38</v>
       </c>
       <c r="W31">
-        <v>67.48999999999999</v>
+        <v>57.02</v>
       </c>
       <c r="X31">
-        <v>0.47</v>
+        <v>0.26</v>
       </c>
       <c r="Y31" t="s">
         <v>150</v>
       </c>
       <c r="Z31" s="1">
-        <v>13.09133323033651</v>
+        <v>3.127666624387105</v>
       </c>
       <c r="AA31" s="1">
-        <v>14.15852186081059</v>
+        <v>3.710225575134539</v>
       </c>
       <c r="AB31" s="1">
-        <v>12.02414459986242</v>
+        <v>2.54510767363967</v>
       </c>
       <c r="AC31">
-        <v>62.46</v>
+        <v>0.01</v>
       </c>
       <c r="AD31">
-        <v>0.92</v>
+        <v>0.48</v>
       </c>
       <c r="AE31" s="2">
-        <v>0.0953</v>
+        <v>0.0029</v>
       </c>
       <c r="AF31" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG31" s="1">
-        <v>4</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AI31">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AL31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AM31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN31">
         <v>0</v>
       </c>
-      <c r="AO31" s="2">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="AP31" s="2">
-        <v>0.4090909090909091</v>
-      </c>
-      <c r="AQ31" s="2">
-        <v>0.4090909090909091</v>
-      </c>
-      <c r="AR31" s="2">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="AS31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="2">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="AU31" s="2">
-        <v>0.04545454545454546</v>
-      </c>
       <c r="AV31" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW31" s="2">
-        <v>-0.4095940959409594</v>
+        <v>-1</v>
       </c>
       <c r="AX31" s="1">
-        <v>13.31429</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="2">
-        <v>-0.01739557195571963</v>
+        <v>-1</v>
       </c>
       <c r="AZ31" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="2">
-        <v>0.4760147601476014</v>
+        <v>-1</v>
       </c>
       <c r="BB31" t="s">
         <v>173</v>
       </c>
       <c r="BC31">
-        <v>15.42</v>
+        <v>41.38</v>
       </c>
       <c r="BD31">
-        <v>7.796344627710424</v>
+        <v>1.863352243678002</v>
       </c>
       <c r="BE31">
-        <v>2.885346334393116</v>
+        <v>6.493508202528228</v>
       </c>
       <c r="BF31">
-        <v>18.23734856571461</v>
+        <v>44.49339202421577</v>
       </c>
       <c r="BG31">
-        <v>31.68124626790352</v>
+        <v>120.5862678150934</v>
       </c>
       <c r="BH31" t="s">
         <v>177</v>

--- a/market_report_2025-08-24.xlsx
+++ b/market_report_2025-08-24.xlsx
@@ -196,331 +196,331 @@
     <t>Source</t>
   </si>
   <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>AFL</t>
+  </si>
+  <si>
+    <t>AOS</t>
+  </si>
+  <si>
     <t>AMD</t>
   </si>
   <si>
-    <t>AES</t>
+    <t>ACN</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>MMM</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>AFL</t>
-  </si>
-  <si>
-    <t>ABT</t>
+    <t>ADBE</t>
   </si>
   <si>
     <t>ABBV</t>
   </si>
   <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>AOS</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>MMM</t>
-  </si>
-  <si>
     <t>SPXC</t>
   </si>
   <si>
+    <t>IONQ</t>
+  </si>
+  <si>
     <t>NXT</t>
   </si>
   <si>
-    <t>IONQ</t>
+    <t>KTOS</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>CRDO</t>
+  </si>
+  <si>
+    <t>GTLS</t>
+  </si>
+  <si>
+    <t>ENSG</t>
   </si>
   <si>
     <t>BE</t>
   </si>
   <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>GTLS</t>
-  </si>
-  <si>
-    <t>CRDO</t>
-  </si>
-  <si>
     <t>UMBF</t>
   </si>
   <si>
-    <t>ENSG</t>
-  </si>
-  <si>
-    <t>KTOS</t>
+    <t>AACB</t>
+  </si>
+  <si>
+    <t>AACI</t>
+  </si>
+  <si>
+    <t>AACBU</t>
+  </si>
+  <si>
+    <t>AACIW</t>
+  </si>
+  <si>
+    <t>AACBR</t>
   </si>
   <si>
     <t>AACIU</t>
   </si>
   <si>
-    <t>AACB</t>
-  </si>
-  <si>
-    <t>AACBU</t>
-  </si>
-  <si>
-    <t>AACBR</t>
-  </si>
-  <si>
-    <t>AACI</t>
-  </si>
-  <si>
-    <t>AACIW</t>
+    <t>AAME</t>
+  </si>
+  <si>
+    <t>AAL</t>
+  </si>
+  <si>
+    <t>AAOI</t>
   </si>
   <si>
     <t>AACG</t>
   </si>
   <si>
-    <t>AAOI</t>
-  </si>
-  <si>
-    <t>AAL</t>
-  </si>
-  <si>
-    <t>AAME</t>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Industrials</t>
   </si>
   <si>
     <t>Technology</t>
   </si>
   <si>
-    <t>Utilities</t>
-  </si>
-  <si>
     <t>Healthcare</t>
   </si>
   <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
-    <t>Industrials</t>
-  </si>
-  <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
+    <t>Utilities - Diversified</t>
+  </si>
+  <si>
+    <t>Insurance - Life</t>
+  </si>
+  <si>
+    <t>Specialty Industrial Machinery</t>
+  </si>
+  <si>
     <t>Semiconductors</t>
   </si>
   <si>
-    <t>Utilities - Diversified</t>
+    <t>Information Technology Services</t>
+  </si>
+  <si>
+    <t>Medical Devices</t>
+  </si>
+  <si>
+    <t>Conglomerates</t>
   </si>
   <si>
     <t>Diagnostics &amp; Research</t>
   </si>
   <si>
-    <t>Insurance - Life</t>
-  </si>
-  <si>
-    <t>Medical Devices</t>
+    <t>Software - Application</t>
   </si>
   <si>
     <t>Drug Manufacturers - General</t>
   </si>
   <si>
-    <t>Software - Application</t>
-  </si>
-  <si>
-    <t>Specialty Industrial Machinery</t>
-  </si>
-  <si>
-    <t>Information Technology Services</t>
-  </si>
-  <si>
-    <t>Conglomerates</t>
-  </si>
-  <si>
     <t>Building Products &amp; Equipment</t>
   </si>
   <si>
+    <t>Computer Hardware</t>
+  </si>
+  <si>
     <t>Solar</t>
   </si>
   <si>
-    <t>Computer Hardware</t>
+    <t>Aerospace &amp; Defense</t>
+  </si>
+  <si>
+    <t>Electronic Components</t>
+  </si>
+  <si>
+    <t>Medical Care Facilities</t>
   </si>
   <si>
     <t>Electrical Equipment &amp; Parts</t>
   </si>
   <si>
-    <t>Electronic Components</t>
-  </si>
-  <si>
     <t>Banks - Regional</t>
   </si>
   <si>
-    <t>Medical Care Facilities</t>
-  </si>
-  <si>
-    <t>Aerospace &amp; Defense</t>
-  </si>
-  <si>
     <t>Shell Companies</t>
   </si>
   <si>
+    <t>Airlines</t>
+  </si>
+  <si>
+    <t>Communication Equipment</t>
+  </si>
+  <si>
     <t>Education &amp; Training Services</t>
   </si>
   <si>
-    <t>Communication Equipment</t>
-  </si>
-  <si>
-    <t>Airlines</t>
+    <t>Finance &amp; Insurance</t>
+  </si>
+  <si>
+    <t>Machinery</t>
   </si>
   <si>
     <t>Computer &amp; Electronic Products</t>
   </si>
   <si>
+    <t>Professional, Scientific &amp; Technical Services</t>
+  </si>
+  <si>
     <t>Health Care &amp; Social Assistance</t>
   </si>
   <si>
-    <t>Finance &amp; Insurance</t>
+    <t>Management of Companies &amp; Support Services</t>
   </si>
   <si>
     <t>Information</t>
   </si>
   <si>
-    <t>Machinery</t>
-  </si>
-  <si>
-    <t>Professional, Scientific &amp; Technical Services</t>
-  </si>
-  <si>
-    <t>Management of Companies &amp; Support Services</t>
-  </si>
-  <si>
     <t>Fabricated Metal Products</t>
   </si>
   <si>
+    <t>Transportation Equipment</t>
+  </si>
+  <si>
     <t>Electrical Equipment, Appliances &amp; Components</t>
   </si>
   <si>
-    <t>Transportation Equipment</t>
-  </si>
-  <si>
     <t>Transportation &amp; Warehousing</t>
   </si>
   <si>
+    <t>Defensive</t>
+  </si>
+  <si>
     <t>Both</t>
   </si>
   <si>
-    <t>Defensive</t>
-  </si>
-  <si>
     <t>Consumer</t>
   </si>
   <si>
+    <t>Services</t>
+  </si>
+  <si>
     <t>Manufacturing</t>
   </si>
   <si>
-    <t>Services</t>
+    <t>3.3%</t>
+  </si>
+  <si>
+    <t>1.5%</t>
+  </si>
+  <si>
+    <t>1.9%</t>
   </si>
   <si>
     <t>4.3%</t>
   </si>
   <si>
-    <t>3.3%</t>
+    <t>2.5%</t>
+  </si>
+  <si>
+    <t>2.2%</t>
   </si>
   <si>
     <t>2.3%</t>
   </si>
   <si>
-    <t>1.5%</t>
-  </si>
-  <si>
-    <t>1.9%</t>
-  </si>
-  <si>
-    <t>2.5%</t>
-  </si>
-  <si>
-    <t>2.2%</t>
-  </si>
-  <si>
     <t>2.6%</t>
   </si>
   <si>
+    <t>6.6%</t>
+  </si>
+  <si>
     <t>4.8%</t>
   </si>
   <si>
-    <t>6.6%</t>
+    <t>5.3%</t>
   </si>
   <si>
     <t>6.2%</t>
   </si>
   <si>
-    <t>5.3%</t>
-  </si>
-  <si>
     <t>1.2%</t>
   </si>
   <si>
+    <t>7.9%</t>
+  </si>
+  <si>
+    <t>3.5%</t>
+  </si>
+  <si>
+    <t>10.0%</t>
+  </si>
+  <si>
     <t>13.3%</t>
   </si>
   <si>
-    <t>10.0%</t>
-  </si>
-  <si>
-    <t>3.5%</t>
-  </si>
-  <si>
-    <t>7.9%</t>
+    <t>2025-07-31</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-10-21</t>
   </si>
   <si>
     <t>2025-11-04</t>
   </si>
   <si>
-    <t>2025-07-31</t>
+    <t>2025-09-24 , 2025-09-29</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
   </si>
   <si>
     <t>2025-08-27</t>
   </si>
   <si>
-    <t>2025-11-03</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
     <t>2025-09-10 , 2025-09-15</t>
   </si>
   <si>
-    <t>2025-10-21</t>
-  </si>
-  <si>
-    <t>2025-09-24 , 2025-09-29</t>
-  </si>
-  <si>
-    <t>2025-07-18</t>
-  </si>
-  <si>
     <t>2025-10-29</t>
   </si>
   <si>
     <t>2025-11-05</t>
   </si>
   <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
     <t>2025-07-29</t>
   </si>
   <si>
-    <t>2025-09-03</t>
+    <t>2025-10-23</t>
   </si>
   <si>
     <t>2025-10-28</t>
   </si>
   <si>
-    <t>2025-10-23</t>
-  </si>
-  <si>
-    <t>2025-11-06</t>
+    <t>2025-08-13</t>
   </si>
   <si>
     <t>2025-08-05 , 2025-08-11</t>
-  </si>
-  <si>
-    <t>2025-08-13</t>
   </si>
   <si>
     <t>Hold</t>
@@ -1146,7 +1146,7 @@
         <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
         <v>129</v>
@@ -1155,79 +1155,79 @@
         <v>132</v>
       </c>
       <c r="G2" s="1">
-        <v>167.76</v>
+        <v>13.49</v>
       </c>
       <c r="H2">
-        <v>272.25</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="I2">
-        <v>1622.84</v>
+        <v>712.05</v>
       </c>
       <c r="J2">
-        <v>1611.37</v>
+        <v>708.04</v>
       </c>
       <c r="K2" s="1">
-        <v>154.8776</v>
+        <v>12.4076</v>
       </c>
       <c r="L2" s="2">
-        <v>0.08317794180694942</v>
+        <v>0.08723685483091007</v>
       </c>
       <c r="M2" s="1">
-        <v>124.82215</v>
+        <v>11.91885</v>
       </c>
       <c r="N2" s="2">
-        <v>0.3439922321479</v>
+        <v>0.1318206034978206</v>
       </c>
       <c r="O2">
-        <v>119.32</v>
+        <v>19.2</v>
       </c>
       <c r="P2" s="2">
-        <v>0.4059671471672813</v>
+        <v>-0.2973958333333333</v>
       </c>
       <c r="Q2">
-        <v>3.69</v>
+        <v>0.18</v>
       </c>
       <c r="R2">
-        <v>6.29</v>
+        <v>0.21</v>
       </c>
       <c r="S2">
-        <v>51.39</v>
+        <v>58.61</v>
       </c>
       <c r="T2">
-        <v>55.63</v>
+        <v>42.39</v>
       </c>
       <c r="U2">
-        <v>64.5</v>
+        <v>34.7</v>
       </c>
       <c r="V2">
-        <v>2.84</v>
+        <v>5.06</v>
       </c>
       <c r="W2">
-        <v>43.89</v>
+        <v>56.09</v>
       </c>
       <c r="X2">
-        <v>7.18</v>
+        <v>0.45</v>
       </c>
       <c r="Y2" t="s">
         <v>134</v>
       </c>
       <c r="Z2" s="1">
-        <v>170.009336344401</v>
+        <v>18.0056666692098</v>
       </c>
       <c r="AA2" s="1">
-        <v>178.932280033033</v>
+        <v>30.49628480239076</v>
       </c>
       <c r="AB2" s="1">
-        <v>161.0863926557691</v>
+        <v>5.515048536028832</v>
       </c>
       <c r="AC2">
-        <v>42.12</v>
+        <v>31.47</v>
       </c>
       <c r="AD2">
-        <v>0.79</v>
+        <v>1.74</v>
       </c>
       <c r="AE2" s="2">
-        <v>0.026099999</v>
+        <v>0.0508</v>
       </c>
       <c r="AF2" t="s">
         <v>151</v>
@@ -1239,79 +1239,79 @@
         <v>169</v>
       </c>
       <c r="AI2">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="AJ2">
+        <v>3</v>
+      </c>
+      <c r="AK2">
         <v>5</v>
       </c>
-      <c r="AK2">
-        <v>30</v>
-      </c>
       <c r="AL2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
       <c r="AO2" s="2">
-        <v>0.09803921568627451</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AP2" s="2">
-        <v>0.5882352941176471</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="AQ2" s="2">
-        <v>0.3137254901960784</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AR2" s="2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AS2" s="2">
         <v>0</v>
       </c>
       <c r="AT2" s="2">
-        <v>0.6862745098039216</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AU2" s="2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AV2" s="1">
-        <v>125.1</v>
+        <v>5</v>
       </c>
       <c r="AW2" s="2">
-        <v>-0.2542918454935622</v>
+        <v>-0.6293550778354337</v>
       </c>
       <c r="AX2" s="1">
-        <v>183.86523</v>
+        <v>13.83333</v>
       </c>
       <c r="AY2" s="2">
-        <v>0.09600160944206013</v>
+        <v>0.02545070422535211</v>
       </c>
       <c r="AZ2" s="1">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="BA2" s="2">
-        <v>0.3710061993323797</v>
+        <v>0.7049666419570052</v>
       </c>
       <c r="BB2" t="s">
         <v>173</v>
       </c>
       <c r="BC2">
-        <v>2.84</v>
+        <v>5.06</v>
       </c>
       <c r="BD2">
-        <v>2.47387919300946</v>
+        <v>4.009248214213629</v>
       </c>
       <c r="BE2">
-        <v>-5.492648471477771</v>
+        <v>1.352361726722233</v>
       </c>
       <c r="BF2">
-        <v>3.478904243472002</v>
+        <v>-0.9202911854068001</v>
       </c>
       <c r="BG2">
-        <v>7.263427783680315</v>
+        <v>-17.78675676131215</v>
       </c>
       <c r="BH2" t="s">
         <v>175</v>
@@ -1328,88 +1328,88 @@
         <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
         <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="1">
-        <v>13.49</v>
+        <v>108.46</v>
       </c>
       <c r="H3">
-        <v>9.609999999999999</v>
+        <v>58.01</v>
       </c>
       <c r="I3">
-        <v>712.05</v>
+        <v>534.83</v>
       </c>
       <c r="J3">
-        <v>708.04</v>
+        <v>530.2</v>
       </c>
       <c r="K3" s="1">
-        <v>12.4076</v>
+        <v>103.0472</v>
       </c>
       <c r="L3" s="2">
-        <v>0.08723685483091007</v>
+        <v>0.05252738550877646</v>
       </c>
       <c r="M3" s="1">
-        <v>11.91885</v>
+        <v>105.4095</v>
       </c>
       <c r="N3" s="2">
-        <v>0.1318206034978206</v>
+        <v>0.02893951683671775</v>
       </c>
       <c r="O3">
-        <v>19.2</v>
+        <v>80.34999999999999</v>
       </c>
       <c r="P3" s="2">
-        <v>-0.2973958333333333</v>
+        <v>0.3498444306160548</v>
       </c>
       <c r="Q3">
-        <v>0.18</v>
+        <v>1.57</v>
       </c>
       <c r="R3">
-        <v>0.21</v>
+        <v>0.88</v>
       </c>
       <c r="S3">
-        <v>58.61</v>
+        <v>69.63</v>
       </c>
       <c r="T3">
-        <v>42.39</v>
+        <v>93.59</v>
       </c>
       <c r="U3">
-        <v>34.7</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="V3">
-        <v>5.06</v>
+        <v>6.01</v>
       </c>
       <c r="W3">
-        <v>56.09</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="X3">
-        <v>0.45</v>
+        <v>1.66</v>
       </c>
       <c r="Y3" t="s">
         <v>135</v>
       </c>
       <c r="Z3" s="1">
-        <v>18.0056666692098</v>
+        <v>108.1583346048991</v>
       </c>
       <c r="AA3" s="1">
-        <v>30.49628480239076</v>
+        <v>110.3443135300622</v>
       </c>
       <c r="AB3" s="1">
-        <v>5.515048536028832</v>
+        <v>105.972355679736</v>
       </c>
       <c r="AC3">
-        <v>31.47</v>
+        <v>7.36</v>
       </c>
       <c r="AD3">
-        <v>1.74</v>
+        <v>3.46</v>
       </c>
       <c r="AE3" s="2">
-        <v>0.0508</v>
+        <v>0.0139</v>
       </c>
       <c r="AF3" t="s">
         <v>152</v>
@@ -1421,79 +1421,79 @@
         <v>169</v>
       </c>
       <c r="AI3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AM3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO3" s="2">
-        <v>0.2142857142857143</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AP3" s="2">
-        <v>0.3571428571428572</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AQ3" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AR3" s="2">
-        <v>0.1428571428571428</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AS3" s="2">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AT3" s="2">
-        <v>0.5714285714285714</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AU3" s="2">
-        <v>0.1428571428571428</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AV3" s="1">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="AW3" s="2">
-        <v>-0.6293550778354337</v>
+        <v>-0.08722109533468554</v>
       </c>
       <c r="AX3" s="1">
-        <v>13.83333</v>
+        <v>108.07692</v>
       </c>
       <c r="AY3" s="2">
-        <v>0.02545070422535211</v>
+        <v>-0.003531993361607897</v>
       </c>
       <c r="AZ3" s="1">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="BA3" s="2">
-        <v>0.7049666419570052</v>
+        <v>0.1432786280656464</v>
       </c>
       <c r="BB3" t="s">
         <v>173</v>
       </c>
       <c r="BC3">
-        <v>5.06</v>
+        <v>6.01</v>
       </c>
       <c r="BD3">
-        <v>4.009248214213629</v>
+        <v>0.249557849129943</v>
       </c>
       <c r="BE3">
-        <v>1.352361726722233</v>
+        <v>3.484278960989688</v>
       </c>
       <c r="BF3">
-        <v>-0.9202911854068001</v>
+        <v>6.443857951151371</v>
       </c>
       <c r="BG3">
-        <v>-17.78675676131215</v>
+        <v>6.199111460790225</v>
       </c>
       <c r="BH3" t="s">
         <v>175</v>
@@ -1519,79 +1519,79 @@
         <v>133</v>
       </c>
       <c r="G4" s="1">
-        <v>121.63</v>
+        <v>73.61</v>
       </c>
       <c r="H4">
-        <v>34.55</v>
+        <v>10.31</v>
       </c>
       <c r="I4">
-        <v>284.06</v>
+        <v>114.26</v>
       </c>
       <c r="J4">
-        <v>283</v>
+        <v>223.79</v>
       </c>
       <c r="K4" s="1">
-        <v>117.8192</v>
+        <v>69.066</v>
       </c>
       <c r="L4" s="2">
-        <v>0.03234447356627783</v>
+        <v>0.06579214085078036</v>
       </c>
       <c r="M4" s="1">
-        <v>124.36135</v>
+        <v>68.44615</v>
       </c>
       <c r="N4" s="2">
-        <v>-0.02196301342820745</v>
+        <v>0.0754439804137997</v>
       </c>
       <c r="O4">
-        <v>132.26</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="P4" s="2">
-        <v>-0.0803719945561772</v>
+        <v>0.04101258662141148</v>
       </c>
       <c r="Q4">
-        <v>0.6899999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="R4">
-        <v>0.24</v>
+        <v>0.9</v>
       </c>
       <c r="S4">
-        <v>58.66</v>
+        <v>62.39</v>
       </c>
       <c r="T4">
-        <v>73.34999999999999</v>
+        <v>51.37</v>
       </c>
       <c r="U4">
-        <v>61.47</v>
+        <v>42.84</v>
       </c>
       <c r="V4">
-        <v>7.42</v>
+        <v>4.32</v>
       </c>
       <c r="W4">
-        <v>66.59</v>
+        <v>47.8</v>
       </c>
       <c r="X4">
-        <v>2.74</v>
+        <v>1.4</v>
       </c>
       <c r="Y4" t="s">
         <v>136</v>
       </c>
       <c r="Z4" s="1">
-        <v>119.1213340759277</v>
+        <v>70.27000172932942</v>
       </c>
       <c r="AA4" s="1">
-        <v>122.4926823093446</v>
+        <v>72.97617135179587</v>
       </c>
       <c r="AB4" s="1">
-        <v>115.7499858425109</v>
+        <v>67.56383210686298</v>
       </c>
       <c r="AC4">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="AD4">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AE4" s="2">
-        <v>0.012200001</v>
+        <v>0.0254</v>
       </c>
       <c r="AF4" t="s">
         <v>153</v>
@@ -1603,79 +1603,79 @@
         <v>169</v>
       </c>
       <c r="AI4">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AJ4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL4">
         <v>10</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AO4" s="2">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AQ4" s="2">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AR4" s="2">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AS4" s="2">
         <v>0</v>
       </c>
       <c r="AT4" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AU4" s="2">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AV4" s="1">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AW4" s="2">
-        <v>-0.01340129902162292</v>
+        <v>-0.1169678032875968</v>
       </c>
       <c r="AX4" s="1">
-        <v>137.56667</v>
+        <v>79.83333</v>
       </c>
       <c r="AY4" s="2">
-        <v>0.1310258159993422</v>
+        <v>0.08454462708871083</v>
       </c>
       <c r="AZ4" s="1">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="BA4" s="2">
-        <v>0.3565732138452685</v>
+        <v>0.2090748539600598</v>
       </c>
       <c r="BB4" t="s">
         <v>173</v>
       </c>
       <c r="BC4">
-        <v>7.42</v>
+        <v>4.32</v>
       </c>
       <c r="BD4">
-        <v>3.824153366783707</v>
+        <v>2.592335345437718</v>
       </c>
       <c r="BE4">
-        <v>2.038590912238791</v>
+        <v>1.938791779018246</v>
       </c>
       <c r="BF4">
-        <v>1.063563602430883</v>
+        <v>0.03387267296447476</v>
       </c>
       <c r="BG4">
-        <v>-12.29647614443281</v>
+        <v>-7.10916197785784</v>
       </c>
       <c r="BH4" t="s">
         <v>175</v>
@@ -1695,85 +1695,85 @@
         <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
         <v>133</v>
       </c>
       <c r="G5" s="1">
-        <v>108.46</v>
+        <v>167.76</v>
       </c>
       <c r="H5">
-        <v>58.01</v>
+        <v>272.25</v>
       </c>
       <c r="I5">
-        <v>534.83</v>
+        <v>1622.84</v>
       </c>
       <c r="J5">
-        <v>530.2</v>
+        <v>1611.37</v>
       </c>
       <c r="K5" s="1">
-        <v>103.0472</v>
+        <v>154.8776</v>
       </c>
       <c r="L5" s="2">
-        <v>0.05252738550877646</v>
+        <v>0.08317794180694942</v>
       </c>
       <c r="M5" s="1">
-        <v>105.4095</v>
+        <v>124.82215</v>
       </c>
       <c r="N5" s="2">
-        <v>0.02893951683671775</v>
+        <v>0.3439922321479</v>
       </c>
       <c r="O5">
-        <v>80.34999999999999</v>
+        <v>119.32</v>
       </c>
       <c r="P5" s="2">
-        <v>0.3498444306160548</v>
+        <v>0.4059671471672813</v>
       </c>
       <c r="Q5">
-        <v>1.57</v>
+        <v>3.69</v>
       </c>
       <c r="R5">
-        <v>0.88</v>
+        <v>6.29</v>
       </c>
       <c r="S5">
-        <v>69.63</v>
+        <v>51.39</v>
       </c>
       <c r="T5">
-        <v>93.59</v>
+        <v>55.63</v>
       </c>
       <c r="U5">
-        <v>93.09999999999999</v>
+        <v>64.5</v>
       </c>
       <c r="V5">
-        <v>6.01</v>
+        <v>2.84</v>
       </c>
       <c r="W5">
-        <v>95.23999999999999</v>
+        <v>43.89</v>
       </c>
       <c r="X5">
-        <v>1.66</v>
+        <v>7.18</v>
       </c>
       <c r="Y5" t="s">
         <v>137</v>
       </c>
       <c r="Z5" s="1">
-        <v>108.1583346048991</v>
+        <v>170.009336344401</v>
       </c>
       <c r="AA5" s="1">
-        <v>110.3443135300622</v>
+        <v>178.932280033033</v>
       </c>
       <c r="AB5" s="1">
-        <v>105.972355679736</v>
+        <v>161.0863926557691</v>
       </c>
       <c r="AC5">
-        <v>7.36</v>
+        <v>42.12</v>
       </c>
       <c r="AD5">
-        <v>3.46</v>
+        <v>0.79</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.0139</v>
+        <v>0.026099999</v>
       </c>
       <c r="AF5" t="s">
         <v>154</v>
@@ -1785,79 +1785,79 @@
         <v>169</v>
       </c>
       <c r="AI5">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AJ5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AL5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="2">
-        <v>0.1538461538461539</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="AP5" s="2">
-        <v>0.07692307692307693</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="AQ5" s="2">
-        <v>0.6153846153846154</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="AR5" s="2">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="2">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="2">
-        <v>0.2307692307692308</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="AU5" s="2">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="1">
-        <v>99</v>
+        <v>125.1</v>
       </c>
       <c r="AW5" s="2">
-        <v>-0.08722109533468554</v>
+        <v>-0.2542918454935622</v>
       </c>
       <c r="AX5" s="1">
-        <v>108.07692</v>
+        <v>183.86523</v>
       </c>
       <c r="AY5" s="2">
-        <v>-0.003531993361607897</v>
+        <v>0.09600160944206013</v>
       </c>
       <c r="AZ5" s="1">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="BA5" s="2">
-        <v>0.1432786280656464</v>
+        <v>0.3710061993323797</v>
       </c>
       <c r="BB5" t="s">
         <v>173</v>
       </c>
       <c r="BC5">
-        <v>6.01</v>
+        <v>2.84</v>
       </c>
       <c r="BD5">
-        <v>0.249557849129943</v>
+        <v>2.47387919300946</v>
       </c>
       <c r="BE5">
-        <v>3.484278960989688</v>
+        <v>-5.492648471477771</v>
       </c>
       <c r="BF5">
-        <v>6.443857951151371</v>
+        <v>3.478904243472002</v>
       </c>
       <c r="BG5">
-        <v>6.199103527337994</v>
+        <v>7.263427783680315</v>
       </c>
       <c r="BH5" t="s">
         <v>175</v>
@@ -1868,94 +1868,94 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
         <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" s="1">
-        <v>132.59</v>
+        <v>259.22</v>
       </c>
       <c r="H6">
-        <v>230.77</v>
+        <v>161.46</v>
       </c>
       <c r="I6">
-        <v>1740.46</v>
+        <v>622.85</v>
       </c>
       <c r="J6">
-        <v>1730.23</v>
+        <v>621.78</v>
       </c>
       <c r="K6" s="1">
-        <v>131.2102</v>
+        <v>278.1116</v>
       </c>
       <c r="L6" s="2">
-        <v>0.01051595074163455</v>
+        <v>-0.0679281266944636</v>
       </c>
       <c r="M6" s="1">
-        <v>126.90365</v>
+        <v>323.4465</v>
       </c>
       <c r="N6" s="2">
-        <v>0.0448084038559963</v>
+        <v>-0.1985691605876087</v>
       </c>
       <c r="O6">
-        <v>113.83</v>
+        <v>316.43</v>
       </c>
       <c r="P6" s="2">
-        <v>0.1648071685847317</v>
+        <v>-0.1807982808204026</v>
       </c>
       <c r="Q6">
-        <v>0.55</v>
+        <v>-7.34</v>
       </c>
       <c r="R6">
-        <v>0.2</v>
+        <v>-10.2</v>
       </c>
       <c r="S6">
-        <v>56.03</v>
+        <v>48.03</v>
       </c>
       <c r="T6">
-        <v>66.62</v>
+        <v>28.65</v>
       </c>
       <c r="U6">
-        <v>69.67</v>
+        <v>19.16</v>
       </c>
       <c r="V6">
-        <v>1.27</v>
+        <v>4.72</v>
       </c>
       <c r="W6">
-        <v>45.58</v>
+        <v>43.23</v>
       </c>
       <c r="X6">
-        <v>2.57</v>
+        <v>6.38</v>
       </c>
       <c r="Y6" t="s">
         <v>138</v>
       </c>
       <c r="Z6" s="1">
-        <v>107.6106676737467</v>
+        <v>244.4089991251628</v>
       </c>
       <c r="AA6" s="1">
-        <v>183.8281920229611</v>
+        <v>266.1653140137007</v>
       </c>
       <c r="AB6" s="1">
-        <v>31.39314332453235</v>
+        <v>222.6526842366248</v>
       </c>
       <c r="AC6">
-        <v>18.33</v>
+        <v>12.4</v>
       </c>
       <c r="AD6">
-        <v>2.44</v>
+        <v>3.49</v>
       </c>
       <c r="AE6" s="2">
-        <v>0.0106</v>
+        <v>0.0199</v>
       </c>
       <c r="AF6" t="s">
         <v>155</v>
@@ -1967,79 +1967,79 @@
         <v>169</v>
       </c>
       <c r="AI6">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AJ6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AK6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL6">
         <v>7</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
         <v>1</v>
       </c>
       <c r="AO6" s="2">
-        <v>0.2142857142857143</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="AP6" s="2">
-        <v>0.5</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AQ6" s="2">
-        <v>0.25</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="AR6" s="2">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AS6" s="2">
-        <v>0.03571428571428571</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT6" s="2">
-        <v>0.7142857142857143</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="AU6" s="2">
-        <v>0.03571428571428571</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="AV6" s="1">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c r="AW6" s="2">
-        <v>-0.07987027679312168</v>
+        <v>-0.07414551346346743</v>
       </c>
       <c r="AX6" s="1">
-        <v>142.4848</v>
+        <v>323.41</v>
       </c>
       <c r="AY6" s="2">
-        <v>0.07462704578022478</v>
+        <v>0.2476274978782501</v>
       </c>
       <c r="AZ6" s="1">
-        <v>159</v>
+        <v>372</v>
       </c>
       <c r="BA6" s="2">
-        <v>0.1991854589335545</v>
+        <v>0.4350744541316255</v>
       </c>
       <c r="BB6" t="s">
         <v>173</v>
       </c>
       <c r="BC6">
-        <v>1.27</v>
+        <v>4.72</v>
       </c>
       <c r="BD6">
-        <v>0.4469669226444129</v>
+        <v>2.05913445979268</v>
       </c>
       <c r="BE6">
-        <v>0.6375683779055977</v>
+        <v>4.943122539735645</v>
       </c>
       <c r="BF6">
-        <v>5.531675407517395</v>
+        <v>-7.983383946806617</v>
       </c>
       <c r="BG6">
-        <v>21.99888270180058</v>
+        <v>-20.09228109392805</v>
       </c>
       <c r="BH6" t="s">
         <v>175</v>
@@ -2050,97 +2050,97 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G7" s="1">
-        <v>210.6</v>
+        <v>132.59</v>
       </c>
       <c r="H7">
-        <v>372.04</v>
+        <v>230.77</v>
       </c>
       <c r="I7">
-        <v>1766.56</v>
+        <v>1740.46</v>
       </c>
       <c r="J7">
-        <v>1762.95</v>
+        <v>1730.23</v>
       </c>
       <c r="K7" s="1">
-        <v>193.0536</v>
+        <v>131.2102</v>
       </c>
       <c r="L7" s="2">
-        <v>0.09088874799537541</v>
+        <v>0.01051595074163455</v>
       </c>
       <c r="M7" s="1">
-        <v>188.64355</v>
+        <v>126.90365</v>
       </c>
       <c r="N7" s="2">
-        <v>0.1163912044700176</v>
+        <v>0.0448084038559963</v>
       </c>
       <c r="O7">
-        <v>161.94</v>
+        <v>113.83</v>
       </c>
       <c r="P7" s="2">
-        <v>0.3004816598740274</v>
+        <v>0.1648071685847317</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>0.55</v>
       </c>
       <c r="R7">
-        <v>3.99</v>
+        <v>0.2</v>
       </c>
       <c r="S7">
-        <v>74.94</v>
+        <v>56.03</v>
       </c>
       <c r="T7">
-        <v>92.93000000000001</v>
+        <v>66.62</v>
       </c>
       <c r="U7">
-        <v>92.33</v>
+        <v>69.67</v>
       </c>
       <c r="V7">
-        <v>7.28</v>
+        <v>1.27</v>
       </c>
       <c r="W7">
-        <v>70.11</v>
+        <v>45.58</v>
       </c>
       <c r="X7">
-        <v>3.96</v>
+        <v>2.57</v>
       </c>
       <c r="Y7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Z7" s="1">
-        <v>208.2009963989258</v>
+        <v>107.6106676737467</v>
       </c>
       <c r="AA7" s="1">
-        <v>215.0567800315568</v>
+        <v>183.8281920229611</v>
       </c>
       <c r="AB7" s="1">
-        <v>201.3452127662947</v>
+        <v>31.39314332453235</v>
       </c>
       <c r="AC7">
-        <v>15.13</v>
+        <v>18.33</v>
       </c>
       <c r="AD7">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="AE7" s="2">
-        <v>0.0086</v>
+        <v>0.0106</v>
       </c>
       <c r="AF7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG7" s="1">
         <v>3</v>
@@ -2149,79 +2149,79 @@
         <v>169</v>
       </c>
       <c r="AI7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AM7">
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="2">
-        <v>0.1851851851851852</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AP7" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7" s="2">
-        <v>0.3703703703703703</v>
+        <v>0.25</v>
       </c>
       <c r="AR7" s="2">
         <v>0</v>
       </c>
       <c r="AS7" s="2">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AT7" s="2">
-        <v>0.6296296296296295</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AU7" s="2">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AV7" s="1">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="AW7" s="2">
-        <v>-0.1927825261158594</v>
+        <v>-0.07987027679312168</v>
       </c>
       <c r="AX7" s="1">
-        <v>214.76923</v>
+        <v>142.4848</v>
       </c>
       <c r="AY7" s="2">
-        <v>0.01979691358024691</v>
+        <v>0.07462704578022478</v>
       </c>
       <c r="AZ7" s="1">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c r="BA7" s="2">
-        <v>0.2108262108262109</v>
+        <v>0.1991854589335545</v>
       </c>
       <c r="BB7" t="s">
         <v>173</v>
       </c>
       <c r="BC7">
-        <v>7.28</v>
+        <v>1.27</v>
       </c>
       <c r="BD7">
-        <v>0.5250625792437351</v>
+        <v>0.4469669226444129</v>
       </c>
       <c r="BE7">
-        <v>1.891723651809335</v>
+        <v>0.6375683779055977</v>
       </c>
       <c r="BF7">
-        <v>10.36000842779622</v>
+        <v>5.531675407517395</v>
       </c>
       <c r="BG7">
-        <v>11.20663371531632</v>
+        <v>21.99887413751794</v>
       </c>
       <c r="BH7" t="s">
         <v>175</v>
@@ -2232,97 +2232,97 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G8" s="1">
-        <v>362.09</v>
+        <v>158.72</v>
       </c>
       <c r="H8">
-        <v>153.6</v>
+        <v>84.54000000000001</v>
       </c>
       <c r="I8">
-        <v>424.2</v>
+        <v>532.63</v>
       </c>
       <c r="J8">
-        <v>422.97</v>
+        <v>531.86</v>
       </c>
       <c r="K8" s="1">
-        <v>367.5244</v>
+        <v>151.8338</v>
       </c>
       <c r="L8" s="2">
-        <v>-0.01478650124998514</v>
+        <v>0.04535353788155208</v>
       </c>
       <c r="M8" s="1">
-        <v>415.8365</v>
+        <v>143.593</v>
       </c>
       <c r="N8" s="2">
-        <v>-0.1292491159385961</v>
+        <v>0.1053463608950298</v>
       </c>
       <c r="O8">
-        <v>458.38</v>
+        <v>113.19</v>
       </c>
       <c r="P8" s="2">
-        <v>-0.2100658842008814</v>
+        <v>0.4022440144889124</v>
       </c>
       <c r="Q8">
-        <v>-3.21</v>
+        <v>1.25</v>
       </c>
       <c r="R8">
-        <v>-6.07</v>
+        <v>0.92</v>
       </c>
       <c r="S8">
-        <v>53.68</v>
+        <v>60</v>
       </c>
       <c r="T8">
-        <v>51.57</v>
+        <v>69.44</v>
       </c>
       <c r="U8">
-        <v>40.02</v>
+        <v>63.47</v>
       </c>
       <c r="V8">
-        <v>4.77</v>
+        <v>5.24</v>
       </c>
       <c r="W8">
-        <v>55.46</v>
+        <v>64.48</v>
       </c>
       <c r="X8">
-        <v>8.220000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="Y8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Z8" s="1">
-        <v>532.4466583251952</v>
+        <v>139.7848403930664</v>
       </c>
       <c r="AA8" s="1">
-        <v>895.6610366366838</v>
+        <v>236.1444596010518</v>
       </c>
       <c r="AB8" s="1">
-        <v>169.2322800137067</v>
+        <v>43.42522118508106</v>
       </c>
       <c r="AC8">
-        <v>10.41</v>
+        <v>9.23</v>
       </c>
       <c r="AD8">
-        <v>2.98</v>
+        <v>2.28</v>
       </c>
       <c r="AE8" s="2">
-        <v>0.024600001</v>
+        <v>0.0174</v>
       </c>
       <c r="AF8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG8" s="1">
         <v>3</v>
@@ -2331,79 +2331,79 @@
         <v>169</v>
       </c>
       <c r="AI8">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AJ8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AK8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AL8">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
         <v>2</v>
       </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
       <c r="AO8" s="2">
-        <v>0.15</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AP8" s="2">
         <v>0.5</v>
       </c>
       <c r="AQ8" s="2">
-        <v>0.3</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AR8" s="2">
-        <v>0.05</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="AS8" s="2">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AT8" s="2">
-        <v>0.65</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="AU8" s="2">
-        <v>0.05</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AV8" s="1">
-        <v>280</v>
+        <v>101</v>
       </c>
       <c r="AW8" s="2">
-        <v>-0.2267115910409014</v>
+        <v>-0.3636592741935484</v>
       </c>
       <c r="AX8" s="1">
-        <v>480.63913</v>
+        <v>161.14941</v>
       </c>
       <c r="AY8" s="2">
-        <v>0.3274023861470907</v>
+        <v>0.01530626260080639</v>
       </c>
       <c r="AZ8" s="1">
-        <v>605</v>
+        <v>187</v>
       </c>
       <c r="BA8" s="2">
-        <v>0.6708553122151952</v>
+        <v>0.1781754032258065</v>
       </c>
       <c r="BB8" t="s">
         <v>173</v>
       </c>
       <c r="BC8">
-        <v>4.77</v>
+        <v>5.24</v>
       </c>
       <c r="BD8">
-        <v>2.45027412544855</v>
+        <v>2.811242518864441</v>
       </c>
       <c r="BE8">
-        <v>2.040295930631314</v>
+        <v>4.153817085378027</v>
       </c>
       <c r="BF8">
-        <v>-2.582799117667682</v>
+        <v>6.309442716943336</v>
       </c>
       <c r="BG8">
-        <v>-35.59982279450589</v>
+        <v>26.86392648486682</v>
       </c>
       <c r="BH8" t="s">
         <v>175</v>
@@ -2429,82 +2429,82 @@
         <v>132</v>
       </c>
       <c r="G9" s="1">
-        <v>73.61</v>
+        <v>121.63</v>
       </c>
       <c r="H9">
-        <v>10.31</v>
+        <v>34.55</v>
       </c>
       <c r="I9">
-        <v>114.26</v>
+        <v>284.06</v>
       </c>
       <c r="J9">
-        <v>223.79</v>
+        <v>283</v>
       </c>
       <c r="K9" s="1">
-        <v>69.066</v>
+        <v>117.8192</v>
       </c>
       <c r="L9" s="2">
-        <v>0.06579214085078036</v>
+        <v>0.03234447356627783</v>
       </c>
       <c r="M9" s="1">
-        <v>68.44615</v>
+        <v>124.36135</v>
       </c>
       <c r="N9" s="2">
-        <v>0.0754439804137997</v>
+        <v>-0.02196301342820745</v>
       </c>
       <c r="O9">
-        <v>70.70999999999999</v>
+        <v>132.26</v>
       </c>
       <c r="P9" s="2">
-        <v>0.04101258662141148</v>
+        <v>-0.0803719945561772</v>
       </c>
       <c r="Q9">
-        <v>0.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R9">
-        <v>0.9</v>
+        <v>0.24</v>
       </c>
       <c r="S9">
-        <v>62.39</v>
+        <v>58.66</v>
       </c>
       <c r="T9">
-        <v>51.37</v>
+        <v>73.34999999999999</v>
       </c>
       <c r="U9">
-        <v>42.84</v>
+        <v>61.47</v>
       </c>
       <c r="V9">
-        <v>4.32</v>
+        <v>7.42</v>
       </c>
       <c r="W9">
-        <v>47.8</v>
+        <v>66.59</v>
       </c>
       <c r="X9">
-        <v>1.4</v>
+        <v>2.74</v>
       </c>
       <c r="Y9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Z9" s="1">
-        <v>70.27000172932942</v>
+        <v>119.1213340759277</v>
       </c>
       <c r="AA9" s="1">
-        <v>72.97617135179587</v>
+        <v>122.4926823093446</v>
       </c>
       <c r="AB9" s="1">
-        <v>67.56383210686298</v>
+        <v>115.7499858425109</v>
       </c>
       <c r="AC9">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="AD9">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AE9" s="2">
-        <v>0.0254</v>
+        <v>0.012200001</v>
       </c>
       <c r="AF9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG9" s="1">
         <v>3</v>
@@ -2513,79 +2513,79 @@
         <v>169</v>
       </c>
       <c r="AI9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL9">
         <v>10</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9">
         <v>0</v>
       </c>
       <c r="AO9" s="2">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AP9" s="2">
-        <v>0.2666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ9" s="2">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AR9" s="2">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="2">
         <v>0</v>
       </c>
       <c r="AT9" s="2">
-        <v>0.2666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AU9" s="2">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="1">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AW9" s="2">
-        <v>-0.1169678032875968</v>
+        <v>-0.01340129902162292</v>
       </c>
       <c r="AX9" s="1">
-        <v>79.83333</v>
+        <v>137.56667</v>
       </c>
       <c r="AY9" s="2">
-        <v>0.08454462708871083</v>
+        <v>0.1310258159993422</v>
       </c>
       <c r="AZ9" s="1">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="BA9" s="2">
-        <v>0.2090748539600598</v>
+        <v>0.3565732138452685</v>
       </c>
       <c r="BB9" t="s">
         <v>173</v>
       </c>
       <c r="BC9">
-        <v>4.32</v>
+        <v>7.42</v>
       </c>
       <c r="BD9">
-        <v>2.592335345437718</v>
+        <v>3.824153366783707</v>
       </c>
       <c r="BE9">
-        <v>1.938791779018246</v>
+        <v>2.038590912238791</v>
       </c>
       <c r="BF9">
-        <v>0.03387267296447476</v>
+        <v>1.063563602430883</v>
       </c>
       <c r="BG9">
-        <v>-7.10916197785784</v>
+        <v>-12.29648579412392</v>
       </c>
       <c r="BH9" t="s">
         <v>175</v>
@@ -2596,97 +2596,97 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" s="1">
-        <v>259.22</v>
+        <v>362.09</v>
       </c>
       <c r="H10">
-        <v>161.46</v>
+        <v>153.6</v>
       </c>
       <c r="I10">
-        <v>622.85</v>
+        <v>424.2</v>
       </c>
       <c r="J10">
-        <v>621.78</v>
+        <v>422.97</v>
       </c>
       <c r="K10" s="1">
-        <v>278.1116</v>
+        <v>367.5244</v>
       </c>
       <c r="L10" s="2">
-        <v>-0.0679281266944636</v>
+        <v>-0.01478650124998514</v>
       </c>
       <c r="M10" s="1">
-        <v>323.4465</v>
+        <v>415.8365</v>
       </c>
       <c r="N10" s="2">
-        <v>-0.1985691605876087</v>
+        <v>-0.1292491159385961</v>
       </c>
       <c r="O10">
-        <v>316.43</v>
+        <v>458.38</v>
       </c>
       <c r="P10" s="2">
-        <v>-0.1807982808204026</v>
+        <v>-0.2100658842008814</v>
       </c>
       <c r="Q10">
-        <v>-7.34</v>
+        <v>-3.21</v>
       </c>
       <c r="R10">
-        <v>-10.2</v>
+        <v>-6.07</v>
       </c>
       <c r="S10">
-        <v>48.03</v>
+        <v>53.68</v>
       </c>
       <c r="T10">
-        <v>28.65</v>
+        <v>51.57</v>
       </c>
       <c r="U10">
-        <v>19.16</v>
+        <v>40.02</v>
       </c>
       <c r="V10">
-        <v>4.72</v>
+        <v>4.77</v>
       </c>
       <c r="W10">
-        <v>43.23</v>
+        <v>55.46</v>
       </c>
       <c r="X10">
-        <v>6.38</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="Y10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z10" s="1">
-        <v>244.4089991251628</v>
+        <v>532.4466583251952</v>
       </c>
       <c r="AA10" s="1">
-        <v>266.1653140137007</v>
+        <v>895.6610366366838</v>
       </c>
       <c r="AB10" s="1">
-        <v>222.6526842366248</v>
+        <v>169.2322800137067</v>
       </c>
       <c r="AC10">
-        <v>12.4</v>
+        <v>10.41</v>
       </c>
       <c r="AD10">
-        <v>3.49</v>
+        <v>2.98</v>
       </c>
       <c r="AE10" s="2">
-        <v>0.0199</v>
+        <v>0.024600001</v>
       </c>
       <c r="AF10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG10" s="1">
         <v>3</v>
@@ -2695,79 +2695,79 @@
         <v>169</v>
       </c>
       <c r="AI10">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AJ10">
+        <v>6</v>
+      </c>
+      <c r="AK10">
+        <v>20</v>
+      </c>
+      <c r="AL10">
+        <v>12</v>
+      </c>
+      <c r="AM10">
         <v>2</v>
       </c>
-      <c r="AK10">
-        <v>12</v>
-      </c>
-      <c r="AL10">
-        <v>7</v>
-      </c>
-      <c r="AM10">
-        <v>1</v>
-      </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="2">
-        <v>0.08695652173913043</v>
+        <v>0.15</v>
       </c>
       <c r="AP10" s="2">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="AQ10" s="2">
-        <v>0.3043478260869565</v>
+        <v>0.3</v>
       </c>
       <c r="AR10" s="2">
-        <v>0.04347826086956522</v>
+        <v>0.05</v>
       </c>
       <c r="AS10" s="2">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="2">
-        <v>0.6086956521739131</v>
+        <v>0.65</v>
       </c>
       <c r="AU10" s="2">
-        <v>0.08695652173913043</v>
+        <v>0.05</v>
       </c>
       <c r="AV10" s="1">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="AW10" s="2">
-        <v>-0.07414551346346743</v>
+        <v>-0.2267115910409014</v>
       </c>
       <c r="AX10" s="1">
-        <v>323.41</v>
+        <v>480.63913</v>
       </c>
       <c r="AY10" s="2">
-        <v>0.2476274978782501</v>
+        <v>0.3274023861470907</v>
       </c>
       <c r="AZ10" s="1">
-        <v>372</v>
+        <v>605</v>
       </c>
       <c r="BA10" s="2">
-        <v>0.4350744541316255</v>
+        <v>0.6708553122151952</v>
       </c>
       <c r="BB10" t="s">
         <v>173</v>
       </c>
       <c r="BC10">
-        <v>4.72</v>
+        <v>4.77</v>
       </c>
       <c r="BD10">
-        <v>2.05913445979268</v>
+        <v>2.45027412544855</v>
       </c>
       <c r="BE10">
-        <v>4.943122539735645</v>
+        <v>2.040295930631314</v>
       </c>
       <c r="BF10">
-        <v>-7.983383946806617</v>
+        <v>-2.582799117667682</v>
       </c>
       <c r="BG10">
-        <v>-20.09228109392805</v>
+        <v>-35.59982279450589</v>
       </c>
       <c r="BH10" t="s">
         <v>175</v>
@@ -2784,91 +2784,91 @@
         <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
         <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="1">
-        <v>158.72</v>
+        <v>210.6</v>
       </c>
       <c r="H11">
-        <v>84.54000000000001</v>
+        <v>372.04</v>
       </c>
       <c r="I11">
-        <v>532.63</v>
+        <v>1766.56</v>
       </c>
       <c r="J11">
-        <v>531.86</v>
+        <v>1762.95</v>
       </c>
       <c r="K11" s="1">
-        <v>151.8338</v>
+        <v>193.0536</v>
       </c>
       <c r="L11" s="2">
-        <v>0.04535353788155208</v>
+        <v>0.09088874799537541</v>
       </c>
       <c r="M11" s="1">
-        <v>143.593</v>
+        <v>188.64355</v>
       </c>
       <c r="N11" s="2">
-        <v>0.1053463608950298</v>
+        <v>0.1163912044700176</v>
       </c>
       <c r="O11">
-        <v>113.19</v>
+        <v>161.94</v>
       </c>
       <c r="P11" s="2">
-        <v>0.4022440144889124</v>
+        <v>0.3004816598740274</v>
       </c>
       <c r="Q11">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>0.92</v>
+        <v>3.99</v>
       </c>
       <c r="S11">
-        <v>60</v>
+        <v>74.94</v>
       </c>
       <c r="T11">
-        <v>69.44</v>
+        <v>92.93000000000001</v>
       </c>
       <c r="U11">
-        <v>63.47</v>
+        <v>92.33</v>
       </c>
       <c r="V11">
-        <v>5.24</v>
+        <v>7.28</v>
       </c>
       <c r="W11">
-        <v>64.48</v>
+        <v>70.11</v>
       </c>
       <c r="X11">
-        <v>3.5</v>
+        <v>3.96</v>
       </c>
       <c r="Y11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Z11" s="1">
-        <v>139.7848403930664</v>
+        <v>208.2009963989258</v>
       </c>
       <c r="AA11" s="1">
-        <v>236.1444596010518</v>
+        <v>215.0567800315568</v>
       </c>
       <c r="AB11" s="1">
-        <v>43.42522118508106</v>
+        <v>201.3452127662947</v>
       </c>
       <c r="AC11">
-        <v>9.23</v>
+        <v>15.13</v>
       </c>
       <c r="AD11">
-        <v>2.28</v>
+        <v>2.68</v>
       </c>
       <c r="AE11" s="2">
-        <v>0.0174</v>
+        <v>0.0086</v>
       </c>
       <c r="AF11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="AG11" s="1">
         <v>3</v>
@@ -2877,79 +2877,79 @@
         <v>169</v>
       </c>
       <c r="AI11">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AJ11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="2">
-        <v>0.1111111111111111</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="AP11" s="2">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AQ11" s="2">
-        <v>0.2222222222222222</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="AR11" s="2">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="2">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="2">
-        <v>0.6111111111111112</v>
+        <v>0.6296296296296295</v>
       </c>
       <c r="AU11" s="2">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="1">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="AW11" s="2">
-        <v>-0.3636592741935484</v>
+        <v>-0.1927825261158594</v>
       </c>
       <c r="AX11" s="1">
-        <v>161.14941</v>
+        <v>214.76923</v>
       </c>
       <c r="AY11" s="2">
-        <v>0.01530626260080639</v>
+        <v>0.01979691358024691</v>
       </c>
       <c r="AZ11" s="1">
-        <v>187</v>
+        <v>255</v>
       </c>
       <c r="BA11" s="2">
-        <v>0.1781754032258065</v>
+        <v>0.2108262108262109</v>
       </c>
       <c r="BB11" t="s">
         <v>173</v>
       </c>
       <c r="BC11">
-        <v>5.24</v>
+        <v>7.28</v>
       </c>
       <c r="BD11">
-        <v>2.811242518864441</v>
+        <v>0.5250625792437351</v>
       </c>
       <c r="BE11">
-        <v>4.153817085378027</v>
+        <v>1.891723651809335</v>
       </c>
       <c r="BF11">
-        <v>6.309442716943336</v>
+        <v>10.36000842779622</v>
       </c>
       <c r="BG11">
-        <v>26.86392648486682</v>
+        <v>11.20663371531632</v>
       </c>
       <c r="BH11" t="s">
         <v>175</v>
@@ -2960,7 +2960,7 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
         <v>106</v>
@@ -2969,10 +2969,10 @@
         <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G12" s="1">
         <v>190.47</v>
@@ -3142,91 +3142,97 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
         <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F13" t="s">
         <v>133</v>
       </c>
       <c r="G13" s="1">
-        <v>68.77</v>
+        <v>39.78</v>
       </c>
       <c r="H13">
-        <v>10.44</v>
+        <v>11.81</v>
       </c>
       <c r="I13">
-        <v>147.96</v>
+        <v>296.84</v>
       </c>
       <c r="J13">
-        <v>146.93</v>
+        <v>289.42</v>
       </c>
       <c r="K13" s="1">
-        <v>60.3477</v>
+        <v>41.4606</v>
       </c>
       <c r="L13" s="2">
-        <v>0.1395628996631188</v>
+        <v>-0.04053486924935959</v>
       </c>
       <c r="M13" s="1">
-        <v>48.05045</v>
+        <v>34.59825</v>
       </c>
       <c r="N13" s="2">
-        <v>0.4312040782136276</v>
+        <v>0.1497691357221825</v>
+      </c>
+      <c r="O13">
+        <v>15.13</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1.629213483146067</v>
       </c>
       <c r="Q13">
-        <v>1.59</v>
+        <v>-0.92</v>
       </c>
       <c r="R13">
-        <v>0.27</v>
+        <v>-0.54</v>
       </c>
       <c r="S13">
-        <v>64.78</v>
+        <v>47.76</v>
       </c>
       <c r="T13">
-        <v>55.58</v>
+        <v>30.54</v>
       </c>
       <c r="U13">
-        <v>39.77</v>
+        <v>36.39</v>
       </c>
       <c r="V13">
-        <v>25.91</v>
+        <v>-3.52</v>
       </c>
       <c r="W13">
-        <v>68.27</v>
+        <v>48.6</v>
       </c>
       <c r="X13">
-        <v>3.32</v>
+        <v>2.64</v>
       </c>
       <c r="Y13" t="s">
         <v>142</v>
       </c>
       <c r="Z13" s="1">
-        <v>65.80799916585286</v>
+        <v>36.57066726684571</v>
       </c>
       <c r="AA13" s="1">
-        <v>73.25345352351493</v>
+        <v>41.1129626693033</v>
       </c>
       <c r="AB13" s="1">
-        <v>58.36254480819079</v>
+        <v>32.02837186438812</v>
       </c>
       <c r="AC13">
-        <v>8.9</v>
+        <v>34.82</v>
       </c>
       <c r="AD13">
-        <v>3.13</v>
+        <v>1.65</v>
       </c>
       <c r="AE13" s="2">
-        <v>0.070199996</v>
+        <v>0.1189</v>
       </c>
       <c r="AF13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG13" s="1">
         <v>3</v>
@@ -3235,79 +3241,79 @@
         <v>169</v>
       </c>
       <c r="AI13">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="AJ13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AL13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AM13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13">
         <v>0</v>
       </c>
       <c r="AO13" s="2">
-        <v>0.1923076923076923</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AP13" s="2">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AQ13" s="2">
-        <v>0.2307692307692308</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AR13" s="2">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="2">
         <v>0</v>
       </c>
       <c r="AT13" s="2">
-        <v>0.7307692307692307</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="AU13" s="2">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="1">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AW13" s="2">
-        <v>-0.4474334738985022</v>
+        <v>-0.1955756661639015</v>
       </c>
       <c r="AX13" s="1">
-        <v>70.68000000000001</v>
+        <v>49.57143</v>
       </c>
       <c r="AY13" s="2">
-        <v>0.02777373854878597</v>
+        <v>0.2461395173453997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="BA13" s="2">
-        <v>0.4104987639959286</v>
+        <v>0.7596782302664655</v>
       </c>
       <c r="BB13" t="s">
         <v>173</v>
       </c>
       <c r="BC13">
-        <v>25.91</v>
+        <v>-3.52</v>
       </c>
       <c r="BD13">
-        <v>7.386001967392559</v>
+        <v>7.021793755513711</v>
       </c>
       <c r="BE13">
-        <v>13.51930433223153</v>
+        <v>-1.118570141834106</v>
       </c>
       <c r="BF13">
-        <v>8.452920373052248</v>
+        <v>-9.384971761682749</v>
       </c>
       <c r="BG13">
-        <v>73.66161437609179</v>
+        <v>451.7336833401828</v>
       </c>
       <c r="BH13" t="s">
         <v>176</v>
@@ -3318,97 +3324,91 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F14" t="s">
         <v>132</v>
       </c>
       <c r="G14" s="1">
-        <v>39.78</v>
+        <v>68.77</v>
       </c>
       <c r="H14">
-        <v>11.81</v>
+        <v>10.44</v>
       </c>
       <c r="I14">
-        <v>296.84</v>
+        <v>147.96</v>
       </c>
       <c r="J14">
-        <v>289.42</v>
+        <v>146.93</v>
       </c>
       <c r="K14" s="1">
-        <v>41.4606</v>
+        <v>60.3477</v>
       </c>
       <c r="L14" s="2">
-        <v>-0.04053486924935959</v>
+        <v>0.1395628996631188</v>
       </c>
       <c r="M14" s="1">
-        <v>34.59825</v>
+        <v>48.05045</v>
       </c>
       <c r="N14" s="2">
-        <v>0.1497691357221825</v>
-      </c>
-      <c r="O14">
-        <v>15.13</v>
-      </c>
-      <c r="P14" s="2">
-        <v>1.629213483146067</v>
+        <v>0.4312040782136276</v>
       </c>
       <c r="Q14">
-        <v>-0.92</v>
+        <v>1.59</v>
       </c>
       <c r="R14">
-        <v>-0.54</v>
+        <v>0.27</v>
       </c>
       <c r="S14">
-        <v>47.76</v>
+        <v>64.78</v>
       </c>
       <c r="T14">
-        <v>30.54</v>
+        <v>55.58</v>
       </c>
       <c r="U14">
-        <v>36.39</v>
+        <v>39.77</v>
       </c>
       <c r="V14">
-        <v>-3.52</v>
+        <v>25.91</v>
       </c>
       <c r="W14">
-        <v>48.6</v>
+        <v>68.27</v>
       </c>
       <c r="X14">
-        <v>2.64</v>
+        <v>3.32</v>
       </c>
       <c r="Y14" t="s">
         <v>143</v>
       </c>
       <c r="Z14" s="1">
-        <v>36.57066726684571</v>
+        <v>65.80799916585286</v>
       </c>
       <c r="AA14" s="1">
-        <v>41.1129626693033</v>
+        <v>73.25345352351493</v>
       </c>
       <c r="AB14" s="1">
-        <v>32.02837186438812</v>
+        <v>58.36254480819079</v>
       </c>
       <c r="AC14">
-        <v>34.82</v>
+        <v>8.9</v>
       </c>
       <c r="AD14">
-        <v>1.65</v>
+        <v>3.13</v>
       </c>
       <c r="AE14" s="2">
-        <v>0.1189</v>
+        <v>0.070199996</v>
       </c>
       <c r="AF14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG14" s="1">
         <v>3</v>
@@ -3417,79 +3417,79 @@
         <v>169</v>
       </c>
       <c r="AI14">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AJ14">
+        <v>5</v>
+      </c>
+      <c r="AK14">
+        <v>14</v>
+      </c>
+      <c r="AL14">
+        <v>6</v>
+      </c>
+      <c r="AM14">
         <v>1</v>
       </c>
-      <c r="AK14">
-        <v>4</v>
-      </c>
-      <c r="AL14">
-        <v>2</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
       <c r="AN14">
         <v>0</v>
       </c>
       <c r="AO14" s="2">
-        <v>0.1428571428571428</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="AP14" s="2">
-        <v>0.5714285714285714</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="AQ14" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AR14" s="2">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="AS14" s="2">
         <v>0</v>
       </c>
       <c r="AT14" s="2">
-        <v>0.7142857142857142</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="AU14" s="2">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="AV14" s="1">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AW14" s="2">
-        <v>-0.1955756661639015</v>
+        <v>-0.4474334738985022</v>
       </c>
       <c r="AX14" s="1">
-        <v>49.57143</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="AY14" s="2">
-        <v>0.2461395173453997</v>
+        <v>0.02777373854878597</v>
       </c>
       <c r="AZ14" s="1">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="BA14" s="2">
-        <v>0.7596782302664655</v>
+        <v>0.4104987639959286</v>
       </c>
       <c r="BB14" t="s">
         <v>173</v>
       </c>
       <c r="BC14">
-        <v>-3.52</v>
+        <v>25.91</v>
       </c>
       <c r="BD14">
-        <v>7.021793755513711</v>
+        <v>7.386001967392559</v>
       </c>
       <c r="BE14">
-        <v>-1.118570141834106</v>
+        <v>13.51930433223153</v>
       </c>
       <c r="BF14">
-        <v>-9.384971761682749</v>
+        <v>8.452920373052248</v>
       </c>
       <c r="BG14">
-        <v>451.7336833401828</v>
+        <v>73.66161437609179</v>
       </c>
       <c r="BH14" t="s">
         <v>176</v>
@@ -3500,7 +3500,7 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
         <v>109</v>
@@ -3509,88 +3509,88 @@
         <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G15" s="1">
-        <v>48.54</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="H15">
-        <v>11.36</v>
+        <v>11.26</v>
       </c>
       <c r="I15">
-        <v>234</v>
+        <v>168.79</v>
       </c>
       <c r="J15">
-        <v>217.64</v>
+        <v>165.24</v>
       </c>
       <c r="K15" s="1">
-        <v>30.8782</v>
+        <v>54.0824</v>
       </c>
       <c r="L15" s="2">
-        <v>0.5719828228329371</v>
+        <v>0.2334881588095202</v>
       </c>
       <c r="M15" s="1">
-        <v>23.939</v>
+        <v>36.538</v>
       </c>
       <c r="N15" s="2">
-        <v>1.027653619616525</v>
+        <v>0.8257704307843888</v>
       </c>
       <c r="O15">
-        <v>18.5</v>
+        <v>20.76</v>
       </c>
       <c r="P15" s="2">
-        <v>1.623783783783784</v>
+        <v>2.213391136801541</v>
       </c>
       <c r="Q15">
-        <v>4.61</v>
+        <v>3.59</v>
       </c>
       <c r="R15">
-        <v>4.35</v>
+        <v>4.06</v>
       </c>
       <c r="S15">
-        <v>76.16</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="T15">
-        <v>89.09999999999999</v>
+        <v>72.13</v>
       </c>
       <c r="U15">
-        <v>88.34</v>
+        <v>76.06</v>
       </c>
       <c r="V15">
-        <v>24.91</v>
+        <v>13.2</v>
       </c>
       <c r="W15">
-        <v>67.56</v>
+        <v>69.52</v>
       </c>
       <c r="X15">
-        <v>3.02</v>
+        <v>3.56</v>
       </c>
       <c r="Y15" t="s">
         <v>144</v>
       </c>
       <c r="Z15" s="1">
-        <v>44.37016677856445</v>
+        <v>66.19133313496907</v>
       </c>
       <c r="AA15" s="1">
-        <v>50.00590987491284</v>
+        <v>72.02706258061581</v>
       </c>
       <c r="AB15" s="1">
-        <v>38.73442368221607</v>
+        <v>60.35560368932234</v>
       </c>
       <c r="AC15">
-        <v>46.44</v>
+        <v>9.91</v>
       </c>
       <c r="AD15">
-        <v>4.22</v>
+        <v>1.98</v>
       </c>
       <c r="AE15" s="2">
-        <v>0.28190002</v>
+        <v>0.060100004</v>
       </c>
       <c r="AF15" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AG15" s="1">
         <v>3</v>
@@ -3599,79 +3599,79 @@
         <v>169</v>
       </c>
       <c r="AI15">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AJ15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AL15">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="2">
-        <v>0.1304347826086956</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AP15" s="2">
-        <v>0.3478260869565217</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="AQ15" s="2">
-        <v>0.391304347826087</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AR15" s="2">
-        <v>0.08695652173913043</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="2">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="2">
-        <v>0.4782608695652174</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="AU15" s="2">
-        <v>0.1304347826086956</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AW15" s="2">
-        <v>-0.7939843428100536</v>
+        <v>-0.1005846199970019</v>
       </c>
       <c r="AX15" s="1">
-        <v>34.77</v>
+        <v>70.46666999999999</v>
       </c>
       <c r="AY15" s="2">
-        <v>-0.2836835599505562</v>
+        <v>0.05631344625993105</v>
       </c>
       <c r="AZ15" s="1">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="BA15" s="2">
-        <v>-0.01112484548825709</v>
+        <v>0.1992205066706642</v>
       </c>
       <c r="BB15" t="s">
         <v>173</v>
       </c>
       <c r="BC15">
-        <v>24.91</v>
+        <v>13.2</v>
       </c>
       <c r="BD15">
-        <v>8.275705850858703</v>
+        <v>2.979315130509994</v>
       </c>
       <c r="BE15">
-        <v>7.199651555028358</v>
+        <v>-2.613140022667655</v>
       </c>
       <c r="BF15">
-        <v>46.82395311314939</v>
+        <v>13.72314909307946</v>
       </c>
       <c r="BG15">
-        <v>321.7202428348072</v>
+        <v>220.875402341369</v>
       </c>
       <c r="BH15" t="s">
         <v>176</v>
@@ -3682,19 +3682,19 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
         <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G16" s="1">
         <v>294.35</v>
@@ -3751,7 +3751,7 @@
         <v>15.54</v>
       </c>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z16" s="1">
         <v>294.5760030110677</v>
@@ -3772,7 +3772,7 @@
         <v>0.0623</v>
       </c>
       <c r="AF16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AG16" s="1">
         <v>2</v>
@@ -3864,97 +3864,91 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G17" s="1">
-        <v>197.46</v>
+        <v>114.04</v>
       </c>
       <c r="H17">
-        <v>8.869999999999999</v>
+        <v>19.57</v>
       </c>
       <c r="I17">
-        <v>44.95</v>
+        <v>171.64</v>
       </c>
       <c r="J17">
-        <v>43.91</v>
+        <v>151.53</v>
       </c>
       <c r="K17" s="1">
-        <v>175.7406</v>
+        <v>101.0322</v>
       </c>
       <c r="L17" s="2">
-        <v>0.1235878334317739</v>
+        <v>0.1287490522823417</v>
       </c>
       <c r="M17" s="1">
-        <v>172.1884</v>
+        <v>68.32841999999999</v>
       </c>
       <c r="N17" s="2">
-        <v>0.1467671457543017</v>
-      </c>
-      <c r="O17">
-        <v>153.9</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0.2830409356725146</v>
+        <v>0.6689980538112841</v>
       </c>
       <c r="Q17">
-        <v>6.21</v>
+        <v>3.56</v>
       </c>
       <c r="R17">
-        <v>7.59</v>
+        <v>5.4</v>
       </c>
       <c r="S17">
-        <v>69.59999999999999</v>
+        <v>54.81</v>
       </c>
       <c r="T17">
-        <v>79.90000000000001</v>
+        <v>57.73</v>
       </c>
       <c r="U17">
-        <v>92.02</v>
+        <v>69.98</v>
       </c>
       <c r="V17">
-        <v>-0.77</v>
+        <v>-2.81</v>
       </c>
       <c r="W17">
-        <v>44.96</v>
+        <v>47.13</v>
       </c>
       <c r="X17">
-        <v>2.29</v>
+        <v>7.04</v>
       </c>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z17" s="1">
-        <v>194.5476689656576</v>
+        <v>104.2296663920085</v>
       </c>
       <c r="AA17" s="1">
-        <v>211.602274745569</v>
+        <v>116.3765923331417</v>
       </c>
       <c r="AB17" s="1">
-        <v>177.4930631857461</v>
+        <v>92.08274045087525</v>
       </c>
       <c r="AC17">
-        <v>3.98</v>
+        <v>7.67</v>
       </c>
       <c r="AD17">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="AE17" s="2">
-        <v>0.1018</v>
+        <v>0.052800003</v>
       </c>
       <c r="AF17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG17" s="1">
         <v>3</v>
@@ -3963,16 +3957,16 @@
         <v>169</v>
       </c>
       <c r="AI17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK17">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AL17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -3981,13 +3975,13 @@
         <v>0</v>
       </c>
       <c r="AO17" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP17" s="2">
-        <v>0.1333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="AQ17" s="2">
-        <v>0.8666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="2">
         <v>0</v>
@@ -3996,46 +3990,46 @@
         <v>0</v>
       </c>
       <c r="AT17" s="2">
-        <v>0.1333333333333333</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2">
         <v>0</v>
       </c>
       <c r="AV17" s="1">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="AW17" s="2">
-        <v>-0.1441304568013775</v>
+        <v>-0.3686425815503332</v>
       </c>
       <c r="AX17" s="1">
-        <v>205.83333</v>
+        <v>106.33333</v>
       </c>
       <c r="AY17" s="2">
-        <v>0.04240519598906098</v>
+        <v>-0.06757865661171521</v>
       </c>
       <c r="AZ17" s="1">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="BA17" s="2">
-        <v>0.1495999189709308</v>
+        <v>0.2276394247632409</v>
       </c>
       <c r="BB17" t="s">
         <v>173</v>
       </c>
       <c r="BC17">
-        <v>-0.77</v>
+        <v>-2.81</v>
       </c>
       <c r="BD17">
-        <v>-0.07084989135835187</v>
+        <v>2.868483030550199</v>
       </c>
       <c r="BE17">
-        <v>-0.3834095964865526</v>
+        <v>-2.312829362386117</v>
       </c>
       <c r="BF17">
-        <v>15.82591017273812</v>
+        <v>12.72116534497729</v>
       </c>
       <c r="BG17">
-        <v>69.52266571351637</v>
+        <v>256.3750028610229</v>
       </c>
       <c r="BH17" t="s">
         <v>176</v>
@@ -4046,91 +4040,97 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G18" s="1">
-        <v>114.04</v>
+        <v>197.46</v>
       </c>
       <c r="H18">
-        <v>19.57</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="I18">
-        <v>171.64</v>
+        <v>44.95</v>
       </c>
       <c r="J18">
-        <v>151.53</v>
+        <v>43.91</v>
       </c>
       <c r="K18" s="1">
-        <v>101.0322</v>
+        <v>175.7406</v>
       </c>
       <c r="L18" s="2">
-        <v>0.1287490522823417</v>
+        <v>0.1235878334317739</v>
       </c>
       <c r="M18" s="1">
-        <v>68.32841999999999</v>
+        <v>172.1884</v>
       </c>
       <c r="N18" s="2">
-        <v>0.6689980538112841</v>
+        <v>0.1467671457543017</v>
+      </c>
+      <c r="O18">
+        <v>153.9</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.2830409356725146</v>
       </c>
       <c r="Q18">
-        <v>3.56</v>
+        <v>6.21</v>
       </c>
       <c r="R18">
-        <v>5.4</v>
+        <v>7.59</v>
       </c>
       <c r="S18">
-        <v>54.81</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="T18">
-        <v>57.73</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="U18">
-        <v>69.98</v>
+        <v>92.02</v>
       </c>
       <c r="V18">
-        <v>-2.81</v>
+        <v>-0.77</v>
       </c>
       <c r="W18">
-        <v>47.13</v>
+        <v>44.96</v>
       </c>
       <c r="X18">
-        <v>7.04</v>
+        <v>2.29</v>
       </c>
       <c r="Y18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Z18" s="1">
-        <v>104.2296663920085</v>
+        <v>194.5476689656576</v>
       </c>
       <c r="AA18" s="1">
-        <v>116.3765923331417</v>
+        <v>211.602274745569</v>
       </c>
       <c r="AB18" s="1">
-        <v>92.08274045087525</v>
+        <v>177.4930631857461</v>
       </c>
       <c r="AC18">
-        <v>7.67</v>
+        <v>3.98</v>
       </c>
       <c r="AD18">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AE18" s="2">
-        <v>0.052800003</v>
+        <v>0.1018</v>
       </c>
       <c r="AF18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG18" s="1">
         <v>3</v>
@@ -4139,16 +4139,16 @@
         <v>169</v>
       </c>
       <c r="AI18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK18">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM18">
         <v>0</v>
@@ -4157,13 +4157,13 @@
         <v>0</v>
       </c>
       <c r="AO18" s="2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="2">
-        <v>0.75</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AQ18" s="2">
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AR18" s="2">
         <v>0</v>
@@ -4172,46 +4172,46 @@
         <v>0</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AU18" s="2">
         <v>0</v>
       </c>
       <c r="AV18" s="1">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="AW18" s="2">
-        <v>-0.3686425815503332</v>
+        <v>-0.1441304568013775</v>
       </c>
       <c r="AX18" s="1">
-        <v>106.33333</v>
+        <v>205.83333</v>
       </c>
       <c r="AY18" s="2">
-        <v>-0.06757865661171521</v>
+        <v>0.04240519598906098</v>
       </c>
       <c r="AZ18" s="1">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="BA18" s="2">
-        <v>0.2276394247632409</v>
+        <v>0.1495999189709308</v>
       </c>
       <c r="BB18" t="s">
         <v>173</v>
       </c>
       <c r="BC18">
-        <v>-2.81</v>
+        <v>-0.77</v>
       </c>
       <c r="BD18">
-        <v>2.868483030550199</v>
+        <v>-0.07084989135835187</v>
       </c>
       <c r="BE18">
-        <v>-2.312829362386117</v>
+        <v>-0.3834095964865526</v>
       </c>
       <c r="BF18">
-        <v>12.72116534497729</v>
+        <v>15.82591017273812</v>
       </c>
       <c r="BG18">
-        <v>256.3750028610229</v>
+        <v>69.52266571351637</v>
       </c>
       <c r="BH18" t="s">
         <v>176</v>
@@ -4222,115 +4222,115 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
         <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
         <v>129</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="1">
-        <v>121.59</v>
+        <v>172.44</v>
       </c>
       <c r="H19">
-        <v>9.23</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="I19">
-        <v>75.93000000000001</v>
+        <v>57.7</v>
       </c>
       <c r="J19">
-        <v>72.84</v>
+        <v>55.24</v>
       </c>
       <c r="K19" s="1">
-        <v>109.0276</v>
+        <v>152.5732</v>
       </c>
       <c r="L19" s="2">
-        <v>0.1152222006170914</v>
+        <v>0.1302115967941944</v>
       </c>
       <c r="M19" s="1">
-        <v>109.2984</v>
+        <v>140.7778</v>
       </c>
       <c r="N19" s="2">
-        <v>0.1124591027865001</v>
+        <v>0.2249090410561891</v>
       </c>
       <c r="O19">
-        <v>89.58</v>
+        <v>108.93</v>
       </c>
       <c r="P19" s="2">
-        <v>0.3573342263898192</v>
+        <v>0.5830349765904709</v>
       </c>
       <c r="Q19">
-        <v>2.53</v>
+        <v>5.88</v>
       </c>
       <c r="R19">
-        <v>1.96</v>
+        <v>4.95</v>
       </c>
       <c r="S19">
-        <v>72.56999999999999</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="T19">
-        <v>90.04000000000001</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="U19">
-        <v>80.67</v>
+        <v>96.61</v>
       </c>
       <c r="V19">
-        <v>10.54</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="W19">
-        <v>65.73999999999999</v>
+        <v>93.45</v>
       </c>
       <c r="X19">
-        <v>2.76</v>
+        <v>3.29</v>
       </c>
       <c r="Y19" t="s">
         <v>136</v>
       </c>
       <c r="Z19" s="1">
-        <v>116.1600001017253</v>
+        <v>169.5949991861979</v>
       </c>
       <c r="AA19" s="1">
-        <v>120.5173690508233</v>
+        <v>172.7605538135426</v>
       </c>
       <c r="AB19" s="1">
-        <v>111.8026311526272</v>
+        <v>166.4294445588532</v>
       </c>
       <c r="AC19">
-        <v>2.11</v>
+        <v>1.73</v>
       </c>
       <c r="AD19">
-        <v>3.76</v>
+        <v>3.98</v>
       </c>
       <c r="AE19" s="2">
-        <v>0.032899998</v>
+        <v>0.041199997</v>
       </c>
       <c r="AF19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AI19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AJ19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AK19">
         <v>4</v>
       </c>
       <c r="AL19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM19">
         <v>0</v>
@@ -4339,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="AO19" s="2">
-        <v>0.3636363636363636</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AP19" s="2">
-        <v>0.3636363636363636</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AQ19" s="2">
-        <v>0.2727272727272727</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR19" s="2">
         <v>0</v>
@@ -4354,46 +4354,46 @@
         <v>0</v>
       </c>
       <c r="AT19" s="2">
-        <v>0.7272727272727273</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="AU19" s="2">
         <v>0</v>
       </c>
       <c r="AV19" s="1">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="AW19" s="2">
-        <v>-0.0130767332839872</v>
+        <v>-0.06634191602876362</v>
       </c>
       <c r="AX19" s="1">
-        <v>131.72726</v>
+        <v>173</v>
       </c>
       <c r="AY19" s="2">
-        <v>0.08337248128957972</v>
+        <v>0.003247506379030401</v>
       </c>
       <c r="AZ19" s="1">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="BA19" s="2">
-        <v>0.233654083395016</v>
+        <v>0.1308281141266528</v>
       </c>
       <c r="BB19" t="s">
         <v>173</v>
       </c>
       <c r="BC19">
-        <v>10.54</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="BD19">
-        <v>5.556032434099359</v>
+        <v>1.890804091454276</v>
       </c>
       <c r="BE19">
-        <v>5.656929443217297</v>
+        <v>3.773246880634983</v>
       </c>
       <c r="BF19">
-        <v>12.53122897150398</v>
+        <v>25.16512818013721</v>
       </c>
       <c r="BG19">
-        <v>27.22667216753991</v>
+        <v>20.19842209782049</v>
       </c>
       <c r="BH19" t="s">
         <v>176</v>
@@ -4410,7 +4410,7 @@
         <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
         <v>130</v>
@@ -4419,163 +4419,163 @@
         <v>133</v>
       </c>
       <c r="G20" s="1">
-        <v>172.44</v>
+        <v>48.54</v>
       </c>
       <c r="H20">
-        <v>9.949999999999999</v>
+        <v>11.36</v>
       </c>
       <c r="I20">
-        <v>57.7</v>
+        <v>234</v>
       </c>
       <c r="J20">
-        <v>55.24</v>
+        <v>217.64</v>
       </c>
       <c r="K20" s="1">
-        <v>152.5732</v>
+        <v>30.8782</v>
       </c>
       <c r="L20" s="2">
-        <v>0.1302115967941944</v>
+        <v>0.5719828228329371</v>
       </c>
       <c r="M20" s="1">
-        <v>140.7778</v>
+        <v>23.939</v>
       </c>
       <c r="N20" s="2">
-        <v>0.2249090410561891</v>
+        <v>1.027653619616525</v>
       </c>
       <c r="O20">
-        <v>108.93</v>
+        <v>18.5</v>
       </c>
       <c r="P20" s="2">
-        <v>0.5830349765904709</v>
+        <v>1.623783783783784</v>
       </c>
       <c r="Q20">
-        <v>5.88</v>
+        <v>4.61</v>
       </c>
       <c r="R20">
-        <v>4.95</v>
+        <v>4.35</v>
       </c>
       <c r="S20">
-        <v>77.95999999999999</v>
+        <v>76.16</v>
       </c>
       <c r="T20">
-        <v>96.51000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="U20">
-        <v>96.61</v>
+        <v>88.34</v>
       </c>
       <c r="V20">
-        <v>9.050000000000001</v>
+        <v>24.91</v>
       </c>
       <c r="W20">
-        <v>93.45</v>
+        <v>67.56</v>
       </c>
       <c r="X20">
-        <v>3.29</v>
+        <v>3.02</v>
       </c>
       <c r="Y20" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Z20" s="1">
-        <v>169.5949991861979</v>
+        <v>44.37016677856445</v>
       </c>
       <c r="AA20" s="1">
-        <v>172.7605538135426</v>
+        <v>50.00590987491284</v>
       </c>
       <c r="AB20" s="1">
-        <v>166.4294445588532</v>
+        <v>38.73442368221607</v>
       </c>
       <c r="AC20">
-        <v>1.73</v>
+        <v>46.44</v>
       </c>
       <c r="AD20">
-        <v>3.98</v>
+        <v>4.22</v>
       </c>
       <c r="AE20" s="2">
-        <v>0.041199997</v>
+        <v>0.28190002</v>
       </c>
       <c r="AF20" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="AG20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI20">
+        <v>23</v>
+      </c>
+      <c r="AJ20">
+        <v>3</v>
+      </c>
+      <c r="AK20">
+        <v>8</v>
+      </c>
+      <c r="AL20">
+        <v>9</v>
+      </c>
+      <c r="AM20">
         <v>2</v>
       </c>
-      <c r="AH20" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI20">
-        <v>6</v>
-      </c>
-      <c r="AJ20">
+      <c r="AN20">
         <v>1</v>
       </c>
-      <c r="AK20">
-        <v>4</v>
-      </c>
-      <c r="AL20">
-        <v>1</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>0</v>
-      </c>
       <c r="AO20" s="2">
-        <v>0.1666666666666667</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="AP20" s="2">
-        <v>0.6666666666666666</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AQ20" s="2">
-        <v>0.1666666666666667</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="AR20" s="2">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="AS20" s="2">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT20" s="2">
-        <v>0.8333333333333333</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="AU20" s="2">
-        <v>0</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="AV20" s="1">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="AW20" s="2">
-        <v>-0.06634191602876362</v>
+        <v>-0.7939843428100536</v>
       </c>
       <c r="AX20" s="1">
-        <v>173</v>
+        <v>34.77</v>
       </c>
       <c r="AY20" s="2">
-        <v>0.003247506379030401</v>
+        <v>-0.2836835599505562</v>
       </c>
       <c r="AZ20" s="1">
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="BA20" s="2">
-        <v>0.1308281141266528</v>
+        <v>-0.01112484548825709</v>
       </c>
       <c r="BB20" t="s">
         <v>173</v>
       </c>
       <c r="BC20">
-        <v>9.050000000000001</v>
+        <v>24.91</v>
       </c>
       <c r="BD20">
-        <v>1.890804091454276</v>
+        <v>8.275705850858703</v>
       </c>
       <c r="BE20">
-        <v>3.773246880634983</v>
+        <v>7.199651555028358</v>
       </c>
       <c r="BF20">
-        <v>25.16512818013721</v>
+        <v>46.82395311314939</v>
       </c>
       <c r="BG20">
-        <v>20.19842209782049</v>
+        <v>321.7202428348072</v>
       </c>
       <c r="BH20" t="s">
         <v>176</v>
@@ -4586,94 +4586,94 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
         <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F21" t="s">
         <v>132</v>
       </c>
       <c r="G21" s="1">
-        <v>66.70999999999999</v>
+        <v>121.59</v>
       </c>
       <c r="H21">
-        <v>11.26</v>
+        <v>9.23</v>
       </c>
       <c r="I21">
-        <v>168.79</v>
+        <v>75.93000000000001</v>
       </c>
       <c r="J21">
-        <v>165.24</v>
+        <v>72.84</v>
       </c>
       <c r="K21" s="1">
-        <v>54.0824</v>
+        <v>109.0276</v>
       </c>
       <c r="L21" s="2">
-        <v>0.2334881588095202</v>
+        <v>0.1152222006170914</v>
       </c>
       <c r="M21" s="1">
-        <v>36.538</v>
+        <v>109.2984</v>
       </c>
       <c r="N21" s="2">
-        <v>0.8257704307843888</v>
+        <v>0.1124591027865001</v>
       </c>
       <c r="O21">
-        <v>20.76</v>
+        <v>89.58</v>
       </c>
       <c r="P21" s="2">
-        <v>2.213391136801541</v>
+        <v>0.3573342263898192</v>
       </c>
       <c r="Q21">
-        <v>3.59</v>
+        <v>2.53</v>
       </c>
       <c r="R21">
-        <v>4.06</v>
+        <v>1.96</v>
       </c>
       <c r="S21">
-        <v>64.34999999999999</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="T21">
-        <v>72.13</v>
+        <v>90.04000000000001</v>
       </c>
       <c r="U21">
-        <v>76.06</v>
+        <v>80.67</v>
       </c>
       <c r="V21">
-        <v>13.2</v>
+        <v>10.54</v>
       </c>
       <c r="W21">
-        <v>69.52</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="X21">
-        <v>3.56</v>
+        <v>2.76</v>
       </c>
       <c r="Y21" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Z21" s="1">
-        <v>66.19133313496907</v>
+        <v>116.1600001017253</v>
       </c>
       <c r="AA21" s="1">
-        <v>72.02706258061581</v>
+        <v>120.5173690508233</v>
       </c>
       <c r="AB21" s="1">
-        <v>60.35560368932234</v>
+        <v>111.8026311526272</v>
       </c>
       <c r="AC21">
-        <v>9.91</v>
+        <v>2.11</v>
       </c>
       <c r="AD21">
-        <v>1.98</v>
+        <v>3.76</v>
       </c>
       <c r="AE21" s="2">
-        <v>0.060100004</v>
+        <v>0.032899998</v>
       </c>
       <c r="AF21" t="s">
         <v>166</v>
@@ -4685,16 +4685,16 @@
         <v>169</v>
       </c>
       <c r="AI21">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AL21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -4703,13 +4703,13 @@
         <v>0</v>
       </c>
       <c r="AO21" s="2">
-        <v>0.1333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AP21" s="2">
-        <v>0.7333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AQ21" s="2">
-        <v>0.1333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="AR21" s="2">
         <v>0</v>
@@ -4718,46 +4718,46 @@
         <v>0</v>
       </c>
       <c r="AT21" s="2">
-        <v>0.8666666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AU21" s="2">
         <v>0</v>
       </c>
       <c r="AV21" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AW21" s="2">
-        <v>-0.1005846199970019</v>
+        <v>-0.0130767332839872</v>
       </c>
       <c r="AX21" s="1">
-        <v>70.46666999999999</v>
+        <v>131.72726</v>
       </c>
       <c r="AY21" s="2">
-        <v>0.05631344625993105</v>
+        <v>0.08337248128957972</v>
       </c>
       <c r="AZ21" s="1">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="BA21" s="2">
-        <v>0.1992205066706642</v>
+        <v>0.233654083395016</v>
       </c>
       <c r="BB21" t="s">
         <v>173</v>
       </c>
       <c r="BC21">
-        <v>13.2</v>
+        <v>10.54</v>
       </c>
       <c r="BD21">
-        <v>2.979315130509994</v>
+        <v>5.556032434099359</v>
       </c>
       <c r="BE21">
-        <v>-2.613140022667655</v>
+        <v>5.656929443217297</v>
       </c>
       <c r="BF21">
-        <v>13.72314909307946</v>
+        <v>12.53122897150398</v>
       </c>
       <c r="BG21">
-        <v>220.875402341369</v>
+        <v>27.22667216753991</v>
       </c>
       <c r="BH21" t="s">
         <v>176</v>
@@ -4767,23 +4767,41 @@
       <c r="A22" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
       <c r="G22" s="1">
-        <v>10.6</v>
+        <v>10.12</v>
+      </c>
+      <c r="H22">
+        <v>0.28</v>
+      </c>
+      <c r="I22">
+        <v>22.18</v>
+      </c>
+      <c r="J22">
+        <v>22.15</v>
       </c>
       <c r="K22" s="1">
-        <v>10.24892</v>
+        <v>10.1276</v>
       </c>
       <c r="L22" s="2">
-        <v>0.03425531665775512</v>
+        <v>-0.000750424582329481</v>
       </c>
       <c r="M22" s="1">
-        <v>10.203246</v>
+        <v>10.063209</v>
       </c>
       <c r="N22" s="2">
-        <v>0.0388850763766746</v>
+        <v>0.005643428453090729</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AE22" s="2">
         <v>0</v>
@@ -4828,7 +4846,7 @@
         <v>-1</v>
       </c>
       <c r="BB22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BH22" t="s">
         <v>177</v>
@@ -4838,47 +4856,29 @@
       <c r="A23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>114</v>
-      </c>
       <c r="G23" s="1">
-        <v>10.12</v>
+        <v>10.31</v>
       </c>
       <c r="H23">
-        <v>0.28</v>
-      </c>
-      <c r="I23">
-        <v>22.18</v>
-      </c>
-      <c r="J23">
-        <v>22.15</v>
+        <v>0.41</v>
       </c>
       <c r="K23" s="1">
-        <v>10.1276</v>
+        <v>10.100256</v>
       </c>
       <c r="L23" s="2">
-        <v>-0.000750424582329481</v>
+        <v>0.02076620632189923</v>
       </c>
       <c r="M23" s="1">
-        <v>10.063209</v>
+        <v>10.100256</v>
       </c>
       <c r="N23" s="2">
-        <v>0.005643428453090729</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
+        <v>0.02076620632189923</v>
       </c>
       <c r="AD23">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="2">
         <v>0</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>171</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -4917,7 +4917,7 @@
         <v>-1</v>
       </c>
       <c r="BB23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BH23" t="s">
         <v>177</v>
@@ -4928,7 +4928,7 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
         <v>114</v>
@@ -5017,10 +5017,7 @@
         <v>83</v>
       </c>
       <c r="G25" s="1">
-        <v>0.2168</v>
-      </c>
-      <c r="J25">
-        <v>22.15</v>
+        <v>0.6702</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -5074,7 +5071,7 @@
         <v>-1</v>
       </c>
       <c r="BB25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BH25" t="s">
         <v>177</v>
@@ -5085,28 +5082,25 @@
         <v>84</v>
       </c>
       <c r="G26" s="1">
-        <v>10.31</v>
-      </c>
-      <c r="H26">
-        <v>0.41</v>
+        <v>0.2168</v>
+      </c>
+      <c r="J26">
+        <v>22.15</v>
       </c>
       <c r="K26" s="1">
-        <v>10.100256</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0.02076620632189923</v>
+        <v>0</v>
       </c>
       <c r="M26" s="1">
-        <v>10.100256</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0.02076620632189923</v>
+        <v>0</v>
       </c>
       <c r="AD26">
         <v>0</v>
       </c>
       <c r="AE26" s="2">
         <v>0</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>171</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -5145,7 +5139,7 @@
         <v>-1</v>
       </c>
       <c r="BB26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BH26" t="s">
         <v>177</v>
@@ -5156,13 +5150,19 @@
         <v>85</v>
       </c>
       <c r="G27" s="1">
-        <v>0.6702</v>
+        <v>10.6</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>10.24892</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.03425531665775512</v>
       </c>
       <c r="M27" s="1">
-        <v>0</v>
+        <v>10.203246</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.0388850763766746</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -5221,85 +5221,94 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" t="s">
+        <v>132</v>
       </c>
       <c r="G28" s="1">
-        <v>1.88</v>
+        <v>3.28</v>
       </c>
       <c r="H28">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I28">
-        <v>31.62</v>
+        <v>20.4</v>
       </c>
       <c r="J28">
-        <v>18.42</v>
+        <v>4.03</v>
       </c>
       <c r="K28" s="1">
-        <v>1.197</v>
+        <v>2.3076</v>
       </c>
       <c r="L28" s="2">
-        <v>0.5705931495405178</v>
+        <v>0.421390188940891</v>
       </c>
       <c r="M28" s="1">
-        <v>0.9891</v>
+        <v>1.75875</v>
       </c>
       <c r="N28" s="2">
-        <v>0.9007178242847032</v>
+        <v>0.864960909737029</v>
       </c>
       <c r="O28">
-        <v>1.26</v>
+        <v>2.29</v>
       </c>
       <c r="P28" s="2">
-        <v>0.492063492063492</v>
+        <v>0.4323144104803492</v>
       </c>
       <c r="Q28">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="R28">
         <v>0.22</v>
       </c>
       <c r="S28">
-        <v>57.26</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="T28">
-        <v>66.48</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="U28">
-        <v>67.61</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="V28">
-        <v>17.5</v>
+        <v>41.38</v>
       </c>
       <c r="W28">
-        <v>66.75</v>
+        <v>57.02</v>
       </c>
       <c r="X28">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="Y28" t="s">
         <v>147</v>
       </c>
       <c r="Z28" s="1">
-        <v>2.016666658719381</v>
+        <v>3.127666624387105</v>
       </c>
       <c r="AA28" s="1">
-        <v>2.292529938526825</v>
+        <v>3.710225575134539</v>
       </c>
       <c r="AB28" s="1">
-        <v>1.740803378911936</v>
+        <v>2.54510767363967</v>
       </c>
       <c r="AC28">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AD28">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="AE28" s="2">
-        <v>0.0113</v>
+        <v>0.0029</v>
       </c>
       <c r="AF28" t="s">
         <v>167</v>
@@ -5344,19 +5353,19 @@
         <v>173</v>
       </c>
       <c r="BC28">
-        <v>17.5</v>
+        <v>41.38</v>
       </c>
       <c r="BD28">
-        <v>9.941517736389924</v>
+        <v>1.863352243678002</v>
       </c>
       <c r="BE28">
-        <v>-4.081634763179803</v>
+        <v>6.493508202528228</v>
       </c>
       <c r="BF28">
-        <v>74.07406671547625</v>
+        <v>44.49339202421577</v>
       </c>
       <c r="BG28">
-        <v>189.2307791060954</v>
+        <v>120.5862678150934</v>
       </c>
       <c r="BH28" t="s">
         <v>177</v>
@@ -5367,97 +5376,97 @@
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F29" t="s">
         <v>132</v>
       </c>
       <c r="G29" s="1">
-        <v>24.79</v>
+        <v>13.55</v>
       </c>
       <c r="H29">
-        <v>1.55</v>
+        <v>8.94</v>
       </c>
       <c r="I29">
-        <v>62.35</v>
+        <v>659.83</v>
       </c>
       <c r="J29">
-        <v>59.21</v>
+        <v>653.24</v>
       </c>
       <c r="K29" s="1">
-        <v>24.3275</v>
+        <v>11.8356</v>
       </c>
       <c r="L29" s="2">
-        <v>0.0190114068441064</v>
+        <v>0.144851127108047</v>
       </c>
       <c r="M29" s="1">
-        <v>23.9439</v>
+        <v>13.24845</v>
       </c>
       <c r="N29" s="2">
-        <v>0.03533676635802855</v>
+        <v>0.02276115319150547</v>
       </c>
       <c r="O29">
-        <v>10.94</v>
+        <v>14.25</v>
       </c>
       <c r="P29" s="2">
-        <v>1.26599634369287</v>
+        <v>-0.04912280701754381</v>
       </c>
       <c r="Q29">
-        <v>-0.26</v>
+        <v>0.38</v>
       </c>
       <c r="R29">
-        <v>-0.47</v>
+        <v>0.28</v>
       </c>
       <c r="S29">
-        <v>53.46</v>
+        <v>64.84999999999999</v>
       </c>
       <c r="T29">
-        <v>41.04</v>
+        <v>89.31</v>
       </c>
       <c r="U29">
-        <v>32.2</v>
+        <v>78.55</v>
       </c>
       <c r="V29">
-        <v>6.72</v>
+        <v>15.42</v>
       </c>
       <c r="W29">
-        <v>48.05</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="X29">
-        <v>2.48</v>
+        <v>0.47</v>
       </c>
       <c r="Y29" t="s">
         <v>148</v>
       </c>
       <c r="Z29" s="1">
-        <v>26.88500016530355</v>
+        <v>13.09133323033651</v>
       </c>
       <c r="AA29" s="1">
-        <v>33.23950522818716</v>
+        <v>14.15852186081059</v>
       </c>
       <c r="AB29" s="1">
-        <v>20.53049510241994</v>
+        <v>12.02414459986242</v>
       </c>
       <c r="AC29">
-        <v>11.83</v>
+        <v>62.46</v>
       </c>
       <c r="AD29">
-        <v>2.65</v>
+        <v>0.92</v>
       </c>
       <c r="AE29" s="2">
-        <v>0.19870001</v>
+        <v>0.0953</v>
       </c>
       <c r="AF29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG29" s="1">
         <v>4</v>
@@ -5466,79 +5475,79 @@
         <v>172</v>
       </c>
       <c r="AI29">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="AJ29">
         <v>3</v>
       </c>
       <c r="AK29">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AL29">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN29">
         <v>0</v>
       </c>
       <c r="AO29" s="2">
-        <v>0.4285714285714285</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="AP29" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="AQ29" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="AR29" s="2">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="AS29" s="2">
         <v>0</v>
       </c>
       <c r="AT29" s="2">
-        <v>0.7142857142857142</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="AU29" s="2">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="AV29" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AW29" s="2">
-        <v>-0.3949173053650665</v>
+        <v>-0.4095940959409594</v>
       </c>
       <c r="AX29" s="1">
-        <v>29.5</v>
+        <v>13.31429</v>
       </c>
       <c r="AY29" s="2">
-        <v>0.1899959661153691</v>
+        <v>-0.01739557195571963</v>
       </c>
       <c r="AZ29" s="1">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="BA29" s="2">
-        <v>0.6538926986688182</v>
+        <v>0.4760147601476014</v>
       </c>
       <c r="BB29" t="s">
         <v>173</v>
       </c>
       <c r="BC29">
-        <v>6.72</v>
+        <v>15.42</v>
       </c>
       <c r="BD29">
-        <v>4.599156613920297</v>
+        <v>7.796344627710424</v>
       </c>
       <c r="BE29">
-        <v>10.84284001442643</v>
+        <v>2.885346334393116</v>
       </c>
       <c r="BF29">
-        <v>-4.063464515712818</v>
+        <v>18.23734856571461</v>
       </c>
       <c r="BG29">
-        <v>182.3462604723599</v>
+        <v>31.68124626790352</v>
       </c>
       <c r="BH29" t="s">
         <v>177</v>
@@ -5549,97 +5558,97 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" t="s">
         <v>133</v>
       </c>
       <c r="G30" s="1">
-        <v>13.55</v>
+        <v>24.79</v>
       </c>
       <c r="H30">
-        <v>8.94</v>
+        <v>1.55</v>
       </c>
       <c r="I30">
-        <v>659.83</v>
+        <v>62.35</v>
       </c>
       <c r="J30">
-        <v>653.24</v>
+        <v>59.21</v>
       </c>
       <c r="K30" s="1">
-        <v>11.8356</v>
+        <v>24.3275</v>
       </c>
       <c r="L30" s="2">
-        <v>0.144851127108047</v>
+        <v>0.0190114068441064</v>
       </c>
       <c r="M30" s="1">
-        <v>13.24845</v>
+        <v>23.9439</v>
       </c>
       <c r="N30" s="2">
-        <v>0.02276115319150547</v>
+        <v>0.03533676635802855</v>
       </c>
       <c r="O30">
-        <v>14.25</v>
+        <v>10.94</v>
       </c>
       <c r="P30" s="2">
-        <v>-0.04912280701754381</v>
+        <v>1.26599634369287</v>
       </c>
       <c r="Q30">
-        <v>0.38</v>
+        <v>-0.26</v>
       </c>
       <c r="R30">
-        <v>0.28</v>
+        <v>-0.47</v>
       </c>
       <c r="S30">
-        <v>64.84999999999999</v>
+        <v>53.46</v>
       </c>
       <c r="T30">
-        <v>89.31</v>
+        <v>41.04</v>
       </c>
       <c r="U30">
-        <v>78.55</v>
+        <v>32.2</v>
       </c>
       <c r="V30">
-        <v>15.42</v>
+        <v>6.72</v>
       </c>
       <c r="W30">
-        <v>67.48999999999999</v>
+        <v>48.05</v>
       </c>
       <c r="X30">
-        <v>0.47</v>
+        <v>2.48</v>
       </c>
       <c r="Y30" t="s">
         <v>149</v>
       </c>
       <c r="Z30" s="1">
-        <v>13.09133323033651</v>
+        <v>26.88500016530355</v>
       </c>
       <c r="AA30" s="1">
-        <v>14.15852186081059</v>
+        <v>33.23950522818716</v>
       </c>
       <c r="AB30" s="1">
-        <v>12.02414459986242</v>
+        <v>20.53049510241994</v>
       </c>
       <c r="AC30">
-        <v>62.46</v>
+        <v>11.83</v>
       </c>
       <c r="AD30">
-        <v>0.92</v>
+        <v>2.65</v>
       </c>
       <c r="AE30" s="2">
-        <v>0.0953</v>
+        <v>0.19870001</v>
       </c>
       <c r="AF30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AG30" s="1">
         <v>4</v>
@@ -5648,79 +5657,79 @@
         <v>172</v>
       </c>
       <c r="AI30">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AJ30">
         <v>3</v>
       </c>
       <c r="AK30">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AL30">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AM30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN30">
         <v>0</v>
       </c>
       <c r="AO30" s="2">
-        <v>0.1363636363636364</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AP30" s="2">
-        <v>0.4090909090909091</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AQ30" s="2">
-        <v>0.4090909090909091</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AR30" s="2">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="AS30" s="2">
         <v>0</v>
       </c>
       <c r="AT30" s="2">
-        <v>0.5454545454545454</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="AU30" s="2">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="AV30" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AW30" s="2">
-        <v>-0.4095940959409594</v>
+        <v>-0.3949173053650665</v>
       </c>
       <c r="AX30" s="1">
-        <v>13.31429</v>
+        <v>29.5</v>
       </c>
       <c r="AY30" s="2">
-        <v>-0.01739557195571963</v>
+        <v>0.1899959661153691</v>
       </c>
       <c r="AZ30" s="1">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="BA30" s="2">
-        <v>0.4760147601476014</v>
+        <v>0.6538926986688182</v>
       </c>
       <c r="BB30" t="s">
         <v>173</v>
       </c>
       <c r="BC30">
-        <v>15.42</v>
+        <v>6.72</v>
       </c>
       <c r="BD30">
-        <v>7.796344627710424</v>
+        <v>4.599156613920297</v>
       </c>
       <c r="BE30">
-        <v>2.885346334393116</v>
+        <v>10.84284001442643</v>
       </c>
       <c r="BF30">
-        <v>18.23734856571461</v>
+        <v>-4.063464515712818</v>
       </c>
       <c r="BG30">
-        <v>31.68124626790352</v>
+        <v>182.3462604723599</v>
       </c>
       <c r="BH30" t="s">
         <v>177</v>
@@ -5731,94 +5740,85 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="G31" s="1">
-        <v>3.28</v>
+        <v>1.88</v>
       </c>
       <c r="H31">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I31">
-        <v>20.4</v>
+        <v>31.62</v>
       </c>
       <c r="J31">
-        <v>4.03</v>
+        <v>18.42</v>
       </c>
       <c r="K31" s="1">
-        <v>2.3076</v>
+        <v>1.197</v>
       </c>
       <c r="L31" s="2">
-        <v>0.421390188940891</v>
+        <v>0.5705931495405178</v>
       </c>
       <c r="M31" s="1">
-        <v>1.75875</v>
+        <v>0.9891</v>
       </c>
       <c r="N31" s="2">
-        <v>0.864960909737029</v>
+        <v>0.9007178242847032</v>
       </c>
       <c r="O31">
-        <v>2.29</v>
+        <v>1.26</v>
       </c>
       <c r="P31" s="2">
-        <v>0.4323144104803492</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="Q31">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="R31">
         <v>0.22</v>
       </c>
       <c r="S31">
-        <v>70.65000000000001</v>
+        <v>57.26</v>
       </c>
       <c r="T31">
-        <v>74.56999999999999</v>
+        <v>66.48</v>
       </c>
       <c r="U31">
-        <v>75.59999999999999</v>
+        <v>67.61</v>
       </c>
       <c r="V31">
-        <v>41.38</v>
+        <v>17.5</v>
       </c>
       <c r="W31">
-        <v>57.02</v>
+        <v>66.75</v>
       </c>
       <c r="X31">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="Y31" t="s">
         <v>150</v>
       </c>
       <c r="Z31" s="1">
-        <v>3.127666624387105</v>
+        <v>2.016666658719381</v>
       </c>
       <c r="AA31" s="1">
-        <v>3.710225575134539</v>
+        <v>2.292529938526825</v>
       </c>
       <c r="AB31" s="1">
-        <v>2.54510767363967</v>
+        <v>1.740803378911936</v>
       </c>
       <c r="AC31">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="AD31">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="AE31" s="2">
-        <v>0.0029</v>
+        <v>0.0113</v>
       </c>
       <c r="AF31" t="s">
         <v>168</v>
@@ -5863,19 +5863,19 @@
         <v>173</v>
       </c>
       <c r="BC31">
-        <v>41.38</v>
+        <v>17.5</v>
       </c>
       <c r="BD31">
-        <v>1.863352243678002</v>
+        <v>9.941517736389924</v>
       </c>
       <c r="BE31">
-        <v>6.493508202528228</v>
+        <v>-4.081634763179803</v>
       </c>
       <c r="BF31">
-        <v>44.49339202421577</v>
+        <v>74.07406671547625</v>
       </c>
       <c r="BG31">
-        <v>120.5862678150934</v>
+        <v>189.2307791060954</v>
       </c>
       <c r="BH31" t="s">
         <v>177</v>

--- a/market_report_2025-08-24.xlsx
+++ b/market_report_2025-08-24.xlsx
@@ -196,78 +196,78 @@
     <t>Source</t>
   </si>
   <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>AFL</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>ACN</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>AES</t>
   </si>
   <si>
-    <t>AFL</t>
-  </si>
-  <si>
     <t>AOS</t>
   </si>
   <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>ABT</t>
-  </si>
-  <si>
     <t>MMM</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>ADBE</t>
   </si>
   <si>
-    <t>ABBV</t>
-  </si>
-  <si>
     <t>SPXC</t>
   </si>
   <si>
+    <t>NXT</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>CRDO</t>
+  </si>
+  <si>
     <t>IONQ</t>
   </si>
   <si>
-    <t>NXT</t>
+    <t>GTLS</t>
   </si>
   <si>
     <t>KTOS</t>
   </si>
   <si>
-    <t>FN</t>
-  </si>
-  <si>
-    <t>CRDO</t>
-  </si>
-  <si>
-    <t>GTLS</t>
-  </si>
-  <si>
     <t>ENSG</t>
   </si>
   <si>
-    <t>BE</t>
-  </si>
-  <si>
     <t>UMBF</t>
   </si>
   <si>
+    <t>AACI</t>
+  </si>
+  <si>
+    <t>AACIW</t>
+  </si>
+  <si>
     <t>AACB</t>
   </si>
   <si>
-    <t>AACI</t>
-  </si>
-  <si>
     <t>AACBU</t>
   </si>
   <si>
-    <t>AACIW</t>
-  </si>
-  <si>
     <t>AACBR</t>
   </si>
   <si>
@@ -277,114 +277,114 @@
     <t>AAME</t>
   </si>
   <si>
+    <t>AAOI</t>
+  </si>
+  <si>
+    <t>AACG</t>
+  </si>
+  <si>
     <t>AAL</t>
   </si>
   <si>
-    <t>AAOI</t>
-  </si>
-  <si>
-    <t>AACG</t>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Financial Services</t>
   </si>
   <si>
     <t>Utilities</t>
   </si>
   <si>
-    <t>Financial Services</t>
-  </si>
-  <si>
     <t>Industrials</t>
   </si>
   <si>
-    <t>Technology</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
+    <t>Semiconductors</t>
+  </si>
+  <si>
+    <t>Drug Manufacturers - General</t>
+  </si>
+  <si>
+    <t>Insurance - Life</t>
+  </si>
+  <si>
+    <t>Medical Devices</t>
+  </si>
+  <si>
+    <t>Information Technology Services</t>
+  </si>
+  <si>
+    <t>Diagnostics &amp; Research</t>
+  </si>
+  <si>
     <t>Utilities - Diversified</t>
   </si>
   <si>
-    <t>Insurance - Life</t>
-  </si>
-  <si>
     <t>Specialty Industrial Machinery</t>
   </si>
   <si>
-    <t>Semiconductors</t>
-  </si>
-  <si>
-    <t>Information Technology Services</t>
-  </si>
-  <si>
-    <t>Medical Devices</t>
-  </si>
-  <si>
     <t>Conglomerates</t>
   </si>
   <si>
-    <t>Diagnostics &amp; Research</t>
-  </si>
-  <si>
     <t>Software - Application</t>
   </si>
   <si>
-    <t>Drug Manufacturers - General</t>
-  </si>
-  <si>
     <t>Building Products &amp; Equipment</t>
   </si>
   <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Electronic Components</t>
+  </si>
+  <si>
+    <t>Electrical Equipment &amp; Parts</t>
+  </si>
+  <si>
     <t>Computer Hardware</t>
   </si>
   <si>
-    <t>Solar</t>
-  </si>
-  <si>
     <t>Aerospace &amp; Defense</t>
   </si>
   <si>
-    <t>Electronic Components</t>
-  </si>
-  <si>
     <t>Medical Care Facilities</t>
   </si>
   <si>
-    <t>Electrical Equipment &amp; Parts</t>
-  </si>
-  <si>
     <t>Banks - Regional</t>
   </si>
   <si>
     <t>Shell Companies</t>
   </si>
   <si>
+    <t>Communication Equipment</t>
+  </si>
+  <si>
+    <t>Education &amp; Training Services</t>
+  </si>
+  <si>
     <t>Airlines</t>
   </si>
   <si>
-    <t>Communication Equipment</t>
-  </si>
-  <si>
-    <t>Education &amp; Training Services</t>
+    <t>Computer &amp; Electronic Products</t>
+  </si>
+  <si>
+    <t>Health Care &amp; Social Assistance</t>
   </si>
   <si>
     <t>Finance &amp; Insurance</t>
   </si>
   <si>
+    <t>Professional, Scientific &amp; Technical Services</t>
+  </si>
+  <si>
     <t>Machinery</t>
   </si>
   <si>
-    <t>Computer &amp; Electronic Products</t>
-  </si>
-  <si>
-    <t>Professional, Scientific &amp; Technical Services</t>
-  </si>
-  <si>
-    <t>Health Care &amp; Social Assistance</t>
-  </si>
-  <si>
     <t>Management of Companies &amp; Support Services</t>
   </si>
   <si>
@@ -394,79 +394,82 @@
     <t>Fabricated Metal Products</t>
   </si>
   <si>
+    <t>Electrical Equipment, Appliances &amp; Components</t>
+  </si>
+  <si>
     <t>Transportation Equipment</t>
   </si>
   <si>
-    <t>Electrical Equipment, Appliances &amp; Components</t>
-  </si>
-  <si>
     <t>Transportation &amp; Warehousing</t>
   </si>
   <si>
+    <t>Both</t>
+  </si>
+  <si>
     <t>Defensive</t>
   </si>
   <si>
-    <t>Both</t>
-  </si>
-  <si>
     <t>Consumer</t>
   </si>
   <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
     <t>Services</t>
   </si>
   <si>
-    <t>Manufacturing</t>
+    <t>4.3%</t>
+  </si>
+  <si>
+    <t>1.9%</t>
+  </si>
+  <si>
+    <t>1.5%</t>
+  </si>
+  <si>
+    <t>2.5%</t>
+  </si>
+  <si>
+    <t>2.3%</t>
   </si>
   <si>
     <t>3.3%</t>
   </si>
   <si>
-    <t>1.5%</t>
-  </si>
-  <si>
-    <t>1.9%</t>
-  </si>
-  <si>
-    <t>4.3%</t>
-  </si>
-  <si>
-    <t>2.5%</t>
-  </si>
-  <si>
     <t>2.2%</t>
   </si>
   <si>
-    <t>2.3%</t>
-  </si>
-  <si>
     <t>2.6%</t>
   </si>
   <si>
+    <t>4.8%</t>
+  </si>
+  <si>
+    <t>5.3%</t>
+  </si>
+  <si>
+    <t>6.2%</t>
+  </si>
+  <si>
     <t>6.6%</t>
   </si>
   <si>
-    <t>4.8%</t>
-  </si>
-  <si>
-    <t>5.3%</t>
-  </si>
-  <si>
-    <t>6.2%</t>
-  </si>
-  <si>
     <t>1.2%</t>
   </si>
   <si>
     <t>7.9%</t>
   </si>
   <si>
+    <t>10.0%</t>
+  </si>
+  <si>
+    <t>13.3%</t>
+  </si>
+  <si>
     <t>3.5%</t>
   </si>
   <si>
-    <t>10.0%</t>
-  </si>
-  <si>
-    <t>13.3%</t>
+    <t>2025-11-04</t>
   </si>
   <si>
     <t>2025-07-31</t>
@@ -475,40 +478,37 @@
     <t>2025-11-03</t>
   </si>
   <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>2025-09-24 , 2025-09-29</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
     <t>2025-10-21</t>
   </si>
   <si>
-    <t>2025-11-04</t>
-  </si>
-  <si>
-    <t>2025-09-24 , 2025-09-29</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
     <t>2025-07-18</t>
   </si>
   <si>
-    <t>2025-08-27</t>
-  </si>
-  <si>
     <t>2025-09-10 , 2025-09-15</t>
   </si>
   <si>
     <t>2025-10-29</t>
   </si>
   <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
     <t>2025-11-05</t>
   </si>
   <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
     <t>2025-11-06</t>
-  </si>
-  <si>
-    <t>2025-09-03</t>
-  </si>
-  <si>
-    <t>2025-07-29</t>
   </si>
   <si>
     <t>2025-10-23</t>
@@ -1146,7 +1146,7 @@
         <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
         <v>129</v>
@@ -1155,79 +1155,79 @@
         <v>132</v>
       </c>
       <c r="G2" s="1">
-        <v>13.49</v>
+        <v>167.76</v>
       </c>
       <c r="H2">
-        <v>9.609999999999999</v>
+        <v>272.25</v>
       </c>
       <c r="I2">
-        <v>712.05</v>
+        <v>1622.84</v>
       </c>
       <c r="J2">
-        <v>708.04</v>
+        <v>1611.37</v>
       </c>
       <c r="K2" s="1">
-        <v>12.4076</v>
+        <v>154.8776</v>
       </c>
       <c r="L2" s="2">
-        <v>0.08723685483091007</v>
+        <v>0.08317794180694942</v>
       </c>
       <c r="M2" s="1">
-        <v>11.91885</v>
+        <v>124.82215</v>
       </c>
       <c r="N2" s="2">
-        <v>0.1318206034978206</v>
+        <v>0.3439922321479</v>
       </c>
       <c r="O2">
-        <v>19.2</v>
+        <v>119.32</v>
       </c>
       <c r="P2" s="2">
-        <v>-0.2973958333333333</v>
+        <v>0.4059671471672813</v>
       </c>
       <c r="Q2">
-        <v>0.18</v>
+        <v>3.69</v>
       </c>
       <c r="R2">
-        <v>0.21</v>
+        <v>6.29</v>
       </c>
       <c r="S2">
-        <v>58.61</v>
+        <v>51.39</v>
       </c>
       <c r="T2">
-        <v>42.39</v>
+        <v>55.63</v>
       </c>
       <c r="U2">
-        <v>34.7</v>
+        <v>64.5</v>
       </c>
       <c r="V2">
-        <v>5.06</v>
+        <v>2.84</v>
       </c>
       <c r="W2">
-        <v>56.09</v>
+        <v>43.89</v>
       </c>
       <c r="X2">
-        <v>0.45</v>
+        <v>7.18</v>
       </c>
       <c r="Y2" t="s">
         <v>134</v>
       </c>
       <c r="Z2" s="1">
-        <v>18.0056666692098</v>
+        <v>170.009336344401</v>
       </c>
       <c r="AA2" s="1">
-        <v>30.49628480239076</v>
+        <v>178.932280033033</v>
       </c>
       <c r="AB2" s="1">
-        <v>5.515048536028832</v>
+        <v>161.0863926557691</v>
       </c>
       <c r="AC2">
-        <v>31.47</v>
+        <v>42.12</v>
       </c>
       <c r="AD2">
-        <v>1.74</v>
+        <v>0.79</v>
       </c>
       <c r="AE2" s="2">
-        <v>0.0508</v>
+        <v>0.026099999</v>
       </c>
       <c r="AF2" t="s">
         <v>151</v>
@@ -1239,79 +1239,79 @@
         <v>169</v>
       </c>
       <c r="AI2">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="AJ2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AL2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AM2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN2">
         <v>0</v>
       </c>
       <c r="AO2" s="2">
-        <v>0.2142857142857143</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="AP2" s="2">
-        <v>0.3571428571428572</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="AQ2" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="AR2" s="2">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="2">
         <v>0</v>
       </c>
       <c r="AT2" s="2">
-        <v>0.5714285714285714</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="1">
-        <v>5</v>
+        <v>125.1</v>
       </c>
       <c r="AW2" s="2">
-        <v>-0.6293550778354337</v>
+        <v>-0.2542918454935622</v>
       </c>
       <c r="AX2" s="1">
-        <v>13.83333</v>
+        <v>183.86523</v>
       </c>
       <c r="AY2" s="2">
-        <v>0.02545070422535211</v>
+        <v>0.09600160944206013</v>
       </c>
       <c r="AZ2" s="1">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="BA2" s="2">
-        <v>0.7049666419570052</v>
+        <v>0.3710061993323797</v>
       </c>
       <c r="BB2" t="s">
         <v>173</v>
       </c>
       <c r="BC2">
-        <v>5.06</v>
+        <v>2.84</v>
       </c>
       <c r="BD2">
-        <v>4.009248214213629</v>
+        <v>2.47387919300946</v>
       </c>
       <c r="BE2">
-        <v>1.352361726722233</v>
+        <v>-5.492648471477771</v>
       </c>
       <c r="BF2">
-        <v>-0.9202911854068001</v>
+        <v>3.478904243472002</v>
       </c>
       <c r="BG2">
-        <v>-17.78675676131215</v>
+        <v>7.263427783680315</v>
       </c>
       <c r="BH2" t="s">
         <v>175</v>
@@ -1328,88 +1328,88 @@
         <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
         <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G3" s="1">
-        <v>108.46</v>
+        <v>210.6</v>
       </c>
       <c r="H3">
-        <v>58.01</v>
+        <v>372.04</v>
       </c>
       <c r="I3">
-        <v>534.83</v>
+        <v>1766.56</v>
       </c>
       <c r="J3">
-        <v>530.2</v>
+        <v>1762.95</v>
       </c>
       <c r="K3" s="1">
-        <v>103.0472</v>
+        <v>193.0536</v>
       </c>
       <c r="L3" s="2">
-        <v>0.05252738550877646</v>
+        <v>0.09088874799537541</v>
       </c>
       <c r="M3" s="1">
-        <v>105.4095</v>
+        <v>188.64355</v>
       </c>
       <c r="N3" s="2">
-        <v>0.02893951683671775</v>
+        <v>0.1163912044700176</v>
       </c>
       <c r="O3">
-        <v>80.34999999999999</v>
+        <v>161.94</v>
       </c>
       <c r="P3" s="2">
-        <v>0.3498444306160548</v>
+        <v>0.3004816598740274</v>
       </c>
       <c r="Q3">
-        <v>1.57</v>
+        <v>5</v>
       </c>
       <c r="R3">
-        <v>0.88</v>
+        <v>3.99</v>
       </c>
       <c r="S3">
-        <v>69.63</v>
+        <v>74.94</v>
       </c>
       <c r="T3">
-        <v>93.59</v>
+        <v>92.93000000000001</v>
       </c>
       <c r="U3">
-        <v>93.09999999999999</v>
+        <v>92.33</v>
       </c>
       <c r="V3">
-        <v>6.01</v>
+        <v>7.28</v>
       </c>
       <c r="W3">
-        <v>95.23999999999999</v>
+        <v>70.11</v>
       </c>
       <c r="X3">
-        <v>1.66</v>
+        <v>3.96</v>
       </c>
       <c r="Y3" t="s">
         <v>135</v>
       </c>
       <c r="Z3" s="1">
-        <v>108.1583346048991</v>
+        <v>208.2009963989258</v>
       </c>
       <c r="AA3" s="1">
-        <v>110.3443135300622</v>
+        <v>215.0567800315568</v>
       </c>
       <c r="AB3" s="1">
-        <v>105.972355679736</v>
+        <v>201.3452127662947</v>
       </c>
       <c r="AC3">
-        <v>7.36</v>
+        <v>15.13</v>
       </c>
       <c r="AD3">
-        <v>3.46</v>
+        <v>2.68</v>
       </c>
       <c r="AE3" s="2">
-        <v>0.0139</v>
+        <v>0.0086</v>
       </c>
       <c r="AF3" t="s">
         <v>152</v>
@@ -1421,79 +1421,79 @@
         <v>169</v>
       </c>
       <c r="AI3">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AJ3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AL3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="2">
-        <v>0.1538461538461539</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="AP3" s="2">
-        <v>0.07692307692307693</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AQ3" s="2">
-        <v>0.6153846153846154</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="AR3" s="2">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="2">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="2">
-        <v>0.2307692307692308</v>
+        <v>0.6296296296296295</v>
       </c>
       <c r="AU3" s="2">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="AV3" s="1">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="AW3" s="2">
-        <v>-0.08722109533468554</v>
+        <v>-0.1927825261158594</v>
       </c>
       <c r="AX3" s="1">
-        <v>108.07692</v>
+        <v>214.76923</v>
       </c>
       <c r="AY3" s="2">
-        <v>-0.003531993361607897</v>
+        <v>0.01979691358024691</v>
       </c>
       <c r="AZ3" s="1">
-        <v>124</v>
+        <v>255</v>
       </c>
       <c r="BA3" s="2">
-        <v>0.1432786280656464</v>
+        <v>0.2108262108262109</v>
       </c>
       <c r="BB3" t="s">
         <v>173</v>
       </c>
       <c r="BC3">
-        <v>6.01</v>
+        <v>7.28</v>
       </c>
       <c r="BD3">
-        <v>0.249557849129943</v>
+        <v>0.5250625792437351</v>
       </c>
       <c r="BE3">
-        <v>3.484278960989688</v>
+        <v>1.891723651809335</v>
       </c>
       <c r="BF3">
-        <v>6.443857951151371</v>
+        <v>10.36000842779622</v>
       </c>
       <c r="BG3">
-        <v>6.199111460790225</v>
+        <v>11.20663371531632</v>
       </c>
       <c r="BH3" t="s">
         <v>175</v>
@@ -1510,88 +1510,88 @@
         <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
         <v>133</v>
       </c>
       <c r="G4" s="1">
-        <v>73.61</v>
+        <v>108.46</v>
       </c>
       <c r="H4">
-        <v>10.31</v>
+        <v>58.01</v>
       </c>
       <c r="I4">
-        <v>114.26</v>
+        <v>534.83</v>
       </c>
       <c r="J4">
-        <v>223.79</v>
+        <v>530.2</v>
       </c>
       <c r="K4" s="1">
-        <v>69.066</v>
+        <v>103.0472</v>
       </c>
       <c r="L4" s="2">
-        <v>0.06579214085078036</v>
+        <v>0.05252738550877646</v>
       </c>
       <c r="M4" s="1">
-        <v>68.44615</v>
+        <v>105.4095</v>
       </c>
       <c r="N4" s="2">
-        <v>0.0754439804137997</v>
+        <v>0.02893951683671775</v>
       </c>
       <c r="O4">
-        <v>70.70999999999999</v>
+        <v>80.34999999999999</v>
       </c>
       <c r="P4" s="2">
-        <v>0.04101258662141148</v>
+        <v>0.3498444306160548</v>
       </c>
       <c r="Q4">
-        <v>0.9</v>
+        <v>1.57</v>
       </c>
       <c r="R4">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="S4">
-        <v>62.39</v>
+        <v>69.63</v>
       </c>
       <c r="T4">
-        <v>51.37</v>
+        <v>93.59</v>
       </c>
       <c r="U4">
-        <v>42.84</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="V4">
-        <v>4.32</v>
+        <v>6.01</v>
       </c>
       <c r="W4">
-        <v>47.8</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="X4">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="Y4" t="s">
         <v>136</v>
       </c>
       <c r="Z4" s="1">
-        <v>70.27000172932942</v>
+        <v>108.1583346048991</v>
       </c>
       <c r="AA4" s="1">
-        <v>72.97617135179587</v>
+        <v>110.3443135300622</v>
       </c>
       <c r="AB4" s="1">
-        <v>67.56383210686298</v>
+        <v>105.972355679736</v>
       </c>
       <c r="AC4">
-        <v>2.88</v>
+        <v>7.36</v>
       </c>
       <c r="AD4">
-        <v>1.73</v>
+        <v>3.46</v>
       </c>
       <c r="AE4" s="2">
-        <v>0.0254</v>
+        <v>0.0139</v>
       </c>
       <c r="AF4" t="s">
         <v>153</v>
@@ -1603,79 +1603,79 @@
         <v>169</v>
       </c>
       <c r="AI4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM4">
         <v>1</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4" s="2">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AP4" s="2">
-        <v>0.2666666666666667</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AQ4" s="2">
-        <v>0.6666666666666666</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AR4" s="2">
-        <v>0.06666666666666667</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AS4" s="2">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AT4" s="2">
-        <v>0.2666666666666667</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AU4" s="2">
-        <v>0.06666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AV4" s="1">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="AW4" s="2">
-        <v>-0.1169678032875968</v>
+        <v>-0.08722109533468554</v>
       </c>
       <c r="AX4" s="1">
-        <v>79.83333</v>
+        <v>108.07692</v>
       </c>
       <c r="AY4" s="2">
-        <v>0.08454462708871083</v>
+        <v>-0.003531993361607897</v>
       </c>
       <c r="AZ4" s="1">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="BA4" s="2">
-        <v>0.2090748539600598</v>
+        <v>0.1432786280656464</v>
       </c>
       <c r="BB4" t="s">
         <v>173</v>
       </c>
       <c r="BC4">
-        <v>4.32</v>
+        <v>6.01</v>
       </c>
       <c r="BD4">
-        <v>2.592335345437718</v>
+        <v>0.249557849129943</v>
       </c>
       <c r="BE4">
-        <v>1.938791779018246</v>
+        <v>3.484278960989688</v>
       </c>
       <c r="BF4">
-        <v>0.03387267296447476</v>
+        <v>6.443857951151371</v>
       </c>
       <c r="BG4">
-        <v>-7.10916197785784</v>
+        <v>6.199095593886948</v>
       </c>
       <c r="BH4" t="s">
         <v>175</v>
@@ -1686,13 +1686,13 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
         <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>130</v>
@@ -1701,79 +1701,79 @@
         <v>133</v>
       </c>
       <c r="G5" s="1">
-        <v>167.76</v>
+        <v>132.59</v>
       </c>
       <c r="H5">
-        <v>272.25</v>
+        <v>230.77</v>
       </c>
       <c r="I5">
-        <v>1622.84</v>
+        <v>1740.46</v>
       </c>
       <c r="J5">
-        <v>1611.37</v>
+        <v>1730.23</v>
       </c>
       <c r="K5" s="1">
-        <v>154.8776</v>
+        <v>131.2102</v>
       </c>
       <c r="L5" s="2">
-        <v>0.08317794180694942</v>
+        <v>0.01051595074163455</v>
       </c>
       <c r="M5" s="1">
-        <v>124.82215</v>
+        <v>126.90365</v>
       </c>
       <c r="N5" s="2">
-        <v>0.3439922321479</v>
+        <v>0.0448084038559963</v>
       </c>
       <c r="O5">
-        <v>119.32</v>
+        <v>113.83</v>
       </c>
       <c r="P5" s="2">
-        <v>0.4059671471672813</v>
+        <v>0.1648071685847317</v>
       </c>
       <c r="Q5">
-        <v>3.69</v>
+        <v>0.55</v>
       </c>
       <c r="R5">
-        <v>6.29</v>
+        <v>0.2</v>
       </c>
       <c r="S5">
-        <v>51.39</v>
+        <v>56.03</v>
       </c>
       <c r="T5">
-        <v>55.63</v>
+        <v>66.62</v>
       </c>
       <c r="U5">
-        <v>64.5</v>
+        <v>69.67</v>
       </c>
       <c r="V5">
-        <v>2.84</v>
+        <v>1.27</v>
       </c>
       <c r="W5">
-        <v>43.89</v>
+        <v>45.58</v>
       </c>
       <c r="X5">
-        <v>7.18</v>
+        <v>2.57</v>
       </c>
       <c r="Y5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Z5" s="1">
-        <v>170.009336344401</v>
+        <v>107.6106676737467</v>
       </c>
       <c r="AA5" s="1">
-        <v>178.932280033033</v>
+        <v>183.8281920229611</v>
       </c>
       <c r="AB5" s="1">
-        <v>161.0863926557691</v>
+        <v>31.39314332453235</v>
       </c>
       <c r="AC5">
-        <v>42.12</v>
+        <v>18.33</v>
       </c>
       <c r="AD5">
-        <v>0.79</v>
+        <v>2.44</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.026099999</v>
+        <v>0.0106</v>
       </c>
       <c r="AF5" t="s">
         <v>154</v>
@@ -1785,79 +1785,79 @@
         <v>169</v>
       </c>
       <c r="AI5">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="AJ5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="AL5">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AM5">
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5" s="2">
-        <v>0.09803921568627451</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AP5" s="2">
-        <v>0.5882352941176471</v>
+        <v>0.5</v>
       </c>
       <c r="AQ5" s="2">
-        <v>0.3137254901960784</v>
+        <v>0.25</v>
       </c>
       <c r="AR5" s="2">
         <v>0</v>
       </c>
       <c r="AS5" s="2">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AT5" s="2">
-        <v>0.6862745098039216</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AU5" s="2">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AV5" s="1">
-        <v>125.1</v>
+        <v>122</v>
       </c>
       <c r="AW5" s="2">
-        <v>-0.2542918454935622</v>
+        <v>-0.07987027679312168</v>
       </c>
       <c r="AX5" s="1">
-        <v>183.86523</v>
+        <v>142.4848</v>
       </c>
       <c r="AY5" s="2">
-        <v>0.09600160944206013</v>
+        <v>0.07462704578022478</v>
       </c>
       <c r="AZ5" s="1">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="BA5" s="2">
-        <v>0.3710061993323797</v>
+        <v>0.1991854589335545</v>
       </c>
       <c r="BB5" t="s">
         <v>173</v>
       </c>
       <c r="BC5">
-        <v>2.84</v>
+        <v>1.27</v>
       </c>
       <c r="BD5">
-        <v>2.47387919300946</v>
+        <v>0.4469669226444129</v>
       </c>
       <c r="BE5">
-        <v>-5.492648471477771</v>
+        <v>0.6375683779055977</v>
       </c>
       <c r="BF5">
-        <v>3.478904243472002</v>
+        <v>5.531675407517395</v>
       </c>
       <c r="BG5">
-        <v>7.263427783680315</v>
+        <v>21.99889126608442</v>
       </c>
       <c r="BH5" t="s">
         <v>175</v>
@@ -1868,7 +1868,7 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>100</v>
@@ -1877,10 +1877,10 @@
         <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G6" s="1">
         <v>259.22</v>
@@ -1937,7 +1937,7 @@
         <v>6.38</v>
       </c>
       <c r="Y6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z6" s="1">
         <v>244.4089991251628</v>
@@ -2050,94 +2050,94 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G7" s="1">
-        <v>132.59</v>
+        <v>121.63</v>
       </c>
       <c r="H7">
-        <v>230.77</v>
+        <v>34.55</v>
       </c>
       <c r="I7">
-        <v>1740.46</v>
+        <v>284.06</v>
       </c>
       <c r="J7">
-        <v>1730.23</v>
+        <v>283</v>
       </c>
       <c r="K7" s="1">
-        <v>131.2102</v>
+        <v>117.8192</v>
       </c>
       <c r="L7" s="2">
-        <v>0.01051595074163455</v>
+        <v>0.03234447356627783</v>
       </c>
       <c r="M7" s="1">
-        <v>126.90365</v>
+        <v>124.36135</v>
       </c>
       <c r="N7" s="2">
-        <v>0.0448084038559963</v>
+        <v>-0.02196301342820745</v>
       </c>
       <c r="O7">
-        <v>113.83</v>
+        <v>132.26</v>
       </c>
       <c r="P7" s="2">
-        <v>0.1648071685847317</v>
+        <v>-0.0803719945561772</v>
       </c>
       <c r="Q7">
-        <v>0.55</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R7">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="S7">
-        <v>56.03</v>
+        <v>58.66</v>
       </c>
       <c r="T7">
-        <v>66.62</v>
+        <v>73.34999999999999</v>
       </c>
       <c r="U7">
-        <v>69.67</v>
+        <v>61.47</v>
       </c>
       <c r="V7">
-        <v>1.27</v>
+        <v>7.42</v>
       </c>
       <c r="W7">
-        <v>45.58</v>
+        <v>66.59</v>
       </c>
       <c r="X7">
-        <v>2.57</v>
+        <v>2.74</v>
       </c>
       <c r="Y7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Z7" s="1">
-        <v>107.6106676737467</v>
+        <v>119.1213340759277</v>
       </c>
       <c r="AA7" s="1">
-        <v>183.8281920229611</v>
+        <v>122.4926823093446</v>
       </c>
       <c r="AB7" s="1">
-        <v>31.39314332453235</v>
+        <v>115.7499858425109</v>
       </c>
       <c r="AC7">
-        <v>18.33</v>
+        <v>3.06</v>
       </c>
       <c r="AD7">
-        <v>2.44</v>
+        <v>1.69</v>
       </c>
       <c r="AE7" s="2">
-        <v>0.0106</v>
+        <v>0.012200001</v>
       </c>
       <c r="AF7" t="s">
         <v>156</v>
@@ -2149,79 +2149,79 @@
         <v>169</v>
       </c>
       <c r="AI7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AJ7">
+        <v>2</v>
+      </c>
+      <c r="AK7">
         <v>6</v>
       </c>
-      <c r="AK7">
-        <v>14</v>
-      </c>
       <c r="AL7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AM7">
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="2">
-        <v>0.2142857142857143</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AP7" s="2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ7" s="2">
-        <v>0.25</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AR7" s="2">
         <v>0</v>
       </c>
       <c r="AS7" s="2">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="2">
-        <v>0.7142857142857143</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AU7" s="2">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AW7" s="2">
-        <v>-0.07987027679312168</v>
+        <v>-0.01340129902162292</v>
       </c>
       <c r="AX7" s="1">
-        <v>142.4848</v>
+        <v>137.56667</v>
       </c>
       <c r="AY7" s="2">
-        <v>0.07462704578022478</v>
+        <v>0.1310258159993422</v>
       </c>
       <c r="AZ7" s="1">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="BA7" s="2">
-        <v>0.1991854589335545</v>
+        <v>0.3565732138452685</v>
       </c>
       <c r="BB7" t="s">
         <v>173</v>
       </c>
       <c r="BC7">
-        <v>1.27</v>
+        <v>7.42</v>
       </c>
       <c r="BD7">
-        <v>0.4469669226444129</v>
+        <v>3.824153366783707</v>
       </c>
       <c r="BE7">
-        <v>0.6375683779055977</v>
+        <v>2.038590912238791</v>
       </c>
       <c r="BF7">
-        <v>5.531675407517395</v>
+        <v>1.063563602430883</v>
       </c>
       <c r="BG7">
-        <v>21.99887413751794</v>
+        <v>-12.29647614443281</v>
       </c>
       <c r="BH7" t="s">
         <v>175</v>
@@ -2232,97 +2232,97 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>130</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G8" s="1">
-        <v>158.72</v>
+        <v>13.49</v>
       </c>
       <c r="H8">
-        <v>84.54000000000001</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="I8">
-        <v>532.63</v>
+        <v>712.05</v>
       </c>
       <c r="J8">
-        <v>531.86</v>
+        <v>708.04</v>
       </c>
       <c r="K8" s="1">
-        <v>151.8338</v>
+        <v>12.4076</v>
       </c>
       <c r="L8" s="2">
-        <v>0.04535353788155208</v>
+        <v>0.08723685483091007</v>
       </c>
       <c r="M8" s="1">
-        <v>143.593</v>
+        <v>11.91885</v>
       </c>
       <c r="N8" s="2">
-        <v>0.1053463608950298</v>
+        <v>0.1318206034978206</v>
       </c>
       <c r="O8">
-        <v>113.19</v>
+        <v>19.2</v>
       </c>
       <c r="P8" s="2">
-        <v>0.4022440144889124</v>
+        <v>-0.2973958333333333</v>
       </c>
       <c r="Q8">
-        <v>1.25</v>
+        <v>0.18</v>
       </c>
       <c r="R8">
-        <v>0.92</v>
+        <v>0.21</v>
       </c>
       <c r="S8">
-        <v>60</v>
+        <v>58.61</v>
       </c>
       <c r="T8">
-        <v>69.44</v>
+        <v>42.39</v>
       </c>
       <c r="U8">
-        <v>63.47</v>
+        <v>34.7</v>
       </c>
       <c r="V8">
-        <v>5.24</v>
+        <v>5.06</v>
       </c>
       <c r="W8">
-        <v>64.48</v>
+        <v>56.09</v>
       </c>
       <c r="X8">
-        <v>3.5</v>
+        <v>0.45</v>
       </c>
       <c r="Y8" t="s">
         <v>139</v>
       </c>
       <c r="Z8" s="1">
-        <v>139.7848403930664</v>
+        <v>18.0056666692098</v>
       </c>
       <c r="AA8" s="1">
-        <v>236.1444596010518</v>
+        <v>30.49628480239076</v>
       </c>
       <c r="AB8" s="1">
-        <v>43.42522118508106</v>
+        <v>5.515048536028832</v>
       </c>
       <c r="AC8">
-        <v>9.23</v>
+        <v>31.47</v>
       </c>
       <c r="AD8">
-        <v>2.28</v>
+        <v>1.74</v>
       </c>
       <c r="AE8" s="2">
-        <v>0.0174</v>
+        <v>0.0508</v>
       </c>
       <c r="AF8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AG8" s="1">
         <v>3</v>
@@ -2331,79 +2331,79 @@
         <v>169</v>
       </c>
       <c r="AI8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AL8">
         <v>4</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="2">
-        <v>0.1111111111111111</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AP8" s="2">
-        <v>0.5</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="AQ8" s="2">
-        <v>0.2222222222222222</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AR8" s="2">
-        <v>0.05555555555555555</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AS8" s="2">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="2">
-        <v>0.6111111111111112</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AU8" s="2">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AV8" s="1">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="AW8" s="2">
-        <v>-0.3636592741935484</v>
+        <v>-0.6293550778354337</v>
       </c>
       <c r="AX8" s="1">
-        <v>161.14941</v>
+        <v>13.83333</v>
       </c>
       <c r="AY8" s="2">
-        <v>0.01530626260080639</v>
+        <v>0.02545070422535211</v>
       </c>
       <c r="AZ8" s="1">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="BA8" s="2">
-        <v>0.1781754032258065</v>
+        <v>0.7049666419570052</v>
       </c>
       <c r="BB8" t="s">
         <v>173</v>
       </c>
       <c r="BC8">
-        <v>5.24</v>
+        <v>5.06</v>
       </c>
       <c r="BD8">
-        <v>2.811242518864441</v>
+        <v>4.009248214213629</v>
       </c>
       <c r="BE8">
-        <v>4.153817085378027</v>
+        <v>1.352361726722233</v>
       </c>
       <c r="BF8">
-        <v>6.309442716943336</v>
+        <v>-0.9202911854068001</v>
       </c>
       <c r="BG8">
-        <v>26.86392648486682</v>
+        <v>-17.78674720474859</v>
       </c>
       <c r="BH8" t="s">
         <v>175</v>
@@ -2429,82 +2429,82 @@
         <v>132</v>
       </c>
       <c r="G9" s="1">
-        <v>121.63</v>
+        <v>73.61</v>
       </c>
       <c r="H9">
-        <v>34.55</v>
+        <v>10.31</v>
       </c>
       <c r="I9">
-        <v>284.06</v>
+        <v>114.26</v>
       </c>
       <c r="J9">
-        <v>283</v>
+        <v>223.79</v>
       </c>
       <c r="K9" s="1">
-        <v>117.8192</v>
+        <v>69.066</v>
       </c>
       <c r="L9" s="2">
-        <v>0.03234447356627783</v>
+        <v>0.06579214085078036</v>
       </c>
       <c r="M9" s="1">
-        <v>124.36135</v>
+        <v>68.44615</v>
       </c>
       <c r="N9" s="2">
-        <v>-0.02196301342820745</v>
+        <v>0.0754439804137997</v>
       </c>
       <c r="O9">
-        <v>132.26</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="P9" s="2">
-        <v>-0.0803719945561772</v>
+        <v>0.04101258662141148</v>
       </c>
       <c r="Q9">
-        <v>0.6899999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="R9">
-        <v>0.24</v>
+        <v>0.9</v>
       </c>
       <c r="S9">
-        <v>58.66</v>
+        <v>62.39</v>
       </c>
       <c r="T9">
-        <v>73.34999999999999</v>
+        <v>51.37</v>
       </c>
       <c r="U9">
-        <v>61.47</v>
+        <v>42.84</v>
       </c>
       <c r="V9">
-        <v>7.42</v>
+        <v>4.32</v>
       </c>
       <c r="W9">
-        <v>66.59</v>
+        <v>47.8</v>
       </c>
       <c r="X9">
-        <v>2.74</v>
+        <v>1.4</v>
       </c>
       <c r="Y9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Z9" s="1">
-        <v>119.1213340759277</v>
+        <v>70.27000172932942</v>
       </c>
       <c r="AA9" s="1">
-        <v>122.4926823093446</v>
+        <v>72.97617135179587</v>
       </c>
       <c r="AB9" s="1">
-        <v>115.7499858425109</v>
+        <v>67.56383210686298</v>
       </c>
       <c r="AC9">
-        <v>3.06</v>
+        <v>2.88</v>
       </c>
       <c r="AD9">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AE9" s="2">
-        <v>0.012200001</v>
+        <v>0.0254</v>
       </c>
       <c r="AF9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG9" s="1">
         <v>3</v>
@@ -2513,79 +2513,79 @@
         <v>169</v>
       </c>
       <c r="AI9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AJ9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL9">
         <v>10</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9">
         <v>0</v>
       </c>
       <c r="AO9" s="2">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AQ9" s="2">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AR9" s="2">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AS9" s="2">
         <v>0</v>
       </c>
       <c r="AT9" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AU9" s="2">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AV9" s="1">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AW9" s="2">
-        <v>-0.01340129902162292</v>
+        <v>-0.1169678032875968</v>
       </c>
       <c r="AX9" s="1">
-        <v>137.56667</v>
+        <v>79.83333</v>
       </c>
       <c r="AY9" s="2">
-        <v>0.1310258159993422</v>
+        <v>0.08454462708871083</v>
       </c>
       <c r="AZ9" s="1">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="BA9" s="2">
-        <v>0.3565732138452685</v>
+        <v>0.2090748539600598</v>
       </c>
       <c r="BB9" t="s">
         <v>173</v>
       </c>
       <c r="BC9">
-        <v>7.42</v>
+        <v>4.32</v>
       </c>
       <c r="BD9">
-        <v>3.824153366783707</v>
+        <v>2.592335345437718</v>
       </c>
       <c r="BE9">
-        <v>2.038590912238791</v>
+        <v>1.938791779018246</v>
       </c>
       <c r="BF9">
-        <v>1.063563602430883</v>
+        <v>0.03387267296447476</v>
       </c>
       <c r="BG9">
-        <v>-12.29648579412392</v>
+        <v>-7.10916197785784</v>
       </c>
       <c r="BH9" t="s">
         <v>175</v>
@@ -2596,97 +2596,97 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G10" s="1">
-        <v>362.09</v>
+        <v>158.72</v>
       </c>
       <c r="H10">
-        <v>153.6</v>
+        <v>84.54000000000001</v>
       </c>
       <c r="I10">
-        <v>424.2</v>
+        <v>532.63</v>
       </c>
       <c r="J10">
-        <v>422.97</v>
+        <v>531.86</v>
       </c>
       <c r="K10" s="1">
-        <v>367.5244</v>
+        <v>151.8338</v>
       </c>
       <c r="L10" s="2">
-        <v>-0.01478650124998514</v>
+        <v>0.04535353788155208</v>
       </c>
       <c r="M10" s="1">
-        <v>415.8365</v>
+        <v>143.593</v>
       </c>
       <c r="N10" s="2">
-        <v>-0.1292491159385961</v>
+        <v>0.1053463608950298</v>
       </c>
       <c r="O10">
-        <v>458.38</v>
+        <v>113.19</v>
       </c>
       <c r="P10" s="2">
-        <v>-0.2100658842008814</v>
+        <v>0.4022440144889124</v>
       </c>
       <c r="Q10">
-        <v>-3.21</v>
+        <v>1.25</v>
       </c>
       <c r="R10">
-        <v>-6.07</v>
+        <v>0.92</v>
       </c>
       <c r="S10">
-        <v>53.68</v>
+        <v>60</v>
       </c>
       <c r="T10">
-        <v>51.57</v>
+        <v>69.44</v>
       </c>
       <c r="U10">
-        <v>40.02</v>
+        <v>63.47</v>
       </c>
       <c r="V10">
-        <v>4.77</v>
+        <v>5.24</v>
       </c>
       <c r="W10">
-        <v>55.46</v>
+        <v>64.48</v>
       </c>
       <c r="X10">
-        <v>8.220000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="Y10" t="s">
         <v>140</v>
       </c>
       <c r="Z10" s="1">
-        <v>532.4466583251952</v>
+        <v>139.7848403930664</v>
       </c>
       <c r="AA10" s="1">
-        <v>895.6610366366838</v>
+        <v>236.1444596010518</v>
       </c>
       <c r="AB10" s="1">
-        <v>169.2322800137067</v>
+        <v>43.42522118508106</v>
       </c>
       <c r="AC10">
-        <v>10.41</v>
+        <v>9.23</v>
       </c>
       <c r="AD10">
-        <v>2.98</v>
+        <v>2.28</v>
       </c>
       <c r="AE10" s="2">
-        <v>0.024600001</v>
+        <v>0.0174</v>
       </c>
       <c r="AF10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG10" s="1">
         <v>3</v>
@@ -2695,79 +2695,79 @@
         <v>169</v>
       </c>
       <c r="AI10">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AJ10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AK10">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AL10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
         <v>2</v>
       </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
       <c r="AO10" s="2">
-        <v>0.15</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AP10" s="2">
         <v>0.5</v>
       </c>
       <c r="AQ10" s="2">
-        <v>0.3</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AR10" s="2">
-        <v>0.05</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="AS10" s="2">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AT10" s="2">
-        <v>0.65</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="AU10" s="2">
-        <v>0.05</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AV10" s="1">
-        <v>280</v>
+        <v>101</v>
       </c>
       <c r="AW10" s="2">
-        <v>-0.2267115910409014</v>
+        <v>-0.3636592741935484</v>
       </c>
       <c r="AX10" s="1">
-        <v>480.63913</v>
+        <v>161.14941</v>
       </c>
       <c r="AY10" s="2">
-        <v>0.3274023861470907</v>
+        <v>0.01530626260080639</v>
       </c>
       <c r="AZ10" s="1">
-        <v>605</v>
+        <v>187</v>
       </c>
       <c r="BA10" s="2">
-        <v>0.6708553122151952</v>
+        <v>0.1781754032258065</v>
       </c>
       <c r="BB10" t="s">
         <v>173</v>
       </c>
       <c r="BC10">
-        <v>4.77</v>
+        <v>5.24</v>
       </c>
       <c r="BD10">
-        <v>2.45027412544855</v>
+        <v>2.811242518864441</v>
       </c>
       <c r="BE10">
-        <v>2.040295930631314</v>
+        <v>4.153817085378027</v>
       </c>
       <c r="BF10">
-        <v>-2.582799117667682</v>
+        <v>6.309442716943336</v>
       </c>
       <c r="BG10">
-        <v>-35.59982279450589</v>
+        <v>26.86392648486682</v>
       </c>
       <c r="BH10" t="s">
         <v>175</v>
@@ -2778,97 +2778,97 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
         <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
         <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G11" s="1">
-        <v>210.6</v>
+        <v>362.09</v>
       </c>
       <c r="H11">
-        <v>372.04</v>
+        <v>153.6</v>
       </c>
       <c r="I11">
-        <v>1766.56</v>
+        <v>424.2</v>
       </c>
       <c r="J11">
-        <v>1762.95</v>
+        <v>422.97</v>
       </c>
       <c r="K11" s="1">
-        <v>193.0536</v>
+        <v>367.5244</v>
       </c>
       <c r="L11" s="2">
-        <v>0.09088874799537541</v>
+        <v>-0.01478650124998514</v>
       </c>
       <c r="M11" s="1">
-        <v>188.64355</v>
+        <v>415.8365</v>
       </c>
       <c r="N11" s="2">
-        <v>0.1163912044700176</v>
+        <v>-0.1292491159385961</v>
       </c>
       <c r="O11">
-        <v>161.94</v>
+        <v>458.38</v>
       </c>
       <c r="P11" s="2">
-        <v>0.3004816598740274</v>
+        <v>-0.2100658842008814</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>-3.21</v>
       </c>
       <c r="R11">
-        <v>3.99</v>
+        <v>-6.07</v>
       </c>
       <c r="S11">
-        <v>74.94</v>
+        <v>53.68</v>
       </c>
       <c r="T11">
-        <v>92.93000000000001</v>
+        <v>51.57</v>
       </c>
       <c r="U11">
-        <v>92.33</v>
+        <v>40.02</v>
       </c>
       <c r="V11">
-        <v>7.28</v>
+        <v>4.77</v>
       </c>
       <c r="W11">
-        <v>70.11</v>
+        <v>55.46</v>
       </c>
       <c r="X11">
-        <v>3.96</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Z11" s="1">
-        <v>208.2009963989258</v>
+        <v>532.4466583251952</v>
       </c>
       <c r="AA11" s="1">
-        <v>215.0567800315568</v>
+        <v>895.6610366366838</v>
       </c>
       <c r="AB11" s="1">
-        <v>201.3452127662947</v>
+        <v>169.2322800137067</v>
       </c>
       <c r="AC11">
-        <v>15.13</v>
+        <v>10.41</v>
       </c>
       <c r="AD11">
-        <v>2.68</v>
+        <v>2.98</v>
       </c>
       <c r="AE11" s="2">
-        <v>0.0086</v>
+        <v>0.024600001</v>
       </c>
       <c r="AF11" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AG11" s="1">
         <v>3</v>
@@ -2877,79 +2877,79 @@
         <v>169</v>
       </c>
       <c r="AI11">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="AJ11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK11">
+        <v>20</v>
+      </c>
+      <c r="AL11">
         <v>12</v>
       </c>
-      <c r="AL11">
-        <v>10</v>
-      </c>
       <c r="AM11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN11">
         <v>0</v>
       </c>
       <c r="AO11" s="2">
-        <v>0.1851851851851852</v>
+        <v>0.15</v>
       </c>
       <c r="AP11" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="AQ11" s="2">
-        <v>0.3703703703703703</v>
+        <v>0.3</v>
       </c>
       <c r="AR11" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AS11" s="2">
         <v>0</v>
       </c>
       <c r="AT11" s="2">
-        <v>0.6296296296296295</v>
+        <v>0.65</v>
       </c>
       <c r="AU11" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AV11" s="1">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="AW11" s="2">
-        <v>-0.1927825261158594</v>
+        <v>-0.2267115910409014</v>
       </c>
       <c r="AX11" s="1">
-        <v>214.76923</v>
+        <v>480.63913</v>
       </c>
       <c r="AY11" s="2">
-        <v>0.01979691358024691</v>
+        <v>0.3274023861470907</v>
       </c>
       <c r="AZ11" s="1">
-        <v>255</v>
+        <v>605</v>
       </c>
       <c r="BA11" s="2">
-        <v>0.2108262108262109</v>
+        <v>0.6708553122151952</v>
       </c>
       <c r="BB11" t="s">
         <v>173</v>
       </c>
       <c r="BC11">
-        <v>7.28</v>
+        <v>4.77</v>
       </c>
       <c r="BD11">
-        <v>0.5250625792437351</v>
+        <v>2.45027412544855</v>
       </c>
       <c r="BE11">
-        <v>1.891723651809335</v>
+        <v>2.040295930631314</v>
       </c>
       <c r="BF11">
-        <v>10.36000842779622</v>
+        <v>-2.582799117667682</v>
       </c>
       <c r="BG11">
-        <v>11.20663371531632</v>
+        <v>-35.59982279450589</v>
       </c>
       <c r="BH11" t="s">
         <v>175</v>
@@ -2960,7 +2960,7 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
         <v>106</v>
@@ -2969,10 +2969,10 @@
         <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" s="1">
         <v>190.47</v>
@@ -3142,97 +3142,91 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
         <v>133</v>
       </c>
       <c r="G13" s="1">
-        <v>39.78</v>
+        <v>68.77</v>
       </c>
       <c r="H13">
-        <v>11.81</v>
+        <v>10.44</v>
       </c>
       <c r="I13">
-        <v>296.84</v>
+        <v>147.96</v>
       </c>
       <c r="J13">
-        <v>289.42</v>
+        <v>146.93</v>
       </c>
       <c r="K13" s="1">
-        <v>41.4606</v>
+        <v>60.3477</v>
       </c>
       <c r="L13" s="2">
-        <v>-0.04053486924935959</v>
+        <v>0.1395628996631188</v>
       </c>
       <c r="M13" s="1">
-        <v>34.59825</v>
+        <v>48.05045</v>
       </c>
       <c r="N13" s="2">
-        <v>0.1497691357221825</v>
-      </c>
-      <c r="O13">
-        <v>15.13</v>
-      </c>
-      <c r="P13" s="2">
-        <v>1.629213483146067</v>
+        <v>0.4312040782136276</v>
       </c>
       <c r="Q13">
-        <v>-0.92</v>
+        <v>1.59</v>
       </c>
       <c r="R13">
-        <v>-0.54</v>
+        <v>0.27</v>
       </c>
       <c r="S13">
-        <v>47.76</v>
+        <v>64.78</v>
       </c>
       <c r="T13">
-        <v>30.54</v>
+        <v>55.58</v>
       </c>
       <c r="U13">
-        <v>36.39</v>
+        <v>39.77</v>
       </c>
       <c r="V13">
-        <v>-3.52</v>
+        <v>25.91</v>
       </c>
       <c r="W13">
-        <v>48.6</v>
+        <v>68.27</v>
       </c>
       <c r="X13">
-        <v>2.64</v>
+        <v>3.32</v>
       </c>
       <c r="Y13" t="s">
         <v>142</v>
       </c>
       <c r="Z13" s="1">
-        <v>36.57066726684571</v>
+        <v>65.80799916585286</v>
       </c>
       <c r="AA13" s="1">
-        <v>41.1129626693033</v>
+        <v>73.25345352351493</v>
       </c>
       <c r="AB13" s="1">
-        <v>32.02837186438812</v>
+        <v>58.36254480819079</v>
       </c>
       <c r="AC13">
-        <v>34.82</v>
+        <v>8.9</v>
       </c>
       <c r="AD13">
-        <v>1.65</v>
+        <v>3.13</v>
       </c>
       <c r="AE13" s="2">
-        <v>0.1189</v>
+        <v>0.070199996</v>
       </c>
       <c r="AF13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG13" s="1">
         <v>3</v>
@@ -3241,79 +3235,79 @@
         <v>169</v>
       </c>
       <c r="AI13">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AJ13">
+        <v>5</v>
+      </c>
+      <c r="AK13">
+        <v>14</v>
+      </c>
+      <c r="AL13">
+        <v>6</v>
+      </c>
+      <c r="AM13">
         <v>1</v>
       </c>
-      <c r="AK13">
-        <v>4</v>
-      </c>
-      <c r="AL13">
-        <v>2</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
       <c r="AN13">
         <v>0</v>
       </c>
       <c r="AO13" s="2">
-        <v>0.1428571428571428</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="AP13" s="2">
-        <v>0.5714285714285714</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="AQ13" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AR13" s="2">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="AS13" s="2">
         <v>0</v>
       </c>
       <c r="AT13" s="2">
-        <v>0.7142857142857142</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="AU13" s="2">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="AV13" s="1">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AW13" s="2">
-        <v>-0.1955756661639015</v>
+        <v>-0.4474334738985022</v>
       </c>
       <c r="AX13" s="1">
-        <v>49.57143</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="AY13" s="2">
-        <v>0.2461395173453997</v>
+        <v>0.02777373854878597</v>
       </c>
       <c r="AZ13" s="1">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="BA13" s="2">
-        <v>0.7596782302664655</v>
+        <v>0.4104987639959286</v>
       </c>
       <c r="BB13" t="s">
         <v>173</v>
       </c>
       <c r="BC13">
-        <v>-3.52</v>
+        <v>25.91</v>
       </c>
       <c r="BD13">
-        <v>7.021793755513711</v>
+        <v>7.386001967392559</v>
       </c>
       <c r="BE13">
-        <v>-1.118570141834106</v>
+        <v>13.51930433223153</v>
       </c>
       <c r="BF13">
-        <v>-9.384971761682749</v>
+        <v>8.452920373052248</v>
       </c>
       <c r="BG13">
-        <v>451.7336833401828</v>
+        <v>73.66161437609179</v>
       </c>
       <c r="BH13" t="s">
         <v>176</v>
@@ -3324,172 +3318,178 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
         <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
         <v>132</v>
       </c>
       <c r="G14" s="1">
-        <v>68.77</v>
+        <v>294.35</v>
       </c>
       <c r="H14">
-        <v>10.44</v>
+        <v>10.52</v>
       </c>
       <c r="I14">
-        <v>147.96</v>
+        <v>35.73</v>
       </c>
       <c r="J14">
-        <v>146.93</v>
+        <v>35.54</v>
       </c>
       <c r="K14" s="1">
-        <v>60.3477</v>
+        <v>300.5644</v>
       </c>
       <c r="L14" s="2">
-        <v>0.1395628996631188</v>
+        <v>-0.02067576865390564</v>
       </c>
       <c r="M14" s="1">
-        <v>48.05045</v>
+        <v>240.67375</v>
       </c>
       <c r="N14" s="2">
-        <v>0.4312040782136276</v>
+        <v>0.2230249455954378</v>
+      </c>
+      <c r="O14">
+        <v>166.81</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.7645824590851868</v>
       </c>
       <c r="Q14">
-        <v>1.59</v>
+        <v>-1.96</v>
       </c>
       <c r="R14">
-        <v>0.27</v>
+        <v>5.66</v>
       </c>
       <c r="S14">
-        <v>64.78</v>
+        <v>43.9</v>
       </c>
       <c r="T14">
-        <v>55.58</v>
+        <v>39.58</v>
       </c>
       <c r="U14">
-        <v>39.77</v>
+        <v>56.03</v>
       </c>
       <c r="V14">
-        <v>25.91</v>
+        <v>-11.46</v>
       </c>
       <c r="W14">
-        <v>68.27</v>
+        <v>50.43</v>
       </c>
       <c r="X14">
-        <v>3.32</v>
+        <v>15.54</v>
       </c>
       <c r="Y14" t="s">
         <v>143</v>
       </c>
       <c r="Z14" s="1">
-        <v>65.80799916585286</v>
+        <v>294.5760030110677</v>
       </c>
       <c r="AA14" s="1">
-        <v>73.25345352351493</v>
+        <v>326.1060370961656</v>
       </c>
       <c r="AB14" s="1">
-        <v>58.36254480819079</v>
+        <v>263.0459689259699</v>
       </c>
       <c r="AC14">
-        <v>8.9</v>
+        <v>1.59</v>
       </c>
       <c r="AD14">
-        <v>3.13</v>
+        <v>3.26</v>
       </c>
       <c r="AE14" s="2">
-        <v>0.070199996</v>
+        <v>0.0623</v>
       </c>
       <c r="AF14" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AG14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI14">
+        <v>9</v>
+      </c>
+      <c r="AJ14">
+        <v>2</v>
+      </c>
+      <c r="AK14">
         <v>3</v>
       </c>
-      <c r="AH14" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI14">
-        <v>26</v>
-      </c>
-      <c r="AJ14">
-        <v>5</v>
-      </c>
-      <c r="AK14">
-        <v>14</v>
-      </c>
       <c r="AL14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AM14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN14">
         <v>0</v>
       </c>
       <c r="AO14" s="2">
-        <v>0.1923076923076923</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AP14" s="2">
-        <v>0.5384615384615384</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ14" s="2">
-        <v>0.2307692307692308</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AR14" s="2">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="2">
         <v>0</v>
       </c>
       <c r="AT14" s="2">
-        <v>0.7307692307692307</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AU14" s="2">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="1">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="AW14" s="2">
-        <v>-0.4474334738985022</v>
+        <v>-0.2525904535417021</v>
       </c>
       <c r="AX14" s="1">
-        <v>70.68000000000001</v>
+        <v>321.25</v>
       </c>
       <c r="AY14" s="2">
-        <v>0.02777373854878597</v>
+        <v>0.09138780363512816</v>
       </c>
       <c r="AZ14" s="1">
-        <v>97</v>
+        <v>375</v>
       </c>
       <c r="BA14" s="2">
-        <v>0.4104987639959286</v>
+        <v>0.2739935450993714</v>
       </c>
       <c r="BB14" t="s">
         <v>173</v>
       </c>
       <c r="BC14">
-        <v>25.91</v>
+        <v>-11.46</v>
       </c>
       <c r="BD14">
-        <v>7.386001967392559</v>
+        <v>6.248194132504492</v>
       </c>
       <c r="BE14">
-        <v>13.51930433223153</v>
+        <v>-10.74893359659758</v>
       </c>
       <c r="BF14">
-        <v>8.452920373052248</v>
+        <v>-3.444316808192745</v>
       </c>
       <c r="BG14">
-        <v>73.66161437609179</v>
+        <v>9.832091829670009</v>
       </c>
       <c r="BH14" t="s">
         <v>176</v>
@@ -3500,7 +3500,7 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
         <v>109</v>
@@ -3509,88 +3509,88 @@
         <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="1">
-        <v>66.70999999999999</v>
+        <v>48.54</v>
       </c>
       <c r="H15">
-        <v>11.26</v>
+        <v>11.36</v>
       </c>
       <c r="I15">
-        <v>168.79</v>
+        <v>234</v>
       </c>
       <c r="J15">
-        <v>165.24</v>
+        <v>217.64</v>
       </c>
       <c r="K15" s="1">
-        <v>54.0824</v>
+        <v>30.8782</v>
       </c>
       <c r="L15" s="2">
-        <v>0.2334881588095202</v>
+        <v>0.5719828228329371</v>
       </c>
       <c r="M15" s="1">
-        <v>36.538</v>
+        <v>23.939</v>
       </c>
       <c r="N15" s="2">
-        <v>0.8257704307843888</v>
+        <v>1.027653619616525</v>
       </c>
       <c r="O15">
-        <v>20.76</v>
+        <v>18.5</v>
       </c>
       <c r="P15" s="2">
-        <v>2.213391136801541</v>
+        <v>1.623783783783784</v>
       </c>
       <c r="Q15">
-        <v>3.59</v>
+        <v>4.61</v>
       </c>
       <c r="R15">
-        <v>4.06</v>
+        <v>4.35</v>
       </c>
       <c r="S15">
-        <v>64.34999999999999</v>
+        <v>76.16</v>
       </c>
       <c r="T15">
-        <v>72.13</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="U15">
-        <v>76.06</v>
+        <v>88.34</v>
       </c>
       <c r="V15">
-        <v>13.2</v>
+        <v>24.91</v>
       </c>
       <c r="W15">
-        <v>69.52</v>
+        <v>67.56</v>
       </c>
       <c r="X15">
-        <v>3.56</v>
+        <v>3.02</v>
       </c>
       <c r="Y15" t="s">
         <v>144</v>
       </c>
       <c r="Z15" s="1">
-        <v>66.19133313496907</v>
+        <v>44.37016677856445</v>
       </c>
       <c r="AA15" s="1">
-        <v>72.02706258061581</v>
+        <v>50.00590987491284</v>
       </c>
       <c r="AB15" s="1">
-        <v>60.35560368932234</v>
+        <v>38.73442368221607</v>
       </c>
       <c r="AC15">
-        <v>9.91</v>
+        <v>46.44</v>
       </c>
       <c r="AD15">
-        <v>1.98</v>
+        <v>4.22</v>
       </c>
       <c r="AE15" s="2">
-        <v>0.060100004</v>
+        <v>0.28190002</v>
       </c>
       <c r="AF15" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AG15" s="1">
         <v>3</v>
@@ -3599,79 +3599,79 @@
         <v>169</v>
       </c>
       <c r="AI15">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AJ15">
+        <v>3</v>
+      </c>
+      <c r="AK15">
+        <v>8</v>
+      </c>
+      <c r="AL15">
+        <v>9</v>
+      </c>
+      <c r="AM15">
         <v>2</v>
       </c>
-      <c r="AK15">
-        <v>11</v>
-      </c>
-      <c r="AL15">
-        <v>2</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" s="2">
-        <v>0.1333333333333333</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="AP15" s="2">
-        <v>0.7333333333333333</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AQ15" s="2">
-        <v>0.1333333333333333</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="AR15" s="2">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="AS15" s="2">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT15" s="2">
-        <v>0.8666666666666666</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="AU15" s="2">
-        <v>0</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="AV15" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AW15" s="2">
-        <v>-0.1005846199970019</v>
+        <v>-0.7939843428100536</v>
       </c>
       <c r="AX15" s="1">
-        <v>70.46666999999999</v>
+        <v>34.77</v>
       </c>
       <c r="AY15" s="2">
-        <v>0.05631344625993105</v>
+        <v>-0.2836835599505562</v>
       </c>
       <c r="AZ15" s="1">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="BA15" s="2">
-        <v>0.1992205066706642</v>
+        <v>-0.01112484548825709</v>
       </c>
       <c r="BB15" t="s">
         <v>173</v>
       </c>
       <c r="BC15">
-        <v>13.2</v>
+        <v>24.91</v>
       </c>
       <c r="BD15">
-        <v>2.979315130509994</v>
+        <v>8.275705850858703</v>
       </c>
       <c r="BE15">
-        <v>-2.613140022667655</v>
+        <v>7.199651555028358</v>
       </c>
       <c r="BF15">
-        <v>13.72314909307946</v>
+        <v>46.82395311314939</v>
       </c>
       <c r="BG15">
-        <v>220.875402341369</v>
+        <v>321.7202428348072</v>
       </c>
       <c r="BH15" t="s">
         <v>176</v>
@@ -3682,115 +3682,109 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" s="1">
-        <v>294.35</v>
+        <v>114.04</v>
       </c>
       <c r="H16">
-        <v>10.52</v>
+        <v>19.57</v>
       </c>
       <c r="I16">
-        <v>35.73</v>
+        <v>171.64</v>
       </c>
       <c r="J16">
-        <v>35.54</v>
+        <v>151.53</v>
       </c>
       <c r="K16" s="1">
-        <v>300.5644</v>
+        <v>101.0322</v>
       </c>
       <c r="L16" s="2">
-        <v>-0.02067576865390564</v>
+        <v>0.1287490522823417</v>
       </c>
       <c r="M16" s="1">
-        <v>240.67375</v>
+        <v>68.32841999999999</v>
       </c>
       <c r="N16" s="2">
-        <v>0.2230249455954378</v>
-      </c>
-      <c r="O16">
-        <v>166.81</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0.7645824590851868</v>
+        <v>0.6689980538112841</v>
       </c>
       <c r="Q16">
-        <v>-1.96</v>
+        <v>3.56</v>
       </c>
       <c r="R16">
-        <v>5.66</v>
+        <v>5.4</v>
       </c>
       <c r="S16">
-        <v>43.9</v>
+        <v>54.81</v>
       </c>
       <c r="T16">
-        <v>39.58</v>
+        <v>57.73</v>
       </c>
       <c r="U16">
-        <v>56.03</v>
+        <v>69.98</v>
       </c>
       <c r="V16">
-        <v>-11.46</v>
+        <v>-2.81</v>
       </c>
       <c r="W16">
-        <v>50.43</v>
+        <v>47.13</v>
       </c>
       <c r="X16">
-        <v>15.54</v>
+        <v>7.04</v>
       </c>
       <c r="Y16" t="s">
         <v>144</v>
       </c>
       <c r="Z16" s="1">
-        <v>294.5760030110677</v>
+        <v>104.2296663920085</v>
       </c>
       <c r="AA16" s="1">
-        <v>326.1060370961656</v>
+        <v>116.3765923331417</v>
       </c>
       <c r="AB16" s="1">
-        <v>263.0459689259699</v>
+        <v>92.08274045087525</v>
       </c>
       <c r="AC16">
-        <v>1.59</v>
+        <v>7.67</v>
       </c>
       <c r="AD16">
-        <v>3.26</v>
+        <v>1.65</v>
       </c>
       <c r="AE16" s="2">
-        <v>0.0623</v>
+        <v>0.052800003</v>
       </c>
       <c r="AF16" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AG16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AI16">
+        <v>12</v>
+      </c>
+      <c r="AJ16">
+        <v>3</v>
+      </c>
+      <c r="AK16">
         <v>9</v>
       </c>
-      <c r="AJ16">
-        <v>2</v>
-      </c>
-      <c r="AK16">
-        <v>3</v>
-      </c>
       <c r="AL16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -3799,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="AO16" s="2">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="AP16" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="AQ16" s="2">
-        <v>0.4444444444444444</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="2">
         <v>0</v>
@@ -3814,46 +3808,46 @@
         <v>0</v>
       </c>
       <c r="AT16" s="2">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2">
         <v>0</v>
       </c>
       <c r="AV16" s="1">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="AW16" s="2">
-        <v>-0.2525904535417021</v>
+        <v>-0.3686425815503332</v>
       </c>
       <c r="AX16" s="1">
-        <v>321.25</v>
+        <v>106.33333</v>
       </c>
       <c r="AY16" s="2">
-        <v>0.09138780363512816</v>
+        <v>-0.06757865661171521</v>
       </c>
       <c r="AZ16" s="1">
-        <v>375</v>
+        <v>140</v>
       </c>
       <c r="BA16" s="2">
-        <v>0.2739935450993714</v>
+        <v>0.2276394247632409</v>
       </c>
       <c r="BB16" t="s">
         <v>173</v>
       </c>
       <c r="BC16">
-        <v>-11.46</v>
+        <v>-2.81</v>
       </c>
       <c r="BD16">
-        <v>6.248194132504492</v>
+        <v>2.868483030550199</v>
       </c>
       <c r="BE16">
-        <v>-10.74893359659758</v>
+        <v>-2.312829362386117</v>
       </c>
       <c r="BF16">
-        <v>-3.444316808192745</v>
+        <v>12.72116534497729</v>
       </c>
       <c r="BG16">
-        <v>9.832091829670009</v>
+        <v>256.3750028610229</v>
       </c>
       <c r="BH16" t="s">
         <v>176</v>
@@ -3864,91 +3858,97 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G17" s="1">
-        <v>114.04</v>
+        <v>39.78</v>
       </c>
       <c r="H17">
-        <v>19.57</v>
+        <v>11.81</v>
       </c>
       <c r="I17">
-        <v>171.64</v>
+        <v>296.84</v>
       </c>
       <c r="J17">
-        <v>151.53</v>
+        <v>289.42</v>
       </c>
       <c r="K17" s="1">
-        <v>101.0322</v>
+        <v>41.4606</v>
       </c>
       <c r="L17" s="2">
-        <v>0.1287490522823417</v>
+        <v>-0.04053486924935959</v>
       </c>
       <c r="M17" s="1">
-        <v>68.32841999999999</v>
+        <v>34.59825</v>
       </c>
       <c r="N17" s="2">
-        <v>0.6689980538112841</v>
+        <v>0.1497691357221825</v>
+      </c>
+      <c r="O17">
+        <v>15.13</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1.629213483146067</v>
       </c>
       <c r="Q17">
-        <v>3.56</v>
+        <v>-0.92</v>
       </c>
       <c r="R17">
-        <v>5.4</v>
+        <v>-0.54</v>
       </c>
       <c r="S17">
-        <v>54.81</v>
+        <v>47.76</v>
       </c>
       <c r="T17">
-        <v>57.73</v>
+        <v>30.54</v>
       </c>
       <c r="U17">
-        <v>69.98</v>
+        <v>36.39</v>
       </c>
       <c r="V17">
-        <v>-2.81</v>
+        <v>-3.52</v>
       </c>
       <c r="W17">
-        <v>47.13</v>
+        <v>48.6</v>
       </c>
       <c r="X17">
-        <v>7.04</v>
+        <v>2.64</v>
       </c>
       <c r="Y17" t="s">
         <v>145</v>
       </c>
       <c r="Z17" s="1">
-        <v>104.2296663920085</v>
+        <v>36.57066726684571</v>
       </c>
       <c r="AA17" s="1">
-        <v>116.3765923331417</v>
+        <v>41.1129626693033</v>
       </c>
       <c r="AB17" s="1">
-        <v>92.08274045087525</v>
+        <v>32.02837186438812</v>
       </c>
       <c r="AC17">
-        <v>7.67</v>
+        <v>34.82</v>
       </c>
       <c r="AD17">
         <v>1.65</v>
       </c>
       <c r="AE17" s="2">
-        <v>0.052800003</v>
+        <v>0.1189</v>
       </c>
       <c r="AF17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AG17" s="1">
         <v>3</v>
@@ -3957,16 +3957,16 @@
         <v>169</v>
       </c>
       <c r="AI17">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AJ17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK17">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -3975,13 +3975,13 @@
         <v>0</v>
       </c>
       <c r="AO17" s="2">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AP17" s="2">
-        <v>0.75</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AQ17" s="2">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AR17" s="2">
         <v>0</v>
@@ -3990,46 +3990,46 @@
         <v>0</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="AU17" s="2">
         <v>0</v>
       </c>
       <c r="AV17" s="1">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="AW17" s="2">
-        <v>-0.3686425815503332</v>
+        <v>-0.1955756661639015</v>
       </c>
       <c r="AX17" s="1">
-        <v>106.33333</v>
+        <v>49.57143</v>
       </c>
       <c r="AY17" s="2">
-        <v>-0.06757865661171521</v>
+        <v>0.2461395173453997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="BA17" s="2">
-        <v>0.2276394247632409</v>
+        <v>0.7596782302664655</v>
       </c>
       <c r="BB17" t="s">
         <v>173</v>
       </c>
       <c r="BC17">
-        <v>-2.81</v>
+        <v>-3.52</v>
       </c>
       <c r="BD17">
-        <v>2.868483030550199</v>
+        <v>7.021793755513711</v>
       </c>
       <c r="BE17">
-        <v>-2.312829362386117</v>
+        <v>-1.118570141834106</v>
       </c>
       <c r="BF17">
-        <v>12.72116534497729</v>
+        <v>-9.384971761682749</v>
       </c>
       <c r="BG17">
-        <v>256.3750028610229</v>
+        <v>451.7336833401828</v>
       </c>
       <c r="BH17" t="s">
         <v>176</v>
@@ -4040,19 +4040,19 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G18" s="1">
         <v>197.46</v>
@@ -4130,7 +4130,7 @@
         <v>0.1018</v>
       </c>
       <c r="AF18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG18" s="1">
         <v>3</v>
@@ -4228,7 +4228,7 @@
         <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
         <v>129</v>
@@ -4237,100 +4237,100 @@
         <v>132</v>
       </c>
       <c r="G19" s="1">
-        <v>172.44</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="H19">
-        <v>9.949999999999999</v>
+        <v>11.26</v>
       </c>
       <c r="I19">
-        <v>57.7</v>
+        <v>168.79</v>
       </c>
       <c r="J19">
-        <v>55.24</v>
+        <v>165.24</v>
       </c>
       <c r="K19" s="1">
-        <v>152.5732</v>
+        <v>54.0824</v>
       </c>
       <c r="L19" s="2">
-        <v>0.1302115967941944</v>
+        <v>0.2334881588095202</v>
       </c>
       <c r="M19" s="1">
-        <v>140.7778</v>
+        <v>36.538</v>
       </c>
       <c r="N19" s="2">
-        <v>0.2249090410561891</v>
+        <v>0.8257704307843888</v>
       </c>
       <c r="O19">
-        <v>108.93</v>
+        <v>20.76</v>
       </c>
       <c r="P19" s="2">
-        <v>0.5830349765904709</v>
+        <v>2.213391136801541</v>
       </c>
       <c r="Q19">
-        <v>5.88</v>
+        <v>3.59</v>
       </c>
       <c r="R19">
-        <v>4.95</v>
+        <v>4.06</v>
       </c>
       <c r="S19">
-        <v>77.95999999999999</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="T19">
-        <v>96.51000000000001</v>
+        <v>72.13</v>
       </c>
       <c r="U19">
-        <v>96.61</v>
+        <v>76.06</v>
       </c>
       <c r="V19">
-        <v>9.050000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="W19">
-        <v>93.45</v>
+        <v>69.52</v>
       </c>
       <c r="X19">
-        <v>3.29</v>
+        <v>3.56</v>
       </c>
       <c r="Y19" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Z19" s="1">
-        <v>169.5949991861979</v>
+        <v>66.19133313496907</v>
       </c>
       <c r="AA19" s="1">
-        <v>172.7605538135426</v>
+        <v>72.02706258061581</v>
       </c>
       <c r="AB19" s="1">
-        <v>166.4294445588532</v>
+        <v>60.35560368932234</v>
       </c>
       <c r="AC19">
-        <v>1.73</v>
+        <v>9.91</v>
       </c>
       <c r="AD19">
-        <v>3.98</v>
+        <v>1.98</v>
       </c>
       <c r="AE19" s="2">
-        <v>0.041199997</v>
+        <v>0.060100004</v>
       </c>
       <c r="AF19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI19">
+        <v>15</v>
+      </c>
+      <c r="AJ19">
         <v>2</v>
       </c>
-      <c r="AH19" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI19">
-        <v>6</v>
-      </c>
-      <c r="AJ19">
-        <v>1</v>
-      </c>
       <c r="AK19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM19">
         <v>0</v>
@@ -4339,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="AO19" s="2">
-        <v>0.1666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AP19" s="2">
-        <v>0.6666666666666666</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="AQ19" s="2">
-        <v>0.1666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AR19" s="2">
         <v>0</v>
@@ -4354,46 +4354,46 @@
         <v>0</v>
       </c>
       <c r="AT19" s="2">
-        <v>0.8333333333333333</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="AU19" s="2">
         <v>0</v>
       </c>
       <c r="AV19" s="1">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="AW19" s="2">
-        <v>-0.06634191602876362</v>
+        <v>-0.1005846199970019</v>
       </c>
       <c r="AX19" s="1">
-        <v>173</v>
+        <v>70.46666999999999</v>
       </c>
       <c r="AY19" s="2">
-        <v>0.003247506379030401</v>
+        <v>0.05631344625993105</v>
       </c>
       <c r="AZ19" s="1">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="BA19" s="2">
-        <v>0.1308281141266528</v>
+        <v>0.1992205066706642</v>
       </c>
       <c r="BB19" t="s">
         <v>173</v>
       </c>
       <c r="BC19">
-        <v>9.050000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="BD19">
-        <v>1.890804091454276</v>
+        <v>2.979315130509994</v>
       </c>
       <c r="BE19">
-        <v>3.773246880634983</v>
+        <v>-2.613140022667655</v>
       </c>
       <c r="BF19">
-        <v>25.16512818013721</v>
+        <v>13.72314909307946</v>
       </c>
       <c r="BG19">
-        <v>20.19842209782049</v>
+        <v>220.875402341369</v>
       </c>
       <c r="BH19" t="s">
         <v>176</v>
@@ -4404,13 +4404,13 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
         <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
         <v>130</v>
@@ -4419,163 +4419,163 @@
         <v>133</v>
       </c>
       <c r="G20" s="1">
-        <v>48.54</v>
+        <v>172.44</v>
       </c>
       <c r="H20">
-        <v>11.36</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="I20">
-        <v>234</v>
+        <v>57.7</v>
       </c>
       <c r="J20">
-        <v>217.64</v>
+        <v>55.24</v>
       </c>
       <c r="K20" s="1">
-        <v>30.8782</v>
+        <v>152.5732</v>
       </c>
       <c r="L20" s="2">
-        <v>0.5719828228329371</v>
+        <v>0.1302115967941944</v>
       </c>
       <c r="M20" s="1">
-        <v>23.939</v>
+        <v>140.7778</v>
       </c>
       <c r="N20" s="2">
-        <v>1.027653619616525</v>
+        <v>0.2249090410561891</v>
       </c>
       <c r="O20">
-        <v>18.5</v>
+        <v>108.93</v>
       </c>
       <c r="P20" s="2">
-        <v>1.623783783783784</v>
+        <v>0.5830349765904709</v>
       </c>
       <c r="Q20">
-        <v>4.61</v>
+        <v>5.88</v>
       </c>
       <c r="R20">
-        <v>4.35</v>
+        <v>4.95</v>
       </c>
       <c r="S20">
-        <v>76.16</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="T20">
-        <v>89.09999999999999</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="U20">
-        <v>88.34</v>
+        <v>96.61</v>
       </c>
       <c r="V20">
-        <v>24.91</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="W20">
-        <v>67.56</v>
+        <v>93.45</v>
       </c>
       <c r="X20">
-        <v>3.02</v>
+        <v>3.29</v>
       </c>
       <c r="Y20" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Z20" s="1">
-        <v>44.37016677856445</v>
+        <v>169.5949991861979</v>
       </c>
       <c r="AA20" s="1">
-        <v>50.00590987491284</v>
+        <v>172.7605538135426</v>
       </c>
       <c r="AB20" s="1">
-        <v>38.73442368221607</v>
+        <v>166.4294445588532</v>
       </c>
       <c r="AC20">
-        <v>46.44</v>
+        <v>1.73</v>
       </c>
       <c r="AD20">
-        <v>4.22</v>
+        <v>3.98</v>
       </c>
       <c r="AE20" s="2">
-        <v>0.28190002</v>
+        <v>0.041199997</v>
       </c>
       <c r="AF20" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="AG20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AI20">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="AJ20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AL20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AM20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="2">
-        <v>0.1304347826086956</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AP20" s="2">
-        <v>0.3478260869565217</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AQ20" s="2">
-        <v>0.391304347826087</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AR20" s="2">
-        <v>0.08695652173913043</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="2">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="2">
-        <v>0.4782608695652174</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="AU20" s="2">
-        <v>0.1304347826086956</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="1">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="AW20" s="2">
-        <v>-0.7939843428100536</v>
+        <v>-0.06634191602876362</v>
       </c>
       <c r="AX20" s="1">
-        <v>34.77</v>
+        <v>173</v>
       </c>
       <c r="AY20" s="2">
-        <v>-0.2836835599505562</v>
+        <v>0.003247506379030401</v>
       </c>
       <c r="AZ20" s="1">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="BA20" s="2">
-        <v>-0.01112484548825709</v>
+        <v>0.1308281141266528</v>
       </c>
       <c r="BB20" t="s">
         <v>173</v>
       </c>
       <c r="BC20">
-        <v>24.91</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="BD20">
-        <v>8.275705850858703</v>
+        <v>1.890804091454276</v>
       </c>
       <c r="BE20">
-        <v>7.199651555028358</v>
+        <v>3.773246880634983</v>
       </c>
       <c r="BF20">
-        <v>46.82395311314939</v>
+        <v>25.16512818013721</v>
       </c>
       <c r="BG20">
-        <v>321.7202428348072</v>
+        <v>20.19842209782049</v>
       </c>
       <c r="BH20" t="s">
         <v>176</v>
@@ -4586,19 +4586,19 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
         <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G21" s="1">
         <v>121.59</v>
@@ -4655,7 +4655,7 @@
         <v>2.76</v>
       </c>
       <c r="Y21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z21" s="1">
         <v>116.1600001017253</v>
@@ -4757,7 +4757,7 @@
         <v>12.53122897150398</v>
       </c>
       <c r="BG21">
-        <v>27.22667216753991</v>
+        <v>27.22668232414574</v>
       </c>
       <c r="BH21" t="s">
         <v>176</v>
@@ -4767,47 +4767,29 @@
       <c r="A22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
       <c r="G22" s="1">
-        <v>10.12</v>
+        <v>10.31</v>
       </c>
       <c r="H22">
-        <v>0.28</v>
-      </c>
-      <c r="I22">
-        <v>22.18</v>
-      </c>
-      <c r="J22">
-        <v>22.15</v>
+        <v>0.41</v>
       </c>
       <c r="K22" s="1">
-        <v>10.1276</v>
+        <v>10.100256</v>
       </c>
       <c r="L22" s="2">
-        <v>-0.000750424582329481</v>
+        <v>0.02076620632189923</v>
       </c>
       <c r="M22" s="1">
-        <v>10.063209</v>
+        <v>10.100256</v>
       </c>
       <c r="N22" s="2">
-        <v>0.005643428453090729</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
+        <v>0.02076620632189923</v>
       </c>
       <c r="AD22">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="2">
         <v>0</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>171</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -4846,7 +4828,7 @@
         <v>-1</v>
       </c>
       <c r="BB22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BH22" t="s">
         <v>177</v>
@@ -4857,28 +4839,22 @@
         <v>81</v>
       </c>
       <c r="G23" s="1">
-        <v>10.31</v>
-      </c>
-      <c r="H23">
-        <v>0.41</v>
+        <v>0.6702</v>
       </c>
       <c r="K23" s="1">
-        <v>10.100256</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0.02076620632189923</v>
+        <v>0</v>
       </c>
       <c r="M23" s="1">
-        <v>10.100256</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0.02076620632189923</v>
+        <v>0</v>
       </c>
       <c r="AD23">
         <v>0</v>
       </c>
       <c r="AE23" s="2">
         <v>0</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>171</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -4928,40 +4904,40 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
         <v>114</v>
       </c>
       <c r="G24" s="1">
-        <v>10.33</v>
+        <v>10.12</v>
       </c>
       <c r="H24">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="I24">
-        <v>25.18</v>
+        <v>22.18</v>
       </c>
       <c r="J24">
         <v>22.15</v>
       </c>
       <c r="K24" s="1">
-        <v>10.3644</v>
+        <v>10.1276</v>
       </c>
       <c r="L24" s="2">
-        <v>-0.00331905368376363</v>
+        <v>-0.000750424582329481</v>
       </c>
       <c r="M24" s="1">
-        <v>10.219084</v>
+        <v>10.063209</v>
       </c>
       <c r="N24" s="2">
-        <v>0.01085381038065638</v>
+        <v>0.005643428453090729</v>
       </c>
       <c r="AC24">
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="AE24" s="2">
         <v>0</v>
@@ -5016,17 +4992,41 @@
       <c r="A25" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
       <c r="G25" s="1">
-        <v>0.6702</v>
+        <v>10.33</v>
+      </c>
+      <c r="H25">
+        <v>0.26</v>
+      </c>
+      <c r="I25">
+        <v>25.18</v>
+      </c>
+      <c r="J25">
+        <v>22.15</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>10.3644</v>
+      </c>
+      <c r="L25" s="2">
+        <v>-0.00331905368376363</v>
       </c>
       <c r="M25" s="1">
+        <v>10.219084</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0.01085381038065638</v>
+      </c>
+      <c r="AC25">
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AE25" s="2">
         <v>0</v>
@@ -5071,7 +5071,7 @@
         <v>-1</v>
       </c>
       <c r="BB25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BH25" t="s">
         <v>177</v>
@@ -5221,19 +5221,19 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G28" s="1">
         <v>3.28</v>
@@ -5376,97 +5376,97 @@
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
         <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F29" t="s">
         <v>132</v>
       </c>
       <c r="G29" s="1">
-        <v>13.55</v>
+        <v>24.79</v>
       </c>
       <c r="H29">
-        <v>8.94</v>
+        <v>1.55</v>
       </c>
       <c r="I29">
-        <v>659.83</v>
+        <v>62.35</v>
       </c>
       <c r="J29">
-        <v>653.24</v>
+        <v>59.21</v>
       </c>
       <c r="K29" s="1">
-        <v>11.8356</v>
+        <v>24.3275</v>
       </c>
       <c r="L29" s="2">
-        <v>0.144851127108047</v>
+        <v>0.0190114068441064</v>
       </c>
       <c r="M29" s="1">
-        <v>13.24845</v>
+        <v>23.9439</v>
       </c>
       <c r="N29" s="2">
-        <v>0.02276115319150547</v>
+        <v>0.03533676635802855</v>
       </c>
       <c r="O29">
-        <v>14.25</v>
+        <v>10.94</v>
       </c>
       <c r="P29" s="2">
-        <v>-0.04912280701754381</v>
+        <v>1.26599634369287</v>
       </c>
       <c r="Q29">
-        <v>0.38</v>
+        <v>-0.26</v>
       </c>
       <c r="R29">
-        <v>0.28</v>
+        <v>-0.47</v>
       </c>
       <c r="S29">
-        <v>64.84999999999999</v>
+        <v>53.46</v>
       </c>
       <c r="T29">
-        <v>89.31</v>
+        <v>41.04</v>
       </c>
       <c r="U29">
-        <v>78.55</v>
+        <v>32.2</v>
       </c>
       <c r="V29">
-        <v>15.42</v>
+        <v>6.72</v>
       </c>
       <c r="W29">
-        <v>67.48999999999999</v>
+        <v>48.05</v>
       </c>
       <c r="X29">
-        <v>0.47</v>
+        <v>2.48</v>
       </c>
       <c r="Y29" t="s">
         <v>148</v>
       </c>
       <c r="Z29" s="1">
-        <v>13.09133323033651</v>
+        <v>26.88500016530355</v>
       </c>
       <c r="AA29" s="1">
-        <v>14.15852186081059</v>
+        <v>33.23950522818716</v>
       </c>
       <c r="AB29" s="1">
-        <v>12.02414459986242</v>
+        <v>20.53049510241994</v>
       </c>
       <c r="AC29">
-        <v>62.46</v>
+        <v>11.83</v>
       </c>
       <c r="AD29">
-        <v>0.92</v>
+        <v>2.65</v>
       </c>
       <c r="AE29" s="2">
-        <v>0.0953</v>
+        <v>0.19870001</v>
       </c>
       <c r="AF29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG29" s="1">
         <v>4</v>
@@ -5475,79 +5475,79 @@
         <v>172</v>
       </c>
       <c r="AI29">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AJ29">
         <v>3</v>
       </c>
       <c r="AK29">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AL29">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AM29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN29">
         <v>0</v>
       </c>
       <c r="AO29" s="2">
-        <v>0.1363636363636364</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AP29" s="2">
-        <v>0.4090909090909091</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AQ29" s="2">
-        <v>0.4090909090909091</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AR29" s="2">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="AS29" s="2">
         <v>0</v>
       </c>
       <c r="AT29" s="2">
-        <v>0.5454545454545454</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="AU29" s="2">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="AV29" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AW29" s="2">
-        <v>-0.4095940959409594</v>
+        <v>-0.3949173053650665</v>
       </c>
       <c r="AX29" s="1">
-        <v>13.31429</v>
+        <v>29.5</v>
       </c>
       <c r="AY29" s="2">
-        <v>-0.01739557195571963</v>
+        <v>0.1899959661153691</v>
       </c>
       <c r="AZ29" s="1">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="BA29" s="2">
-        <v>0.4760147601476014</v>
+        <v>0.6538926986688182</v>
       </c>
       <c r="BB29" t="s">
         <v>173</v>
       </c>
       <c r="BC29">
-        <v>15.42</v>
+        <v>6.72</v>
       </c>
       <c r="BD29">
-        <v>7.796344627710424</v>
+        <v>4.599156613920297</v>
       </c>
       <c r="BE29">
-        <v>2.885346334393116</v>
+        <v>10.84284001442643</v>
       </c>
       <c r="BF29">
-        <v>18.23734856571461</v>
+        <v>-4.063464515712818</v>
       </c>
       <c r="BG29">
-        <v>31.68124626790352</v>
+        <v>182.3462604723599</v>
       </c>
       <c r="BH29" t="s">
         <v>177</v>
@@ -5558,115 +5558,100 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
         <v>116</v>
       </c>
-      <c r="D30" t="s">
-        <v>120</v>
-      </c>
-      <c r="E30" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" t="s">
-        <v>133</v>
-      </c>
       <c r="G30" s="1">
-        <v>24.79</v>
+        <v>1.88</v>
       </c>
       <c r="H30">
-        <v>1.55</v>
+        <v>0.06</v>
       </c>
       <c r="I30">
-        <v>62.35</v>
+        <v>31.62</v>
       </c>
       <c r="J30">
-        <v>59.21</v>
+        <v>18.42</v>
       </c>
       <c r="K30" s="1">
-        <v>24.3275</v>
+        <v>1.197</v>
       </c>
       <c r="L30" s="2">
-        <v>0.0190114068441064</v>
+        <v>0.5705931495405178</v>
       </c>
       <c r="M30" s="1">
-        <v>23.9439</v>
+        <v>0.9891</v>
       </c>
       <c r="N30" s="2">
-        <v>0.03533676635802855</v>
+        <v>0.9007178242847032</v>
       </c>
       <c r="O30">
-        <v>10.94</v>
+        <v>1.26</v>
       </c>
       <c r="P30" s="2">
-        <v>1.26599634369287</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="Q30">
-        <v>-0.26</v>
+        <v>0.2</v>
       </c>
       <c r="R30">
-        <v>-0.47</v>
+        <v>0.22</v>
       </c>
       <c r="S30">
-        <v>53.46</v>
+        <v>57.26</v>
       </c>
       <c r="T30">
-        <v>41.04</v>
+        <v>66.48</v>
       </c>
       <c r="U30">
-        <v>32.2</v>
+        <v>67.61</v>
       </c>
       <c r="V30">
-        <v>6.72</v>
+        <v>17.5</v>
       </c>
       <c r="W30">
-        <v>48.05</v>
+        <v>66.75</v>
       </c>
       <c r="X30">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="Y30" t="s">
         <v>149</v>
       </c>
       <c r="Z30" s="1">
-        <v>26.88500016530355</v>
+        <v>2.016666658719381</v>
       </c>
       <c r="AA30" s="1">
-        <v>33.23950522818716</v>
+        <v>2.292529938526825</v>
       </c>
       <c r="AB30" s="1">
-        <v>20.53049510241994</v>
+        <v>1.740803378911936</v>
       </c>
       <c r="AC30">
-        <v>11.83</v>
+        <v>0.09</v>
       </c>
       <c r="AD30">
-        <v>2.65</v>
+        <v>0.62</v>
       </c>
       <c r="AE30" s="2">
-        <v>0.19870001</v>
+        <v>0.0113</v>
       </c>
       <c r="AF30" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG30" s="1">
-        <v>4</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AI30">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -5674,62 +5659,41 @@
       <c r="AN30">
         <v>0</v>
       </c>
-      <c r="AO30" s="2">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="AP30" s="2">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AQ30" s="2">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AR30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="2">
-        <v>0.7142857142857142</v>
-      </c>
-      <c r="AU30" s="2">
-        <v>0</v>
-      </c>
       <c r="AV30" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AW30" s="2">
-        <v>-0.3949173053650665</v>
+        <v>-1</v>
       </c>
       <c r="AX30" s="1">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="AY30" s="2">
-        <v>0.1899959661153691</v>
+        <v>-1</v>
       </c>
       <c r="AZ30" s="1">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="2">
-        <v>0.6538926986688182</v>
+        <v>-1</v>
       </c>
       <c r="BB30" t="s">
         <v>173</v>
       </c>
       <c r="BC30">
-        <v>6.72</v>
+        <v>17.5</v>
       </c>
       <c r="BD30">
-        <v>4.599156613920297</v>
+        <v>9.941517736389924</v>
       </c>
       <c r="BE30">
-        <v>10.84284001442643</v>
+        <v>-4.081634763179803</v>
       </c>
       <c r="BF30">
-        <v>-4.063464515712818</v>
+        <v>74.07406671547625</v>
       </c>
       <c r="BG30">
-        <v>182.3462604723599</v>
+        <v>189.2307791060954</v>
       </c>
       <c r="BH30" t="s">
         <v>177</v>
@@ -5740,142 +5704,178 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
         <v>117</v>
       </c>
+      <c r="D31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" t="s">
+        <v>133</v>
+      </c>
       <c r="G31" s="1">
-        <v>1.88</v>
+        <v>13.55</v>
       </c>
       <c r="H31">
-        <v>0.06</v>
+        <v>8.94</v>
       </c>
       <c r="I31">
-        <v>31.62</v>
+        <v>659.83</v>
       </c>
       <c r="J31">
-        <v>18.42</v>
+        <v>653.24</v>
       </c>
       <c r="K31" s="1">
-        <v>1.197</v>
+        <v>11.8356</v>
       </c>
       <c r="L31" s="2">
-        <v>0.5705931495405178</v>
+        <v>0.144851127108047</v>
       </c>
       <c r="M31" s="1">
-        <v>0.9891</v>
+        <v>13.24845</v>
       </c>
       <c r="N31" s="2">
-        <v>0.9007178242847032</v>
+        <v>0.02276115319150547</v>
       </c>
       <c r="O31">
-        <v>1.26</v>
+        <v>14.25</v>
       </c>
       <c r="P31" s="2">
-        <v>0.492063492063492</v>
+        <v>-0.04912280701754381</v>
       </c>
       <c r="Q31">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="R31">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="S31">
-        <v>57.26</v>
+        <v>64.84999999999999</v>
       </c>
       <c r="T31">
-        <v>66.48</v>
+        <v>89.31</v>
       </c>
       <c r="U31">
-        <v>67.61</v>
+        <v>78.55</v>
       </c>
       <c r="V31">
-        <v>17.5</v>
+        <v>15.42</v>
       </c>
       <c r="W31">
-        <v>66.75</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="X31">
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
       <c r="Y31" t="s">
         <v>150</v>
       </c>
       <c r="Z31" s="1">
-        <v>2.016666658719381</v>
+        <v>13.09133323033651</v>
       </c>
       <c r="AA31" s="1">
-        <v>2.292529938526825</v>
+        <v>14.15852186081059</v>
       </c>
       <c r="AB31" s="1">
-        <v>1.740803378911936</v>
+        <v>12.02414459986242</v>
       </c>
       <c r="AC31">
-        <v>0.09</v>
+        <v>62.46</v>
       </c>
       <c r="AD31">
-        <v>0.62</v>
+        <v>0.92</v>
       </c>
       <c r="AE31" s="2">
-        <v>0.0113</v>
+        <v>0.0953</v>
       </c>
       <c r="AF31" t="s">
-        <v>168</v>
+        <v>165</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>172</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN31">
         <v>0</v>
       </c>
+      <c r="AO31" s="2">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="AS31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="2">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="AU31" s="2">
+        <v>0.04545454545454546</v>
+      </c>
       <c r="AV31" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW31" s="2">
-        <v>-1</v>
+        <v>-0.4095940959409594</v>
       </c>
       <c r="AX31" s="1">
-        <v>0</v>
+        <v>13.31429</v>
       </c>
       <c r="AY31" s="2">
-        <v>-1</v>
+        <v>-0.01739557195571963</v>
       </c>
       <c r="AZ31" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA31" s="2">
-        <v>-1</v>
+        <v>0.4760147601476014</v>
       </c>
       <c r="BB31" t="s">
         <v>173</v>
       </c>
       <c r="BC31">
-        <v>17.5</v>
+        <v>15.42</v>
       </c>
       <c r="BD31">
-        <v>9.941517736389924</v>
+        <v>7.796344627710424</v>
       </c>
       <c r="BE31">
-        <v>-4.081634763179803</v>
+        <v>2.885346334393116</v>
       </c>
       <c r="BF31">
-        <v>74.07406671547625</v>
+        <v>18.23734856571461</v>
       </c>
       <c r="BG31">
-        <v>189.2307791060954</v>
+        <v>31.68124626790352</v>
       </c>
       <c r="BH31" t="s">
         <v>177</v>

--- a/market_report_2025-08-24.xlsx
+++ b/market_report_2025-08-24.xlsx
@@ -199,70 +199,73 @@
     <t>AMD</t>
   </si>
   <si>
+    <t>AES</t>
+  </si>
+  <si>
     <t>ABBV</t>
   </si>
   <si>
+    <t>ADBE</t>
+  </si>
+  <si>
+    <t>AOS</t>
+  </si>
+  <si>
     <t>AFL</t>
   </si>
   <si>
     <t>ABT</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>ACN</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>AES</t>
-  </si>
-  <si>
-    <t>AOS</t>
-  </si>
-  <si>
     <t>MMM</t>
   </si>
   <si>
-    <t>ADBE</t>
+    <t>NXT</t>
   </si>
   <si>
     <t>SPXC</t>
   </si>
   <si>
-    <t>NXT</t>
+    <t>CRDO</t>
+  </si>
+  <si>
+    <t>IONQ</t>
+  </si>
+  <si>
+    <t>GTLS</t>
+  </si>
+  <si>
+    <t>BE</t>
   </si>
   <si>
     <t>FN</t>
   </si>
   <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>CRDO</t>
-  </si>
-  <si>
-    <t>IONQ</t>
-  </si>
-  <si>
-    <t>GTLS</t>
+    <t>UMBF</t>
+  </si>
+  <si>
+    <t>ENSG</t>
   </si>
   <si>
     <t>KTOS</t>
   </si>
   <si>
-    <t>ENSG</t>
-  </si>
-  <si>
-    <t>UMBF</t>
+    <t>AACIW</t>
+  </si>
+  <si>
+    <t>AACB</t>
   </si>
   <si>
     <t>AACI</t>
   </si>
   <si>
-    <t>AACIW</t>
-  </si>
-  <si>
-    <t>AACB</t>
+    <t>AACIU</t>
   </si>
   <si>
     <t>AACBU</t>
@@ -271,126 +274,123 @@
     <t>AACBR</t>
   </si>
   <si>
-    <t>AACIU</t>
+    <t>AAOI</t>
+  </si>
+  <si>
+    <t>AAL</t>
   </si>
   <si>
     <t>AAME</t>
   </si>
   <si>
-    <t>AAOI</t>
-  </si>
-  <si>
     <t>AACG</t>
   </si>
   <si>
-    <t>AAL</t>
-  </si>
-  <si>
     <t>Technology</t>
   </si>
   <si>
+    <t>Utilities</t>
+  </si>
+  <si>
     <t>Healthcare</t>
   </si>
   <si>
+    <t>Industrials</t>
+  </si>
+  <si>
     <t>Financial Services</t>
   </si>
   <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>Industrials</t>
-  </si>
-  <si>
     <t>Consumer Defensive</t>
   </si>
   <si>
     <t>Semiconductors</t>
   </si>
   <si>
+    <t>Utilities - Diversified</t>
+  </si>
+  <si>
     <t>Drug Manufacturers - General</t>
   </si>
   <si>
+    <t>Software - Application</t>
+  </si>
+  <si>
+    <t>Specialty Industrial Machinery</t>
+  </si>
+  <si>
     <t>Insurance - Life</t>
   </si>
   <si>
     <t>Medical Devices</t>
   </si>
   <si>
+    <t>Diagnostics &amp; Research</t>
+  </si>
+  <si>
     <t>Information Technology Services</t>
   </si>
   <si>
-    <t>Diagnostics &amp; Research</t>
-  </si>
-  <si>
-    <t>Utilities - Diversified</t>
-  </si>
-  <si>
-    <t>Specialty Industrial Machinery</t>
-  </si>
-  <si>
     <t>Conglomerates</t>
   </si>
   <si>
-    <t>Software - Application</t>
+    <t>Solar</t>
   </si>
   <si>
     <t>Building Products &amp; Equipment</t>
   </si>
   <si>
-    <t>Solar</t>
+    <t>Computer Hardware</t>
+  </si>
+  <si>
+    <t>Electrical Equipment &amp; Parts</t>
   </si>
   <si>
     <t>Electronic Components</t>
   </si>
   <si>
-    <t>Electrical Equipment &amp; Parts</t>
-  </si>
-  <si>
-    <t>Computer Hardware</t>
+    <t>Banks - Regional</t>
+  </si>
+  <si>
+    <t>Medical Care Facilities</t>
   </si>
   <si>
     <t>Aerospace &amp; Defense</t>
   </si>
   <si>
-    <t>Medical Care Facilities</t>
-  </si>
-  <si>
-    <t>Banks - Regional</t>
-  </si>
-  <si>
     <t>Shell Companies</t>
   </si>
   <si>
     <t>Communication Equipment</t>
   </si>
   <si>
+    <t>Airlines</t>
+  </si>
+  <si>
     <t>Education &amp; Training Services</t>
   </si>
   <si>
-    <t>Airlines</t>
-  </si>
-  <si>
     <t>Computer &amp; Electronic Products</t>
   </si>
   <si>
     <t>Health Care &amp; Social Assistance</t>
   </si>
   <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
     <t>Finance &amp; Insurance</t>
   </si>
   <si>
     <t>Professional, Scientific &amp; Technical Services</t>
   </si>
   <si>
-    <t>Machinery</t>
-  </si>
-  <si>
     <t>Management of Companies &amp; Support Services</t>
   </si>
   <si>
-    <t>Information</t>
-  </si>
-  <si>
     <t>Fabricated Metal Products</t>
   </si>
   <si>
@@ -421,81 +421,81 @@
     <t>4.3%</t>
   </si>
   <si>
+    <t>3.3%</t>
+  </si>
+  <si>
     <t>1.9%</t>
   </si>
   <si>
+    <t>2.3%</t>
+  </si>
+  <si>
     <t>1.5%</t>
   </si>
   <si>
     <t>2.5%</t>
   </si>
   <si>
-    <t>2.3%</t>
-  </si>
-  <si>
-    <t>3.3%</t>
-  </si>
-  <si>
     <t>2.2%</t>
   </si>
   <si>
+    <t>4.8%</t>
+  </si>
+  <si>
     <t>2.6%</t>
   </si>
   <si>
-    <t>4.8%</t>
+    <t>6.2%</t>
+  </si>
+  <si>
+    <t>6.6%</t>
+  </si>
+  <si>
+    <t>1.2%</t>
   </si>
   <si>
     <t>5.3%</t>
   </si>
   <si>
-    <t>6.2%</t>
-  </si>
-  <si>
-    <t>6.6%</t>
-  </si>
-  <si>
-    <t>1.2%</t>
+    <t>10.0%</t>
+  </si>
+  <si>
+    <t>3.5%</t>
   </si>
   <si>
     <t>7.9%</t>
   </si>
   <si>
-    <t>10.0%</t>
-  </si>
-  <si>
     <t>13.3%</t>
   </si>
   <si>
-    <t>3.5%</t>
-  </si>
-  <si>
     <t>2025-11-04</t>
   </si>
   <si>
     <t>2025-07-31</t>
   </si>
   <si>
+    <t>2025-09-10 , 2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-10-21</t>
+  </si>
+  <si>
     <t>2025-11-03</t>
   </si>
   <si>
     <t>2025-07-17</t>
   </si>
   <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
     <t>2025-09-24 , 2025-09-29</t>
   </si>
   <si>
-    <t>2025-08-27</t>
-  </si>
-  <si>
-    <t>2025-10-21</t>
-  </si>
-  <si>
     <t>2025-07-18</t>
   </si>
   <si>
-    <t>2025-09-10 , 2025-09-15</t>
-  </si>
-  <si>
     <t>2025-10-29</t>
   </si>
   <si>
@@ -508,13 +508,13 @@
     <t>2025-07-29</t>
   </si>
   <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>2025-10-23</t>
+  </si>
+  <si>
     <t>2025-11-06</t>
-  </si>
-  <si>
-    <t>2025-10-23</t>
-  </si>
-  <si>
-    <t>2025-10-28</t>
   </si>
   <si>
     <t>2025-08-13</t>
@@ -1328,7 +1328,7 @@
         <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
         <v>130</v>
@@ -1337,79 +1337,79 @@
         <v>133</v>
       </c>
       <c r="G3" s="1">
-        <v>210.6</v>
+        <v>13.49</v>
       </c>
       <c r="H3">
-        <v>372.04</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="I3">
-        <v>1766.56</v>
+        <v>712.05</v>
       </c>
       <c r="J3">
-        <v>1762.95</v>
+        <v>708.04</v>
       </c>
       <c r="K3" s="1">
-        <v>193.0536</v>
+        <v>12.4076</v>
       </c>
       <c r="L3" s="2">
-        <v>0.09088874799537541</v>
+        <v>0.08723685483091007</v>
       </c>
       <c r="M3" s="1">
-        <v>188.64355</v>
+        <v>11.91885</v>
       </c>
       <c r="N3" s="2">
-        <v>0.1163912044700176</v>
+        <v>0.1318206034978206</v>
       </c>
       <c r="O3">
-        <v>161.94</v>
+        <v>19.2</v>
       </c>
       <c r="P3" s="2">
-        <v>0.3004816598740274</v>
+        <v>-0.2973958333333333</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>0.18</v>
       </c>
       <c r="R3">
-        <v>3.99</v>
+        <v>0.21</v>
       </c>
       <c r="S3">
-        <v>74.94</v>
+        <v>58.61</v>
       </c>
       <c r="T3">
-        <v>92.93000000000001</v>
+        <v>42.39</v>
       </c>
       <c r="U3">
-        <v>92.33</v>
+        <v>34.7</v>
       </c>
       <c r="V3">
-        <v>7.28</v>
+        <v>5.06</v>
       </c>
       <c r="W3">
-        <v>70.11</v>
+        <v>56.09</v>
       </c>
       <c r="X3">
-        <v>3.96</v>
+        <v>0.45</v>
       </c>
       <c r="Y3" t="s">
         <v>135</v>
       </c>
       <c r="Z3" s="1">
-        <v>208.2009963989258</v>
+        <v>18.0056666692098</v>
       </c>
       <c r="AA3" s="1">
-        <v>215.0567800315568</v>
+        <v>30.49628480239076</v>
       </c>
       <c r="AB3" s="1">
-        <v>201.3452127662947</v>
+        <v>5.515048536028832</v>
       </c>
       <c r="AC3">
-        <v>15.13</v>
+        <v>31.47</v>
       </c>
       <c r="AD3">
-        <v>2.68</v>
+        <v>1.74</v>
       </c>
       <c r="AE3" s="2">
-        <v>0.0086</v>
+        <v>0.0508</v>
       </c>
       <c r="AF3" t="s">
         <v>152</v>
@@ -1421,79 +1421,79 @@
         <v>169</v>
       </c>
       <c r="AI3">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AJ3">
+        <v>3</v>
+      </c>
+      <c r="AK3">
         <v>5</v>
       </c>
-      <c r="AK3">
-        <v>12</v>
-      </c>
       <c r="AL3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
       <c r="AO3" s="2">
-        <v>0.1851851851851852</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AP3" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="AQ3" s="2">
-        <v>0.3703703703703703</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AR3" s="2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AS3" s="2">
         <v>0</v>
       </c>
       <c r="AT3" s="2">
-        <v>0.6296296296296295</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AU3" s="2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AV3" s="1">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="AW3" s="2">
-        <v>-0.1927825261158594</v>
+        <v>-0.6293550778354337</v>
       </c>
       <c r="AX3" s="1">
-        <v>214.76923</v>
+        <v>13.83333</v>
       </c>
       <c r="AY3" s="2">
-        <v>0.01979691358024691</v>
+        <v>0.02545070422535211</v>
       </c>
       <c r="AZ3" s="1">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="BA3" s="2">
-        <v>0.2108262108262109</v>
+        <v>0.7049666419570052</v>
       </c>
       <c r="BB3" t="s">
         <v>173</v>
       </c>
       <c r="BC3">
-        <v>7.28</v>
+        <v>5.06</v>
       </c>
       <c r="BD3">
-        <v>0.5250625792437351</v>
+        <v>4.009248214213629</v>
       </c>
       <c r="BE3">
-        <v>1.891723651809335</v>
+        <v>1.352361726722233</v>
       </c>
       <c r="BF3">
-        <v>10.36000842779622</v>
+        <v>-0.9202911854068001</v>
       </c>
       <c r="BG3">
-        <v>11.20663371531632</v>
+        <v>-17.78675676131215</v>
       </c>
       <c r="BH3" t="s">
         <v>175</v>
@@ -1510,91 +1510,91 @@
         <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F4" t="s">
         <v>133</v>
       </c>
       <c r="G4" s="1">
-        <v>108.46</v>
+        <v>210.6</v>
       </c>
       <c r="H4">
-        <v>58.01</v>
+        <v>372.04</v>
       </c>
       <c r="I4">
-        <v>534.83</v>
+        <v>1766.56</v>
       </c>
       <c r="J4">
-        <v>530.2</v>
+        <v>1762.95</v>
       </c>
       <c r="K4" s="1">
-        <v>103.0472</v>
+        <v>193.0536</v>
       </c>
       <c r="L4" s="2">
-        <v>0.05252738550877646</v>
+        <v>0.09088874799537541</v>
       </c>
       <c r="M4" s="1">
-        <v>105.4095</v>
+        <v>188.64355</v>
       </c>
       <c r="N4" s="2">
-        <v>0.02893951683671775</v>
+        <v>0.1163912044700176</v>
       </c>
       <c r="O4">
-        <v>80.34999999999999</v>
+        <v>161.94</v>
       </c>
       <c r="P4" s="2">
-        <v>0.3498444306160548</v>
+        <v>0.3004816598740274</v>
       </c>
       <c r="Q4">
-        <v>1.57</v>
+        <v>5</v>
       </c>
       <c r="R4">
-        <v>0.88</v>
+        <v>3.99</v>
       </c>
       <c r="S4">
-        <v>69.63</v>
+        <v>74.94</v>
       </c>
       <c r="T4">
-        <v>93.59</v>
+        <v>92.93000000000001</v>
       </c>
       <c r="U4">
-        <v>93.09999999999999</v>
+        <v>92.33</v>
       </c>
       <c r="V4">
-        <v>6.01</v>
+        <v>7.28</v>
       </c>
       <c r="W4">
-        <v>95.23999999999999</v>
+        <v>70.11</v>
       </c>
       <c r="X4">
-        <v>1.66</v>
+        <v>3.96</v>
       </c>
       <c r="Y4" t="s">
         <v>136</v>
       </c>
       <c r="Z4" s="1">
-        <v>108.1583346048991</v>
+        <v>208.2009963989258</v>
       </c>
       <c r="AA4" s="1">
-        <v>110.3443135300622</v>
+        <v>215.0567800315568</v>
       </c>
       <c r="AB4" s="1">
-        <v>105.972355679736</v>
+        <v>201.3452127662947</v>
       </c>
       <c r="AC4">
-        <v>7.36</v>
+        <v>15.13</v>
       </c>
       <c r="AD4">
-        <v>3.46</v>
+        <v>2.68</v>
       </c>
       <c r="AE4" s="2">
-        <v>0.0139</v>
+        <v>0.0086</v>
       </c>
       <c r="AF4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG4" s="1">
         <v>3</v>
@@ -1603,79 +1603,79 @@
         <v>169</v>
       </c>
       <c r="AI4">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AJ4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AL4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="2">
-        <v>0.1538461538461539</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="AP4" s="2">
-        <v>0.07692307692307693</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AQ4" s="2">
-        <v>0.6153846153846154</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="AR4" s="2">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="2">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="2">
-        <v>0.2307692307692308</v>
+        <v>0.6296296296296295</v>
       </c>
       <c r="AU4" s="2">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="1">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="AW4" s="2">
-        <v>-0.08722109533468554</v>
+        <v>-0.1927825261158594</v>
       </c>
       <c r="AX4" s="1">
-        <v>108.07692</v>
+        <v>214.76923</v>
       </c>
       <c r="AY4" s="2">
-        <v>-0.003531993361607897</v>
+        <v>0.01979691358024691</v>
       </c>
       <c r="AZ4" s="1">
-        <v>124</v>
+        <v>255</v>
       </c>
       <c r="BA4" s="2">
-        <v>0.1432786280656464</v>
+        <v>0.2108262108262109</v>
       </c>
       <c r="BB4" t="s">
         <v>173</v>
       </c>
       <c r="BC4">
-        <v>6.01</v>
+        <v>7.28</v>
       </c>
       <c r="BD4">
-        <v>0.249557849129943</v>
+        <v>0.5250625792437351</v>
       </c>
       <c r="BE4">
-        <v>3.484278960989688</v>
+        <v>1.891723651809335</v>
       </c>
       <c r="BF4">
-        <v>6.443857951151371</v>
+        <v>10.36000842779622</v>
       </c>
       <c r="BG4">
-        <v>6.199095593886948</v>
+        <v>11.20663371531632</v>
       </c>
       <c r="BH4" t="s">
         <v>175</v>
@@ -1686,97 +1686,97 @@
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
         <v>133</v>
       </c>
       <c r="G5" s="1">
-        <v>132.59</v>
+        <v>362.09</v>
       </c>
       <c r="H5">
-        <v>230.77</v>
+        <v>153.6</v>
       </c>
       <c r="I5">
-        <v>1740.46</v>
+        <v>424.2</v>
       </c>
       <c r="J5">
-        <v>1730.23</v>
+        <v>422.97</v>
       </c>
       <c r="K5" s="1">
-        <v>131.2102</v>
+        <v>367.5244</v>
       </c>
       <c r="L5" s="2">
-        <v>0.01051595074163455</v>
+        <v>-0.01478650124998514</v>
       </c>
       <c r="M5" s="1">
-        <v>126.90365</v>
+        <v>415.8365</v>
       </c>
       <c r="N5" s="2">
-        <v>0.0448084038559963</v>
+        <v>-0.1292491159385961</v>
       </c>
       <c r="O5">
-        <v>113.83</v>
+        <v>458.38</v>
       </c>
       <c r="P5" s="2">
-        <v>0.1648071685847317</v>
+        <v>-0.2100658842008814</v>
       </c>
       <c r="Q5">
-        <v>0.55</v>
+        <v>-3.21</v>
       </c>
       <c r="R5">
-        <v>0.2</v>
+        <v>-6.07</v>
       </c>
       <c r="S5">
-        <v>56.03</v>
+        <v>53.68</v>
       </c>
       <c r="T5">
-        <v>66.62</v>
+        <v>51.57</v>
       </c>
       <c r="U5">
-        <v>69.67</v>
+        <v>40.02</v>
       </c>
       <c r="V5">
-        <v>1.27</v>
+        <v>4.77</v>
       </c>
       <c r="W5">
-        <v>45.58</v>
+        <v>55.46</v>
       </c>
       <c r="X5">
-        <v>2.57</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="Y5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Z5" s="1">
-        <v>107.6106676737467</v>
+        <v>532.4466583251952</v>
       </c>
       <c r="AA5" s="1">
-        <v>183.8281920229611</v>
+        <v>895.6610366366838</v>
       </c>
       <c r="AB5" s="1">
-        <v>31.39314332453235</v>
+        <v>169.2322800137067</v>
       </c>
       <c r="AC5">
-        <v>18.33</v>
+        <v>10.41</v>
       </c>
       <c r="AD5">
-        <v>2.44</v>
+        <v>2.98</v>
       </c>
       <c r="AE5" s="2">
-        <v>0.0106</v>
+        <v>0.024600001</v>
       </c>
       <c r="AF5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG5" s="1">
         <v>3</v>
@@ -1785,79 +1785,79 @@
         <v>169</v>
       </c>
       <c r="AI5">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AJ5">
         <v>6</v>
       </c>
       <c r="AK5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AL5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="2">
-        <v>0.2142857142857143</v>
+        <v>0.15</v>
       </c>
       <c r="AP5" s="2">
         <v>0.5</v>
       </c>
       <c r="AQ5" s="2">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="AR5" s="2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AS5" s="2">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="2">
-        <v>0.7142857142857143</v>
+        <v>0.65</v>
       </c>
       <c r="AU5" s="2">
-        <v>0.03571428571428571</v>
+        <v>0.05</v>
       </c>
       <c r="AV5" s="1">
-        <v>122</v>
+        <v>280</v>
       </c>
       <c r="AW5" s="2">
-        <v>-0.07987027679312168</v>
+        <v>-0.2267115910409014</v>
       </c>
       <c r="AX5" s="1">
-        <v>142.4848</v>
+        <v>480.63913</v>
       </c>
       <c r="AY5" s="2">
-        <v>0.07462704578022478</v>
+        <v>0.3274023861470907</v>
       </c>
       <c r="AZ5" s="1">
-        <v>159</v>
+        <v>605</v>
       </c>
       <c r="BA5" s="2">
-        <v>0.1991854589335545</v>
+        <v>0.6708553122151952</v>
       </c>
       <c r="BB5" t="s">
         <v>173</v>
       </c>
       <c r="BC5">
-        <v>1.27</v>
+        <v>4.77</v>
       </c>
       <c r="BD5">
-        <v>0.4469669226444129</v>
+        <v>2.45027412544855</v>
       </c>
       <c r="BE5">
-        <v>0.6375683779055977</v>
+        <v>2.040295930631314</v>
       </c>
       <c r="BF5">
-        <v>5.531675407517395</v>
+        <v>-2.582799117667682</v>
       </c>
       <c r="BG5">
-        <v>21.99889126608442</v>
+        <v>-35.59982279450589</v>
       </c>
       <c r="BH5" t="s">
         <v>175</v>
@@ -1868,7 +1868,7 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>100</v>
@@ -1880,85 +1880,85 @@
         <v>129</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" s="1">
-        <v>259.22</v>
+        <v>73.61</v>
       </c>
       <c r="H6">
-        <v>161.46</v>
+        <v>10.31</v>
       </c>
       <c r="I6">
-        <v>622.85</v>
+        <v>114.26</v>
       </c>
       <c r="J6">
-        <v>621.78</v>
+        <v>223.79</v>
       </c>
       <c r="K6" s="1">
-        <v>278.1116</v>
+        <v>69.066</v>
       </c>
       <c r="L6" s="2">
-        <v>-0.0679281266944636</v>
+        <v>0.06579214085078036</v>
       </c>
       <c r="M6" s="1">
-        <v>323.4465</v>
+        <v>68.44615</v>
       </c>
       <c r="N6" s="2">
-        <v>-0.1985691605876087</v>
+        <v>0.0754439804137997</v>
       </c>
       <c r="O6">
-        <v>316.43</v>
+        <v>70.70999999999999</v>
       </c>
       <c r="P6" s="2">
-        <v>-0.1807982808204026</v>
+        <v>0.04101258662141148</v>
       </c>
       <c r="Q6">
-        <v>-7.34</v>
+        <v>0.9</v>
       </c>
       <c r="R6">
-        <v>-10.2</v>
+        <v>0.9</v>
       </c>
       <c r="S6">
-        <v>48.03</v>
+        <v>62.39</v>
       </c>
       <c r="T6">
-        <v>28.65</v>
+        <v>51.37</v>
       </c>
       <c r="U6">
-        <v>19.16</v>
+        <v>42.84</v>
       </c>
       <c r="V6">
-        <v>4.72</v>
+        <v>4.32</v>
       </c>
       <c r="W6">
-        <v>43.23</v>
+        <v>47.8</v>
       </c>
       <c r="X6">
-        <v>6.38</v>
+        <v>1.4</v>
       </c>
       <c r="Y6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z6" s="1">
-        <v>244.4089991251628</v>
+        <v>70.27000172932942</v>
       </c>
       <c r="AA6" s="1">
-        <v>266.1653140137007</v>
+        <v>72.97617135179587</v>
       </c>
       <c r="AB6" s="1">
-        <v>222.6526842366248</v>
+        <v>67.56383210686298</v>
       </c>
       <c r="AC6">
-        <v>12.4</v>
+        <v>2.88</v>
       </c>
       <c r="AD6">
-        <v>3.49</v>
+        <v>1.73</v>
       </c>
       <c r="AE6" s="2">
-        <v>0.0199</v>
+        <v>0.0254</v>
       </c>
       <c r="AF6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG6" s="1">
         <v>3</v>
@@ -1967,79 +1967,79 @@
         <v>169</v>
       </c>
       <c r="AI6">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AJ6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AL6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AM6">
         <v>1</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="2">
-        <v>0.08695652173913043</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="2">
-        <v>0.5217391304347826</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AQ6" s="2">
-        <v>0.3043478260869565</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AR6" s="2">
-        <v>0.04347826086956522</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AS6" s="2">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="2">
-        <v>0.6086956521739131</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AU6" s="2">
-        <v>0.08695652173913043</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="AV6" s="1">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="AW6" s="2">
-        <v>-0.07414551346346743</v>
+        <v>-0.1169678032875968</v>
       </c>
       <c r="AX6" s="1">
-        <v>323.41</v>
+        <v>79.83333</v>
       </c>
       <c r="AY6" s="2">
-        <v>0.2476274978782501</v>
+        <v>0.08454462708871083</v>
       </c>
       <c r="AZ6" s="1">
-        <v>372</v>
+        <v>89</v>
       </c>
       <c r="BA6" s="2">
-        <v>0.4350744541316255</v>
+        <v>0.2090748539600598</v>
       </c>
       <c r="BB6" t="s">
         <v>173</v>
       </c>
       <c r="BC6">
-        <v>4.72</v>
+        <v>4.32</v>
       </c>
       <c r="BD6">
-        <v>2.05913445979268</v>
+        <v>2.592335345437718</v>
       </c>
       <c r="BE6">
-        <v>4.943122539735645</v>
+        <v>1.938791779018246</v>
       </c>
       <c r="BF6">
-        <v>-7.983383946806617</v>
+        <v>0.03387267296447476</v>
       </c>
       <c r="BG6">
-        <v>-20.09228109392805</v>
+        <v>-7.10916197785784</v>
       </c>
       <c r="BH6" t="s">
         <v>175</v>
@@ -2050,97 +2050,97 @@
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
         <v>133</v>
       </c>
       <c r="G7" s="1">
-        <v>121.63</v>
+        <v>108.46</v>
       </c>
       <c r="H7">
-        <v>34.55</v>
+        <v>58.01</v>
       </c>
       <c r="I7">
-        <v>284.06</v>
+        <v>534.83</v>
       </c>
       <c r="J7">
-        <v>283</v>
+        <v>530.2</v>
       </c>
       <c r="K7" s="1">
-        <v>117.8192</v>
+        <v>103.0472</v>
       </c>
       <c r="L7" s="2">
-        <v>0.03234447356627783</v>
+        <v>0.05252738550877646</v>
       </c>
       <c r="M7" s="1">
-        <v>124.36135</v>
+        <v>105.4095</v>
       </c>
       <c r="N7" s="2">
-        <v>-0.02196301342820745</v>
+        <v>0.02893951683671775</v>
       </c>
       <c r="O7">
-        <v>132.26</v>
+        <v>80.34999999999999</v>
       </c>
       <c r="P7" s="2">
-        <v>-0.0803719945561772</v>
+        <v>0.3498444306160548</v>
       </c>
       <c r="Q7">
-        <v>0.6899999999999999</v>
+        <v>1.57</v>
       </c>
       <c r="R7">
-        <v>0.24</v>
+        <v>0.88</v>
       </c>
       <c r="S7">
-        <v>58.66</v>
+        <v>69.63</v>
       </c>
       <c r="T7">
-        <v>73.34999999999999</v>
+        <v>93.59</v>
       </c>
       <c r="U7">
-        <v>61.47</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="V7">
-        <v>7.42</v>
+        <v>6.01</v>
       </c>
       <c r="W7">
-        <v>66.59</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="X7">
-        <v>2.74</v>
+        <v>1.66</v>
       </c>
       <c r="Y7" t="s">
         <v>138</v>
       </c>
       <c r="Z7" s="1">
-        <v>119.1213340759277</v>
+        <v>108.1583346048991</v>
       </c>
       <c r="AA7" s="1">
-        <v>122.4926823093446</v>
+        <v>110.3443135300622</v>
       </c>
       <c r="AB7" s="1">
-        <v>115.7499858425109</v>
+        <v>105.972355679736</v>
       </c>
       <c r="AC7">
-        <v>3.06</v>
+        <v>7.36</v>
       </c>
       <c r="AD7">
-        <v>1.69</v>
+        <v>3.46</v>
       </c>
       <c r="AE7" s="2">
-        <v>0.012200001</v>
+        <v>0.0139</v>
       </c>
       <c r="AF7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG7" s="1">
         <v>3</v>
@@ -2149,79 +2149,79 @@
         <v>169</v>
       </c>
       <c r="AI7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AJ7">
         <v>2</v>
       </c>
       <c r="AK7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="2">
-        <v>0.1111111111111111</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AP7" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AQ7" s="2">
-        <v>0.5555555555555556</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AR7" s="2">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AS7" s="2">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="AT7" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AU7" s="2">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AV7" s="1">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="AW7" s="2">
-        <v>-0.01340129902162292</v>
+        <v>-0.08722109533468554</v>
       </c>
       <c r="AX7" s="1">
-        <v>137.56667</v>
+        <v>108.07692</v>
       </c>
       <c r="AY7" s="2">
-        <v>0.1310258159993422</v>
+        <v>-0.003531993361607897</v>
       </c>
       <c r="AZ7" s="1">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="BA7" s="2">
-        <v>0.3565732138452685</v>
+        <v>0.1432786280656464</v>
       </c>
       <c r="BB7" t="s">
         <v>173</v>
       </c>
       <c r="BC7">
-        <v>7.42</v>
+        <v>6.01</v>
       </c>
       <c r="BD7">
-        <v>3.824153366783707</v>
+        <v>0.249557849129943</v>
       </c>
       <c r="BE7">
-        <v>2.038590912238791</v>
+        <v>3.484278960989688</v>
       </c>
       <c r="BF7">
-        <v>1.063563602430883</v>
+        <v>6.443857951151371</v>
       </c>
       <c r="BG7">
-        <v>-12.29647614443281</v>
+        <v>6.199103527337994</v>
       </c>
       <c r="BH7" t="s">
         <v>175</v>
@@ -2232,13 +2232,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
         <v>130</v>
@@ -2247,82 +2247,82 @@
         <v>133</v>
       </c>
       <c r="G8" s="1">
-        <v>13.49</v>
+        <v>132.59</v>
       </c>
       <c r="H8">
-        <v>9.609999999999999</v>
+        <v>230.77</v>
       </c>
       <c r="I8">
-        <v>712.05</v>
+        <v>1740.46</v>
       </c>
       <c r="J8">
-        <v>708.04</v>
+        <v>1730.23</v>
       </c>
       <c r="K8" s="1">
-        <v>12.4076</v>
+        <v>131.2102</v>
       </c>
       <c r="L8" s="2">
-        <v>0.08723685483091007</v>
+        <v>0.01051595074163455</v>
       </c>
       <c r="M8" s="1">
-        <v>11.91885</v>
+        <v>126.90365</v>
       </c>
       <c r="N8" s="2">
-        <v>0.1318206034978206</v>
+        <v>0.0448084038559963</v>
       </c>
       <c r="O8">
-        <v>19.2</v>
+        <v>113.83</v>
       </c>
       <c r="P8" s="2">
-        <v>-0.2973958333333333</v>
+        <v>0.1648071685847317</v>
       </c>
       <c r="Q8">
-        <v>0.18</v>
+        <v>0.55</v>
       </c>
       <c r="R8">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="S8">
-        <v>58.61</v>
+        <v>56.03</v>
       </c>
       <c r="T8">
-        <v>42.39</v>
+        <v>66.62</v>
       </c>
       <c r="U8">
-        <v>34.7</v>
+        <v>69.67</v>
       </c>
       <c r="V8">
-        <v>5.06</v>
+        <v>1.27</v>
       </c>
       <c r="W8">
-        <v>56.09</v>
+        <v>45.58</v>
       </c>
       <c r="X8">
-        <v>0.45</v>
+        <v>2.57</v>
       </c>
       <c r="Y8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Z8" s="1">
-        <v>18.0056666692098</v>
+        <v>107.6106676737467</v>
       </c>
       <c r="AA8" s="1">
-        <v>30.49628480239076</v>
+        <v>183.8281920229611</v>
       </c>
       <c r="AB8" s="1">
-        <v>5.515048536028832</v>
+        <v>31.39314332453235</v>
       </c>
       <c r="AC8">
-        <v>31.47</v>
+        <v>18.33</v>
       </c>
       <c r="AD8">
-        <v>1.74</v>
+        <v>2.44</v>
       </c>
       <c r="AE8" s="2">
-        <v>0.0508</v>
+        <v>0.0106</v>
       </c>
       <c r="AF8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AG8" s="1">
         <v>3</v>
@@ -2331,79 +2331,79 @@
         <v>169</v>
       </c>
       <c r="AI8">
+        <v>28</v>
+      </c>
+      <c r="AJ8">
+        <v>6</v>
+      </c>
+      <c r="AK8">
         <v>14</v>
       </c>
-      <c r="AJ8">
-        <v>3</v>
-      </c>
-      <c r="AK8">
-        <v>5</v>
-      </c>
       <c r="AL8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AM8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8" s="2">
         <v>0.2142857142857143</v>
       </c>
       <c r="AP8" s="2">
-        <v>0.3571428571428572</v>
+        <v>0.5</v>
       </c>
       <c r="AQ8" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="AR8" s="2">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="2">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AT8" s="2">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AU8" s="2">
-        <v>0.1428571428571428</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="AV8" s="1">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="AW8" s="2">
-        <v>-0.6293550778354337</v>
+        <v>-0.07987027679312168</v>
       </c>
       <c r="AX8" s="1">
-        <v>13.83333</v>
+        <v>142.4848</v>
       </c>
       <c r="AY8" s="2">
-        <v>0.02545070422535211</v>
+        <v>0.07462704578022478</v>
       </c>
       <c r="AZ8" s="1">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="BA8" s="2">
-        <v>0.7049666419570052</v>
+        <v>0.1991854589335545</v>
       </c>
       <c r="BB8" t="s">
         <v>173</v>
       </c>
       <c r="BC8">
-        <v>5.06</v>
+        <v>1.27</v>
       </c>
       <c r="BD8">
-        <v>4.009248214213629</v>
+        <v>0.4469669226444129</v>
       </c>
       <c r="BE8">
-        <v>1.352361726722233</v>
+        <v>0.6375683779055977</v>
       </c>
       <c r="BF8">
-        <v>-0.9202911854068001</v>
+        <v>5.531675407517395</v>
       </c>
       <c r="BG8">
-        <v>-17.78674720474859</v>
+        <v>21.99888270180058</v>
       </c>
       <c r="BH8" t="s">
         <v>175</v>
@@ -2414,94 +2414,94 @@
         <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G9" s="1">
-        <v>73.61</v>
+        <v>121.63</v>
       </c>
       <c r="H9">
-        <v>10.31</v>
+        <v>34.55</v>
       </c>
       <c r="I9">
-        <v>114.26</v>
+        <v>284.06</v>
       </c>
       <c r="J9">
-        <v>223.79</v>
+        <v>283</v>
       </c>
       <c r="K9" s="1">
-        <v>69.066</v>
+        <v>117.8192</v>
       </c>
       <c r="L9" s="2">
-        <v>0.06579214085078036</v>
+        <v>0.03234447356627783</v>
       </c>
       <c r="M9" s="1">
-        <v>68.44615</v>
+        <v>124.36135</v>
       </c>
       <c r="N9" s="2">
-        <v>0.0754439804137997</v>
+        <v>-0.02196301342820745</v>
       </c>
       <c r="O9">
-        <v>70.70999999999999</v>
+        <v>132.26</v>
       </c>
       <c r="P9" s="2">
-        <v>0.04101258662141148</v>
+        <v>-0.0803719945561772</v>
       </c>
       <c r="Q9">
-        <v>0.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R9">
-        <v>0.9</v>
+        <v>0.24</v>
       </c>
       <c r="S9">
-        <v>62.39</v>
+        <v>58.66</v>
       </c>
       <c r="T9">
-        <v>51.37</v>
+        <v>73.34999999999999</v>
       </c>
       <c r="U9">
-        <v>42.84</v>
+        <v>61.47</v>
       </c>
       <c r="V9">
-        <v>4.32</v>
+        <v>7.42</v>
       </c>
       <c r="W9">
-        <v>47.8</v>
+        <v>66.59</v>
       </c>
       <c r="X9">
-        <v>1.4</v>
+        <v>2.74</v>
       </c>
       <c r="Y9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Z9" s="1">
-        <v>70.27000172932942</v>
+        <v>119.1213340759277</v>
       </c>
       <c r="AA9" s="1">
-        <v>72.97617135179587</v>
+        <v>122.4926823093446</v>
       </c>
       <c r="AB9" s="1">
-        <v>67.56383210686298</v>
+        <v>115.7499858425109</v>
       </c>
       <c r="AC9">
-        <v>2.88</v>
+        <v>3.06</v>
       </c>
       <c r="AD9">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AE9" s="2">
-        <v>0.0254</v>
+        <v>0.012200001</v>
       </c>
       <c r="AF9" t="s">
         <v>157</v>
@@ -2513,79 +2513,79 @@
         <v>169</v>
       </c>
       <c r="AI9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL9">
         <v>10</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9">
         <v>0</v>
       </c>
       <c r="AO9" s="2">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AP9" s="2">
-        <v>0.2666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ9" s="2">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AR9" s="2">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="2">
         <v>0</v>
       </c>
       <c r="AT9" s="2">
-        <v>0.2666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AU9" s="2">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="1">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AW9" s="2">
-        <v>-0.1169678032875968</v>
+        <v>-0.01340129902162292</v>
       </c>
       <c r="AX9" s="1">
-        <v>79.83333</v>
+        <v>137.56667</v>
       </c>
       <c r="AY9" s="2">
-        <v>0.08454462708871083</v>
+        <v>0.1310258159993422</v>
       </c>
       <c r="AZ9" s="1">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="BA9" s="2">
-        <v>0.2090748539600598</v>
+        <v>0.3565732138452685</v>
       </c>
       <c r="BB9" t="s">
         <v>173</v>
       </c>
       <c r="BC9">
-        <v>4.32</v>
+        <v>7.42</v>
       </c>
       <c r="BD9">
-        <v>2.592335345437718</v>
+        <v>3.824153366783707</v>
       </c>
       <c r="BE9">
-        <v>1.938791779018246</v>
+        <v>2.038590912238791</v>
       </c>
       <c r="BF9">
-        <v>0.03387267296447476</v>
+        <v>1.063563602430883</v>
       </c>
       <c r="BG9">
-        <v>-7.10916197785784</v>
+        <v>-12.29647614443281</v>
       </c>
       <c r="BH9" t="s">
         <v>175</v>
@@ -2596,7 +2596,7 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
@@ -2611,79 +2611,79 @@
         <v>133</v>
       </c>
       <c r="G10" s="1">
-        <v>158.72</v>
+        <v>259.22</v>
       </c>
       <c r="H10">
-        <v>84.54000000000001</v>
+        <v>161.46</v>
       </c>
       <c r="I10">
-        <v>532.63</v>
+        <v>622.85</v>
       </c>
       <c r="J10">
-        <v>531.86</v>
+        <v>621.78</v>
       </c>
       <c r="K10" s="1">
-        <v>151.8338</v>
+        <v>278.1116</v>
       </c>
       <c r="L10" s="2">
-        <v>0.04535353788155208</v>
+        <v>-0.0679281266944636</v>
       </c>
       <c r="M10" s="1">
-        <v>143.593</v>
+        <v>323.4465</v>
       </c>
       <c r="N10" s="2">
-        <v>0.1053463608950298</v>
+        <v>-0.1985691605876087</v>
       </c>
       <c r="O10">
-        <v>113.19</v>
+        <v>316.43</v>
       </c>
       <c r="P10" s="2">
-        <v>0.4022440144889124</v>
+        <v>-0.1807982808204026</v>
       </c>
       <c r="Q10">
-        <v>1.25</v>
+        <v>-7.34</v>
       </c>
       <c r="R10">
-        <v>0.92</v>
+        <v>-10.2</v>
       </c>
       <c r="S10">
-        <v>60</v>
+        <v>48.03</v>
       </c>
       <c r="T10">
-        <v>69.44</v>
+        <v>28.65</v>
       </c>
       <c r="U10">
-        <v>63.47</v>
+        <v>19.16</v>
       </c>
       <c r="V10">
-        <v>5.24</v>
+        <v>4.72</v>
       </c>
       <c r="W10">
-        <v>64.48</v>
+        <v>43.23</v>
       </c>
       <c r="X10">
-        <v>3.5</v>
+        <v>6.38</v>
       </c>
       <c r="Y10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z10" s="1">
-        <v>139.7848403930664</v>
+        <v>244.4089991251628</v>
       </c>
       <c r="AA10" s="1">
-        <v>236.1444596010518</v>
+        <v>266.1653140137007</v>
       </c>
       <c r="AB10" s="1">
-        <v>43.42522118508106</v>
+        <v>222.6526842366248</v>
       </c>
       <c r="AC10">
-        <v>9.23</v>
+        <v>12.4</v>
       </c>
       <c r="AD10">
-        <v>2.28</v>
+        <v>3.49</v>
       </c>
       <c r="AE10" s="2">
-        <v>0.0174</v>
+        <v>0.0199</v>
       </c>
       <c r="AF10" t="s">
         <v>158</v>
@@ -2695,79 +2695,79 @@
         <v>169</v>
       </c>
       <c r="AI10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AJ10">
         <v>2</v>
       </c>
       <c r="AK10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AM10">
         <v>1</v>
       </c>
       <c r="AN10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO10" s="2">
-        <v>0.1111111111111111</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="AP10" s="2">
-        <v>0.5</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AQ10" s="2">
-        <v>0.2222222222222222</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="AR10" s="2">
-        <v>0.05555555555555555</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AS10" s="2">
-        <v>0.1111111111111111</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT10" s="2">
-        <v>0.6111111111111112</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="AU10" s="2">
-        <v>0.1666666666666667</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="AV10" s="1">
-        <v>101</v>
+        <v>240</v>
       </c>
       <c r="AW10" s="2">
-        <v>-0.3636592741935484</v>
+        <v>-0.07414551346346743</v>
       </c>
       <c r="AX10" s="1">
-        <v>161.14941</v>
+        <v>323.41</v>
       </c>
       <c r="AY10" s="2">
-        <v>0.01530626260080639</v>
+        <v>0.2476274978782501</v>
       </c>
       <c r="AZ10" s="1">
-        <v>187</v>
+        <v>372</v>
       </c>
       <c r="BA10" s="2">
-        <v>0.1781754032258065</v>
+        <v>0.4350744541316255</v>
       </c>
       <c r="BB10" t="s">
         <v>173</v>
       </c>
       <c r="BC10">
-        <v>5.24</v>
+        <v>4.72</v>
       </c>
       <c r="BD10">
-        <v>2.811242518864441</v>
+        <v>2.05913445979268</v>
       </c>
       <c r="BE10">
-        <v>4.153817085378027</v>
+        <v>4.943122539735645</v>
       </c>
       <c r="BF10">
-        <v>6.309442716943336</v>
+        <v>-7.983383946806617</v>
       </c>
       <c r="BG10">
-        <v>26.86392648486682</v>
+        <v>-20.09228109392805</v>
       </c>
       <c r="BH10" t="s">
         <v>175</v>
@@ -2778,7 +2778,7 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
         <v>105</v>
@@ -2793,79 +2793,79 @@
         <v>133</v>
       </c>
       <c r="G11" s="1">
-        <v>362.09</v>
+        <v>158.72</v>
       </c>
       <c r="H11">
-        <v>153.6</v>
+        <v>84.54000000000001</v>
       </c>
       <c r="I11">
-        <v>424.2</v>
+        <v>532.63</v>
       </c>
       <c r="J11">
-        <v>422.97</v>
+        <v>531.86</v>
       </c>
       <c r="K11" s="1">
-        <v>367.5244</v>
+        <v>151.8338</v>
       </c>
       <c r="L11" s="2">
-        <v>-0.01478650124998514</v>
+        <v>0.04535353788155208</v>
       </c>
       <c r="M11" s="1">
-        <v>415.8365</v>
+        <v>143.593</v>
       </c>
       <c r="N11" s="2">
-        <v>-0.1292491159385961</v>
+        <v>0.1053463608950298</v>
       </c>
       <c r="O11">
-        <v>458.38</v>
+        <v>113.19</v>
       </c>
       <c r="P11" s="2">
-        <v>-0.2100658842008814</v>
+        <v>0.4022440144889124</v>
       </c>
       <c r="Q11">
-        <v>-3.21</v>
+        <v>1.25</v>
       </c>
       <c r="R11">
-        <v>-6.07</v>
+        <v>0.92</v>
       </c>
       <c r="S11">
-        <v>53.68</v>
+        <v>60</v>
       </c>
       <c r="T11">
-        <v>51.57</v>
+        <v>69.44</v>
       </c>
       <c r="U11">
-        <v>40.02</v>
+        <v>63.47</v>
       </c>
       <c r="V11">
-        <v>4.77</v>
+        <v>5.24</v>
       </c>
       <c r="W11">
-        <v>55.46</v>
+        <v>64.48</v>
       </c>
       <c r="X11">
-        <v>8.220000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="Y11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Z11" s="1">
-        <v>532.4466583251952</v>
+        <v>139.7848403930664</v>
       </c>
       <c r="AA11" s="1">
-        <v>895.6610366366838</v>
+        <v>236.1444596010518</v>
       </c>
       <c r="AB11" s="1">
-        <v>169.2322800137067</v>
+        <v>43.42522118508106</v>
       </c>
       <c r="AC11">
-        <v>10.41</v>
+        <v>9.23</v>
       </c>
       <c r="AD11">
-        <v>2.98</v>
+        <v>2.28</v>
       </c>
       <c r="AE11" s="2">
-        <v>0.024600001</v>
+        <v>0.0174</v>
       </c>
       <c r="AF11" t="s">
         <v>159</v>
@@ -2877,79 +2877,79 @@
         <v>169</v>
       </c>
       <c r="AI11">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AJ11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AK11">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="AL11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
         <v>2</v>
       </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
       <c r="AO11" s="2">
-        <v>0.15</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AP11" s="2">
         <v>0.5</v>
       </c>
       <c r="AQ11" s="2">
-        <v>0.3</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AR11" s="2">
-        <v>0.05</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="AS11" s="2">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AT11" s="2">
-        <v>0.65</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="AU11" s="2">
-        <v>0.05</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AV11" s="1">
-        <v>280</v>
+        <v>101</v>
       </c>
       <c r="AW11" s="2">
-        <v>-0.2267115910409014</v>
+        <v>-0.3636592741935484</v>
       </c>
       <c r="AX11" s="1">
-        <v>480.63913</v>
+        <v>161.14941</v>
       </c>
       <c r="AY11" s="2">
-        <v>0.3274023861470907</v>
+        <v>0.01530626260080639</v>
       </c>
       <c r="AZ11" s="1">
-        <v>605</v>
+        <v>187</v>
       </c>
       <c r="BA11" s="2">
-        <v>0.6708553122151952</v>
+        <v>0.1781754032258065</v>
       </c>
       <c r="BB11" t="s">
         <v>173</v>
       </c>
       <c r="BC11">
-        <v>4.77</v>
+        <v>5.24</v>
       </c>
       <c r="BD11">
-        <v>2.45027412544855</v>
+        <v>2.811242518864441</v>
       </c>
       <c r="BE11">
-        <v>2.040295930631314</v>
+        <v>4.153817085378027</v>
       </c>
       <c r="BF11">
-        <v>-2.582799117667682</v>
+        <v>6.309442716943336</v>
       </c>
       <c r="BG11">
-        <v>-35.59982279450589</v>
+        <v>26.86392648486682</v>
       </c>
       <c r="BH11" t="s">
         <v>175</v>
@@ -2960,94 +2960,88 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
         <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
         <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G12" s="1">
-        <v>190.47</v>
+        <v>68.77</v>
       </c>
       <c r="H12">
-        <v>9.41</v>
+        <v>10.44</v>
       </c>
       <c r="I12">
-        <v>49.42</v>
+        <v>147.96</v>
       </c>
       <c r="J12">
-        <v>45.77</v>
+        <v>146.93</v>
       </c>
       <c r="K12" s="1">
-        <v>177.5692</v>
+        <v>60.3477</v>
       </c>
       <c r="L12" s="2">
-        <v>0.07265223923968799</v>
+        <v>0.1395628996631188</v>
       </c>
       <c r="M12" s="1">
-        <v>155.48085</v>
+        <v>48.05045</v>
       </c>
       <c r="N12" s="2">
-        <v>0.2250383246554157</v>
-      </c>
-      <c r="O12">
-        <v>100.21</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0.9007085121245386</v>
+        <v>0.4312040782136276</v>
       </c>
       <c r="Q12">
-        <v>2.82</v>
+        <v>1.59</v>
       </c>
       <c r="R12">
-        <v>4.63</v>
+        <v>0.27</v>
       </c>
       <c r="S12">
-        <v>56.54</v>
+        <v>64.78</v>
       </c>
       <c r="T12">
-        <v>39.49</v>
+        <v>55.58</v>
       </c>
       <c r="U12">
-        <v>50.53</v>
+        <v>39.77</v>
       </c>
       <c r="V12">
-        <v>-6.42</v>
+        <v>25.91</v>
       </c>
       <c r="W12">
-        <v>21.62</v>
+        <v>68.27</v>
       </c>
       <c r="X12">
-        <v>4.96</v>
+        <v>3.32</v>
       </c>
       <c r="Y12" t="s">
         <v>141</v>
       </c>
       <c r="Z12" s="1">
-        <v>199.2776641845703</v>
+        <v>65.80799916585286</v>
       </c>
       <c r="AA12" s="1">
-        <v>213.2097877823548</v>
+        <v>73.25345352351493</v>
       </c>
       <c r="AB12" s="1">
-        <v>185.3455405867859</v>
+        <v>58.36254480819079</v>
       </c>
       <c r="AC12">
-        <v>1.02</v>
+        <v>8.9</v>
       </c>
       <c r="AD12">
-        <v>3.78</v>
+        <v>3.13</v>
       </c>
       <c r="AE12" s="2">
-        <v>0.0307</v>
+        <v>0.070199996</v>
       </c>
       <c r="AF12" t="s">
         <v>160</v>
@@ -3059,79 +3053,79 @@
         <v>169</v>
       </c>
       <c r="AI12">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12">
         <v>0</v>
       </c>
       <c r="AO12" s="2">
-        <v>0</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="AP12" s="2">
-        <v>1</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="AQ12" s="2">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AR12" s="2">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="AS12" s="2">
         <v>0</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="AU12" s="2">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="AV12" s="1">
-        <v>167.5</v>
+        <v>38</v>
       </c>
       <c r="AW12" s="2">
-        <v>-0.12059641938363</v>
+        <v>-0.4474334738985022</v>
       </c>
       <c r="AX12" s="1">
-        <v>201.64285</v>
+        <v>70.68000000000001</v>
       </c>
       <c r="AY12" s="2">
-        <v>0.05865936892949027</v>
+        <v>0.02777373854878597</v>
       </c>
       <c r="AZ12" s="1">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="BA12" s="2">
-        <v>0.1917887331338269</v>
+        <v>0.4104987639959286</v>
       </c>
       <c r="BB12" t="s">
         <v>173</v>
       </c>
       <c r="BC12">
-        <v>-6.42</v>
+        <v>25.91</v>
       </c>
       <c r="BD12">
-        <v>2.249303451182933</v>
+        <v>7.386001967392559</v>
       </c>
       <c r="BE12">
-        <v>2.188959624666043</v>
+        <v>13.51930433223153</v>
       </c>
       <c r="BF12">
-        <v>8.585597881637174</v>
+        <v>8.452920373052248</v>
       </c>
       <c r="BG12">
-        <v>25.13632009671953</v>
+        <v>73.66161437609179</v>
       </c>
       <c r="BH12" t="s">
         <v>176</v>
@@ -3142,88 +3136,94 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
         <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
         <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G13" s="1">
-        <v>68.77</v>
+        <v>190.47</v>
       </c>
       <c r="H13">
-        <v>10.44</v>
+        <v>9.41</v>
       </c>
       <c r="I13">
-        <v>147.96</v>
+        <v>49.42</v>
       </c>
       <c r="J13">
-        <v>146.93</v>
+        <v>45.77</v>
       </c>
       <c r="K13" s="1">
-        <v>60.3477</v>
+        <v>177.5692</v>
       </c>
       <c r="L13" s="2">
-        <v>0.1395628996631188</v>
+        <v>0.07265223923968799</v>
       </c>
       <c r="M13" s="1">
-        <v>48.05045</v>
+        <v>155.48085</v>
       </c>
       <c r="N13" s="2">
-        <v>0.4312040782136276</v>
+        <v>0.2250383246554157</v>
+      </c>
+      <c r="O13">
+        <v>100.21</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.9007085121245386</v>
       </c>
       <c r="Q13">
-        <v>1.59</v>
+        <v>2.82</v>
       </c>
       <c r="R13">
-        <v>0.27</v>
+        <v>4.63</v>
       </c>
       <c r="S13">
-        <v>64.78</v>
+        <v>56.54</v>
       </c>
       <c r="T13">
-        <v>55.58</v>
+        <v>39.49</v>
       </c>
       <c r="U13">
-        <v>39.77</v>
+        <v>50.53</v>
       </c>
       <c r="V13">
-        <v>25.91</v>
+        <v>-6.42</v>
       </c>
       <c r="W13">
-        <v>68.27</v>
+        <v>21.62</v>
       </c>
       <c r="X13">
-        <v>3.32</v>
+        <v>4.96</v>
       </c>
       <c r="Y13" t="s">
         <v>142</v>
       </c>
       <c r="Z13" s="1">
-        <v>65.80799916585286</v>
+        <v>199.2776641845703</v>
       </c>
       <c r="AA13" s="1">
-        <v>73.25345352351493</v>
+        <v>213.2097877823548</v>
       </c>
       <c r="AB13" s="1">
-        <v>58.36254480819079</v>
+        <v>185.3455405867859</v>
       </c>
       <c r="AC13">
-        <v>8.9</v>
+        <v>1.02</v>
       </c>
       <c r="AD13">
-        <v>3.13</v>
+        <v>3.78</v>
       </c>
       <c r="AE13" s="2">
-        <v>0.070199996</v>
+        <v>0.0307</v>
       </c>
       <c r="AF13" t="s">
         <v>160</v>
@@ -3235,79 +3235,79 @@
         <v>169</v>
       </c>
       <c r="AI13">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="AJ13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AL13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="2">
         <v>1</v>
       </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>0.1923076923076923</v>
-      </c>
-      <c r="AP13" s="2">
-        <v>0.5384615384615384</v>
-      </c>
       <c r="AQ13" s="2">
-        <v>0.2307692307692308</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="2">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="2">
         <v>0</v>
       </c>
       <c r="AT13" s="2">
-        <v>0.7307692307692307</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="1">
-        <v>38</v>
+        <v>167.5</v>
       </c>
       <c r="AW13" s="2">
-        <v>-0.4474334738985022</v>
+        <v>-0.12059641938363</v>
       </c>
       <c r="AX13" s="1">
-        <v>70.68000000000001</v>
+        <v>201.64285</v>
       </c>
       <c r="AY13" s="2">
-        <v>0.02777373854878597</v>
+        <v>0.05865936892949027</v>
       </c>
       <c r="AZ13" s="1">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="BA13" s="2">
-        <v>0.4104987639959286</v>
+        <v>0.1917887331338269</v>
       </c>
       <c r="BB13" t="s">
         <v>173</v>
       </c>
       <c r="BC13">
-        <v>25.91</v>
+        <v>-6.42</v>
       </c>
       <c r="BD13">
-        <v>7.386001967392559</v>
+        <v>2.249303451182933</v>
       </c>
       <c r="BE13">
-        <v>13.51930433223153</v>
+        <v>2.188959624666043</v>
       </c>
       <c r="BF13">
-        <v>8.452920373052248</v>
+        <v>8.585597881637174</v>
       </c>
       <c r="BG13">
-        <v>73.66161437609179</v>
+        <v>25.13632009671953</v>
       </c>
       <c r="BH13" t="s">
         <v>176</v>
@@ -3321,7 +3321,7 @@
         <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
         <v>118</v>
@@ -3333,100 +3333,94 @@
         <v>132</v>
       </c>
       <c r="G14" s="1">
-        <v>294.35</v>
+        <v>114.04</v>
       </c>
       <c r="H14">
-        <v>10.52</v>
+        <v>19.57</v>
       </c>
       <c r="I14">
-        <v>35.73</v>
+        <v>171.64</v>
       </c>
       <c r="J14">
-        <v>35.54</v>
+        <v>151.53</v>
       </c>
       <c r="K14" s="1">
-        <v>300.5644</v>
+        <v>101.0322</v>
       </c>
       <c r="L14" s="2">
-        <v>-0.02067576865390564</v>
+        <v>0.1287490522823417</v>
       </c>
       <c r="M14" s="1">
-        <v>240.67375</v>
+        <v>68.32841999999999</v>
       </c>
       <c r="N14" s="2">
-        <v>0.2230249455954378</v>
-      </c>
-      <c r="O14">
-        <v>166.81</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0.7645824590851868</v>
+        <v>0.6689980538112841</v>
       </c>
       <c r="Q14">
-        <v>-1.96</v>
+        <v>3.56</v>
       </c>
       <c r="R14">
-        <v>5.66</v>
+        <v>5.4</v>
       </c>
       <c r="S14">
-        <v>43.9</v>
+        <v>54.81</v>
       </c>
       <c r="T14">
-        <v>39.58</v>
+        <v>57.73</v>
       </c>
       <c r="U14">
-        <v>56.03</v>
+        <v>69.98</v>
       </c>
       <c r="V14">
-        <v>-11.46</v>
+        <v>-2.81</v>
       </c>
       <c r="W14">
-        <v>50.43</v>
+        <v>47.13</v>
       </c>
       <c r="X14">
-        <v>15.54</v>
+        <v>7.04</v>
       </c>
       <c r="Y14" t="s">
         <v>143</v>
       </c>
       <c r="Z14" s="1">
-        <v>294.5760030110677</v>
+        <v>104.2296663920085</v>
       </c>
       <c r="AA14" s="1">
-        <v>326.1060370961656</v>
+        <v>116.3765923331417</v>
       </c>
       <c r="AB14" s="1">
-        <v>263.0459689259699</v>
+        <v>92.08274045087525</v>
       </c>
       <c r="AC14">
-        <v>1.59</v>
+        <v>7.67</v>
       </c>
       <c r="AD14">
-        <v>3.26</v>
+        <v>1.65</v>
       </c>
       <c r="AE14" s="2">
-        <v>0.0623</v>
+        <v>0.052800003</v>
       </c>
       <c r="AF14" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AG14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AI14">
+        <v>12</v>
+      </c>
+      <c r="AJ14">
+        <v>3</v>
+      </c>
+      <c r="AK14">
         <v>9</v>
       </c>
-      <c r="AJ14">
-        <v>2</v>
-      </c>
-      <c r="AK14">
-        <v>3</v>
-      </c>
       <c r="AL14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -3435,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="AO14" s="2">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="AP14" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="AQ14" s="2">
-        <v>0.4444444444444444</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="2">
         <v>0</v>
@@ -3450,46 +3444,46 @@
         <v>0</v>
       </c>
       <c r="AT14" s="2">
-        <v>0.5555555555555556</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2">
         <v>0</v>
       </c>
       <c r="AV14" s="1">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="AW14" s="2">
-        <v>-0.2525904535417021</v>
+        <v>-0.3686425815503332</v>
       </c>
       <c r="AX14" s="1">
-        <v>321.25</v>
+        <v>106.33333</v>
       </c>
       <c r="AY14" s="2">
-        <v>0.09138780363512816</v>
+        <v>-0.06757865661171521</v>
       </c>
       <c r="AZ14" s="1">
-        <v>375</v>
+        <v>140</v>
       </c>
       <c r="BA14" s="2">
-        <v>0.2739935450993714</v>
+        <v>0.2276394247632409</v>
       </c>
       <c r="BB14" t="s">
         <v>173</v>
       </c>
       <c r="BC14">
-        <v>-11.46</v>
+        <v>-2.81</v>
       </c>
       <c r="BD14">
-        <v>6.248194132504492</v>
+        <v>2.868483030550199</v>
       </c>
       <c r="BE14">
-        <v>-10.74893359659758</v>
+        <v>-2.312829362386117</v>
       </c>
       <c r="BF14">
-        <v>-3.444316808192745</v>
+        <v>12.72116534497729</v>
       </c>
       <c r="BG14">
-        <v>9.832091829670009</v>
+        <v>256.3750028610229</v>
       </c>
       <c r="BH14" t="s">
         <v>176</v>
@@ -3500,13 +3494,13 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E15" t="s">
         <v>129</v>
@@ -3515,82 +3509,82 @@
         <v>132</v>
       </c>
       <c r="G15" s="1">
-        <v>48.54</v>
+        <v>39.78</v>
       </c>
       <c r="H15">
-        <v>11.36</v>
+        <v>11.81</v>
       </c>
       <c r="I15">
-        <v>234</v>
+        <v>296.84</v>
       </c>
       <c r="J15">
-        <v>217.64</v>
+        <v>289.42</v>
       </c>
       <c r="K15" s="1">
-        <v>30.8782</v>
+        <v>41.4606</v>
       </c>
       <c r="L15" s="2">
-        <v>0.5719828228329371</v>
+        <v>-0.04053486924935959</v>
       </c>
       <c r="M15" s="1">
-        <v>23.939</v>
+        <v>34.59825</v>
       </c>
       <c r="N15" s="2">
-        <v>1.027653619616525</v>
+        <v>0.1497691357221825</v>
       </c>
       <c r="O15">
-        <v>18.5</v>
+        <v>15.13</v>
       </c>
       <c r="P15" s="2">
-        <v>1.623783783783784</v>
+        <v>1.629213483146067</v>
       </c>
       <c r="Q15">
-        <v>4.61</v>
+        <v>-0.92</v>
       </c>
       <c r="R15">
-        <v>4.35</v>
+        <v>-0.54</v>
       </c>
       <c r="S15">
-        <v>76.16</v>
+        <v>47.76</v>
       </c>
       <c r="T15">
-        <v>89.09999999999999</v>
+        <v>30.54</v>
       </c>
       <c r="U15">
-        <v>88.34</v>
+        <v>36.39</v>
       </c>
       <c r="V15">
-        <v>24.91</v>
+        <v>-3.52</v>
       </c>
       <c r="W15">
-        <v>67.56</v>
+        <v>48.6</v>
       </c>
       <c r="X15">
-        <v>3.02</v>
+        <v>2.64</v>
       </c>
       <c r="Y15" t="s">
         <v>144</v>
       </c>
       <c r="Z15" s="1">
-        <v>44.37016677856445</v>
+        <v>36.57066726684571</v>
       </c>
       <c r="AA15" s="1">
-        <v>50.00590987491284</v>
+        <v>41.1129626693033</v>
       </c>
       <c r="AB15" s="1">
-        <v>38.73442368221607</v>
+        <v>32.02837186438812</v>
       </c>
       <c r="AC15">
-        <v>46.44</v>
+        <v>34.82</v>
       </c>
       <c r="AD15">
-        <v>4.22</v>
+        <v>1.65</v>
       </c>
       <c r="AE15" s="2">
-        <v>0.28190002</v>
+        <v>0.1189</v>
       </c>
       <c r="AF15" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AG15" s="1">
         <v>3</v>
@@ -3599,79 +3593,79 @@
         <v>169</v>
       </c>
       <c r="AI15">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AJ15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AL15">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="2">
-        <v>0.1304347826086956</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AP15" s="2">
-        <v>0.3478260869565217</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AQ15" s="2">
-        <v>0.391304347826087</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AR15" s="2">
-        <v>0.08695652173913043</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="2">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="2">
-        <v>0.4782608695652174</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="AU15" s="2">
-        <v>0.1304347826086956</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="1">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AW15" s="2">
-        <v>-0.7939843428100536</v>
+        <v>-0.1955756661639015</v>
       </c>
       <c r="AX15" s="1">
-        <v>34.77</v>
+        <v>49.57143</v>
       </c>
       <c r="AY15" s="2">
-        <v>-0.2836835599505562</v>
+        <v>0.2461395173453997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="BA15" s="2">
-        <v>-0.01112484548825709</v>
+        <v>0.7596782302664655</v>
       </c>
       <c r="BB15" t="s">
         <v>173</v>
       </c>
       <c r="BC15">
-        <v>24.91</v>
+        <v>-3.52</v>
       </c>
       <c r="BD15">
-        <v>8.275705850858703</v>
+        <v>7.021793755513711</v>
       </c>
       <c r="BE15">
-        <v>7.199651555028358</v>
+        <v>-1.118570141834106</v>
       </c>
       <c r="BF15">
-        <v>46.82395311314939</v>
+        <v>-9.384971761682749</v>
       </c>
       <c r="BG15">
-        <v>321.7202428348072</v>
+        <v>451.7336833401828</v>
       </c>
       <c r="BH15" t="s">
         <v>176</v>
@@ -3682,13 +3676,13 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
         <v>129</v>
@@ -3697,76 +3691,82 @@
         <v>132</v>
       </c>
       <c r="G16" s="1">
-        <v>114.04</v>
+        <v>197.46</v>
       </c>
       <c r="H16">
-        <v>19.57</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="I16">
-        <v>171.64</v>
+        <v>44.95</v>
       </c>
       <c r="J16">
-        <v>151.53</v>
+        <v>43.91</v>
       </c>
       <c r="K16" s="1">
-        <v>101.0322</v>
+        <v>175.7406</v>
       </c>
       <c r="L16" s="2">
-        <v>0.1287490522823417</v>
+        <v>0.1235878334317739</v>
       </c>
       <c r="M16" s="1">
-        <v>68.32841999999999</v>
+        <v>172.1884</v>
       </c>
       <c r="N16" s="2">
-        <v>0.6689980538112841</v>
+        <v>0.1467671457543017</v>
+      </c>
+      <c r="O16">
+        <v>153.9</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.2830409356725146</v>
       </c>
       <c r="Q16">
-        <v>3.56</v>
+        <v>6.21</v>
       </c>
       <c r="R16">
-        <v>5.4</v>
+        <v>7.59</v>
       </c>
       <c r="S16">
-        <v>54.81</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="T16">
-        <v>57.73</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="U16">
-        <v>69.98</v>
+        <v>92.02</v>
       </c>
       <c r="V16">
-        <v>-2.81</v>
+        <v>-0.77</v>
       </c>
       <c r="W16">
-        <v>47.13</v>
+        <v>44.96</v>
       </c>
       <c r="X16">
-        <v>7.04</v>
+        <v>2.29</v>
       </c>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z16" s="1">
-        <v>104.2296663920085</v>
+        <v>194.5476689656576</v>
       </c>
       <c r="AA16" s="1">
-        <v>116.3765923331417</v>
+        <v>211.602274745569</v>
       </c>
       <c r="AB16" s="1">
-        <v>92.08274045087525</v>
+        <v>177.4930631857461</v>
       </c>
       <c r="AC16">
-        <v>7.67</v>
+        <v>3.98</v>
       </c>
       <c r="AD16">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AE16" s="2">
-        <v>0.052800003</v>
+        <v>0.1018</v>
       </c>
       <c r="AF16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG16" s="1">
         <v>3</v>
@@ -3775,16 +3775,16 @@
         <v>169</v>
       </c>
       <c r="AI16">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AJ16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="AO16" s="2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="2">
-        <v>0.75</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AQ16" s="2">
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AR16" s="2">
         <v>0</v>
@@ -3808,46 +3808,46 @@
         <v>0</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AU16" s="2">
         <v>0</v>
       </c>
       <c r="AV16" s="1">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="AW16" s="2">
-        <v>-0.3686425815503332</v>
+        <v>-0.1441304568013775</v>
       </c>
       <c r="AX16" s="1">
-        <v>106.33333</v>
+        <v>205.83333</v>
       </c>
       <c r="AY16" s="2">
-        <v>-0.06757865661171521</v>
+        <v>0.04240519598906098</v>
       </c>
       <c r="AZ16" s="1">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="BA16" s="2">
-        <v>0.2276394247632409</v>
+        <v>0.1495999189709308</v>
       </c>
       <c r="BB16" t="s">
         <v>173</v>
       </c>
       <c r="BC16">
-        <v>-2.81</v>
+        <v>-0.77</v>
       </c>
       <c r="BD16">
-        <v>2.868483030550199</v>
+        <v>-0.07084989135835187</v>
       </c>
       <c r="BE16">
-        <v>-2.312829362386117</v>
+        <v>-0.3834095964865526</v>
       </c>
       <c r="BF16">
-        <v>12.72116534497729</v>
+        <v>15.82591017273812</v>
       </c>
       <c r="BG16">
-        <v>256.3750028610229</v>
+        <v>69.52266571351637</v>
       </c>
       <c r="BH16" t="s">
         <v>176</v>
@@ -3858,13 +3858,13 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
         <v>129</v>
@@ -3873,82 +3873,82 @@
         <v>132</v>
       </c>
       <c r="G17" s="1">
-        <v>39.78</v>
+        <v>48.54</v>
       </c>
       <c r="H17">
-        <v>11.81</v>
+        <v>11.36</v>
       </c>
       <c r="I17">
-        <v>296.84</v>
+        <v>234</v>
       </c>
       <c r="J17">
-        <v>289.42</v>
+        <v>217.64</v>
       </c>
       <c r="K17" s="1">
-        <v>41.4606</v>
+        <v>30.8782</v>
       </c>
       <c r="L17" s="2">
-        <v>-0.04053486924935959</v>
+        <v>0.5719828228329371</v>
       </c>
       <c r="M17" s="1">
-        <v>34.59825</v>
+        <v>23.939</v>
       </c>
       <c r="N17" s="2">
-        <v>0.1497691357221825</v>
+        <v>1.027653619616525</v>
       </c>
       <c r="O17">
-        <v>15.13</v>
+        <v>18.5</v>
       </c>
       <c r="P17" s="2">
-        <v>1.629213483146067</v>
+        <v>1.623783783783784</v>
       </c>
       <c r="Q17">
-        <v>-0.92</v>
+        <v>4.61</v>
       </c>
       <c r="R17">
-        <v>-0.54</v>
+        <v>4.35</v>
       </c>
       <c r="S17">
-        <v>47.76</v>
+        <v>76.16</v>
       </c>
       <c r="T17">
-        <v>30.54</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="U17">
-        <v>36.39</v>
+        <v>88.34</v>
       </c>
       <c r="V17">
-        <v>-3.52</v>
+        <v>24.91</v>
       </c>
       <c r="W17">
-        <v>48.6</v>
+        <v>67.56</v>
       </c>
       <c r="X17">
-        <v>2.64</v>
+        <v>3.02</v>
       </c>
       <c r="Y17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Z17" s="1">
-        <v>36.57066726684571</v>
+        <v>44.37016677856445</v>
       </c>
       <c r="AA17" s="1">
-        <v>41.1129626693033</v>
+        <v>50.00590987491284</v>
       </c>
       <c r="AB17" s="1">
-        <v>32.02837186438812</v>
+        <v>38.73442368221607</v>
       </c>
       <c r="AC17">
-        <v>34.82</v>
+        <v>46.44</v>
       </c>
       <c r="AD17">
-        <v>1.65</v>
+        <v>4.22</v>
       </c>
       <c r="AE17" s="2">
-        <v>0.1189</v>
+        <v>0.28190002</v>
       </c>
       <c r="AF17" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AG17" s="1">
         <v>3</v>
@@ -3957,79 +3957,79 @@
         <v>169</v>
       </c>
       <c r="AI17">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AJ17">
+        <v>3</v>
+      </c>
+      <c r="AK17">
+        <v>8</v>
+      </c>
+      <c r="AL17">
+        <v>9</v>
+      </c>
+      <c r="AM17">
+        <v>2</v>
+      </c>
+      <c r="AN17">
         <v>1</v>
       </c>
-      <c r="AK17">
-        <v>4</v>
-      </c>
-      <c r="AL17">
-        <v>2</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
       <c r="AO17" s="2">
-        <v>0.1428571428571428</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="AP17" s="2">
-        <v>0.5714285714285714</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AQ17" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="AR17" s="2">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="AS17" s="2">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="AT17" s="2">
-        <v>0.7142857142857142</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="AU17" s="2">
-        <v>0</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="AV17" s="1">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AW17" s="2">
-        <v>-0.1955756661639015</v>
+        <v>-0.7939843428100536</v>
       </c>
       <c r="AX17" s="1">
-        <v>49.57143</v>
+        <v>34.77</v>
       </c>
       <c r="AY17" s="2">
-        <v>0.2461395173453997</v>
+        <v>-0.2836835599505562</v>
       </c>
       <c r="AZ17" s="1">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="BA17" s="2">
-        <v>0.7596782302664655</v>
+        <v>-0.01112484548825709</v>
       </c>
       <c r="BB17" t="s">
         <v>173</v>
       </c>
       <c r="BC17">
-        <v>-3.52</v>
+        <v>24.91</v>
       </c>
       <c r="BD17">
-        <v>7.021793755513711</v>
+        <v>8.275705850858703</v>
       </c>
       <c r="BE17">
-        <v>-1.118570141834106</v>
+        <v>7.199651555028358</v>
       </c>
       <c r="BF17">
-        <v>-9.384971761682749</v>
+        <v>46.82395311314939</v>
       </c>
       <c r="BG17">
-        <v>451.7336833401828</v>
+        <v>321.7202428348072</v>
       </c>
       <c r="BH17" t="s">
         <v>176</v>
@@ -4040,13 +4040,13 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
         <v>129</v>
@@ -4055,100 +4055,100 @@
         <v>132</v>
       </c>
       <c r="G18" s="1">
-        <v>197.46</v>
+        <v>294.35</v>
       </c>
       <c r="H18">
-        <v>8.869999999999999</v>
+        <v>10.52</v>
       </c>
       <c r="I18">
-        <v>44.95</v>
+        <v>35.73</v>
       </c>
       <c r="J18">
-        <v>43.91</v>
+        <v>35.54</v>
       </c>
       <c r="K18" s="1">
-        <v>175.7406</v>
+        <v>300.5644</v>
       </c>
       <c r="L18" s="2">
-        <v>0.1235878334317739</v>
+        <v>-0.02067576865390564</v>
       </c>
       <c r="M18" s="1">
-        <v>172.1884</v>
+        <v>240.67375</v>
       </c>
       <c r="N18" s="2">
-        <v>0.1467671457543017</v>
+        <v>0.2230249455954378</v>
       </c>
       <c r="O18">
-        <v>153.9</v>
+        <v>166.81</v>
       </c>
       <c r="P18" s="2">
-        <v>0.2830409356725146</v>
+        <v>0.7645824590851868</v>
       </c>
       <c r="Q18">
-        <v>6.21</v>
+        <v>-1.96</v>
       </c>
       <c r="R18">
-        <v>7.59</v>
+        <v>5.66</v>
       </c>
       <c r="S18">
-        <v>69.59999999999999</v>
+        <v>43.9</v>
       </c>
       <c r="T18">
-        <v>79.90000000000001</v>
+        <v>39.58</v>
       </c>
       <c r="U18">
-        <v>92.02</v>
+        <v>56.03</v>
       </c>
       <c r="V18">
-        <v>-0.77</v>
+        <v>-11.46</v>
       </c>
       <c r="W18">
-        <v>44.96</v>
+        <v>50.43</v>
       </c>
       <c r="X18">
-        <v>2.29</v>
+        <v>15.54</v>
       </c>
       <c r="Y18" t="s">
         <v>146</v>
       </c>
       <c r="Z18" s="1">
-        <v>194.5476689656576</v>
+        <v>294.5760030110677</v>
       </c>
       <c r="AA18" s="1">
-        <v>211.602274745569</v>
+        <v>326.1060370961656</v>
       </c>
       <c r="AB18" s="1">
-        <v>177.4930631857461</v>
+        <v>263.0459689259699</v>
       </c>
       <c r="AC18">
-        <v>3.98</v>
+        <v>1.59</v>
       </c>
       <c r="AD18">
-        <v>1.71</v>
+        <v>3.26</v>
       </c>
       <c r="AE18" s="2">
-        <v>0.1018</v>
+        <v>0.0623</v>
       </c>
       <c r="AF18" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AG18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI18">
+        <v>9</v>
+      </c>
+      <c r="AJ18">
+        <v>2</v>
+      </c>
+      <c r="AK18">
         <v>3</v>
       </c>
-      <c r="AH18" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI18">
-        <v>15</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>2</v>
-      </c>
       <c r="AL18">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AM18">
         <v>0</v>
@@ -4157,13 +4157,13 @@
         <v>0</v>
       </c>
       <c r="AO18" s="2">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AP18" s="2">
-        <v>0.1333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AQ18" s="2">
-        <v>0.8666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AR18" s="2">
         <v>0</v>
@@ -4172,46 +4172,46 @@
         <v>0</v>
       </c>
       <c r="AT18" s="2">
-        <v>0.1333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AU18" s="2">
         <v>0</v>
       </c>
       <c r="AV18" s="1">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="AW18" s="2">
-        <v>-0.1441304568013775</v>
+        <v>-0.2525904535417021</v>
       </c>
       <c r="AX18" s="1">
-        <v>205.83333</v>
+        <v>321.25</v>
       </c>
       <c r="AY18" s="2">
-        <v>0.04240519598906098</v>
+        <v>0.09138780363512816</v>
       </c>
       <c r="AZ18" s="1">
-        <v>227</v>
+        <v>375</v>
       </c>
       <c r="BA18" s="2">
-        <v>0.1495999189709308</v>
+        <v>0.2739935450993714</v>
       </c>
       <c r="BB18" t="s">
         <v>173</v>
       </c>
       <c r="BC18">
-        <v>-0.77</v>
+        <v>-11.46</v>
       </c>
       <c r="BD18">
-        <v>-0.07084989135835187</v>
+        <v>6.248194132504492</v>
       </c>
       <c r="BE18">
-        <v>-0.3834095964865526</v>
+        <v>-10.74893359659758</v>
       </c>
       <c r="BF18">
-        <v>15.82591017273812</v>
+        <v>-3.444316808192745</v>
       </c>
       <c r="BG18">
-        <v>69.52266571351637</v>
+        <v>9.832091829670009</v>
       </c>
       <c r="BH18" t="s">
         <v>176</v>
@@ -4228,88 +4228,88 @@
         <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
         <v>129</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="1">
-        <v>66.70999999999999</v>
+        <v>121.59</v>
       </c>
       <c r="H19">
-        <v>11.26</v>
+        <v>9.23</v>
       </c>
       <c r="I19">
-        <v>168.79</v>
+        <v>75.93000000000001</v>
       </c>
       <c r="J19">
-        <v>165.24</v>
+        <v>72.84</v>
       </c>
       <c r="K19" s="1">
-        <v>54.0824</v>
+        <v>109.0276</v>
       </c>
       <c r="L19" s="2">
-        <v>0.2334881588095202</v>
+        <v>0.1152222006170914</v>
       </c>
       <c r="M19" s="1">
-        <v>36.538</v>
+        <v>109.2984</v>
       </c>
       <c r="N19" s="2">
-        <v>0.8257704307843888</v>
+        <v>0.1124591027865001</v>
       </c>
       <c r="O19">
-        <v>20.76</v>
+        <v>89.58</v>
       </c>
       <c r="P19" s="2">
-        <v>2.213391136801541</v>
+        <v>0.3573342263898192</v>
       </c>
       <c r="Q19">
-        <v>3.59</v>
+        <v>2.53</v>
       </c>
       <c r="R19">
-        <v>4.06</v>
+        <v>1.96</v>
       </c>
       <c r="S19">
-        <v>64.34999999999999</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="T19">
-        <v>72.13</v>
+        <v>90.04000000000001</v>
       </c>
       <c r="U19">
-        <v>76.06</v>
+        <v>80.67</v>
       </c>
       <c r="V19">
-        <v>13.2</v>
+        <v>10.54</v>
       </c>
       <c r="W19">
-        <v>69.52</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="X19">
-        <v>3.56</v>
+        <v>2.76</v>
       </c>
       <c r="Y19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Z19" s="1">
-        <v>66.19133313496907</v>
+        <v>116.1600001017253</v>
       </c>
       <c r="AA19" s="1">
-        <v>72.02706258061581</v>
+        <v>120.5173690508233</v>
       </c>
       <c r="AB19" s="1">
-        <v>60.35560368932234</v>
+        <v>111.8026311526272</v>
       </c>
       <c r="AC19">
-        <v>9.91</v>
+        <v>2.11</v>
       </c>
       <c r="AD19">
-        <v>1.98</v>
+        <v>3.76</v>
       </c>
       <c r="AE19" s="2">
-        <v>0.060100004</v>
+        <v>0.032899998</v>
       </c>
       <c r="AF19" t="s">
         <v>164</v>
@@ -4321,16 +4321,16 @@
         <v>169</v>
       </c>
       <c r="AI19">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK19">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AL19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM19">
         <v>0</v>
@@ -4339,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="AO19" s="2">
-        <v>0.1333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AP19" s="2">
-        <v>0.7333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AQ19" s="2">
-        <v>0.1333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="AR19" s="2">
         <v>0</v>
@@ -4354,46 +4354,46 @@
         <v>0</v>
       </c>
       <c r="AT19" s="2">
-        <v>0.8666666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AU19" s="2">
         <v>0</v>
       </c>
       <c r="AV19" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AW19" s="2">
-        <v>-0.1005846199970019</v>
+        <v>-0.0130767332839872</v>
       </c>
       <c r="AX19" s="1">
-        <v>70.46666999999999</v>
+        <v>131.72726</v>
       </c>
       <c r="AY19" s="2">
-        <v>0.05631344625993105</v>
+        <v>0.08337248128957972</v>
       </c>
       <c r="AZ19" s="1">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="BA19" s="2">
-        <v>0.1992205066706642</v>
+        <v>0.233654083395016</v>
       </c>
       <c r="BB19" t="s">
         <v>173</v>
       </c>
       <c r="BC19">
-        <v>13.2</v>
+        <v>10.54</v>
       </c>
       <c r="BD19">
-        <v>2.979315130509994</v>
+        <v>5.556032434099359</v>
       </c>
       <c r="BE19">
-        <v>-2.613140022667655</v>
+        <v>5.656929443217297</v>
       </c>
       <c r="BF19">
-        <v>13.72314909307946</v>
+        <v>12.53122897150398</v>
       </c>
       <c r="BG19">
-        <v>220.875402341369</v>
+        <v>27.22667216753991</v>
       </c>
       <c r="BH19" t="s">
         <v>176</v>
@@ -4404,7 +4404,7 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
         <v>112</v>
@@ -4473,7 +4473,7 @@
         <v>3.29</v>
       </c>
       <c r="Y20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z20" s="1">
         <v>169.5949991861979</v>
@@ -4586,94 +4586,94 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
         <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
         <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G21" s="1">
-        <v>121.59</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="H21">
-        <v>9.23</v>
+        <v>11.26</v>
       </c>
       <c r="I21">
-        <v>75.93000000000001</v>
+        <v>168.79</v>
       </c>
       <c r="J21">
-        <v>72.84</v>
+        <v>165.24</v>
       </c>
       <c r="K21" s="1">
-        <v>109.0276</v>
+        <v>54.0824</v>
       </c>
       <c r="L21" s="2">
-        <v>0.1152222006170914</v>
+        <v>0.2334881588095202</v>
       </c>
       <c r="M21" s="1">
-        <v>109.2984</v>
+        <v>36.538</v>
       </c>
       <c r="N21" s="2">
-        <v>0.1124591027865001</v>
+        <v>0.8257704307843888</v>
       </c>
       <c r="O21">
-        <v>89.58</v>
+        <v>20.76</v>
       </c>
       <c r="P21" s="2">
-        <v>0.3573342263898192</v>
+        <v>2.213391136801541</v>
       </c>
       <c r="Q21">
-        <v>2.53</v>
+        <v>3.59</v>
       </c>
       <c r="R21">
-        <v>1.96</v>
+        <v>4.06</v>
       </c>
       <c r="S21">
-        <v>72.56999999999999</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="T21">
-        <v>90.04000000000001</v>
+        <v>72.13</v>
       </c>
       <c r="U21">
-        <v>80.67</v>
+        <v>76.06</v>
       </c>
       <c r="V21">
-        <v>10.54</v>
+        <v>13.2</v>
       </c>
       <c r="W21">
-        <v>65.73999999999999</v>
+        <v>69.52</v>
       </c>
       <c r="X21">
-        <v>2.76</v>
+        <v>3.56</v>
       </c>
       <c r="Y21" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="Z21" s="1">
-        <v>116.1600001017253</v>
+        <v>66.19133313496907</v>
       </c>
       <c r="AA21" s="1">
-        <v>120.5173690508233</v>
+        <v>72.02706258061581</v>
       </c>
       <c r="AB21" s="1">
-        <v>111.8026311526272</v>
+        <v>60.35560368932234</v>
       </c>
       <c r="AC21">
-        <v>2.11</v>
+        <v>9.91</v>
       </c>
       <c r="AD21">
-        <v>3.76</v>
+        <v>1.98</v>
       </c>
       <c r="AE21" s="2">
-        <v>0.032899998</v>
+        <v>0.060100004</v>
       </c>
       <c r="AF21" t="s">
         <v>166</v>
@@ -4685,16 +4685,16 @@
         <v>169</v>
       </c>
       <c r="AI21">
+        <v>15</v>
+      </c>
+      <c r="AJ21">
+        <v>2</v>
+      </c>
+      <c r="AK21">
         <v>11</v>
       </c>
-      <c r="AJ21">
-        <v>4</v>
-      </c>
-      <c r="AK21">
-        <v>4</v>
-      </c>
       <c r="AL21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM21">
         <v>0</v>
@@ -4703,13 +4703,13 @@
         <v>0</v>
       </c>
       <c r="AO21" s="2">
-        <v>0.3636363636363636</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AP21" s="2">
-        <v>0.3636363636363636</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="AQ21" s="2">
-        <v>0.2727272727272727</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AR21" s="2">
         <v>0</v>
@@ -4718,46 +4718,46 @@
         <v>0</v>
       </c>
       <c r="AT21" s="2">
-        <v>0.7272727272727273</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="AU21" s="2">
         <v>0</v>
       </c>
       <c r="AV21" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AW21" s="2">
-        <v>-0.0130767332839872</v>
+        <v>-0.1005846199970019</v>
       </c>
       <c r="AX21" s="1">
-        <v>131.72726</v>
+        <v>70.46666999999999</v>
       </c>
       <c r="AY21" s="2">
-        <v>0.08337248128957972</v>
+        <v>0.05631344625993105</v>
       </c>
       <c r="AZ21" s="1">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="BA21" s="2">
-        <v>0.233654083395016</v>
+        <v>0.1992205066706642</v>
       </c>
       <c r="BB21" t="s">
         <v>173</v>
       </c>
       <c r="BC21">
-        <v>10.54</v>
+        <v>13.2</v>
       </c>
       <c r="BD21">
-        <v>5.556032434099359</v>
+        <v>2.979315130509994</v>
       </c>
       <c r="BE21">
-        <v>5.656929443217297</v>
+        <v>-2.613140022667655</v>
       </c>
       <c r="BF21">
-        <v>12.53122897150398</v>
+        <v>13.72314909307946</v>
       </c>
       <c r="BG21">
-        <v>27.22668232414574</v>
+        <v>220.875402341369</v>
       </c>
       <c r="BH21" t="s">
         <v>176</v>
@@ -4768,28 +4768,22 @@
         <v>80</v>
       </c>
       <c r="G22" s="1">
-        <v>10.31</v>
-      </c>
-      <c r="H22">
-        <v>0.41</v>
+        <v>0.6702</v>
       </c>
       <c r="K22" s="1">
-        <v>10.100256</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.02076620632189923</v>
+        <v>0</v>
       </c>
       <c r="M22" s="1">
-        <v>10.100256</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0.02076620632189923</v>
+        <v>0</v>
       </c>
       <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22" s="2">
         <v>0</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>171</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -4838,17 +4832,41 @@
       <c r="A23" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
       <c r="G23" s="1">
-        <v>0.6702</v>
+        <v>10.12</v>
+      </c>
+      <c r="H23">
+        <v>0.28</v>
+      </c>
+      <c r="I23">
+        <v>22.18</v>
+      </c>
+      <c r="J23">
+        <v>22.15</v>
       </c>
       <c r="K23" s="1">
-        <v>0</v>
+        <v>10.1276</v>
+      </c>
+      <c r="L23" s="2">
+        <v>-0.000750424582329481</v>
       </c>
       <c r="M23" s="1">
+        <v>10.063209</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.005643428453090729</v>
+      </c>
+      <c r="AC23">
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AE23" s="2">
         <v>0</v>
@@ -4893,7 +4911,7 @@
         <v>-1</v>
       </c>
       <c r="BB23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BH23" t="s">
         <v>177</v>
@@ -4903,47 +4921,29 @@
       <c r="A24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" t="s">
-        <v>114</v>
-      </c>
       <c r="G24" s="1">
-        <v>10.12</v>
+        <v>10.31</v>
       </c>
       <c r="H24">
-        <v>0.28</v>
-      </c>
-      <c r="I24">
-        <v>22.18</v>
-      </c>
-      <c r="J24">
-        <v>22.15</v>
+        <v>0.41</v>
       </c>
       <c r="K24" s="1">
-        <v>10.1276</v>
+        <v>10.100256</v>
       </c>
       <c r="L24" s="2">
-        <v>-0.000750424582329481</v>
+        <v>0.02076620632189923</v>
       </c>
       <c r="M24" s="1">
-        <v>10.063209</v>
+        <v>10.100256</v>
       </c>
       <c r="N24" s="2">
-        <v>0.005643428453090729</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
+        <v>0.02076620632189923</v>
       </c>
       <c r="AD24">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="2">
         <v>0</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>171</v>
       </c>
       <c r="AI24">
         <v>0</v>
@@ -4982,7 +4982,7 @@
         <v>-1</v>
       </c>
       <c r="BB24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BH24" t="s">
         <v>177</v>
@@ -4992,41 +4992,23 @@
       <c r="A25" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" t="s">
-        <v>114</v>
-      </c>
       <c r="G25" s="1">
-        <v>10.33</v>
-      </c>
-      <c r="H25">
-        <v>0.26</v>
-      </c>
-      <c r="I25">
-        <v>25.18</v>
-      </c>
-      <c r="J25">
-        <v>22.15</v>
+        <v>10.6</v>
       </c>
       <c r="K25" s="1">
-        <v>10.3644</v>
+        <v>10.24892</v>
       </c>
       <c r="L25" s="2">
-        <v>-0.00331905368376363</v>
+        <v>0.03425531665775512</v>
       </c>
       <c r="M25" s="1">
-        <v>10.219084</v>
+        <v>10.203246</v>
       </c>
       <c r="N25" s="2">
-        <v>0.01085381038065638</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
+        <v>0.0388850763766746</v>
       </c>
       <c r="AD25">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="2">
         <v>0</v>
@@ -5071,7 +5053,7 @@
         <v>-1</v>
       </c>
       <c r="BB25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BH25" t="s">
         <v>177</v>
@@ -5081,20 +5063,41 @@
       <c r="A26" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
       <c r="G26" s="1">
-        <v>0.2168</v>
+        <v>10.33</v>
+      </c>
+      <c r="H26">
+        <v>0.26</v>
+      </c>
+      <c r="I26">
+        <v>25.18</v>
       </c>
       <c r="J26">
         <v>22.15</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>10.3644</v>
+      </c>
+      <c r="L26" s="2">
+        <v>-0.00331905368376363</v>
       </c>
       <c r="M26" s="1">
+        <v>10.219084</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.01085381038065638</v>
+      </c>
+      <c r="AC26">
         <v>0</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AE26" s="2">
         <v>0</v>
@@ -5150,19 +5153,16 @@
         <v>85</v>
       </c>
       <c r="G27" s="1">
-        <v>10.6</v>
+        <v>0.2168</v>
+      </c>
+      <c r="J27">
+        <v>22.15</v>
       </c>
       <c r="K27" s="1">
-        <v>10.24892</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0.03425531665775512</v>
+        <v>0</v>
       </c>
       <c r="M27" s="1">
-        <v>10.203246</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0.0388850763766746</v>
+        <v>0</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -5210,7 +5210,7 @@
         <v>-1</v>
       </c>
       <c r="BB27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BH27" t="s">
         <v>177</v>
@@ -5221,109 +5221,115 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
         <v>129</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G28" s="1">
-        <v>3.28</v>
+        <v>24.79</v>
       </c>
       <c r="H28">
-        <v>0.07000000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="I28">
-        <v>20.4</v>
+        <v>62.35</v>
       </c>
       <c r="J28">
-        <v>4.03</v>
+        <v>59.21</v>
       </c>
       <c r="K28" s="1">
-        <v>2.3076</v>
+        <v>24.3275</v>
       </c>
       <c r="L28" s="2">
-        <v>0.421390188940891</v>
+        <v>0.0190114068441064</v>
       </c>
       <c r="M28" s="1">
-        <v>1.75875</v>
+        <v>23.9439</v>
       </c>
       <c r="N28" s="2">
-        <v>0.864960909737029</v>
+        <v>0.03533676635802855</v>
       </c>
       <c r="O28">
-        <v>2.29</v>
+        <v>10.94</v>
       </c>
       <c r="P28" s="2">
-        <v>0.4323144104803492</v>
+        <v>1.26599634369287</v>
       </c>
       <c r="Q28">
-        <v>0.31</v>
+        <v>-0.26</v>
       </c>
       <c r="R28">
-        <v>0.22</v>
+        <v>-0.47</v>
       </c>
       <c r="S28">
-        <v>70.65000000000001</v>
+        <v>53.46</v>
       </c>
       <c r="T28">
-        <v>74.56999999999999</v>
+        <v>41.04</v>
       </c>
       <c r="U28">
-        <v>75.59999999999999</v>
+        <v>32.2</v>
       </c>
       <c r="V28">
-        <v>41.38</v>
+        <v>6.72</v>
       </c>
       <c r="W28">
-        <v>57.02</v>
+        <v>48.05</v>
       </c>
       <c r="X28">
-        <v>0.26</v>
+        <v>2.48</v>
       </c>
       <c r="Y28" t="s">
         <v>147</v>
       </c>
       <c r="Z28" s="1">
-        <v>3.127666624387105</v>
+        <v>26.88500016530355</v>
       </c>
       <c r="AA28" s="1">
-        <v>3.710225575134539</v>
+        <v>33.23950522818716</v>
       </c>
       <c r="AB28" s="1">
-        <v>2.54510767363967</v>
+        <v>20.53049510241994</v>
       </c>
       <c r="AC28">
-        <v>0.01</v>
+        <v>11.83</v>
       </c>
       <c r="AD28">
-        <v>0.48</v>
+        <v>2.65</v>
       </c>
       <c r="AE28" s="2">
-        <v>0.0029</v>
+        <v>0.19870001</v>
       </c>
       <c r="AF28" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>172</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -5331,41 +5337,62 @@
       <c r="AN28">
         <v>0</v>
       </c>
+      <c r="AO28" s="2">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="AP28" s="2">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AQ28" s="2">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AR28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>0.7142857142857142</v>
+      </c>
+      <c r="AU28" s="2">
+        <v>0</v>
+      </c>
       <c r="AV28" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AW28" s="2">
-        <v>-1</v>
+        <v>-0.3949173053650665</v>
       </c>
       <c r="AX28" s="1">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="AY28" s="2">
-        <v>-1</v>
+        <v>0.1899959661153691</v>
       </c>
       <c r="AZ28" s="1">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="BA28" s="2">
-        <v>-1</v>
+        <v>0.6538926986688182</v>
       </c>
       <c r="BB28" t="s">
         <v>173</v>
       </c>
       <c r="BC28">
-        <v>41.38</v>
+        <v>6.72</v>
       </c>
       <c r="BD28">
-        <v>1.863352243678002</v>
+        <v>4.599156613920297</v>
       </c>
       <c r="BE28">
-        <v>6.493508202528228</v>
+        <v>10.84284001442643</v>
       </c>
       <c r="BF28">
-        <v>44.49339202421577</v>
+        <v>-4.063464515712818</v>
       </c>
       <c r="BG28">
-        <v>120.5862678150934</v>
+        <v>182.3462604723599</v>
       </c>
       <c r="BH28" t="s">
         <v>177</v>
@@ -5376,97 +5403,97 @@
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G29" s="1">
-        <v>24.79</v>
+        <v>13.55</v>
       </c>
       <c r="H29">
-        <v>1.55</v>
+        <v>8.94</v>
       </c>
       <c r="I29">
-        <v>62.35</v>
+        <v>659.83</v>
       </c>
       <c r="J29">
-        <v>59.21</v>
+        <v>653.24</v>
       </c>
       <c r="K29" s="1">
-        <v>24.3275</v>
+        <v>11.8356</v>
       </c>
       <c r="L29" s="2">
-        <v>0.0190114068441064</v>
+        <v>0.144851127108047</v>
       </c>
       <c r="M29" s="1">
-        <v>23.9439</v>
+        <v>13.24845</v>
       </c>
       <c r="N29" s="2">
-        <v>0.03533676635802855</v>
+        <v>0.02276115319150547</v>
       </c>
       <c r="O29">
-        <v>10.94</v>
+        <v>14.25</v>
       </c>
       <c r="P29" s="2">
-        <v>1.26599634369287</v>
+        <v>-0.04912280701754381</v>
       </c>
       <c r="Q29">
-        <v>-0.26</v>
+        <v>0.38</v>
       </c>
       <c r="R29">
-        <v>-0.47</v>
+        <v>0.28</v>
       </c>
       <c r="S29">
-        <v>53.46</v>
+        <v>64.84999999999999</v>
       </c>
       <c r="T29">
-        <v>41.04</v>
+        <v>89.31</v>
       </c>
       <c r="U29">
-        <v>32.2</v>
+        <v>78.55</v>
       </c>
       <c r="V29">
-        <v>6.72</v>
+        <v>15.42</v>
       </c>
       <c r="W29">
-        <v>48.05</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="X29">
-        <v>2.48</v>
+        <v>0.47</v>
       </c>
       <c r="Y29" t="s">
         <v>148</v>
       </c>
       <c r="Z29" s="1">
-        <v>26.88500016530355</v>
+        <v>13.09133323033651</v>
       </c>
       <c r="AA29" s="1">
-        <v>33.23950522818716</v>
+        <v>14.15852186081059</v>
       </c>
       <c r="AB29" s="1">
-        <v>20.53049510241994</v>
+        <v>12.02414459986242</v>
       </c>
       <c r="AC29">
-        <v>11.83</v>
+        <v>62.46</v>
       </c>
       <c r="AD29">
-        <v>2.65</v>
+        <v>0.92</v>
       </c>
       <c r="AE29" s="2">
-        <v>0.19870001</v>
+        <v>0.0953</v>
       </c>
       <c r="AF29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG29" s="1">
         <v>4</v>
@@ -5475,79 +5502,79 @@
         <v>172</v>
       </c>
       <c r="AI29">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="AJ29">
         <v>3</v>
       </c>
       <c r="AK29">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AL29">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN29">
         <v>0</v>
       </c>
       <c r="AO29" s="2">
-        <v>0.4285714285714285</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="AP29" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="AQ29" s="2">
-        <v>0.2857142857142857</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="AR29" s="2">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="AS29" s="2">
         <v>0</v>
       </c>
       <c r="AT29" s="2">
-        <v>0.7142857142857142</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="AU29" s="2">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="AV29" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AW29" s="2">
-        <v>-0.3949173053650665</v>
+        <v>-0.4095940959409594</v>
       </c>
       <c r="AX29" s="1">
-        <v>29.5</v>
+        <v>13.31429</v>
       </c>
       <c r="AY29" s="2">
-        <v>0.1899959661153691</v>
+        <v>-0.01739557195571963</v>
       </c>
       <c r="AZ29" s="1">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="BA29" s="2">
-        <v>0.6538926986688182</v>
+        <v>0.4760147601476014</v>
       </c>
       <c r="BB29" t="s">
         <v>173</v>
       </c>
       <c r="BC29">
-        <v>6.72</v>
+        <v>15.42</v>
       </c>
       <c r="BD29">
-        <v>4.599156613920297</v>
+        <v>7.796344627710424</v>
       </c>
       <c r="BE29">
-        <v>10.84284001442643</v>
+        <v>2.885346334393116</v>
       </c>
       <c r="BF29">
-        <v>-4.063464515712818</v>
+        <v>18.23734856571461</v>
       </c>
       <c r="BG29">
-        <v>182.3462604723599</v>
+        <v>31.68124626790352</v>
       </c>
       <c r="BH29" t="s">
         <v>177</v>
@@ -5558,88 +5585,97 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" t="s">
+        <v>133</v>
       </c>
       <c r="G30" s="1">
-        <v>1.88</v>
+        <v>3.28</v>
       </c>
       <c r="H30">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I30">
-        <v>31.62</v>
+        <v>20.4</v>
       </c>
       <c r="J30">
-        <v>18.42</v>
+        <v>4.03</v>
       </c>
       <c r="K30" s="1">
-        <v>1.197</v>
+        <v>2.3076</v>
       </c>
       <c r="L30" s="2">
-        <v>0.5705931495405178</v>
+        <v>0.421390188940891</v>
       </c>
       <c r="M30" s="1">
-        <v>0.9891</v>
+        <v>1.75875</v>
       </c>
       <c r="N30" s="2">
-        <v>0.9007178242847032</v>
+        <v>0.864960909737029</v>
       </c>
       <c r="O30">
-        <v>1.26</v>
+        <v>2.29</v>
       </c>
       <c r="P30" s="2">
-        <v>0.492063492063492</v>
+        <v>0.4323144104803492</v>
       </c>
       <c r="Q30">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="R30">
         <v>0.22</v>
       </c>
       <c r="S30">
-        <v>57.26</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="T30">
-        <v>66.48</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="U30">
-        <v>67.61</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="V30">
-        <v>17.5</v>
+        <v>41.38</v>
       </c>
       <c r="W30">
-        <v>66.75</v>
+        <v>57.02</v>
       </c>
       <c r="X30">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="Y30" t="s">
         <v>149</v>
       </c>
       <c r="Z30" s="1">
-        <v>2.016666658719381</v>
+        <v>3.127666624387105</v>
       </c>
       <c r="AA30" s="1">
-        <v>2.292529938526825</v>
+        <v>3.710225575134539</v>
       </c>
       <c r="AB30" s="1">
-        <v>1.740803378911936</v>
+        <v>2.54510767363967</v>
       </c>
       <c r="AC30">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AD30">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="AE30" s="2">
-        <v>0.0113</v>
+        <v>0.0029</v>
       </c>
       <c r="AF30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AI30">
         <v>0</v>
@@ -5681,19 +5717,19 @@
         <v>173</v>
       </c>
       <c r="BC30">
-        <v>17.5</v>
+        <v>41.38</v>
       </c>
       <c r="BD30">
-        <v>9.941517736389924</v>
+        <v>1.863352243678002</v>
       </c>
       <c r="BE30">
-        <v>-4.081634763179803</v>
+        <v>6.493508202528228</v>
       </c>
       <c r="BF30">
-        <v>74.07406671547625</v>
+        <v>44.49339202421577</v>
       </c>
       <c r="BG30">
-        <v>189.2307791060954</v>
+        <v>120.5862678150934</v>
       </c>
       <c r="BH30" t="s">
         <v>177</v>
@@ -5704,178 +5740,142 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
         <v>117</v>
       </c>
-      <c r="D31" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" t="s">
-        <v>133</v>
-      </c>
       <c r="G31" s="1">
-        <v>13.55</v>
+        <v>1.88</v>
       </c>
       <c r="H31">
-        <v>8.94</v>
+        <v>0.06</v>
       </c>
       <c r="I31">
-        <v>659.83</v>
+        <v>31.62</v>
       </c>
       <c r="J31">
-        <v>653.24</v>
+        <v>18.42</v>
       </c>
       <c r="K31" s="1">
-        <v>11.8356</v>
+        <v>1.197</v>
       </c>
       <c r="L31" s="2">
-        <v>0.144851127108047</v>
+        <v>0.5705931495405178</v>
       </c>
       <c r="M31" s="1">
-        <v>13.24845</v>
+        <v>0.9891</v>
       </c>
       <c r="N31" s="2">
-        <v>0.02276115319150547</v>
+        <v>0.9007178242847032</v>
       </c>
       <c r="O31">
-        <v>14.25</v>
+        <v>1.26</v>
       </c>
       <c r="P31" s="2">
-        <v>-0.04912280701754381</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="Q31">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="R31">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="S31">
-        <v>64.84999999999999</v>
+        <v>57.26</v>
       </c>
       <c r="T31">
-        <v>89.31</v>
+        <v>66.48</v>
       </c>
       <c r="U31">
-        <v>78.55</v>
+        <v>67.61</v>
       </c>
       <c r="V31">
-        <v>15.42</v>
+        <v>17.5</v>
       </c>
       <c r="W31">
-        <v>67.48999999999999</v>
+        <v>66.75</v>
       </c>
       <c r="X31">
-        <v>0.47</v>
+        <v>0.25</v>
       </c>
       <c r="Y31" t="s">
         <v>150</v>
       </c>
       <c r="Z31" s="1">
-        <v>13.09133323033651</v>
+        <v>2.016666658719381</v>
       </c>
       <c r="AA31" s="1">
-        <v>14.15852186081059</v>
+        <v>2.292529938526825</v>
       </c>
       <c r="AB31" s="1">
-        <v>12.02414459986242</v>
+        <v>1.740803378911936</v>
       </c>
       <c r="AC31">
-        <v>62.46</v>
+        <v>0.09</v>
       </c>
       <c r="AD31">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="AE31" s="2">
-        <v>0.0953</v>
+        <v>0.0113</v>
       </c>
       <c r="AF31" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG31" s="1">
-        <v>4</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AI31">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AL31">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AM31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN31">
         <v>0</v>
       </c>
-      <c r="AO31" s="2">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="AP31" s="2">
-        <v>0.4090909090909091</v>
-      </c>
-      <c r="AQ31" s="2">
-        <v>0.4090909090909091</v>
-      </c>
-      <c r="AR31" s="2">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="AS31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="2">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="AU31" s="2">
-        <v>0.04545454545454546</v>
-      </c>
       <c r="AV31" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW31" s="2">
-        <v>-0.4095940959409594</v>
+        <v>-1</v>
       </c>
       <c r="AX31" s="1">
-        <v>13.31429</v>
+        <v>0</v>
       </c>
       <c r="AY31" s="2">
-        <v>-0.01739557195571963</v>
+        <v>-1</v>
       </c>
       <c r="AZ31" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="2">
-        <v>0.4760147601476014</v>
+        <v>-1</v>
       </c>
       <c r="BB31" t="s">
         <v>173</v>
       </c>
       <c r="BC31">
-        <v>15.42</v>
+        <v>17.5</v>
       </c>
       <c r="BD31">
-        <v>7.796344627710424</v>
+        <v>9.941517736389924</v>
       </c>
       <c r="BE31">
-        <v>2.885346334393116</v>
+        <v>-4.081634763179803</v>
       </c>
       <c r="BF31">
-        <v>18.23734856571461</v>
+        <v>74.07406671547625</v>
       </c>
       <c r="BG31">
-        <v>31.68124626790352</v>
+        <v>189.2307791060954</v>
       </c>
       <c r="BH31" t="s">
         <v>177</v>
